--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.4.2-us - AEO Update\InputData\trans\SYVbT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <sheet name="SYVbT-passenger" sheetId="2" r:id="rId10"/>
     <sheet name="SYVbT-freight" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4537,16 +4532,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
-    <numFmt numFmtId="168" formatCode="\(\R\)\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="###0.00_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
+    <numFmt numFmtId="167" formatCode="\(\R\)\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="###0.00_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0_)"/>
   </numFmts>
   <fonts count="55">
     <font>
@@ -5325,16 +5320,16 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="6">
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5423,7 +5418,7 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="27" borderId="0">
@@ -5560,10 +5555,10 @@
     <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5607,47 +5602,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5658,26 +5664,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="20% - Accent1 2" xfId="17"/>
@@ -5879,7 +5874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5914,7 +5909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6125,9 +6120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6481,7 +6474,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6529,7 +6522,7 @@
       </c>
       <c r="D2" s="20">
         <f>SUM('AEO 40'!D17,'AEO 40'!D29,'AEO 40'!D42,'AEO 40'!D54,'AEO 40'!D47)*10^6-'SYVbT-freight'!D2</f>
-        <v>231793900.54624858</v>
+        <v>231677631.54624858</v>
       </c>
       <c r="E2" s="20">
         <f>'AEO 40'!D18*10^6</f>
@@ -6552,16 +6545,16 @@
         <v>300</v>
       </c>
       <c r="C3" s="21">
-        <f>SUM('AEO 37'!D75:D76,'AEO 37'!D78,'AEO 37'!D83:D84,'AEO 37'!D91:D92)/'AEO 37'!D70*'NTS 1-11'!AH14</f>
-        <v>100471.6534160481</v>
+        <f>SUM('AEO 37'!D75:D76,'AEO 37'!D78,'AEO 37'!D83:D84,'AEO 37'!D91:D92)/'AEO 37'!D70*TREND('NTS 1-11'!AD14:AH14,'NTS 1-11'!AD2:AH2,2017)</f>
+        <v>103700.24212667815</v>
       </c>
       <c r="D3" s="21">
-        <f>SUM('AEO 37'!D72,'AEO 37'!D80,'AEO 37'!D88)/'AEO 37'!D70*(TREND('NTS 1-11'!AD16:AH16,'NTS 1-11'!AD2:AH2,2017))</f>
-        <v>6223.5698636186826</v>
+        <f>SUM('AEO 37'!D72,'AEO 37'!D80,'AEO 37'!D88)/'AEO 37'!D70*TREND('NTS 1-11'!AD14:AH14,'NTS 1-11'!AD2:AH2,2017)</f>
+        <v>98418.332940199572</v>
       </c>
       <c r="E3" s="20">
-        <f>SUM('AEO 37'!D74,'AEO 37'!D82,'AEO 37'!D90)/'AEO 37'!D70*(TREND('NTS 1-11'!AD16:AH16,'NTS 1-11'!AD2:AH2,2017))</f>
-        <v>50933.154069581185</v>
+        <f>SUM('AEO 37'!D74,'AEO 37'!D82,'AEO 37'!D90)/'AEO 37'!D70*TREND('NTS 1-11'!AD14:AH14,'NTS 1-11'!AD2:AH2,2017)</f>
+        <v>805447.0705338663</v>
       </c>
       <c r="F3" s="21">
         <v>0</v>
@@ -6678,9 +6671,7 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6721,12 +6712,12 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>SUM('AEO 40'!D55:D58)*10^6</f>
-        <v>196905</v>
+        <f>SUM('AEO 40'!D55:D56)*10^6</f>
+        <v>80636.000000000015</v>
       </c>
       <c r="D2" s="20">
         <f>('AEO 7'!D19/SUM('AEO 7'!D18:D19))*SUM('AEO 40'!D44,'AEO 40'!D47:D56)*10^6-SUM(B2:C2,E2:F2)</f>
-        <v>3438887.4537513941</v>
+        <v>3555156.4537513941</v>
       </c>
       <c r="E2">
         <f>SUM('AEO 40'!D43,'AEO 40'!D53)*10^6</f>
@@ -6865,7 +6856,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F3" formulaRange="1"/>
+    <ignoredError sqref="F3 C2:D2 G6" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6875,10 +6866,10 @@
   <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:E19"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -7000,50 +6991,50 @@
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1"/>
     <row r="3" spans="1:38" ht="15" customHeight="1">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="62" t="s">
         <v>971</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="62" t="s">
         <v>972</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="62" t="s">
         <v>973</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>974</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" s="59" t="s">
@@ -7062,112 +7053,112 @@
       <c r="B12" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="X12" s="85" t="s">
+      <c r="X12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Y12" s="85" t="s">
+      <c r="Y12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AA12" s="85" t="s">
+      <c r="AA12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" s="85" t="s">
+      <c r="AB12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AC12" s="85" t="s">
+      <c r="AC12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AD12" s="85" t="s">
+      <c r="AD12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AE12" s="85" t="s">
+      <c r="AE12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AF12" s="85" t="s">
+      <c r="AF12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AG12" s="85" t="s">
+      <c r="AG12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AH12" s="85" t="s">
+      <c r="AH12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AI12" s="85" t="s">
+      <c r="AI12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AJ12" s="85" t="s">
+      <c r="AJ12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AK12" s="85" t="s">
+      <c r="AK12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AL12" s="85" t="s">
+      <c r="AL12" s="63" t="s">
         <v>975</v>
       </c>
     </row>
@@ -13727,138 +13718,138 @@
     </row>
     <row r="85" spans="1:38" ht="15" customHeight="1" thickBot="1"/>
     <row r="86" spans="1:38" ht="15" customHeight="1">
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="65" t="s">
         <v>668</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="62"/>
-      <c r="S86" s="62"/>
-      <c r="T86" s="62"/>
-      <c r="U86" s="62"/>
-      <c r="V86" s="62"/>
-      <c r="W86" s="62"/>
-      <c r="X86" s="62"/>
-      <c r="Y86" s="62"/>
-      <c r="Z86" s="62"/>
-      <c r="AA86" s="62"/>
-      <c r="AB86" s="62"/>
-      <c r="AC86" s="62"/>
-      <c r="AD86" s="62"/>
-      <c r="AE86" s="62"/>
-      <c r="AF86" s="62"/>
-      <c r="AG86" s="62"/>
-      <c r="AH86" s="62"/>
-      <c r="AI86" s="62"/>
-      <c r="AJ86" s="62"/>
-      <c r="AK86" s="62"/>
-      <c r="AL86" s="62"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="65"/>
+      <c r="R86" s="65"/>
+      <c r="S86" s="65"/>
+      <c r="T86" s="65"/>
+      <c r="U86" s="65"/>
+      <c r="V86" s="65"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="65"/>
+      <c r="Y86" s="65"/>
+      <c r="Z86" s="65"/>
+      <c r="AA86" s="65"/>
+      <c r="AB86" s="65"/>
+      <c r="AC86" s="65"/>
+      <c r="AD86" s="65"/>
+      <c r="AE86" s="65"/>
+      <c r="AF86" s="65"/>
+      <c r="AG86" s="65"/>
+      <c r="AH86" s="65"/>
+      <c r="AI86" s="65"/>
+      <c r="AJ86" s="65"/>
+      <c r="AK86" s="65"/>
+      <c r="AL86" s="65"/>
     </row>
     <row r="87" spans="1:38" ht="15" customHeight="1">
-      <c r="B87" s="86" t="s">
+      <c r="B87" s="64" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="88" spans="1:38" ht="15" customHeight="1">
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="64" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="15" customHeight="1">
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="64" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="90" spans="1:38" ht="15" customHeight="1">
-      <c r="B90" s="86" t="s">
+      <c r="B90" s="64" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:38" ht="15" customHeight="1">
-      <c r="B91" s="86" t="s">
+      <c r="B91" s="64" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="92" spans="1:38" ht="15" customHeight="1">
-      <c r="B92" s="86" t="s">
+      <c r="B92" s="64" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:38" ht="15" customHeight="1">
-      <c r="B93" s="86" t="s">
+      <c r="B93" s="64" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:38" ht="15" customHeight="1">
-      <c r="B94" s="86" t="s">
+      <c r="B94" s="64" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="15" customHeight="1">
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="64" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="15" customHeight="1">
-      <c r="B96" s="86" t="s">
+      <c r="B96" s="64" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="15" customHeight="1">
-      <c r="B97" s="86" t="s">
+      <c r="B97" s="64" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1">
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="64" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1">
-      <c r="B99" s="86" t="s">
+      <c r="B99" s="64" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1">
-      <c r="B100" s="86" t="s">
+      <c r="B100" s="64" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="15" customHeight="1">
-      <c r="B101" s="86" t="s">
+      <c r="B101" s="64" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="15" customHeight="1">
-      <c r="B102" s="86" t="s">
+      <c r="B102" s="64" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="15" customHeight="1">
-      <c r="B103" s="86" t="s">
+      <c r="B103" s="64" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="15" customHeight="1">
-      <c r="B104" s="86" t="s">
+      <c r="B104" s="64" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="15" customHeight="1">
-      <c r="B105" s="86" t="s">
+      <c r="B105" s="64" t="s">
         <v>989</v>
       </c>
     </row>
@@ -14000,50 +13991,50 @@
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1"/>
     <row r="3" spans="1:38" ht="15" customHeight="1">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="62" t="s">
         <v>971</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="62" t="s">
         <v>972</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="62" t="s">
         <v>973</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>974</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" s="59" t="s">
@@ -14062,112 +14053,112 @@
       <c r="B12" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="X12" s="85" t="s">
+      <c r="X12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Y12" s="85" t="s">
+      <c r="Y12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AA12" s="85" t="s">
+      <c r="AA12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" s="85" t="s">
+      <c r="AB12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AC12" s="85" t="s">
+      <c r="AC12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AD12" s="85" t="s">
+      <c r="AD12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AE12" s="85" t="s">
+      <c r="AE12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AF12" s="85" t="s">
+      <c r="AF12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AG12" s="85" t="s">
+      <c r="AG12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AH12" s="85" t="s">
+      <c r="AH12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AI12" s="85" t="s">
+      <c r="AI12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AJ12" s="85" t="s">
+      <c r="AJ12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AK12" s="85" t="s">
+      <c r="AK12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AL12" s="85" t="s">
+      <c r="AL12" s="63" t="s">
         <v>975</v>
       </c>
     </row>
@@ -24727,113 +24718,113 @@
     </row>
     <row r="117" spans="1:38" ht="15" customHeight="1" thickBot="1"/>
     <row r="118" spans="1:38" ht="15" customHeight="1">
-      <c r="B118" s="62" t="s">
+      <c r="B118" s="65" t="s">
         <v>784</v>
       </c>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="62"/>
-      <c r="K118" s="62"/>
-      <c r="L118" s="62"/>
-      <c r="M118" s="62"/>
-      <c r="N118" s="62"/>
-      <c r="O118" s="62"/>
-      <c r="P118" s="62"/>
-      <c r="Q118" s="62"/>
-      <c r="R118" s="62"/>
-      <c r="S118" s="62"/>
-      <c r="T118" s="62"/>
-      <c r="U118" s="62"/>
-      <c r="V118" s="62"/>
-      <c r="W118" s="62"/>
-      <c r="X118" s="62"/>
-      <c r="Y118" s="62"/>
-      <c r="Z118" s="62"/>
-      <c r="AA118" s="62"/>
-      <c r="AB118" s="62"/>
-      <c r="AC118" s="62"/>
-      <c r="AD118" s="62"/>
-      <c r="AE118" s="62"/>
-      <c r="AF118" s="62"/>
-      <c r="AG118" s="62"/>
-      <c r="AH118" s="62"/>
-      <c r="AI118" s="62"/>
-      <c r="AJ118" s="62"/>
-      <c r="AK118" s="62"/>
-      <c r="AL118" s="62"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="65"/>
+      <c r="K118" s="65"/>
+      <c r="L118" s="65"/>
+      <c r="M118" s="65"/>
+      <c r="N118" s="65"/>
+      <c r="O118" s="65"/>
+      <c r="P118" s="65"/>
+      <c r="Q118" s="65"/>
+      <c r="R118" s="65"/>
+      <c r="S118" s="65"/>
+      <c r="T118" s="65"/>
+      <c r="U118" s="65"/>
+      <c r="V118" s="65"/>
+      <c r="W118" s="65"/>
+      <c r="X118" s="65"/>
+      <c r="Y118" s="65"/>
+      <c r="Z118" s="65"/>
+      <c r="AA118" s="65"/>
+      <c r="AB118" s="65"/>
+      <c r="AC118" s="65"/>
+      <c r="AD118" s="65"/>
+      <c r="AE118" s="65"/>
+      <c r="AF118" s="65"/>
+      <c r="AG118" s="65"/>
+      <c r="AH118" s="65"/>
+      <c r="AI118" s="65"/>
+      <c r="AJ118" s="65"/>
+      <c r="AK118" s="65"/>
+      <c r="AL118" s="65"/>
     </row>
     <row r="119" spans="1:38" ht="15" customHeight="1">
-      <c r="B119" s="86" t="s">
+      <c r="B119" s="64" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="120" spans="1:38" ht="15" customHeight="1">
-      <c r="B120" s="86" t="s">
+      <c r="B120" s="64" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="121" spans="1:38" ht="15" customHeight="1">
-      <c r="B121" s="86" t="s">
+      <c r="B121" s="64" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="122" spans="1:38" ht="15" customHeight="1">
-      <c r="B122" s="86" t="s">
+      <c r="B122" s="64" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="123" spans="1:38" ht="15" customHeight="1">
-      <c r="B123" s="86" t="s">
+      <c r="B123" s="64" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:38" ht="15" customHeight="1">
-      <c r="B124" s="86" t="s">
+      <c r="B124" s="64" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:38" ht="15" customHeight="1">
-      <c r="B125" s="86" t="s">
+      <c r="B125" s="64" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:38" ht="15" customHeight="1">
-      <c r="B126" s="86" t="s">
+      <c r="B126" s="64" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="127" spans="1:38" ht="15" customHeight="1">
-      <c r="B127" s="86" t="s">
+      <c r="B127" s="64" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="128" spans="1:38" ht="15" customHeight="1">
-      <c r="B128" s="86" t="s">
+      <c r="B128" s="64" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="15" customHeight="1">
-      <c r="B129" s="86" t="s">
+      <c r="B129" s="64" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="15" customHeight="1">
-      <c r="B130" s="86" t="s">
+      <c r="B130" s="64" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="15" customHeight="1">
-      <c r="B131" s="86" t="s">
+      <c r="B131" s="64" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="15" customHeight="1">
-      <c r="B132" s="86" t="s">
+      <c r="B132" s="64" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -24851,10 +24842,10 @@
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -24975,50 +24966,50 @@
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1"/>
     <row r="3" spans="1:38" ht="15" customHeight="1">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="62" t="s">
         <v>971</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="62" t="s">
         <v>972</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="62" t="s">
         <v>973</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>974</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" s="59" t="s">
@@ -25037,112 +25028,112 @@
       <c r="B12" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="X12" s="85" t="s">
+      <c r="X12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Y12" s="85" t="s">
+      <c r="Y12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AA12" s="85" t="s">
+      <c r="AA12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" s="85" t="s">
+      <c r="AB12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AC12" s="85" t="s">
+      <c r="AC12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AD12" s="85" t="s">
+      <c r="AD12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AE12" s="85" t="s">
+      <c r="AE12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AF12" s="85" t="s">
+      <c r="AF12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AG12" s="85" t="s">
+      <c r="AG12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AH12" s="85" t="s">
+      <c r="AH12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AI12" s="85" t="s">
+      <c r="AI12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AJ12" s="85" t="s">
+      <c r="AJ12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AK12" s="85" t="s">
+      <c r="AK12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AL12" s="85" t="s">
+      <c r="AL12" s="63" t="s">
         <v>975</v>
       </c>
     </row>
@@ -29816,93 +29807,93 @@
     </row>
     <row r="66" spans="1:38" ht="15" customHeight="1" thickBot="1"/>
     <row r="67" spans="1:38" ht="15" customHeight="1">
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="65" t="s">
         <v>587</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="62"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="62"/>
-      <c r="W67" s="62"/>
-      <c r="X67" s="62"/>
-      <c r="Y67" s="62"/>
-      <c r="Z67" s="62"/>
-      <c r="AA67" s="62"/>
-      <c r="AB67" s="62"/>
-      <c r="AC67" s="62"/>
-      <c r="AD67" s="62"/>
-      <c r="AE67" s="62"/>
-      <c r="AF67" s="62"/>
-      <c r="AG67" s="62"/>
-      <c r="AH67" s="62"/>
-      <c r="AI67" s="62"/>
-      <c r="AJ67" s="62"/>
-      <c r="AK67" s="62"/>
-      <c r="AL67" s="62"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="65"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="65"/>
+      <c r="V67" s="65"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="65"/>
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="65"/>
+      <c r="AA67" s="65"/>
+      <c r="AB67" s="65"/>
+      <c r="AC67" s="65"/>
+      <c r="AD67" s="65"/>
+      <c r="AE67" s="65"/>
+      <c r="AF67" s="65"/>
+      <c r="AG67" s="65"/>
+      <c r="AH67" s="65"/>
+      <c r="AI67" s="65"/>
+      <c r="AJ67" s="65"/>
+      <c r="AK67" s="65"/>
+      <c r="AL67" s="65"/>
     </row>
     <row r="68" spans="1:38" ht="15" customHeight="1">
-      <c r="B68" s="86" t="s">
+      <c r="B68" s="64" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:38" ht="15" customHeight="1">
-      <c r="B69" s="86" t="s">
+      <c r="B69" s="64" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:38" ht="15" customHeight="1">
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="64" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="71" spans="1:38" ht="15" customHeight="1">
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="64" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="72" spans="1:38" ht="15" customHeight="1">
-      <c r="B72" s="86" t="s">
+      <c r="B72" s="64" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="73" spans="1:38" ht="15" customHeight="1">
-      <c r="B73" s="86" t="s">
+      <c r="B73" s="64" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="74" spans="1:38" ht="15" customHeight="1">
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="64" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="15" customHeight="1">
-      <c r="B75" s="86" t="s">
+      <c r="B75" s="64" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="15" customHeight="1">
-      <c r="B76" s="86" t="s">
+      <c r="B76" s="64" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="77" spans="1:38" ht="15" customHeight="1">
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="64" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -30044,50 +30035,50 @@
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1"/>
     <row r="3" spans="1:38" ht="15" customHeight="1">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="62" t="s">
         <v>971</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="62" t="s">
         <v>972</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="62" t="s">
         <v>973</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>974</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" s="59" t="s">
@@ -30106,112 +30097,112 @@
       <c r="B12" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="X12" s="85" t="s">
+      <c r="X12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Y12" s="85" t="s">
+      <c r="Y12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AA12" s="85" t="s">
+      <c r="AA12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" s="85" t="s">
+      <c r="AB12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AC12" s="85" t="s">
+      <c r="AC12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AD12" s="85" t="s">
+      <c r="AD12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AE12" s="85" t="s">
+      <c r="AE12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AF12" s="85" t="s">
+      <c r="AF12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AG12" s="85" t="s">
+      <c r="AG12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AH12" s="85" t="s">
+      <c r="AH12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AI12" s="85" t="s">
+      <c r="AI12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AJ12" s="85" t="s">
+      <c r="AJ12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AK12" s="85" t="s">
+      <c r="AK12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AL12" s="85" t="s">
+      <c r="AL12" s="63" t="s">
         <v>975</v>
       </c>
     </row>
@@ -50418,48 +50409,48 @@
       </c>
     </row>
     <row r="198" spans="1:38" ht="15" customHeight="1">
-      <c r="B198" s="62" t="s">
+      <c r="B198" s="65" t="s">
         <v>1016</v>
       </c>
-      <c r="C198" s="62"/>
-      <c r="D198" s="62"/>
-      <c r="E198" s="62"/>
-      <c r="F198" s="62"/>
-      <c r="G198" s="62"/>
-      <c r="H198" s="62"/>
-      <c r="I198" s="62"/>
-      <c r="J198" s="62"/>
-      <c r="K198" s="62"/>
-      <c r="L198" s="62"/>
-      <c r="M198" s="62"/>
-      <c r="N198" s="62"/>
-      <c r="O198" s="62"/>
-      <c r="P198" s="62"/>
-      <c r="Q198" s="62"/>
-      <c r="R198" s="62"/>
-      <c r="S198" s="62"/>
-      <c r="T198" s="62"/>
-      <c r="U198" s="62"/>
-      <c r="V198" s="62"/>
-      <c r="W198" s="62"/>
-      <c r="X198" s="62"/>
-      <c r="Y198" s="62"/>
-      <c r="Z198" s="62"/>
-      <c r="AA198" s="62"/>
-      <c r="AB198" s="62"/>
-      <c r="AC198" s="62"/>
-      <c r="AD198" s="62"/>
-      <c r="AE198" s="62"/>
-      <c r="AF198" s="62"/>
-      <c r="AG198" s="62"/>
-      <c r="AH198" s="62"/>
-      <c r="AI198" s="62"/>
-      <c r="AJ198" s="62"/>
-      <c r="AK198" s="62"/>
-      <c r="AL198" s="62"/>
+      <c r="C198" s="65"/>
+      <c r="D198" s="65"/>
+      <c r="E198" s="65"/>
+      <c r="F198" s="65"/>
+      <c r="G198" s="65"/>
+      <c r="H198" s="65"/>
+      <c r="I198" s="65"/>
+      <c r="J198" s="65"/>
+      <c r="K198" s="65"/>
+      <c r="L198" s="65"/>
+      <c r="M198" s="65"/>
+      <c r="N198" s="65"/>
+      <c r="O198" s="65"/>
+      <c r="P198" s="65"/>
+      <c r="Q198" s="65"/>
+      <c r="R198" s="65"/>
+      <c r="S198" s="65"/>
+      <c r="T198" s="65"/>
+      <c r="U198" s="65"/>
+      <c r="V198" s="65"/>
+      <c r="W198" s="65"/>
+      <c r="X198" s="65"/>
+      <c r="Y198" s="65"/>
+      <c r="Z198" s="65"/>
+      <c r="AA198" s="65"/>
+      <c r="AB198" s="65"/>
+      <c r="AC198" s="65"/>
+      <c r="AD198" s="65"/>
+      <c r="AE198" s="65"/>
+      <c r="AF198" s="65"/>
+      <c r="AG198" s="65"/>
+      <c r="AH198" s="65"/>
+      <c r="AI198" s="65"/>
+      <c r="AJ198" s="65"/>
+      <c r="AK198" s="65"/>
+      <c r="AL198" s="65"/>
     </row>
     <row r="199" spans="1:38" ht="15" customHeight="1">
-      <c r="B199" s="86" t="s">
+      <c r="B199" s="64" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -50601,50 +50592,50 @@
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1"/>
     <row r="3" spans="1:38" ht="15" customHeight="1">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="62" t="s">
         <v>971</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="62" t="s">
         <v>972</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="62" t="s">
         <v>973</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>974</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" s="59" t="s">
@@ -50663,112 +50654,112 @@
       <c r="B12" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="X12" s="85" t="s">
+      <c r="X12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Y12" s="85" t="s">
+      <c r="Y12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AA12" s="85" t="s">
+      <c r="AA12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" s="85" t="s">
+      <c r="AB12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AC12" s="85" t="s">
+      <c r="AC12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AD12" s="85" t="s">
+      <c r="AD12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AE12" s="85" t="s">
+      <c r="AE12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AF12" s="85" t="s">
+      <c r="AF12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AG12" s="85" t="s">
+      <c r="AG12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AH12" s="85" t="s">
+      <c r="AH12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AI12" s="85" t="s">
+      <c r="AI12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AJ12" s="85" t="s">
+      <c r="AJ12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AK12" s="85" t="s">
+      <c r="AK12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AL12" s="85" t="s">
+      <c r="AL12" s="63" t="s">
         <v>975</v>
       </c>
     </row>
@@ -75877,98 +75868,98 @@
     </row>
     <row r="274" spans="1:38" ht="15" customHeight="1" thickBot="1"/>
     <row r="275" spans="1:38" ht="15" customHeight="1">
-      <c r="B275" s="62" t="s">
+      <c r="B275" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="C275" s="62"/>
-      <c r="D275" s="62"/>
-      <c r="E275" s="62"/>
-      <c r="F275" s="62"/>
-      <c r="G275" s="62"/>
-      <c r="H275" s="62"/>
-      <c r="I275" s="62"/>
-      <c r="J275" s="62"/>
-      <c r="K275" s="62"/>
-      <c r="L275" s="62"/>
-      <c r="M275" s="62"/>
-      <c r="N275" s="62"/>
-      <c r="O275" s="62"/>
-      <c r="P275" s="62"/>
-      <c r="Q275" s="62"/>
-      <c r="R275" s="62"/>
-      <c r="S275" s="62"/>
-      <c r="T275" s="62"/>
-      <c r="U275" s="62"/>
-      <c r="V275" s="62"/>
-      <c r="W275" s="62"/>
-      <c r="X275" s="62"/>
-      <c r="Y275" s="62"/>
-      <c r="Z275" s="62"/>
-      <c r="AA275" s="62"/>
-      <c r="AB275" s="62"/>
-      <c r="AC275" s="62"/>
-      <c r="AD275" s="62"/>
-      <c r="AE275" s="62"/>
-      <c r="AF275" s="62"/>
-      <c r="AG275" s="62"/>
-      <c r="AH275" s="62"/>
-      <c r="AI275" s="62"/>
-      <c r="AJ275" s="62"/>
-      <c r="AK275" s="62"/>
-      <c r="AL275" s="62"/>
+      <c r="C275" s="65"/>
+      <c r="D275" s="65"/>
+      <c r="E275" s="65"/>
+      <c r="F275" s="65"/>
+      <c r="G275" s="65"/>
+      <c r="H275" s="65"/>
+      <c r="I275" s="65"/>
+      <c r="J275" s="65"/>
+      <c r="K275" s="65"/>
+      <c r="L275" s="65"/>
+      <c r="M275" s="65"/>
+      <c r="N275" s="65"/>
+      <c r="O275" s="65"/>
+      <c r="P275" s="65"/>
+      <c r="Q275" s="65"/>
+      <c r="R275" s="65"/>
+      <c r="S275" s="65"/>
+      <c r="T275" s="65"/>
+      <c r="U275" s="65"/>
+      <c r="V275" s="65"/>
+      <c r="W275" s="65"/>
+      <c r="X275" s="65"/>
+      <c r="Y275" s="65"/>
+      <c r="Z275" s="65"/>
+      <c r="AA275" s="65"/>
+      <c r="AB275" s="65"/>
+      <c r="AC275" s="65"/>
+      <c r="AD275" s="65"/>
+      <c r="AE275" s="65"/>
+      <c r="AF275" s="65"/>
+      <c r="AG275" s="65"/>
+      <c r="AH275" s="65"/>
+      <c r="AI275" s="65"/>
+      <c r="AJ275" s="65"/>
+      <c r="AK275" s="65"/>
+      <c r="AL275" s="65"/>
     </row>
     <row r="276" spans="1:38" ht="15" customHeight="1">
-      <c r="B276" s="86" t="s">
+      <c r="B276" s="64" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="277" spans="1:38" ht="15" customHeight="1">
-      <c r="B277" s="86" t="s">
+      <c r="B277" s="64" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="278" spans="1:38" ht="15" customHeight="1">
-      <c r="B278" s="86" t="s">
+      <c r="B278" s="64" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="279" spans="1:38" ht="15" customHeight="1">
-      <c r="B279" s="86" t="s">
+      <c r="B279" s="64" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="280" spans="1:38" ht="15" customHeight="1">
-      <c r="B280" s="86" t="s">
+      <c r="B280" s="64" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="281" spans="1:38" ht="15" customHeight="1">
-      <c r="B281" s="86" t="s">
+      <c r="B281" s="64" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="282" spans="1:38" ht="15" customHeight="1">
-      <c r="B282" s="86" t="s">
+      <c r="B282" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="283" spans="1:38" ht="15" customHeight="1">
-      <c r="B283" s="86" t="s">
+      <c r="B283" s="64" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="284" spans="1:38" ht="15" customHeight="1">
-      <c r="B284" s="86" t="s">
+      <c r="B284" s="64" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="285" spans="1:38" ht="15" customHeight="1">
-      <c r="B285" s="86" t="s">
+      <c r="B285" s="64" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="286" spans="1:38" ht="15" customHeight="1">
-      <c r="B286" s="86" t="s">
+      <c r="B286" s="64" t="s">
         <v>989</v>
       </c>
     </row>
@@ -75988,11 +75979,11 @@
   </sheetPr>
   <dimension ref="A1:AH121"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH25" sqref="AC25:AH25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="35" style="23" customWidth="1"/>
     <col min="2" max="3" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
@@ -76003,42 +75994,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
     </row>
     <row r="2" spans="1:34" s="28" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="24"/>
@@ -79205,24 +79196,24 @@
       </c>
     </row>
     <row r="35" spans="1:34" s="50" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="71" t="s">
         <v>949</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="49"/>
       <c r="R35" s="49"/>
       <c r="S35" s="49"/>
@@ -79239,1519 +79230,1519 @@
       <c r="AE35" s="51"/>
     </row>
     <row r="36" spans="1:34" s="50" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
       <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:34" s="53" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="68" t="s">
         <v>549</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
     </row>
     <row r="38" spans="1:34" s="53" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="69" t="s">
         <v>548</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
     </row>
     <row r="39" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="70" t="s">
         <v>950</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
     </row>
     <row r="40" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="69" t="s">
         <v>547</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
     </row>
     <row r="41" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
     </row>
     <row r="42" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
     </row>
     <row r="43" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
     </row>
     <row r="44" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="70" t="s">
         <v>543</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
     </row>
     <row r="45" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="78" t="s">
         <v>542</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
     </row>
     <row r="46" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="69" t="s">
         <v>541</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
     </row>
     <row r="47" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
     </row>
     <row r="48" spans="1:34" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="69" t="s">
         <v>539</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
     </row>
     <row r="49" spans="1:16" s="53" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
     </row>
     <row r="50" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="69" t="s">
         <v>537</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
     </row>
     <row r="51" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
     </row>
     <row r="52" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
     </row>
     <row r="53" spans="1:16" s="53" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="78" t="s">
         <v>951</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
     </row>
     <row r="54" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="65" t="s">
+      <c r="A54" s="80" t="s">
         <v>535</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
     </row>
     <row r="55" spans="1:16" s="53" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="81" t="s">
         <v>534</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
     </row>
     <row r="56" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
     </row>
     <row r="57" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="80" t="s">
         <v>532</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
     </row>
     <row r="58" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
     </row>
     <row r="59" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="82"/>
     </row>
     <row r="60" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
     </row>
     <row r="61" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="67" t="s">
         <v>529</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
     </row>
     <row r="62" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
     </row>
     <row r="63" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="84" t="s">
         <v>527</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="73"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
     </row>
     <row r="64" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="73" t="s">
         <v>526</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
     </row>
     <row r="65" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
     </row>
     <row r="66" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="63" t="s">
+      <c r="A66" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
     </row>
     <row r="67" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="73" t="s">
         <v>952</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
     </row>
     <row r="68" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="68" t="s">
+      <c r="A68" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
     </row>
     <row r="69" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="73" t="s">
         <v>522</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
     </row>
     <row r="70" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="63" t="s">
+      <c r="A70" s="73" t="s">
         <v>521</v>
       </c>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
     </row>
     <row r="71" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="73" t="s">
         <v>520</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
     </row>
     <row r="72" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="63" t="s">
+      <c r="A72" s="73" t="s">
         <v>519</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="63"/>
-      <c r="N72" s="63"/>
-      <c r="O72" s="63"/>
-      <c r="P72" s="63"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
     </row>
     <row r="73" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="73" t="s">
         <v>953</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
     </row>
     <row r="74" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="70"/>
-      <c r="O74" s="70"/>
-      <c r="P74" s="70"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
     </row>
     <row r="75" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="72" t="s">
         <v>517</v>
       </c>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
     </row>
     <row r="76" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="80" t="s">
         <v>516</v>
       </c>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="65"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="65"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="80"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
     </row>
     <row r="77" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="77" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-      <c r="P77" s="69"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
     </row>
     <row r="78" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="76" t="s">
         <v>515</v>
       </c>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="76"/>
+      <c r="O78" s="76"/>
+      <c r="P78" s="76"/>
     </row>
     <row r="79" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="77" t="s">
         <v>954</v>
       </c>
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="69"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="69"/>
-      <c r="O79" s="69"/>
-      <c r="P79" s="69"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="77"/>
+      <c r="M79" s="77"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="77"/>
     </row>
     <row r="80" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="68" t="s">
+      <c r="A80" s="72" t="s">
         <v>514</v>
       </c>
-      <c r="B80" s="68"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
-      <c r="N80" s="68"/>
-      <c r="O80" s="68"/>
-      <c r="P80" s="68"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="72"/>
+      <c r="L80" s="72"/>
+      <c r="M80" s="72"/>
+      <c r="N80" s="72"/>
+      <c r="O80" s="72"/>
+      <c r="P80" s="72"/>
     </row>
     <row r="81" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="65" t="s">
+      <c r="A81" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="65"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="65"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="80"/>
     </row>
     <row r="82" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="69" t="s">
+      <c r="A82" s="77" t="s">
         <v>955</v>
       </c>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="69"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="69"/>
-      <c r="P82" s="69"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
     </row>
     <row r="83" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="72"/>
     </row>
     <row r="84" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="65"/>
-      <c r="O84" s="65"/>
-      <c r="P84" s="65"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="80"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="80"/>
+      <c r="K84" s="80"/>
+      <c r="L84" s="80"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80"/>
+      <c r="P84" s="80"/>
     </row>
     <row r="85" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="69" t="s">
+      <c r="A85" s="77" t="s">
         <v>510</v>
       </c>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="69"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="69"/>
-      <c r="N85" s="69"/>
-      <c r="O85" s="69"/>
-      <c r="P85" s="69"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
     </row>
     <row r="86" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="76" t="s">
         <v>509</v>
       </c>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="76"/>
+      <c r="O86" s="76"/>
+      <c r="P86" s="76"/>
     </row>
     <row r="87" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="69" t="s">
+      <c r="A87" s="77" t="s">
         <v>956</v>
       </c>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
-      <c r="P87" s="69"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
     </row>
     <row r="88" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="72" t="s">
         <v>508</v>
       </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="68"/>
-      <c r="N88" s="68"/>
-      <c r="O88" s="68"/>
-      <c r="P88" s="68"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="72"/>
+      <c r="O88" s="72"/>
+      <c r="P88" s="72"/>
     </row>
     <row r="89" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="65" t="s">
+      <c r="A89" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="65"/>
-      <c r="O89" s="65"/>
-      <c r="P89" s="65"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="80"/>
+      <c r="M89" s="80"/>
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80"/>
     </row>
     <row r="90" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="69" t="s">
+      <c r="A90" s="77" t="s">
         <v>955</v>
       </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="69"/>
-      <c r="P90" s="69"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
     </row>
     <row r="91" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="70" t="s">
+      <c r="A91" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="74"/>
     </row>
     <row r="92" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A92" s="63" t="s">
+      <c r="A92" s="73" t="s">
         <v>505</v>
       </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
-      <c r="J92" s="63"/>
-      <c r="K92" s="63"/>
-      <c r="L92" s="63"/>
-      <c r="M92" s="63"/>
-      <c r="N92" s="63"/>
-      <c r="O92" s="63"/>
-      <c r="P92" s="63"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73"/>
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="73"/>
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
     </row>
     <row r="93" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="63" t="s">
+      <c r="A93" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="B93" s="63"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="63"/>
-      <c r="J93" s="63"/>
-      <c r="K93" s="63"/>
-      <c r="L93" s="63"/>
-      <c r="M93" s="63"/>
-      <c r="N93" s="63"/>
-      <c r="O93" s="63"/>
-      <c r="P93" s="63"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="73"/>
+      <c r="L93" s="73"/>
+      <c r="M93" s="73"/>
+      <c r="N93" s="73"/>
+      <c r="O93" s="73"/>
+      <c r="P93" s="73"/>
     </row>
     <row r="94" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="63" t="s">
+      <c r="A94" s="73" t="s">
         <v>957</v>
       </c>
-      <c r="B94" s="63"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="63"/>
-      <c r="J94" s="63"/>
-      <c r="K94" s="63"/>
-      <c r="L94" s="63"/>
-      <c r="M94" s="63"/>
-      <c r="N94" s="63"/>
-      <c r="O94" s="63"/>
-      <c r="P94" s="63"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="73"/>
+      <c r="K94" s="73"/>
+      <c r="L94" s="73"/>
+      <c r="M94" s="73"/>
+      <c r="N94" s="73"/>
+      <c r="O94" s="73"/>
+      <c r="P94" s="73"/>
     </row>
     <row r="95" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="70"/>
-      <c r="L95" s="70"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="70"/>
-      <c r="O95" s="70"/>
-      <c r="P95" s="70"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="74"/>
+      <c r="K95" s="74"/>
+      <c r="L95" s="74"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="74"/>
+      <c r="P95" s="74"/>
     </row>
     <row r="96" spans="1:16" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="63" t="s">
+      <c r="A96" s="73" t="s">
         <v>958</v>
       </c>
-      <c r="B96" s="63"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="63"/>
-      <c r="J96" s="63"/>
-      <c r="K96" s="63"/>
-      <c r="L96" s="63"/>
-      <c r="M96" s="63"/>
-      <c r="N96" s="63"/>
-      <c r="O96" s="63"/>
-      <c r="P96" s="63"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="73"/>
+      <c r="K96" s="73"/>
+      <c r="L96" s="73"/>
+      <c r="M96" s="73"/>
+      <c r="N96" s="73"/>
+      <c r="O96" s="73"/>
+      <c r="P96" s="73"/>
     </row>
     <row r="97" spans="1:20" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="63" t="s">
+      <c r="A97" s="73" t="s">
         <v>958</v>
       </c>
-      <c r="B97" s="63"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="63"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="63"/>
-      <c r="J97" s="63"/>
-      <c r="K97" s="63"/>
-      <c r="L97" s="63"/>
-      <c r="M97" s="63"/>
-      <c r="N97" s="63"/>
-      <c r="O97" s="63"/>
-      <c r="P97" s="63"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="73"/>
+      <c r="K97" s="73"/>
+      <c r="L97" s="73"/>
+      <c r="M97" s="73"/>
+      <c r="N97" s="73"/>
+      <c r="O97" s="73"/>
+      <c r="P97" s="73"/>
     </row>
     <row r="98" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="70" t="s">
+      <c r="A98" s="74" t="s">
         <v>501</v>
       </c>
-      <c r="B98" s="70"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="74"/>
+      <c r="P98" s="74"/>
     </row>
     <row r="99" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="72" t="s">
         <v>500</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="68"/>
-      <c r="L99" s="68"/>
-      <c r="M99" s="68"/>
-      <c r="N99" s="68"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="68"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+      <c r="O99" s="72"/>
+      <c r="P99" s="72"/>
     </row>
     <row r="100" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="63"/>
-      <c r="J100" s="63"/>
-      <c r="K100" s="63"/>
-      <c r="L100" s="63"/>
-      <c r="M100" s="63"/>
-      <c r="N100" s="63"/>
-      <c r="O100" s="63"/>
-      <c r="P100" s="63"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
+      <c r="K100" s="73"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="73"/>
+      <c r="N100" s="73"/>
+      <c r="O100" s="73"/>
+      <c r="P100" s="73"/>
     </row>
     <row r="101" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="63" t="s">
+      <c r="A101" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="B101" s="63"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="63"/>
-      <c r="J101" s="63"/>
-      <c r="K101" s="63"/>
-      <c r="L101" s="63"/>
-      <c r="M101" s="63"/>
-      <c r="N101" s="63"/>
-      <c r="O101" s="63"/>
-      <c r="P101" s="63"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
+      <c r="K101" s="73"/>
+      <c r="L101" s="73"/>
+      <c r="M101" s="73"/>
+      <c r="N101" s="73"/>
+      <c r="O101" s="73"/>
+      <c r="P101" s="73"/>
     </row>
     <row r="102" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="73" t="s">
         <v>959</v>
       </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63"/>
-      <c r="J102" s="63"/>
-      <c r="K102" s="63"/>
-      <c r="L102" s="63"/>
-      <c r="M102" s="63"/>
-      <c r="N102" s="63"/>
-      <c r="O102" s="63"/>
-      <c r="P102" s="63"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="73"/>
+      <c r="L102" s="73"/>
+      <c r="M102" s="73"/>
+      <c r="N102" s="73"/>
+      <c r="O102" s="73"/>
+      <c r="P102" s="73"/>
     </row>
     <row r="103" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="70" t="s">
+      <c r="A103" s="74" t="s">
         <v>497</v>
       </c>
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="70"/>
-      <c r="K103" s="70"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="70"/>
-      <c r="O103" s="70"/>
-      <c r="P103" s="70"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="74"/>
+      <c r="K103" s="74"/>
+      <c r="L103" s="74"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="74"/>
+      <c r="P103" s="74"/>
     </row>
     <row r="104" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="68" t="s">
+      <c r="A104" s="72" t="s">
         <v>496</v>
       </c>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="68"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="68"/>
-      <c r="L104" s="68"/>
-      <c r="M104" s="68"/>
-      <c r="N104" s="68"/>
-      <c r="O104" s="68"/>
-      <c r="P104" s="68"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="72"/>
+      <c r="O104" s="72"/>
+      <c r="P104" s="72"/>
     </row>
     <row r="105" spans="1:20" s="53" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A105" s="65" t="s">
+      <c r="A105" s="80" t="s">
         <v>960</v>
       </c>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="65"/>
-      <c r="M105" s="65"/>
-      <c r="N105" s="65"/>
-      <c r="O105" s="65"/>
-      <c r="P105" s="65"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="80"/>
+      <c r="J105" s="80"/>
+      <c r="K105" s="80"/>
+      <c r="L105" s="80"/>
+      <c r="M105" s="80"/>
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="80"/>
     </row>
     <row r="106" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="80" t="s">
         <v>961</v>
       </c>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="65"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="65"/>
-      <c r="M106" s="65"/>
-      <c r="N106" s="65"/>
-      <c r="O106" s="65"/>
-      <c r="P106" s="65"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="80"/>
+      <c r="H106" s="80"/>
+      <c r="I106" s="80"/>
+      <c r="J106" s="80"/>
+      <c r="K106" s="80"/>
+      <c r="L106" s="80"/>
+      <c r="M106" s="80"/>
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="80"/>
     </row>
     <row r="107" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="68" t="s">
+      <c r="A107" s="72" t="s">
         <v>495</v>
       </c>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="68"/>
-      <c r="H107" s="68"/>
-      <c r="I107" s="68"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="68"/>
-      <c r="L107" s="68"/>
-      <c r="M107" s="68"/>
-      <c r="N107" s="68"/>
-      <c r="O107" s="68"/>
-      <c r="P107" s="68"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
+      <c r="P107" s="72"/>
     </row>
     <row r="108" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="66" t="s">
+      <c r="A108" s="85" t="s">
         <v>494</v>
       </c>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
-      <c r="L108" s="66"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="66"/>
-      <c r="O108" s="66"/>
-      <c r="P108" s="66"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="85"/>
+      <c r="O108" s="85"/>
+      <c r="P108" s="85"/>
     </row>
     <row r="109" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="67" t="s">
+      <c r="A109" s="86" t="s">
         <v>962</v>
       </c>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="67"/>
-      <c r="L109" s="67"/>
-      <c r="M109" s="67"/>
-      <c r="N109" s="67"/>
-      <c r="O109" s="67"/>
-      <c r="P109" s="67"/>
+      <c r="B109" s="86"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="86"/>
+      <c r="J109" s="86"/>
+      <c r="K109" s="86"/>
+      <c r="L109" s="86"/>
+      <c r="M109" s="86"/>
+      <c r="N109" s="86"/>
+      <c r="O109" s="86"/>
+      <c r="P109" s="86"/>
     </row>
     <row r="110" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A110" s="68" t="s">
+      <c r="A110" s="72" t="s">
         <v>493</v>
       </c>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="68"/>
-      <c r="H110" s="68"/>
-      <c r="I110" s="68"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="68"/>
-      <c r="L110" s="68"/>
-      <c r="M110" s="68"/>
-      <c r="N110" s="68"/>
-      <c r="O110" s="68"/>
-      <c r="P110" s="68"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
+      <c r="K110" s="72"/>
+      <c r="L110" s="72"/>
+      <c r="M110" s="72"/>
+      <c r="N110" s="72"/>
+      <c r="O110" s="72"/>
+      <c r="P110" s="72"/>
     </row>
     <row r="111" spans="1:20" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="63" t="s">
+      <c r="A111" s="73" t="s">
         <v>963</v>
       </c>
-      <c r="B111" s="63"/>
-      <c r="C111" s="63"/>
-      <c r="D111" s="63"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="63"/>
-      <c r="J111" s="63"/>
-      <c r="K111" s="63"/>
-      <c r="L111" s="63"/>
-      <c r="M111" s="63"/>
-      <c r="N111" s="63"/>
-      <c r="O111" s="63"/>
-      <c r="P111" s="63"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
+      <c r="K111" s="73"/>
+      <c r="L111" s="73"/>
+      <c r="M111" s="73"/>
+      <c r="N111" s="73"/>
+      <c r="O111" s="73"/>
+      <c r="P111" s="73"/>
     </row>
     <row r="112" spans="1:20" s="57" customFormat="1" ht="12.75" customHeight="1">
       <c r="A112" s="51"/>
@@ -80811,12 +80802,62 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A111:P111"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A109:P109"/>
+    <mergeCell ref="A110:P110"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
     <mergeCell ref="A40:P40"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A107:P107"/>
@@ -80833,62 +80874,12 @@
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="A43:P43"/>
     <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A111:P111"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A109:P109"/>
-    <mergeCell ref="A110:P110"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A35:P35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="5550"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="5550" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,12 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1076">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -4686,6 +4686,18 @@
   </si>
   <si>
     <t>For the U.S. in EPS 3.0, the start year is 2018, as the first simulated year is 2019.</t>
+  </si>
+  <si>
+    <t>Efficiency electric</t>
+  </si>
+  <si>
+    <t>Efficiency diesel</t>
+  </si>
+  <si>
+    <t>Electric BTUs * efficiency</t>
+  </si>
+  <si>
+    <t>Diesel BTUs * efficiency</t>
   </si>
 </sst>
 </file>
@@ -5612,7 +5624,7 @@
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5798,43 +5810,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -5852,27 +5873,19 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="20% - Accent1 2" xfId="17"/>
@@ -6402,7 +6415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:A55"/>
     </sheetView>
   </sheetViews>
@@ -6851,16 +6864,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:33">
       <c r="A1">
         <v>10</v>
       </c>
@@ -6868,7 +6883,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>300</v>
       </c>
@@ -6876,25 +6891,25 @@
         <v>936</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:33">
       <c r="A5">
-        <f>SUM(INDEX('AEO 37'!$97:$97,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$102:$102,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$104:$104,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$95:$95,MATCH(About!$B$83,'AEO 37'!$1:$1,0))</f>
-        <v>0.51310994602571314</v>
+        <f>B14/SUM(B14:B15)</f>
+        <v>0.75216927859794647</v>
       </c>
       <c r="B5" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:33">
       <c r="A6">
-        <f>SUM(INDEX('AEO 37'!$98:$98,MATCH(About!$B$83,'AEO 37'!$1:$1,0)),INDEX('AEO 37'!$105:$105,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$95:$95,MATCH(About!$B$83,'AEO 37'!$1:$1,0))</f>
-        <v>0.48689001123524045</v>
+        <f>1-A5</f>
+        <v>0.24783072140205353</v>
       </c>
       <c r="B6" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:33">
       <c r="A8">
         <f>SUM(INDEX('AEO 37'!$110:$110,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$109:$109,MATCH(About!$B$83,'AEO 37'!$1:$1,0))</f>
         <v>0.78597113659666662</v>
@@ -6903,7 +6918,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:33">
       <c r="A9">
         <f>SUM(INDEX('AEO 37'!$111:$111,MATCH(About!$B$83,'AEO 37'!$1:$1,0)))/INDEX('AEO 37'!$109:$109,MATCH(About!$B$83,'AEO 37'!$1:$1,0))</f>
         <v>0.21402884692874577</v>
@@ -6912,8 +6927,288 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:33">
       <c r="A10" s="78"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B11" s="106">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B12" s="106">
+        <v>0.95</v>
+      </c>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B14">
+        <v>23772624250000</v>
+      </c>
+      <c r="C14">
+        <v>24047863950000</v>
+      </c>
+      <c r="D14">
+        <v>24311497500000</v>
+      </c>
+      <c r="E14">
+        <v>24540287900000</v>
+      </c>
+      <c r="F14">
+        <v>24755604450000</v>
+      </c>
+      <c r="G14">
+        <v>25001480600000</v>
+      </c>
+      <c r="H14">
+        <v>25237832050000</v>
+      </c>
+      <c r="I14">
+        <v>25472413650000</v>
+      </c>
+      <c r="J14">
+        <v>25707567150000</v>
+      </c>
+      <c r="K14">
+        <v>25945570650000</v>
+      </c>
+      <c r="L14">
+        <v>26183748950000</v>
+      </c>
+      <c r="M14">
+        <v>26400119050000</v>
+      </c>
+      <c r="N14">
+        <v>26621834800000</v>
+      </c>
+      <c r="O14">
+        <v>26843989450000</v>
+      </c>
+      <c r="P14">
+        <v>27059580550000.004</v>
+      </c>
+      <c r="Q14">
+        <v>27266110550000</v>
+      </c>
+      <c r="R14">
+        <v>27465376850000</v>
+      </c>
+      <c r="S14">
+        <v>27656835100000</v>
+      </c>
+      <c r="T14">
+        <v>27848192650000</v>
+      </c>
+      <c r="U14">
+        <v>28027393050000</v>
+      </c>
+      <c r="V14">
+        <v>28200800350000</v>
+      </c>
+      <c r="W14">
+        <v>28377071900000</v>
+      </c>
+      <c r="X14">
+        <v>28541799050000</v>
+      </c>
+      <c r="Y14">
+        <v>28696612000000.004</v>
+      </c>
+      <c r="Z14">
+        <v>28851625400000</v>
+      </c>
+      <c r="AA14">
+        <v>29000824800000</v>
+      </c>
+      <c r="AB14">
+        <v>29146531050000</v>
+      </c>
+      <c r="AC14">
+        <v>29301301249999.996</v>
+      </c>
+      <c r="AD14">
+        <v>29458844500000</v>
+      </c>
+      <c r="AE14">
+        <v>29624205300000</v>
+      </c>
+      <c r="AF14">
+        <v>29799374850000.004</v>
+      </c>
+      <c r="AG14">
+        <v>29981629500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B15">
+        <v>7832793475000</v>
+      </c>
+      <c r="C15">
+        <v>7976624175000</v>
+      </c>
+      <c r="D15">
+        <v>8108632025000.002</v>
+      </c>
+      <c r="E15">
+        <v>8220850950000</v>
+      </c>
+      <c r="F15">
+        <v>8327773350000.002</v>
+      </c>
+      <c r="G15">
+        <v>8456120400000</v>
+      </c>
+      <c r="H15">
+        <v>8573548100000</v>
+      </c>
+      <c r="I15">
+        <v>8689932549999.999</v>
+      </c>
+      <c r="J15">
+        <v>8807058325000</v>
+      </c>
+      <c r="K15">
+        <v>8929529375000.002</v>
+      </c>
+      <c r="L15">
+        <v>9050899650000</v>
+      </c>
+      <c r="M15">
+        <v>9140914250000</v>
+      </c>
+      <c r="N15">
+        <v>9266734100000</v>
+      </c>
+      <c r="O15">
+        <v>9393687550000</v>
+      </c>
+      <c r="P15">
+        <v>9509812000000</v>
+      </c>
+      <c r="Q15">
+        <v>9627574125000.002</v>
+      </c>
+      <c r="R15">
+        <v>9747785775000</v>
+      </c>
+      <c r="S15">
+        <v>9866314900000</v>
+      </c>
+      <c r="T15">
+        <v>9992742825000</v>
+      </c>
+      <c r="U15">
+        <v>10112273600000</v>
+      </c>
+      <c r="V15">
+        <v>10232965600000</v>
+      </c>
+      <c r="W15">
+        <v>10364983525000</v>
+      </c>
+      <c r="X15">
+        <v>10493954250000</v>
+      </c>
+      <c r="Y15">
+        <v>10615863375000</v>
+      </c>
+      <c r="Z15">
+        <v>10746239075000</v>
+      </c>
+      <c r="AA15">
+        <v>10875760675000</v>
+      </c>
+      <c r="AB15">
+        <v>11001281525000</v>
+      </c>
+      <c r="AC15">
+        <v>11133462925000</v>
+      </c>
+      <c r="AD15">
+        <v>11252006350000</v>
+      </c>
+      <c r="AE15">
+        <v>11366518150000.002</v>
+      </c>
+      <c r="AF15">
+        <v>11475964175000</v>
+      </c>
+      <c r="AG15">
+        <v>11576012825000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6927,8 +7222,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7069,7 +7364,7 @@
       </c>
       <c r="B5" s="20">
         <f>(SUM(INDEX('NTS 1-11'!$17:$17,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$18:$18,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$20:$20,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))/Misc!A1+INDEX('NTS 1-11'!$29:$29,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))*Misc!A5</f>
-        <v>1269.7931834298333</v>
+        <v>1861.3933137463398</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -7079,7 +7374,7 @@
       </c>
       <c r="E5" s="19">
         <f>(SUM(INDEX('NTS 1-11'!$17:$17,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$18:$18,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)),INDEX('NTS 1-11'!$20:$20,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))/Misc!A1+INDEX('NTS 1-11'!$29:$29,MATCH(About!$B$83,'NTS 1-11'!$2:$2,0)))*Misc!A6</f>
-        <v>1204.9067108038505</v>
+        <v>613.30668625366241</v>
       </c>
       <c r="F5" s="20">
         <v>0</v>
@@ -14247,7 +14542,7 @@
   <dimension ref="A1:AK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
@@ -80671,7 +80966,7 @@
   </sheetPr>
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
@@ -80687,43 +80982,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="90" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -84058,26 +84353,26 @@
       </c>
     </row>
     <row r="35" spans="1:36" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="91" t="s">
         <v>940</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
       <c r="S35" s="67"/>
       <c r="T35" s="67"/>
       <c r="U35" s="67"/>
@@ -84097,24 +84392,24 @@
       <c r="AI35" s="68"/>
     </row>
     <row r="36" spans="1:36" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="101"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
       <c r="S36" s="70"/>
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
@@ -84134,26 +84429,26 @@
       <c r="AI36" s="68"/>
     </row>
     <row r="37" spans="1:36" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
       <c r="S37" s="71"/>
       <c r="T37" s="72"/>
       <c r="U37" s="72"/>
@@ -84173,26 +84468,26 @@
       <c r="AI37" s="72"/>
     </row>
     <row r="38" spans="1:36" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
       <c r="S38" s="71"/>
       <c r="T38" s="72"/>
       <c r="U38" s="72"/>
@@ -84212,26 +84507,26 @@
       <c r="AI38" s="72"/>
     </row>
     <row r="39" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="81" t="s">
         <v>941</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
       <c r="S39" s="71"/>
       <c r="T39" s="72"/>
       <c r="U39" s="72"/>
@@ -84251,26 +84546,26 @@
       <c r="AI39" s="72"/>
     </row>
     <row r="40" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="89" t="s">
         <v>546</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
       <c r="S40" s="71"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
@@ -84290,26 +84585,26 @@
       <c r="AI40" s="72"/>
     </row>
     <row r="41" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
       <c r="S41" s="71"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
@@ -84329,26 +84624,26 @@
       <c r="AI41" s="72"/>
     </row>
     <row r="42" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="94" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
       <c r="S42" s="72"/>
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
@@ -84368,26 +84663,26 @@
       <c r="AI42" s="72"/>
     </row>
     <row r="43" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="81" t="s">
         <v>543</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
       <c r="S43" s="72"/>
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
@@ -84407,26 +84702,26 @@
       <c r="AI43" s="72"/>
     </row>
     <row r="44" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="81" t="s">
         <v>542</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
       <c r="S44" s="72"/>
       <c r="T44" s="72"/>
       <c r="U44" s="72"/>
@@ -84446,26 +84741,26 @@
       <c r="AI44" s="72"/>
     </row>
     <row r="45" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="105" t="s">
         <v>541</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
       <c r="S45" s="72"/>
       <c r="T45" s="72"/>
       <c r="U45" s="72"/>
@@ -84485,26 +84780,26 @@
       <c r="AI45" s="72"/>
     </row>
     <row r="46" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="89" t="s">
         <v>540</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
       <c r="S46" s="72"/>
       <c r="T46" s="72"/>
       <c r="U46" s="72"/>
@@ -84524,26 +84819,26 @@
       <c r="AI46" s="72"/>
     </row>
     <row r="47" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="89" t="s">
         <v>539</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
       <c r="S47" s="72"/>
       <c r="T47" s="72"/>
       <c r="U47" s="72"/>
@@ -84563,26 +84858,26 @@
       <c r="AI47" s="72"/>
     </row>
     <row r="48" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="89" t="s">
         <v>538</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="U48" s="72"/>
@@ -84602,26 +84897,26 @@
       <c r="AI48" s="72"/>
     </row>
     <row r="49" spans="1:35" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="89" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
       <c r="U49" s="72"/>
@@ -84641,1240 +84936,1240 @@
       <c r="AI49" s="72"/>
     </row>
     <row r="50" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="102" t="s">
         <v>536</v>
       </c>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
     </row>
     <row r="51" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="103"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
     </row>
     <row r="52" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="97" t="s">
         <v>535</v>
       </c>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
     </row>
     <row r="53" spans="1:35" s="28" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="98" t="s">
         <v>942</v>
       </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="95"/>
-      <c r="P53" s="95"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
     </row>
     <row r="54" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="87"/>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:35" s="28" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="85" t="s">
         <v>533</v>
       </c>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
     </row>
     <row r="56" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
     </row>
     <row r="57" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="99" t="s">
         <v>530</v>
       </c>
-      <c r="B58" s="96"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="96"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
     </row>
     <row r="59" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105"/>
-      <c r="L59" s="105"/>
-      <c r="M59" s="105"/>
-      <c r="N59" s="105"/>
-      <c r="O59" s="105"/>
-      <c r="P59" s="105"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
     </row>
     <row r="60" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="100" t="s">
         <v>529</v>
       </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="100"/>
     </row>
     <row r="61" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="100" t="s">
         <v>528</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="100"/>
     </row>
     <row r="62" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="88" t="s">
         <v>527</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
     </row>
     <row r="63" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="98" t="s">
+      <c r="A63" s="101" t="s">
         <v>526</v>
       </c>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
-      <c r="O63" s="98"/>
-      <c r="P63" s="98"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
     </row>
     <row r="64" spans="1:35" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="85" t="s">
+      <c r="A64" s="84" t="s">
         <v>525</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
     </row>
     <row r="65" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="84" t="s">
         <v>524</v>
       </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="85"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="85"/>
-      <c r="O65" s="85"/>
-      <c r="P65" s="85"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
     </row>
     <row r="66" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="85" t="s">
+      <c r="A66" s="84" t="s">
         <v>523</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
     </row>
     <row r="67" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="85" t="s">
+      <c r="A67" s="84" t="s">
         <v>943</v>
       </c>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
     </row>
     <row r="68" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="88" t="s">
         <v>522</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="90"/>
-      <c r="M68" s="90"/>
-      <c r="N68" s="90"/>
-      <c r="O68" s="90"/>
-      <c r="P68" s="90"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
     </row>
     <row r="69" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="85" t="s">
+      <c r="A69" s="84" t="s">
         <v>521</v>
       </c>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="85"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
     </row>
     <row r="70" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="85" t="s">
+      <c r="A70" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="85"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
     </row>
     <row r="71" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="84" t="s">
         <v>519</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="85"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
     </row>
     <row r="72" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="85" t="s">
+      <c r="A72" s="84" t="s">
         <v>518</v>
       </c>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="85"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
     </row>
     <row r="73" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="85" t="s">
+      <c r="A73" s="84" t="s">
         <v>944</v>
       </c>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="85"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
     </row>
     <row r="74" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="92" t="s">
+      <c r="A74" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="92"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="92"/>
-      <c r="P74" s="92"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86"/>
+      <c r="K74" s="86"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="86"/>
+      <c r="O74" s="86"/>
+      <c r="P74" s="86"/>
     </row>
     <row r="75" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="88" t="s">
         <v>516</v>
       </c>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="90"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
     </row>
     <row r="76" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="83" t="s">
         <v>515</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="87"/>
-      <c r="O76" s="87"/>
-      <c r="P76" s="87"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
     </row>
     <row r="77" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="91" t="s">
+      <c r="A77" s="96" t="s">
         <v>509</v>
       </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
-      <c r="O77" s="91"/>
-      <c r="P77" s="91"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="96"/>
     </row>
     <row r="78" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="93"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="93"/>
-      <c r="P78" s="93"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
     </row>
     <row r="79" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="91" t="s">
+      <c r="A79" s="96" t="s">
         <v>945</v>
       </c>
-      <c r="B79" s="91"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="96"/>
+      <c r="J79" s="96"/>
+      <c r="K79" s="96"/>
+      <c r="L79" s="96"/>
+      <c r="M79" s="96"/>
+      <c r="N79" s="96"/>
+      <c r="O79" s="96"/>
+      <c r="P79" s="96"/>
     </row>
     <row r="80" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="88" t="s">
         <v>513</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="90"/>
-      <c r="M80" s="90"/>
-      <c r="N80" s="90"/>
-      <c r="O80" s="90"/>
-      <c r="P80" s="90"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="88"/>
+      <c r="O80" s="88"/>
+      <c r="P80" s="88"/>
     </row>
     <row r="81" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="87"/>
-      <c r="P81" s="87"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="83"/>
+      <c r="L81" s="83"/>
+      <c r="M81" s="83"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="83"/>
     </row>
     <row r="82" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="91" t="s">
+      <c r="A82" s="96" t="s">
         <v>946</v>
       </c>
-      <c r="B82" s="91"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
-      <c r="M82" s="91"/>
-      <c r="N82" s="91"/>
-      <c r="O82" s="91"/>
-      <c r="P82" s="91"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96"/>
+      <c r="J82" s="96"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="96"/>
+      <c r="M82" s="96"/>
+      <c r="N82" s="96"/>
+      <c r="O82" s="96"/>
+      <c r="P82" s="96"/>
     </row>
     <row r="83" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="88" t="s">
         <v>511</v>
       </c>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="90"/>
-      <c r="L83" s="90"/>
-      <c r="M83" s="90"/>
-      <c r="N83" s="90"/>
-      <c r="O83" s="90"/>
-      <c r="P83" s="90"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="88"/>
+      <c r="O83" s="88"/>
+      <c r="P83" s="88"/>
     </row>
     <row r="84" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="87"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="87"/>
-      <c r="K84" s="87"/>
-      <c r="L84" s="87"/>
-      <c r="M84" s="87"/>
-      <c r="N84" s="87"/>
-      <c r="O84" s="87"/>
-      <c r="P84" s="87"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="83"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="83"/>
     </row>
     <row r="85" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="91" t="s">
+      <c r="A85" s="96" t="s">
         <v>509</v>
       </c>
-      <c r="B85" s="91"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
+      <c r="J85" s="96"/>
+      <c r="K85" s="96"/>
+      <c r="L85" s="96"/>
+      <c r="M85" s="96"/>
+      <c r="N85" s="96"/>
+      <c r="O85" s="96"/>
+      <c r="P85" s="96"/>
     </row>
     <row r="86" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="95" t="s">
         <v>508</v>
       </c>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="93"/>
-      <c r="P86" s="93"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="95"/>
     </row>
     <row r="87" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="91" t="s">
+      <c r="A87" s="96" t="s">
         <v>947</v>
       </c>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="91"/>
-      <c r="P87" s="91"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="96"/>
+      <c r="I87" s="96"/>
+      <c r="J87" s="96"/>
+      <c r="K87" s="96"/>
+      <c r="L87" s="96"/>
+      <c r="M87" s="96"/>
+      <c r="N87" s="96"/>
+      <c r="O87" s="96"/>
+      <c r="P87" s="96"/>
     </row>
     <row r="88" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="88" t="s">
         <v>507</v>
       </c>
-      <c r="B88" s="90"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
+      <c r="N88" s="88"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="88"/>
     </row>
     <row r="89" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="83" t="s">
         <v>506</v>
       </c>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="87"/>
-      <c r="L89" s="87"/>
-      <c r="M89" s="87"/>
-      <c r="N89" s="87"/>
-      <c r="O89" s="87"/>
-      <c r="P89" s="87"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="83"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="83"/>
     </row>
     <row r="90" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="91" t="s">
+      <c r="A90" s="96" t="s">
         <v>946</v>
       </c>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="91"/>
-      <c r="K90" s="91"/>
-      <c r="L90" s="91"/>
-      <c r="M90" s="91"/>
-      <c r="N90" s="91"/>
-      <c r="O90" s="91"/>
-      <c r="P90" s="91"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="96"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="96"/>
+      <c r="J90" s="96"/>
+      <c r="K90" s="96"/>
+      <c r="L90" s="96"/>
+      <c r="M90" s="96"/>
+      <c r="N90" s="96"/>
+      <c r="O90" s="96"/>
+      <c r="P90" s="96"/>
     </row>
     <row r="91" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="86" t="s">
         <v>505</v>
       </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="92"/>
-      <c r="J91" s="92"/>
-      <c r="K91" s="92"/>
-      <c r="L91" s="92"/>
-      <c r="M91" s="92"/>
-      <c r="N91" s="92"/>
-      <c r="O91" s="92"/>
-      <c r="P91" s="92"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="86"/>
+      <c r="L91" s="86"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="86"/>
     </row>
     <row r="92" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A92" s="85" t="s">
+      <c r="A92" s="84" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="85"/>
-      <c r="O92" s="85"/>
-      <c r="P92" s="85"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84"/>
+      <c r="K92" s="84"/>
+      <c r="L92" s="84"/>
+      <c r="M92" s="84"/>
+      <c r="N92" s="84"/>
+      <c r="O92" s="84"/>
+      <c r="P92" s="84"/>
     </row>
     <row r="93" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="84" t="s">
         <v>503</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-      <c r="P93" s="85"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="84"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
+      <c r="P93" s="84"/>
     </row>
     <row r="94" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="84" t="s">
         <v>948</v>
       </c>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="N94" s="85"/>
-      <c r="O94" s="85"/>
-      <c r="P94" s="85"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84"/>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="84"/>
     </row>
     <row r="95" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="92" t="s">
+      <c r="A95" s="86" t="s">
         <v>502</v>
       </c>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
-      <c r="K95" s="92"/>
-      <c r="L95" s="92"/>
-      <c r="M95" s="92"/>
-      <c r="N95" s="92"/>
-      <c r="O95" s="92"/>
-      <c r="P95" s="92"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="86"/>
+      <c r="I95" s="86"/>
+      <c r="J95" s="86"/>
+      <c r="K95" s="86"/>
+      <c r="L95" s="86"/>
+      <c r="M95" s="86"/>
+      <c r="N95" s="86"/>
+      <c r="O95" s="86"/>
+      <c r="P95" s="86"/>
     </row>
     <row r="96" spans="1:16" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="85" t="s">
+      <c r="A96" s="84" t="s">
         <v>949</v>
       </c>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
-      <c r="J96" s="85"/>
-      <c r="K96" s="85"/>
-      <c r="L96" s="85"/>
-      <c r="M96" s="85"/>
-      <c r="N96" s="85"/>
-      <c r="O96" s="85"/>
-      <c r="P96" s="85"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
     </row>
     <row r="97" spans="1:20" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="85" t="s">
+      <c r="A97" s="84" t="s">
         <v>949</v>
       </c>
-      <c r="B97" s="85"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="85"/>
-      <c r="K97" s="85"/>
-      <c r="L97" s="85"/>
-      <c r="M97" s="85"/>
-      <c r="N97" s="85"/>
-      <c r="O97" s="85"/>
-      <c r="P97" s="85"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="84"/>
+      <c r="K97" s="84"/>
+      <c r="L97" s="84"/>
+      <c r="M97" s="84"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="84"/>
     </row>
     <row r="98" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="86" t="s">
         <v>500</v>
       </c>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-      <c r="J98" s="92"/>
-      <c r="K98" s="92"/>
-      <c r="L98" s="92"/>
-      <c r="M98" s="92"/>
-      <c r="N98" s="92"/>
-      <c r="O98" s="92"/>
-      <c r="P98" s="92"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="86"/>
+      <c r="I98" s="86"/>
+      <c r="J98" s="86"/>
+      <c r="K98" s="86"/>
+      <c r="L98" s="86"/>
+      <c r="M98" s="86"/>
+      <c r="N98" s="86"/>
+      <c r="O98" s="86"/>
+      <c r="P98" s="86"/>
     </row>
     <row r="99" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="90" t="s">
+      <c r="A99" s="88" t="s">
         <v>499</v>
       </c>
-      <c r="B99" s="90"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="90"/>
-      <c r="K99" s="90"/>
-      <c r="L99" s="90"/>
-      <c r="M99" s="90"/>
-      <c r="N99" s="90"/>
-      <c r="O99" s="90"/>
-      <c r="P99" s="90"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="88"/>
+      <c r="D99" s="88"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
+      <c r="K99" s="88"/>
+      <c r="L99" s="88"/>
+      <c r="M99" s="88"/>
+      <c r="N99" s="88"/>
+      <c r="O99" s="88"/>
+      <c r="P99" s="88"/>
     </row>
     <row r="100" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="85" t="s">
+      <c r="A100" s="84" t="s">
         <v>498</v>
       </c>
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="85"/>
-      <c r="O100" s="85"/>
-      <c r="P100" s="85"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84"/>
+      <c r="J100" s="84"/>
+      <c r="K100" s="84"/>
+      <c r="L100" s="84"/>
+      <c r="M100" s="84"/>
+      <c r="N100" s="84"/>
+      <c r="O100" s="84"/>
+      <c r="P100" s="84"/>
     </row>
     <row r="101" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="84" t="s">
         <v>497</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="85"/>
-      <c r="I101" s="85"/>
-      <c r="J101" s="85"/>
-      <c r="K101" s="85"/>
-      <c r="L101" s="85"/>
-      <c r="M101" s="85"/>
-      <c r="N101" s="85"/>
-      <c r="O101" s="85"/>
-      <c r="P101" s="85"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="84"/>
+      <c r="J101" s="84"/>
+      <c r="K101" s="84"/>
+      <c r="L101" s="84"/>
+      <c r="M101" s="84"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="84"/>
+      <c r="P101" s="84"/>
     </row>
     <row r="102" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="85" t="s">
+      <c r="A102" s="84" t="s">
         <v>950</v>
       </c>
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="85"/>
-      <c r="M102" s="85"/>
-      <c r="N102" s="85"/>
-      <c r="O102" s="85"/>
-      <c r="P102" s="85"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="84"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="84"/>
+      <c r="I102" s="84"/>
+      <c r="J102" s="84"/>
+      <c r="K102" s="84"/>
+      <c r="L102" s="84"/>
+      <c r="M102" s="84"/>
+      <c r="N102" s="84"/>
+      <c r="O102" s="84"/>
+      <c r="P102" s="84"/>
     </row>
     <row r="103" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="92" t="s">
+      <c r="A103" s="86" t="s">
         <v>496</v>
       </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="92"/>
-      <c r="L103" s="92"/>
-      <c r="M103" s="92"/>
-      <c r="N103" s="92"/>
-      <c r="O103" s="92"/>
-      <c r="P103" s="92"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="86"/>
+      <c r="J103" s="86"/>
+      <c r="K103" s="86"/>
+      <c r="L103" s="86"/>
+      <c r="M103" s="86"/>
+      <c r="N103" s="86"/>
+      <c r="O103" s="86"/>
+      <c r="P103" s="86"/>
     </row>
     <row r="104" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="90" t="s">
+      <c r="A104" s="88" t="s">
         <v>495</v>
       </c>
-      <c r="B104" s="90"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="90"/>
-      <c r="J104" s="90"/>
-      <c r="K104" s="90"/>
-      <c r="L104" s="90"/>
-      <c r="M104" s="90"/>
-      <c r="N104" s="90"/>
-      <c r="O104" s="90"/>
-      <c r="P104" s="90"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="88"/>
+      <c r="O104" s="88"/>
+      <c r="P104" s="88"/>
     </row>
     <row r="105" spans="1:20" s="28" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A105" s="87" t="s">
+      <c r="A105" s="83" t="s">
         <v>951</v>
       </c>
-      <c r="B105" s="87"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="87"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="87"/>
-      <c r="H105" s="87"/>
-      <c r="I105" s="87"/>
-      <c r="J105" s="87"/>
-      <c r="K105" s="87"/>
-      <c r="L105" s="87"/>
-      <c r="M105" s="87"/>
-      <c r="N105" s="87"/>
-      <c r="O105" s="87"/>
-      <c r="P105" s="87"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="83"/>
+      <c r="I105" s="83"/>
+      <c r="J105" s="83"/>
+      <c r="K105" s="83"/>
+      <c r="L105" s="83"/>
+      <c r="M105" s="83"/>
+      <c r="N105" s="83"/>
+      <c r="O105" s="83"/>
+      <c r="P105" s="83"/>
     </row>
     <row r="106" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="83" t="s">
         <v>952</v>
       </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="87"/>
-      <c r="I106" s="87"/>
-      <c r="J106" s="87"/>
-      <c r="K106" s="87"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
-      <c r="N106" s="87"/>
-      <c r="O106" s="87"/>
-      <c r="P106" s="87"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
+      <c r="I106" s="83"/>
+      <c r="J106" s="83"/>
+      <c r="K106" s="83"/>
+      <c r="L106" s="83"/>
+      <c r="M106" s="83"/>
+      <c r="N106" s="83"/>
+      <c r="O106" s="83"/>
+      <c r="P106" s="83"/>
     </row>
     <row r="107" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="88" t="s">
         <v>494</v>
       </c>
-      <c r="B107" s="90"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
-      <c r="H107" s="90"/>
-      <c r="I107" s="90"/>
-      <c r="J107" s="90"/>
-      <c r="K107" s="90"/>
-      <c r="L107" s="90"/>
-      <c r="M107" s="90"/>
-      <c r="N107" s="90"/>
-      <c r="O107" s="90"/>
-      <c r="P107" s="90"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="88"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="88"/>
+      <c r="H107" s="88"/>
+      <c r="I107" s="88"/>
+      <c r="J107" s="88"/>
+      <c r="K107" s="88"/>
+      <c r="L107" s="88"/>
+      <c r="M107" s="88"/>
+      <c r="N107" s="88"/>
+      <c r="O107" s="88"/>
+      <c r="P107" s="88"/>
     </row>
     <row r="108" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="88" t="s">
+      <c r="A108" s="103" t="s">
         <v>493</v>
       </c>
-      <c r="B108" s="88"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="88"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="88"/>
-      <c r="J108" s="88"/>
-      <c r="K108" s="88"/>
-      <c r="L108" s="88"/>
-      <c r="M108" s="88"/>
-      <c r="N108" s="88"/>
-      <c r="O108" s="88"/>
-      <c r="P108" s="88"/>
+      <c r="B108" s="103"/>
+      <c r="C108" s="103"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="103"/>
+      <c r="J108" s="103"/>
+      <c r="K108" s="103"/>
+      <c r="L108" s="103"/>
+      <c r="M108" s="103"/>
+      <c r="N108" s="103"/>
+      <c r="O108" s="103"/>
+      <c r="P108" s="103"/>
     </row>
     <row r="109" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="89" t="s">
+      <c r="A109" s="104" t="s">
         <v>953</v>
       </c>
-      <c r="B109" s="89"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="89"/>
-      <c r="J109" s="89"/>
-      <c r="K109" s="89"/>
-      <c r="L109" s="89"/>
-      <c r="M109" s="89"/>
-      <c r="N109" s="89"/>
-      <c r="O109" s="89"/>
-      <c r="P109" s="89"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="104"/>
+      <c r="E109" s="104"/>
+      <c r="F109" s="104"/>
+      <c r="G109" s="104"/>
+      <c r="H109" s="104"/>
+      <c r="I109" s="104"/>
+      <c r="J109" s="104"/>
+      <c r="K109" s="104"/>
+      <c r="L109" s="104"/>
+      <c r="M109" s="104"/>
+      <c r="N109" s="104"/>
+      <c r="O109" s="104"/>
+      <c r="P109" s="104"/>
     </row>
     <row r="110" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A110" s="90" t="s">
+      <c r="A110" s="88" t="s">
         <v>492</v>
       </c>
-      <c r="B110" s="90"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="90"/>
-      <c r="K110" s="90"/>
-      <c r="L110" s="90"/>
-      <c r="M110" s="90"/>
-      <c r="N110" s="90"/>
-      <c r="O110" s="90"/>
-      <c r="P110" s="90"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="88"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="88"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="88"/>
+      <c r="H110" s="88"/>
+      <c r="I110" s="88"/>
+      <c r="J110" s="88"/>
+      <c r="K110" s="88"/>
+      <c r="L110" s="88"/>
+      <c r="M110" s="88"/>
+      <c r="N110" s="88"/>
+      <c r="O110" s="88"/>
+      <c r="P110" s="88"/>
     </row>
     <row r="111" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="85" t="s">
+      <c r="A111" s="84" t="s">
         <v>954</v>
       </c>
-      <c r="B111" s="85"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="85"/>
-      <c r="I111" s="85"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="85"/>
-      <c r="M111" s="85"/>
-      <c r="N111" s="85"/>
-      <c r="O111" s="85"/>
-      <c r="P111" s="85"/>
+      <c r="B111" s="84"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="84"/>
+      <c r="K111" s="84"/>
+      <c r="L111" s="84"/>
+      <c r="M111" s="84"/>
+      <c r="N111" s="84"/>
+      <c r="O111" s="84"/>
+      <c r="P111" s="84"/>
     </row>
     <row r="112" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A112" s="27"/>
@@ -85934,6 +86229,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A47:R47"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="A41:R41"/>
+    <mergeCell ref="A42:R42"/>
+    <mergeCell ref="A43:R43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="A111:P111"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A109:P109"/>
+    <mergeCell ref="A110:P110"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A98:P98"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
     <mergeCell ref="A39:R39"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A76:P76"/>
@@ -85950,68 +86307,6 @@
     <mergeCell ref="A59:P59"/>
     <mergeCell ref="A75:P75"/>
     <mergeCell ref="A40:R40"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A111:P111"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A109:P109"/>
-    <mergeCell ref="A110:P110"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A47:R47"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="A41:R41"/>
-    <mergeCell ref="A42:R42"/>
-    <mergeCell ref="A43:R43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="A45:R45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS US\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5999787-6ADD-4B01-B37C-3FC58FBAB3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0F176-EFE5-4E2E-8133-3F45F854E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46380" yWindow="660" windowWidth="19200" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6220,10 +6220,10 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
-    <numFmt numFmtId="168" formatCode="###0.00_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="171" formatCode="\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="###0.00_)"/>
+    <numFmt numFmtId="168" formatCode="#,##0_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="170" formatCode="\ #,##0"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -7035,16 +7035,16 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="6">
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7133,7 +7133,7 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="27" borderId="0">
@@ -7212,7 +7212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7284,7 +7284,7 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -7303,24 +7303,6 @@
     <xf numFmtId="10" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7368,23 +7350,44 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7392,19 +7395,16 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7556,28 +7556,7 @@
     <cellStyle name="Wrap Bold" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Wrap Title" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -9177,7 +9156,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9246,7 +9225,7 @@
         <f>SUM(INDEX('AEO 2021 45'!63:63,0,MATCH(About!$B$88,'AEO 2021 45'!1:1,0)))*1000+SUM(INDEX('AEO 2021 49'!$136:$136,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)),INDEX('AEO 2021 49'!$147:$147,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)))*10^6</f>
         <v>5509.268</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <f>SUM(INDEX('AEO 2021 45'!69:69,0,MATCH(About!$B$88,'AEO 2021 45'!1:1,0)))*1000+SUM(INDEX('AEO 2021 49'!$142:$142,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)),INDEX('AEO 2021 49'!$153:$153,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)))*10^6</f>
         <v>286</v>
       </c>
@@ -9256,15 +9235,15 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <f>INDEX('AEO 2021 49'!$161:$161,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0))*10^6</f>
         <v>113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <f>INDEX('AEO 2021 49'!$159:$159,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0))*10^6</f>
         <v>44406</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <f>SUM(INDEX('AEO 2021 49'!$157:$157,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)),INDEX('AEO 2021 49'!$160:$160,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)))*10^6</f>
         <v>47628</v>
       </c>
@@ -9272,7 +9251,7 @@
         <f>INDEX('AEO 2021 49'!$156:$156,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0))*10^6</f>
         <v>4927361</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f>SUM(INDEX('AEO 2021 49'!$162:$163,0,MATCH(About!$B$88,'AEO 2021 49'!1:1,0)))*10^6</f>
         <v>501.00000000000006</v>
       </c>
@@ -9290,20 +9269,20 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <f>INDEX('AEO 2021 48'!$178:$178,MATCH(About!$B$88,'AEO 2021 48'!$1:$1,0))</f>
         <v>1152.675293</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="6">
@@ -9318,20 +9297,20 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="6">
         <f>INDEX('NTS 1-11'!$23:$23,MATCH(About!$B$88,'NTS 1-11'!$2:$2,0))*(SUM(FRA!E2:E4)/FRA!E2)</f>
         <v>24937.136094674559</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6">
@@ -9346,20 +9325,20 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>0</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(INDEX('NTS 1-11'!30:31,0,MATCH(About!$B$88,'NTS 1-11'!2:2,0)))</f>
         <v>10518</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="6">
@@ -9374,19 +9353,19 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="6">
@@ -9512,62 +9491,62 @@
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1"/>
     <row r="3" spans="1:34" ht="15" customHeight="1">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="59" t="s">
         <v>1009</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="59" t="s">
         <v>1010</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59" t="s">
         <v>1011</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1">
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="59" t="s">
         <v>1012</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59" t="s">
         <v>1013</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1">
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1">
       <c r="A10" s="16" t="s">
@@ -9576,7 +9555,7 @@
       <c r="B10" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="AH10" s="66" t="s">
+      <c r="AH10" s="60" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -9584,7 +9563,7 @@
       <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AH11" s="66" t="s">
+      <c r="AH11" s="60" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -9685,7 +9664,7 @@
       <c r="AG12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH12" s="66" t="s">
+      <c r="AH12" s="60" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -9786,7 +9765,7 @@
       <c r="AG13" s="24">
         <v>2050</v>
       </c>
-      <c r="AH13" s="67" t="s">
+      <c r="AH13" s="61" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -15578,41 +15557,41 @@
     </row>
     <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1"/>
     <row r="87" spans="1:34" ht="15" customHeight="1">
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="81" t="s">
         <v>1018</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
-      <c r="T87" s="59"/>
-      <c r="U87" s="59"/>
-      <c r="V87" s="59"/>
-      <c r="W87" s="59"/>
-      <c r="X87" s="59"/>
-      <c r="Y87" s="59"/>
-      <c r="Z87" s="59"/>
-      <c r="AA87" s="59"/>
-      <c r="AB87" s="59"/>
-      <c r="AC87" s="59"/>
-      <c r="AD87" s="59"/>
-      <c r="AE87" s="59"/>
-      <c r="AF87" s="59"/>
-      <c r="AG87" s="59"/>
-      <c r="AH87" s="59"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="81"/>
+      <c r="X87" s="81"/>
+      <c r="Y87" s="81"/>
+      <c r="Z87" s="81"/>
+      <c r="AA87" s="81"/>
+      <c r="AB87" s="81"/>
+      <c r="AC87" s="81"/>
+      <c r="AD87" s="81"/>
+      <c r="AE87" s="81"/>
+      <c r="AF87" s="81"/>
+      <c r="AG87" s="81"/>
+      <c r="AH87" s="81"/>
     </row>
     <row r="88" spans="1:34" ht="15" customHeight="1">
       <c r="B88" s="18" t="s">
@@ -27282,223 +27261,223 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="68" customFormat="1">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:36" s="62" customFormat="1">
+      <c r="A29" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="62" t="s">
         <v>1135</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="62">
         <v>1.5592999999999999E-2</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="62">
         <v>1.4617E-2</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="62">
         <v>1.3816E-2</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="62">
         <v>1.3115999999999999E-2</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="62">
         <v>1.2489E-2</v>
       </c>
-      <c r="J29" s="68">
+      <c r="J29" s="62">
         <v>1.1908999999999999E-2</v>
       </c>
-      <c r="K29" s="68">
+      <c r="K29" s="62">
         <v>1.1370999999999999E-2</v>
       </c>
-      <c r="L29" s="68">
+      <c r="L29" s="62">
         <v>1.0848E-2</v>
       </c>
-      <c r="M29" s="68">
+      <c r="M29" s="62">
         <v>1.0378E-2</v>
       </c>
-      <c r="N29" s="68">
+      <c r="N29" s="62">
         <v>9.9430000000000004E-3</v>
       </c>
-      <c r="O29" s="68">
+      <c r="O29" s="62">
         <v>9.5729999999999999E-3</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="62">
         <v>9.2770000000000005E-3</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="62">
         <v>9.0310000000000008E-3</v>
       </c>
-      <c r="R29" s="68">
+      <c r="R29" s="62">
         <v>8.8450000000000004E-3</v>
       </c>
-      <c r="S29" s="68">
+      <c r="S29" s="62">
         <v>8.7139999999999995E-3</v>
       </c>
-      <c r="T29" s="68">
+      <c r="T29" s="62">
         <v>8.6280000000000003E-3</v>
       </c>
-      <c r="U29" s="68">
+      <c r="U29" s="62">
         <v>8.5550000000000001E-3</v>
       </c>
-      <c r="V29" s="68">
+      <c r="V29" s="62">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="W29" s="68">
+      <c r="W29" s="62">
         <v>8.4419999999999999E-3</v>
       </c>
-      <c r="X29" s="68">
+      <c r="X29" s="62">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="Y29" s="68">
+      <c r="Y29" s="62">
         <v>8.345E-3</v>
       </c>
-      <c r="Z29" s="68">
+      <c r="Z29" s="62">
         <v>8.3040000000000006E-3</v>
       </c>
-      <c r="AA29" s="68">
+      <c r="AA29" s="62">
         <v>8.2609999999999992E-3</v>
       </c>
-      <c r="AB29" s="68">
+      <c r="AB29" s="62">
         <v>8.2500000000000004E-3</v>
       </c>
-      <c r="AC29" s="68">
+      <c r="AC29" s="62">
         <v>8.2459999999999999E-3</v>
       </c>
-      <c r="AD29" s="68">
+      <c r="AD29" s="62">
         <v>8.2480000000000001E-3</v>
       </c>
-      <c r="AE29" s="68">
+      <c r="AE29" s="62">
         <v>8.2410000000000001E-3</v>
       </c>
-      <c r="AF29" s="68">
+      <c r="AF29" s="62">
         <v>8.2260000000000007E-3</v>
       </c>
-      <c r="AG29" s="68">
+      <c r="AG29" s="62">
         <v>8.2120000000000005E-3</v>
       </c>
-      <c r="AH29" s="68">
+      <c r="AH29" s="62">
         <v>8.1919999999999996E-3</v>
       </c>
-      <c r="AI29" s="68">
+      <c r="AI29" s="62">
         <v>8.1689999999999992E-3</v>
       </c>
-      <c r="AJ29" s="69">
+      <c r="AJ29" s="63">
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="68" customFormat="1">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:36" s="62" customFormat="1">
+      <c r="A30" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="62" t="s">
         <v>1136</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="62">
         <v>3.6049999999999999E-2</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="62">
         <v>3.4826000000000003E-2</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="62">
         <v>3.3960999999999998E-2</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="62">
         <v>3.3182999999999997E-2</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I30" s="62">
         <v>3.2493000000000001E-2</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="62">
         <v>3.1748999999999999E-2</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="62">
         <v>3.0946000000000001E-2</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="62">
         <v>3.0037000000000001E-2</v>
       </c>
-      <c r="M30" s="68">
+      <c r="M30" s="62">
         <v>2.9101999999999999E-2</v>
       </c>
-      <c r="N30" s="68">
+      <c r="N30" s="62">
         <v>2.8146000000000001E-2</v>
       </c>
-      <c r="O30" s="68">
+      <c r="O30" s="62">
         <v>2.7255999999999999E-2</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="62">
         <v>2.6449E-2</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="62">
         <v>2.5728999999999998E-2</v>
       </c>
-      <c r="R30" s="68">
+      <c r="R30" s="62">
         <v>2.5128000000000001E-2</v>
       </c>
-      <c r="S30" s="68">
+      <c r="S30" s="62">
         <v>2.4669E-2</v>
       </c>
-      <c r="T30" s="68">
+      <c r="T30" s="62">
         <v>2.4299000000000001E-2</v>
       </c>
-      <c r="U30" s="68">
+      <c r="U30" s="62">
         <v>2.3954E-2</v>
       </c>
-      <c r="V30" s="68">
+      <c r="V30" s="62">
         <v>2.3628E-2</v>
       </c>
-      <c r="W30" s="68">
+      <c r="W30" s="62">
         <v>2.3383999999999999E-2</v>
       </c>
-      <c r="X30" s="68">
+      <c r="X30" s="62">
         <v>2.3156E-2</v>
       </c>
-      <c r="Y30" s="68">
+      <c r="Y30" s="62">
         <v>2.2946000000000001E-2</v>
       </c>
-      <c r="Z30" s="68">
+      <c r="Z30" s="62">
         <v>2.2762999999999999E-2</v>
       </c>
-      <c r="AA30" s="68">
+      <c r="AA30" s="62">
         <v>2.2592000000000001E-2</v>
       </c>
-      <c r="AB30" s="68">
+      <c r="AB30" s="62">
         <v>2.2515E-2</v>
       </c>
-      <c r="AC30" s="68">
+      <c r="AC30" s="62">
         <v>2.2460000000000001E-2</v>
       </c>
-      <c r="AD30" s="68">
+      <c r="AD30" s="62">
         <v>2.2461999999999999E-2</v>
       </c>
-      <c r="AE30" s="68">
+      <c r="AE30" s="62">
         <v>2.2443000000000001E-2</v>
       </c>
-      <c r="AF30" s="68">
+      <c r="AF30" s="62">
         <v>2.2401999999999998E-2</v>
       </c>
-      <c r="AG30" s="68">
+      <c r="AG30" s="62">
         <v>2.2373000000000001E-2</v>
       </c>
-      <c r="AH30" s="68">
+      <c r="AH30" s="62">
         <v>2.2329999999999999E-2</v>
       </c>
-      <c r="AI30" s="68">
+      <c r="AI30" s="62">
         <v>2.2273000000000001E-2</v>
       </c>
-      <c r="AJ30" s="69">
+      <c r="AJ30" s="63">
         <v>-1.6E-2</v>
       </c>
     </row>
@@ -28172,113 +28151,113 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:36" s="70" customFormat="1">
-      <c r="A39" s="70" t="s">
+    <row r="39" spans="1:36" s="64" customFormat="1">
+      <c r="A39" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="64" t="s">
         <v>1143</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="64">
         <v>109.775116</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="64">
         <v>110.74385100000001</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="64">
         <v>112.111847</v>
       </c>
-      <c r="H39" s="70">
+      <c r="H39" s="64">
         <v>113.83586099999999</v>
       </c>
-      <c r="I39" s="70">
+      <c r="I39" s="64">
         <v>115.972031</v>
       </c>
-      <c r="J39" s="70">
+      <c r="J39" s="64">
         <v>118.357674</v>
       </c>
-      <c r="K39" s="70">
+      <c r="K39" s="64">
         <v>120.65992</v>
       </c>
-      <c r="L39" s="70">
+      <c r="L39" s="64">
         <v>122.775352</v>
       </c>
-      <c r="M39" s="70">
+      <c r="M39" s="64">
         <v>124.84523799999999</v>
       </c>
-      <c r="N39" s="70">
+      <c r="N39" s="64">
         <v>126.789886</v>
       </c>
-      <c r="O39" s="70">
+      <c r="O39" s="64">
         <v>128.461319</v>
       </c>
-      <c r="P39" s="70">
+      <c r="P39" s="64">
         <v>130.010468</v>
       </c>
-      <c r="Q39" s="70">
+      <c r="Q39" s="64">
         <v>131.39666700000001</v>
       </c>
-      <c r="R39" s="70">
+      <c r="R39" s="64">
         <v>132.62655599999999</v>
       </c>
-      <c r="S39" s="70">
+      <c r="S39" s="64">
         <v>133.67858899999999</v>
       </c>
-      <c r="T39" s="70">
+      <c r="T39" s="64">
         <v>134.59551999999999</v>
       </c>
-      <c r="U39" s="70">
+      <c r="U39" s="64">
         <v>135.30641199999999</v>
       </c>
-      <c r="V39" s="70">
+      <c r="V39" s="64">
         <v>135.80033900000001</v>
       </c>
-      <c r="W39" s="70">
+      <c r="W39" s="64">
         <v>136.15254200000001</v>
       </c>
-      <c r="X39" s="70">
+      <c r="X39" s="64">
         <v>136.389465</v>
       </c>
-      <c r="Y39" s="70">
+      <c r="Y39" s="64">
         <v>136.512878</v>
       </c>
-      <c r="Z39" s="70">
+      <c r="Z39" s="64">
         <v>136.56616199999999</v>
       </c>
-      <c r="AA39" s="70">
+      <c r="AA39" s="64">
         <v>136.56909200000001</v>
       </c>
-      <c r="AB39" s="70">
+      <c r="AB39" s="64">
         <v>136.49606299999999</v>
       </c>
-      <c r="AC39" s="70">
+      <c r="AC39" s="64">
         <v>136.38095100000001</v>
       </c>
-      <c r="AD39" s="70">
+      <c r="AD39" s="64">
         <v>136.26539600000001</v>
       </c>
-      <c r="AE39" s="70">
+      <c r="AE39" s="64">
         <v>136.08590699999999</v>
       </c>
-      <c r="AF39" s="70">
+      <c r="AF39" s="64">
         <v>135.841599</v>
       </c>
-      <c r="AG39" s="70">
+      <c r="AG39" s="64">
         <v>135.621002</v>
       </c>
-      <c r="AH39" s="70">
+      <c r="AH39" s="64">
         <v>135.329498</v>
       </c>
-      <c r="AI39" s="70">
+      <c r="AI39" s="64">
         <v>134.95864900000001</v>
       </c>
-      <c r="AJ39" s="71">
+      <c r="AJ39" s="65">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -28507,113 +28486,113 @@
         <v>425</v>
       </c>
     </row>
-    <row r="43" spans="1:36" s="70" customFormat="1">
-      <c r="A43" s="70" t="s">
+    <row r="43" spans="1:36" s="64" customFormat="1">
+      <c r="A43" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="64" t="s">
         <v>1146</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="64">
         <v>15.788600000000001</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="64">
         <v>15.792562</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="64">
         <v>15.765272</v>
       </c>
-      <c r="H43" s="70">
+      <c r="H43" s="64">
         <v>15.707791</v>
       </c>
-      <c r="I43" s="70">
+      <c r="I43" s="64">
         <v>15.623258</v>
       </c>
-      <c r="J43" s="70">
+      <c r="J43" s="64">
         <v>15.520708000000001</v>
       </c>
-      <c r="K43" s="70">
+      <c r="K43" s="64">
         <v>15.389112000000001</v>
       </c>
-      <c r="L43" s="70">
+      <c r="L43" s="64">
         <v>15.228992</v>
       </c>
-      <c r="M43" s="70">
+      <c r="M43" s="64">
         <v>15.067304</v>
       </c>
-      <c r="N43" s="70">
+      <c r="N43" s="64">
         <v>14.911758000000001</v>
       </c>
-      <c r="O43" s="70">
+      <c r="O43" s="64">
         <v>14.753513</v>
       </c>
-      <c r="P43" s="70">
+      <c r="P43" s="64">
         <v>14.592062</v>
       </c>
-      <c r="Q43" s="70">
+      <c r="Q43" s="64">
         <v>14.430001000000001</v>
       </c>
-      <c r="R43" s="70">
+      <c r="R43" s="64">
         <v>14.277225</v>
       </c>
-      <c r="S43" s="70">
+      <c r="S43" s="64">
         <v>14.135702</v>
       </c>
-      <c r="T43" s="70">
+      <c r="T43" s="64">
         <v>14.00994</v>
       </c>
-      <c r="U43" s="70">
+      <c r="U43" s="64">
         <v>13.895649000000001</v>
       </c>
-      <c r="V43" s="70">
+      <c r="V43" s="64">
         <v>13.791717999999999</v>
       </c>
-      <c r="W43" s="70">
+      <c r="W43" s="64">
         <v>13.695762999999999</v>
       </c>
-      <c r="X43" s="70">
+      <c r="X43" s="64">
         <v>13.614037</v>
       </c>
-      <c r="Y43" s="70">
+      <c r="Y43" s="64">
         <v>13.549742999999999</v>
       </c>
-      <c r="Z43" s="70">
+      <c r="Z43" s="64">
         <v>13.490777</v>
       </c>
-      <c r="AA43" s="70">
+      <c r="AA43" s="64">
         <v>13.439021</v>
       </c>
-      <c r="AB43" s="70">
+      <c r="AB43" s="64">
         <v>13.389459</v>
       </c>
-      <c r="AC43" s="70">
+      <c r="AC43" s="64">
         <v>13.341989</v>
       </c>
-      <c r="AD43" s="70">
+      <c r="AD43" s="64">
         <v>13.300770999999999</v>
       </c>
-      <c r="AE43" s="70">
+      <c r="AE43" s="64">
         <v>13.258034</v>
       </c>
-      <c r="AF43" s="70">
+      <c r="AF43" s="64">
         <v>13.213305</v>
       </c>
-      <c r="AG43" s="70">
+      <c r="AG43" s="64">
         <v>13.174664</v>
       </c>
-      <c r="AH43" s="70">
+      <c r="AH43" s="64">
         <v>13.132721</v>
       </c>
-      <c r="AI43" s="70">
+      <c r="AI43" s="64">
         <v>13.08629</v>
       </c>
-      <c r="AJ43" s="71">
+      <c r="AJ43" s="65">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
@@ -29277,333 +29256,333 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="70" customFormat="1">
-      <c r="A50" s="70" t="s">
+    <row r="50" spans="1:36" s="64" customFormat="1">
+      <c r="A50" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="64" t="s">
         <v>457</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="64" t="s">
         <v>1153</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="64">
         <v>0.95845199999999997</v>
       </c>
-      <c r="F50" s="70">
+      <c r="F50" s="64">
         <v>1.1904840000000001</v>
       </c>
-      <c r="G50" s="70">
+      <c r="G50" s="64">
         <v>1.439907</v>
       </c>
-      <c r="H50" s="70">
+      <c r="H50" s="64">
         <v>1.698766</v>
       </c>
-      <c r="I50" s="70">
+      <c r="I50" s="64">
         <v>1.972269</v>
       </c>
-      <c r="J50" s="70">
+      <c r="J50" s="64">
         <v>2.2568920000000001</v>
       </c>
-      <c r="K50" s="70">
+      <c r="K50" s="64">
         <v>2.5895109999999999</v>
       </c>
-      <c r="L50" s="70">
+      <c r="L50" s="64">
         <v>2.9365540000000001</v>
       </c>
-      <c r="M50" s="70">
+      <c r="M50" s="64">
         <v>3.2890290000000002</v>
       </c>
-      <c r="N50" s="70">
+      <c r="N50" s="64">
         <v>3.6428790000000002</v>
       </c>
-      <c r="O50" s="70">
+      <c r="O50" s="64">
         <v>3.9933879999999999</v>
       </c>
-      <c r="P50" s="70">
+      <c r="P50" s="64">
         <v>4.342149</v>
       </c>
-      <c r="Q50" s="70">
+      <c r="Q50" s="64">
         <v>4.6901970000000004</v>
       </c>
-      <c r="R50" s="70">
+      <c r="R50" s="64">
         <v>5.0341310000000004</v>
       </c>
-      <c r="S50" s="70">
+      <c r="S50" s="64">
         <v>5.3734599999999997</v>
       </c>
-      <c r="T50" s="70">
+      <c r="T50" s="64">
         <v>5.7085650000000001</v>
       </c>
-      <c r="U50" s="70">
+      <c r="U50" s="64">
         <v>6.0361909999999996</v>
       </c>
-      <c r="V50" s="70">
+      <c r="V50" s="64">
         <v>6.3542930000000002</v>
       </c>
-      <c r="W50" s="70">
+      <c r="W50" s="64">
         <v>6.6660579999999996</v>
       </c>
-      <c r="X50" s="70">
+      <c r="X50" s="64">
         <v>6.9704079999999999</v>
       </c>
-      <c r="Y50" s="70">
+      <c r="Y50" s="64">
         <v>7.2658579999999997</v>
       </c>
-      <c r="Z50" s="70">
+      <c r="Z50" s="64">
         <v>7.552022</v>
       </c>
-      <c r="AA50" s="70">
+      <c r="AA50" s="64">
         <v>7.8315900000000003</v>
       </c>
-      <c r="AB50" s="70">
+      <c r="AB50" s="64">
         <v>8.1041070000000008</v>
       </c>
-      <c r="AC50" s="70">
+      <c r="AC50" s="64">
         <v>8.3715019999999996</v>
       </c>
-      <c r="AD50" s="70">
+      <c r="AD50" s="64">
         <v>8.6397700000000004</v>
       </c>
-      <c r="AE50" s="70">
+      <c r="AE50" s="64">
         <v>8.9018979999999992</v>
       </c>
-      <c r="AF50" s="70">
+      <c r="AF50" s="64">
         <v>9.1579350000000002</v>
       </c>
-      <c r="AG50" s="70">
+      <c r="AG50" s="64">
         <v>9.4151760000000007</v>
       </c>
-      <c r="AH50" s="70">
+      <c r="AH50" s="64">
         <v>9.6675170000000001</v>
       </c>
-      <c r="AI50" s="70">
+      <c r="AI50" s="64">
         <v>9.9138900000000003</v>
       </c>
-      <c r="AJ50" s="71">
+      <c r="AJ50" s="65">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="68" customFormat="1">
-      <c r="A51" s="68" t="s">
+    <row r="51" spans="1:36" s="62" customFormat="1">
+      <c r="A51" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="62" t="s">
         <v>1154</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="E51" s="68">
+      <c r="E51" s="62">
         <v>1.2926999999999999E-2</v>
       </c>
-      <c r="F51" s="68">
+      <c r="F51" s="62">
         <v>1.2425E-2</v>
       </c>
-      <c r="G51" s="68">
+      <c r="G51" s="62">
         <v>1.1995E-2</v>
       </c>
-      <c r="H51" s="68">
+      <c r="H51" s="62">
         <v>1.1642E-2</v>
       </c>
-      <c r="I51" s="68">
+      <c r="I51" s="62">
         <v>1.1374E-2</v>
       </c>
-      <c r="J51" s="68">
+      <c r="J51" s="62">
         <v>1.1136999999999999E-2</v>
       </c>
-      <c r="K51" s="68">
+      <c r="K51" s="62">
         <v>1.0949E-2</v>
       </c>
-      <c r="L51" s="68">
+      <c r="L51" s="62">
         <v>1.0763E-2</v>
       </c>
-      <c r="M51" s="68">
+      <c r="M51" s="62">
         <v>1.0626999999999999E-2</v>
       </c>
-      <c r="N51" s="68">
+      <c r="N51" s="62">
         <v>1.0482999999999999E-2</v>
       </c>
-      <c r="O51" s="68">
+      <c r="O51" s="62">
         <v>1.0403000000000001E-2</v>
       </c>
-      <c r="P51" s="68">
+      <c r="P51" s="62">
         <v>1.0338999999999999E-2</v>
       </c>
-      <c r="Q51" s="68">
+      <c r="Q51" s="62">
         <v>1.0307E-2</v>
       </c>
-      <c r="R51" s="68">
+      <c r="R51" s="62">
         <v>1.0286E-2</v>
       </c>
-      <c r="S51" s="68">
+      <c r="S51" s="62">
         <v>1.0311000000000001E-2</v>
       </c>
-      <c r="T51" s="68">
+      <c r="T51" s="62">
         <v>1.0336E-2</v>
       </c>
-      <c r="U51" s="68">
+      <c r="U51" s="62">
         <v>1.0371999999999999E-2</v>
       </c>
-      <c r="V51" s="68">
+      <c r="V51" s="62">
         <v>1.0409E-2</v>
       </c>
-      <c r="W51" s="68">
+      <c r="W51" s="62">
         <v>1.0458E-2</v>
       </c>
-      <c r="X51" s="68">
+      <c r="X51" s="62">
         <v>1.0508E-2</v>
       </c>
-      <c r="Y51" s="68">
+      <c r="Y51" s="62">
         <v>1.0562999999999999E-2</v>
       </c>
-      <c r="Z51" s="68">
+      <c r="Z51" s="62">
         <v>1.0612999999999999E-2</v>
       </c>
-      <c r="AA51" s="68">
+      <c r="AA51" s="62">
         <v>1.0647999999999999E-2</v>
       </c>
-      <c r="AB51" s="68">
+      <c r="AB51" s="62">
         <v>1.0715000000000001E-2</v>
       </c>
-      <c r="AC51" s="68">
+      <c r="AC51" s="62">
         <v>1.0779E-2</v>
       </c>
-      <c r="AD51" s="68">
+      <c r="AD51" s="62">
         <v>1.0853E-2</v>
       </c>
-      <c r="AE51" s="68">
+      <c r="AE51" s="62">
         <v>1.0917E-2</v>
       </c>
-      <c r="AF51" s="68">
+      <c r="AF51" s="62">
         <v>1.0973E-2</v>
       </c>
-      <c r="AG51" s="68">
+      <c r="AG51" s="62">
         <v>1.1037E-2</v>
       </c>
-      <c r="AH51" s="68">
+      <c r="AH51" s="62">
         <v>1.1093E-2</v>
       </c>
-      <c r="AI51" s="68">
+      <c r="AI51" s="62">
         <v>1.1143E-2</v>
       </c>
-      <c r="AJ51" s="69">
+      <c r="AJ51" s="63">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" s="68" customFormat="1">
-      <c r="A52" s="68" t="s">
+    <row r="52" spans="1:36" s="62" customFormat="1">
+      <c r="A52" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="62" t="s">
         <v>1155</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="E52" s="68">
+      <c r="E52" s="62">
         <v>3.3397000000000003E-2</v>
       </c>
-      <c r="F52" s="68">
+      <c r="F52" s="62">
         <v>3.4570999999999998E-2</v>
       </c>
-      <c r="G52" s="68">
+      <c r="G52" s="62">
         <v>3.5624000000000003E-2</v>
       </c>
-      <c r="H52" s="68">
+      <c r="H52" s="62">
         <v>3.6540000000000003E-2</v>
       </c>
-      <c r="I52" s="68">
+      <c r="I52" s="62">
         <v>3.7402999999999999E-2</v>
       </c>
-      <c r="J52" s="68">
+      <c r="J52" s="62">
         <v>3.8196000000000001E-2</v>
       </c>
-      <c r="K52" s="68">
+      <c r="K52" s="62">
         <v>3.8857000000000003E-2</v>
       </c>
-      <c r="L52" s="68">
+      <c r="L52" s="62">
         <v>3.9291E-2</v>
       </c>
-      <c r="M52" s="68">
+      <c r="M52" s="62">
         <v>3.9697999999999997E-2</v>
       </c>
-      <c r="N52" s="68">
+      <c r="N52" s="62">
         <v>4.0032999999999999E-2</v>
       </c>
-      <c r="O52" s="68">
+      <c r="O52" s="62">
         <v>4.0252999999999997E-2</v>
       </c>
-      <c r="P52" s="68">
+      <c r="P52" s="62">
         <v>4.0459000000000002E-2</v>
       </c>
-      <c r="Q52" s="68">
+      <c r="Q52" s="62">
         <v>4.0672E-2</v>
       </c>
-      <c r="R52" s="68">
+      <c r="R52" s="62">
         <v>4.0869999999999997E-2</v>
       </c>
-      <c r="S52" s="68">
+      <c r="S52" s="62">
         <v>4.1126000000000003E-2</v>
       </c>
-      <c r="T52" s="68">
+      <c r="T52" s="62">
         <v>4.1374000000000001E-2</v>
       </c>
-      <c r="U52" s="68">
+      <c r="U52" s="62">
         <v>4.1610000000000001E-2</v>
       </c>
-      <c r="V52" s="68">
+      <c r="V52" s="62">
         <v>4.1803E-2</v>
       </c>
-      <c r="W52" s="68">
+      <c r="W52" s="62">
         <v>4.1997E-2</v>
       </c>
-      <c r="X52" s="68">
+      <c r="X52" s="62">
         <v>4.2181999999999997E-2</v>
       </c>
-      <c r="Y52" s="68">
+      <c r="Y52" s="62">
         <v>4.2352000000000001E-2</v>
       </c>
-      <c r="Z52" s="68">
+      <c r="Z52" s="62">
         <v>4.2486999999999997E-2</v>
       </c>
-      <c r="AA52" s="68">
+      <c r="AA52" s="62">
         <v>4.2583000000000003E-2</v>
       </c>
-      <c r="AB52" s="68">
+      <c r="AB52" s="62">
         <v>4.2701999999999997E-2</v>
       </c>
-      <c r="AC52" s="68">
+      <c r="AC52" s="62">
         <v>4.2749000000000002E-2</v>
       </c>
-      <c r="AD52" s="68">
+      <c r="AD52" s="62">
         <v>4.2855999999999998E-2</v>
       </c>
-      <c r="AE52" s="68">
+      <c r="AE52" s="62">
         <v>4.2916999999999997E-2</v>
       </c>
-      <c r="AF52" s="68">
+      <c r="AF52" s="62">
         <v>4.2944000000000003E-2</v>
       </c>
-      <c r="AG52" s="68">
+      <c r="AG52" s="62">
         <v>4.3011000000000001E-2</v>
       </c>
-      <c r="AH52" s="68">
+      <c r="AH52" s="62">
         <v>4.3033000000000002E-2</v>
       </c>
-      <c r="AI52" s="68">
+      <c r="AI52" s="62">
         <v>4.3008999999999999E-2</v>
       </c>
-      <c r="AJ52" s="69">
+      <c r="AJ52" s="63">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -34946,113 +34925,113 @@
         <v>508</v>
       </c>
     </row>
-    <row r="61" spans="1:36" s="74" customFormat="1">
-      <c r="A61" s="74" t="s">
+    <row r="61" spans="1:36" s="68" customFormat="1">
+      <c r="A61" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="68" t="s">
         <v>1204</v>
       </c>
-      <c r="D61" s="74" t="s">
+      <c r="D61" s="68" t="s">
         <v>469</v>
       </c>
-      <c r="E61" s="74">
+      <c r="E61" s="68">
         <v>7371.2993159999996</v>
       </c>
-      <c r="F61" s="74">
+      <c r="F61" s="68">
         <v>7172.9252930000002</v>
       </c>
-      <c r="G61" s="74">
+      <c r="G61" s="68">
         <v>7014.8012699999999</v>
       </c>
-      <c r="H61" s="74">
+      <c r="H61" s="68">
         <v>6883.2197269999997</v>
       </c>
-      <c r="I61" s="74">
+      <c r="I61" s="68">
         <v>6780.5717770000001</v>
       </c>
-      <c r="J61" s="74">
+      <c r="J61" s="68">
         <v>6704.9672849999997</v>
       </c>
-      <c r="K61" s="74">
+      <c r="K61" s="68">
         <v>6644.4414059999999</v>
       </c>
-      <c r="L61" s="74">
+      <c r="L61" s="68">
         <v>6589.6123049999997</v>
       </c>
-      <c r="M61" s="74">
+      <c r="M61" s="68">
         <v>6539.9184569999998</v>
       </c>
-      <c r="N61" s="74">
+      <c r="N61" s="68">
         <v>6489.2944340000004</v>
       </c>
-      <c r="O61" s="74">
+      <c r="O61" s="68">
         <v>6437.7026370000003</v>
       </c>
-      <c r="P61" s="74">
+      <c r="P61" s="68">
         <v>6381.6479490000002</v>
       </c>
-      <c r="Q61" s="74">
+      <c r="Q61" s="68">
         <v>6326.5942379999997</v>
       </c>
-      <c r="R61" s="74">
+      <c r="R61" s="68">
         <v>6265.3979490000002</v>
       </c>
-      <c r="S61" s="74">
+      <c r="S61" s="68">
         <v>6195.3271480000003</v>
       </c>
-      <c r="T61" s="74">
+      <c r="T61" s="68">
         <v>6117.9790039999998</v>
       </c>
-      <c r="U61" s="74">
+      <c r="U61" s="68">
         <v>6035.3056640000004</v>
       </c>
-      <c r="V61" s="74">
+      <c r="V61" s="68">
         <v>5944.6972660000001</v>
       </c>
-      <c r="W61" s="74">
+      <c r="W61" s="68">
         <v>5848.4003910000001</v>
       </c>
-      <c r="X61" s="74">
+      <c r="X61" s="68">
         <v>5747.9560549999997</v>
       </c>
-      <c r="Y61" s="74">
+      <c r="Y61" s="68">
         <v>5639.0068359999996</v>
       </c>
-      <c r="Z61" s="74">
+      <c r="Z61" s="68">
         <v>5527.5673829999996</v>
       </c>
-      <c r="AA61" s="74">
+      <c r="AA61" s="68">
         <v>5410.794922</v>
       </c>
-      <c r="AB61" s="74">
+      <c r="AB61" s="68">
         <v>5293.4516599999997</v>
       </c>
-      <c r="AC61" s="74">
+      <c r="AC61" s="68">
         <v>5177.0048829999996</v>
       </c>
-      <c r="AD61" s="74">
+      <c r="AD61" s="68">
         <v>5052.5302730000003</v>
       </c>
-      <c r="AE61" s="74">
+      <c r="AE61" s="68">
         <v>4916.4848629999997</v>
       </c>
-      <c r="AF61" s="74">
+      <c r="AF61" s="68">
         <v>4771.4277339999999</v>
       </c>
-      <c r="AG61" s="74">
+      <c r="AG61" s="68">
         <v>4616.2915039999998</v>
       </c>
-      <c r="AH61" s="74">
+      <c r="AH61" s="68">
         <v>4450.4252930000002</v>
       </c>
-      <c r="AI61" s="74">
+      <c r="AI61" s="68">
         <v>4274.6381840000004</v>
       </c>
-      <c r="AJ61" s="75">
+      <c r="AJ61" s="69">
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
@@ -35276,113 +35255,113 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="64" spans="1:36" s="72" customFormat="1">
-      <c r="A64" s="72" t="s">
+    <row r="64" spans="1:36" s="66" customFormat="1">
+      <c r="A64" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="66" t="s">
         <v>512</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="66" t="s">
         <v>1207</v>
       </c>
-      <c r="D64" s="72" t="s">
+      <c r="D64" s="66" t="s">
         <v>469</v>
       </c>
-      <c r="E64" s="72">
+      <c r="E64" s="66">
         <v>12.049818999999999</v>
       </c>
-      <c r="F64" s="72">
+      <c r="F64" s="66">
         <v>12.425207</v>
       </c>
-      <c r="G64" s="72">
+      <c r="G64" s="66">
         <v>12.779926</v>
       </c>
-      <c r="H64" s="72">
+      <c r="H64" s="66">
         <v>13.094117000000001</v>
       </c>
-      <c r="I64" s="72">
+      <c r="I64" s="66">
         <v>13.373340000000001</v>
       </c>
-      <c r="J64" s="72">
+      <c r="J64" s="66">
         <v>13.614534000000001</v>
       </c>
-      <c r="K64" s="72">
+      <c r="K64" s="66">
         <v>13.806754</v>
       </c>
-      <c r="L64" s="72">
+      <c r="L64" s="66">
         <v>13.954442999999999</v>
       </c>
-      <c r="M64" s="72">
+      <c r="M64" s="66">
         <v>14.062754</v>
       </c>
-      <c r="N64" s="72">
+      <c r="N64" s="66">
         <v>14.156679</v>
       </c>
-      <c r="O64" s="72">
+      <c r="O64" s="66">
         <v>14.220297</v>
       </c>
-      <c r="P64" s="72">
+      <c r="P64" s="66">
         <v>14.237577</v>
       </c>
-      <c r="Q64" s="72">
+      <c r="Q64" s="66">
         <v>14.225659</v>
       </c>
-      <c r="R64" s="72">
+      <c r="R64" s="66">
         <v>14.180311</v>
       </c>
-      <c r="S64" s="72">
+      <c r="S64" s="66">
         <v>14.1274</v>
       </c>
-      <c r="T64" s="72">
+      <c r="T64" s="66">
         <v>14.069468000000001</v>
       </c>
-      <c r="U64" s="72">
+      <c r="U64" s="66">
         <v>14.010429</v>
       </c>
-      <c r="V64" s="72">
+      <c r="V64" s="66">
         <v>13.950614</v>
       </c>
-      <c r="W64" s="72">
+      <c r="W64" s="66">
         <v>13.893249000000001</v>
       </c>
-      <c r="X64" s="72">
+      <c r="X64" s="66">
         <v>13.848746</v>
       </c>
-      <c r="Y64" s="72">
+      <c r="Y64" s="66">
         <v>13.809093000000001</v>
       </c>
-      <c r="Z64" s="72">
+      <c r="Z64" s="66">
         <v>13.770614999999999</v>
       </c>
-      <c r="AA64" s="72">
+      <c r="AA64" s="66">
         <v>13.731444</v>
       </c>
-      <c r="AB64" s="72">
+      <c r="AB64" s="66">
         <v>13.688992000000001</v>
       </c>
-      <c r="AC64" s="72">
+      <c r="AC64" s="66">
         <v>13.643261000000001</v>
       </c>
-      <c r="AD64" s="72">
+      <c r="AD64" s="66">
         <v>13.588008</v>
       </c>
-      <c r="AE64" s="72">
+      <c r="AE64" s="66">
         <v>13.457769000000001</v>
       </c>
-      <c r="AF64" s="72">
+      <c r="AF64" s="66">
         <v>13.236786</v>
       </c>
-      <c r="AG64" s="72">
+      <c r="AG64" s="66">
         <v>13.048162</v>
       </c>
-      <c r="AH64" s="72">
+      <c r="AH64" s="66">
         <v>12.863569999999999</v>
       </c>
-      <c r="AI64" s="72">
+      <c r="AI64" s="66">
         <v>12.745165999999999</v>
       </c>
-      <c r="AJ64" s="73">
+      <c r="AJ64" s="67">
         <v>2E-3</v>
       </c>
     </row>
@@ -42136,113 +42115,113 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:37" s="70" customFormat="1">
-      <c r="A70" s="70" t="s">
+    <row r="70" spans="1:37" s="64" customFormat="1">
+      <c r="A70" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="64" t="s">
         <v>1269</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D70" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="F70" s="70">
+      <c r="F70" s="64">
         <v>2120.6909179999998</v>
       </c>
-      <c r="G70" s="70">
+      <c r="G70" s="64">
         <v>5561.7944340000004</v>
       </c>
-      <c r="H70" s="70">
+      <c r="H70" s="64">
         <v>6027.3330079999996</v>
       </c>
-      <c r="I70" s="70">
+      <c r="I70" s="64">
         <v>6204.8256840000004</v>
       </c>
-      <c r="J70" s="70">
+      <c r="J70" s="64">
         <v>6340.3486329999996</v>
       </c>
-      <c r="K70" s="70">
+      <c r="K70" s="64">
         <v>6539.2280270000001</v>
       </c>
-      <c r="L70" s="70">
+      <c r="L70" s="64">
         <v>6689.6445309999999</v>
       </c>
-      <c r="M70" s="70">
+      <c r="M70" s="64">
         <v>6712.2539059999999</v>
       </c>
-      <c r="N70" s="70">
+      <c r="N70" s="64">
         <v>6783.720703</v>
       </c>
-      <c r="O70" s="70">
+      <c r="O70" s="64">
         <v>6804.6962890000004</v>
       </c>
-      <c r="P70" s="70">
+      <c r="P70" s="64">
         <v>6852.7294920000004</v>
       </c>
-      <c r="Q70" s="70">
+      <c r="Q70" s="64">
         <v>6916.5532229999999</v>
       </c>
-      <c r="R70" s="70">
+      <c r="R70" s="64">
         <v>7010.2456050000001</v>
       </c>
-      <c r="S70" s="70">
+      <c r="S70" s="64">
         <v>7107.0747069999998</v>
       </c>
-      <c r="T70" s="70">
+      <c r="T70" s="64">
         <v>7221.7348629999997</v>
       </c>
-      <c r="U70" s="70">
+      <c r="U70" s="64">
         <v>7351.8935549999997</v>
       </c>
-      <c r="V70" s="70">
+      <c r="V70" s="64">
         <v>7467.0200199999999</v>
       </c>
-      <c r="W70" s="70">
+      <c r="W70" s="64">
         <v>7568.1943359999996</v>
       </c>
-      <c r="X70" s="70">
+      <c r="X70" s="64">
         <v>7674.7285160000001</v>
       </c>
-      <c r="Y70" s="70">
+      <c r="Y70" s="64">
         <v>7800.4780270000001</v>
       </c>
-      <c r="Z70" s="70">
+      <c r="Z70" s="64">
         <v>7946.5527339999999</v>
       </c>
-      <c r="AA70" s="70">
+      <c r="AA70" s="64">
         <v>8090.7568359999996</v>
       </c>
-      <c r="AB70" s="70">
+      <c r="AB70" s="64">
         <v>8234.7304690000001</v>
       </c>
-      <c r="AC70" s="70">
+      <c r="AC70" s="64">
         <v>8377.1933590000008</v>
       </c>
-      <c r="AD70" s="70">
+      <c r="AD70" s="64">
         <v>8515.1074219999991</v>
       </c>
-      <c r="AE70" s="70">
+      <c r="AE70" s="64">
         <v>8666.3017579999996</v>
       </c>
-      <c r="AF70" s="70">
+      <c r="AF70" s="64">
         <v>8805.6552730000003</v>
       </c>
-      <c r="AG70" s="70">
+      <c r="AG70" s="64">
         <v>8931.2109380000002</v>
       </c>
-      <c r="AH70" s="70">
+      <c r="AH70" s="64">
         <v>9080.3857420000004</v>
       </c>
-      <c r="AI70" s="70">
+      <c r="AI70" s="64">
         <v>9230.5400389999995</v>
       </c>
-      <c r="AJ70" s="70">
+      <c r="AJ70" s="64">
         <v>9384.828125</v>
       </c>
-      <c r="AK70" s="71">
+      <c r="AK70" s="65">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -79307,47 +79286,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
     </row>
     <row r="2" spans="1:39" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -79507,52 +79486,52 @@
       <c r="AM3" s="11"/>
     </row>
     <row r="4" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="71">
         <v>2135</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="71">
         <v>2125</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="71">
         <v>2679</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="71">
         <v>2495</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="71">
         <v>3808</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="71">
         <v>4678</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="71">
         <v>6083</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="71">
         <v>6054</v>
       </c>
-      <c r="J4" s="77">
+      <c r="J4" s="71">
         <v>7320</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="71">
         <v>7297</v>
       </c>
-      <c r="L4" s="77">
+      <c r="L4" s="71">
         <v>7370</v>
       </c>
-      <c r="M4" s="77">
+      <c r="M4" s="71">
         <v>6865</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="71">
         <v>7077</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="71">
         <v>7043</v>
       </c>
-      <c r="P4" s="77">
+      <c r="P4" s="71">
         <v>7451</v>
       </c>
       <c r="Q4" s="41">
@@ -79626,52 +79605,52 @@
       </c>
     </row>
     <row r="5" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="71">
         <v>76549</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="71">
         <v>95442</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="71">
         <v>131743</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="71">
         <v>168475</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="71">
         <v>211045</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="71">
         <v>210654</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="71">
         <v>198000</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="71">
         <v>196874</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="71">
         <v>185650</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="71">
         <v>177120</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="71">
         <v>172935</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="71">
         <v>188089</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="71">
         <v>191129</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="71">
         <v>192414</v>
       </c>
-      <c r="P5" s="77">
+      <c r="P5" s="71">
         <v>204710</v>
       </c>
       <c r="Q5" s="41">
@@ -79748,49 +79727,49 @@
       <c r="A6" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="72">
         <v>73857768</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="72">
         <v>90357667</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="72">
         <v>111242295</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>137912779</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="72">
         <v>161490159</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="72">
         <v>177133282</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="72">
         <v>193057376</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="72">
         <v>192313834</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="72">
         <v>194427346</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="72">
         <v>198041338</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="72">
         <v>201801918</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="72">
         <v>205427212</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="72">
         <v>210441248.708</v>
       </c>
-      <c r="O6" s="78">
+      <c r="O6" s="72">
         <v>211580033</v>
       </c>
-      <c r="P6" s="78">
+      <c r="P6" s="72">
         <v>215496003</v>
       </c>
       <c r="Q6" s="44">
@@ -79856,7 +79835,7 @@
       <c r="AK6" s="44">
         <v>276491174</v>
       </c>
-      <c r="AL6" s="79">
+      <c r="AL6" s="73">
         <v>275936367</v>
       </c>
       <c r="AM6" s="44">
@@ -79864,52 +79843,52 @@
       </c>
     </row>
     <row r="7" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="70" t="s">
         <v>963</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="71">
         <v>61671390</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="71">
         <v>75257588</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="71">
         <v>92067655</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="71">
         <v>111670004</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="71">
         <v>127294783</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="71">
         <v>133329597</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="71">
         <v>137959958</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="71">
         <v>132476966</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="71">
         <v>130646266</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="71">
         <v>131305045</v>
       </c>
-      <c r="L7" s="77">
+      <c r="L7" s="71">
         <v>133929661</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="71">
         <v>128386775</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="71">
         <v>129728341</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="71">
         <v>129748704</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="71">
         <v>131838538</v>
       </c>
       <c r="Q7" s="41">
@@ -79975,7 +79954,7 @@
       <c r="AK7" s="41">
         <v>194348815</v>
       </c>
-      <c r="AL7" s="80">
+      <c r="AL7" s="74">
         <v>194882977</v>
       </c>
       <c r="AM7" s="41">
@@ -79983,52 +79962,52 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="70" t="s">
         <v>964</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="71">
         <v>3756553</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="71">
         <v>3897191</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="71">
         <v>3871599</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="71">
         <v>3826373</v>
       </c>
-      <c r="P8" s="77">
+      <c r="P8" s="71">
         <v>3879450</v>
       </c>
       <c r="Q8" s="41">
@@ -80094,7 +80073,7 @@
       <c r="AK8" s="41">
         <v>8596314</v>
       </c>
-      <c r="AL8" s="80">
+      <c r="AL8" s="74">
         <v>8347435</v>
       </c>
       <c r="AM8" s="41">
@@ -80102,52 +80081,52 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="71">
         <v>14210591</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="71">
         <v>20418250</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="71">
         <v>27875934</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="71">
         <v>37213863</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="71">
         <v>48274555</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="71">
         <v>53033443</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="71">
         <v>57091143</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="71">
         <v>59993706</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="71">
         <v>57141967</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="71">
         <v>65738322</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="71">
         <v>69133912.708000004</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="71">
         <v>70224082</v>
       </c>
-      <c r="P9" s="77">
+      <c r="P9" s="71">
         <v>71330205</v>
       </c>
       <c r="Q9" s="41">
@@ -80213,7 +80192,7 @@
       <c r="AK9" s="41">
         <v>59465369</v>
       </c>
-      <c r="AL9" s="80">
+      <c r="AL9" s="74">
         <v>58796280</v>
       </c>
       <c r="AM9" s="41">
@@ -80221,52 +80200,52 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="75" t="s">
         <v>1597</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="71">
         <v>13999285</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="71">
         <v>3681405</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="71">
         <v>4231622</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="71">
         <v>4373784</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="71">
         <v>4593071</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="71">
         <v>4486981</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="71">
         <v>4480815</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="71">
         <v>4369842</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="71">
         <v>4407850</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="71">
         <v>4724608</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="71">
         <v>5023670</v>
       </c>
-      <c r="N10" s="77">
+      <c r="N10" s="71">
         <v>5266029</v>
       </c>
-      <c r="O10" s="77">
+      <c r="O10" s="71">
         <v>5293358</v>
       </c>
-      <c r="P10" s="77">
+      <c r="P10" s="71">
         <v>5734925</v>
       </c>
       <c r="Q10" s="41">
@@ -80332,7 +80311,7 @@
       <c r="AK10" s="41">
         <v>10160433</v>
       </c>
-      <c r="AL10" s="80">
+      <c r="AL10" s="74">
         <v>9908409</v>
       </c>
       <c r="AM10" s="41">
@@ -80340,52 +80319,52 @@
       </c>
     </row>
     <row r="11" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="70" t="s">
         <v>965</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="71">
         <v>11914249</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="71">
         <v>786510</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="71">
         <v>905082</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="71">
         <v>1130747</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="71">
         <v>1416869</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="71">
         <v>1403266</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="71">
         <v>1708895</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="71">
         <v>1691331</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="71">
         <v>1675363</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="71">
         <v>1680305</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="71">
         <v>1578706</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="71">
         <v>1695751</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="71">
         <v>1746586</v>
       </c>
-      <c r="O11" s="77">
+      <c r="O11" s="71">
         <v>1789968</v>
       </c>
-      <c r="P11" s="77">
+      <c r="P11" s="71">
         <v>1997345</v>
       </c>
       <c r="Q11" s="41">
@@ -80451,7 +80430,7 @@
       <c r="AK11" s="41">
         <v>2925210</v>
       </c>
-      <c r="AL11" s="80">
+      <c r="AL11" s="74">
         <v>2990962</v>
       </c>
       <c r="AM11" s="41">
@@ -80459,52 +80438,52 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="71">
         <v>272129</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="71">
         <v>314284</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="71">
         <v>377562</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="71">
         <v>462156</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="71">
         <v>528789</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="71">
         <v>593485</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="71">
         <v>626987</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="71">
         <v>631279</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="71">
         <v>644732</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="71">
         <v>654432</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="71">
         <v>670423</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="71">
         <v>685503</v>
       </c>
-      <c r="N12" s="77">
+      <c r="N12" s="71">
         <v>694781</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="71">
         <v>697548</v>
       </c>
-      <c r="P12" s="77">
+      <c r="P12" s="71">
         <v>715540</v>
       </c>
       <c r="Q12" s="41">
@@ -80570,7 +80549,7 @@
       <c r="AK12" s="41">
         <v>995033</v>
       </c>
-      <c r="AL12" s="80">
+      <c r="AL12" s="74">
         <v>1010304</v>
       </c>
       <c r="AM12" s="41">
@@ -80581,21 +80560,21 @@
       <c r="A13" s="45" t="s">
         <v>966</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
@@ -80616,57 +80595,57 @@
       <c r="AH13" s="42"/>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
     </row>
     <row r="14" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="70" t="s">
         <v>967</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="71">
         <v>49600</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="71">
         <v>49600</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="71">
         <v>49700</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="71">
         <v>50822</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="71">
         <v>59411</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="71">
         <v>64258</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="71">
         <v>58714</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="71">
         <v>60377</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="71">
         <v>63080</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="71">
         <v>64850</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="71">
         <v>68123</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="71">
         <v>67107</v>
       </c>
-      <c r="N14" s="77">
+      <c r="N14" s="71">
         <v>53339</v>
       </c>
-      <c r="O14" s="77">
+      <c r="O14" s="71">
         <v>54946</v>
       </c>
-      <c r="P14" s="77">
+      <c r="P14" s="71">
         <v>55661</v>
       </c>
       <c r="Q14" s="41">
@@ -80740,52 +80719,52 @@
       </c>
     </row>
     <row r="15" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="70" t="s">
         <v>968</v>
       </c>
-      <c r="B15" s="77">
+      <c r="B15" s="71">
         <v>2856</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="71">
         <v>1549</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="71">
         <v>1262</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="71">
         <v>1061</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="71">
         <v>1013</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="71">
         <v>717</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="71">
         <v>910</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="71">
         <v>1092</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="71">
         <v>1055</v>
       </c>
-      <c r="K15" s="77">
+      <c r="K15" s="71">
         <v>1001</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="71">
         <v>1051</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="71">
         <v>1048</v>
       </c>
-      <c r="N15" s="77">
+      <c r="N15" s="71">
         <v>1097</v>
       </c>
-      <c r="O15" s="77">
+      <c r="O15" s="71">
         <v>1062</v>
       </c>
-      <c r="P15" s="77">
+      <c r="P15" s="71">
         <v>1061</v>
       </c>
       <c r="Q15" s="41">
@@ -80859,52 +80838,52 @@
       </c>
     </row>
     <row r="16" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="71">
         <v>9010</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="71">
         <v>9115</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="71">
         <v>9338</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="71">
         <v>9608</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="71">
         <v>9641</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="71">
         <v>9326</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="71">
         <v>10567</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="71">
         <v>10478</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="71">
         <v>10391</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="71">
         <v>10282</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="71">
         <v>10282</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="71">
         <v>10166</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="71">
         <v>10243</v>
       </c>
-      <c r="O16" s="77">
+      <c r="O16" s="71">
         <v>10228</v>
       </c>
-      <c r="P16" s="77">
+      <c r="P16" s="71">
         <v>10296</v>
       </c>
       <c r="Q16" s="41">
@@ -80978,52 +80957,52 @@
       </c>
     </row>
     <row r="17" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="71">
         <v>3826</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="71">
         <v>1453</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="71">
         <v>1050</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="71">
         <v>703</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="71">
         <v>823</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="71">
         <v>676</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="71">
         <v>610</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="71">
         <v>551</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="71">
         <v>665</v>
       </c>
-      <c r="K17" s="77">
+      <c r="K17" s="71">
         <v>635</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="71">
         <v>643</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="71">
         <v>695</v>
       </c>
-      <c r="N17" s="77">
+      <c r="N17" s="71">
         <v>675</v>
       </c>
-      <c r="O17" s="77">
+      <c r="O17" s="71">
         <v>655</v>
       </c>
-      <c r="P17" s="77">
+      <c r="P17" s="71">
         <v>646</v>
       </c>
       <c r="Q17" s="41">
@@ -81097,52 +81076,52 @@
       </c>
     </row>
     <row r="18" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="71">
         <v>4500</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="71">
         <v>4035</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="71">
         <v>4982</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="71">
         <v>5126</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="71">
         <v>5164</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="71">
         <v>4982</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="71">
         <v>5126</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="71">
         <v>5164</v>
       </c>
-      <c r="N18" s="77">
+      <c r="N18" s="71">
         <v>5239</v>
       </c>
-      <c r="O18" s="77">
+      <c r="O18" s="71">
         <v>5425</v>
       </c>
-      <c r="P18" s="77">
+      <c r="P18" s="71">
         <v>5535</v>
       </c>
       <c r="Q18" s="43">
@@ -81216,52 +81195,52 @@
       </c>
     </row>
     <row r="19" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="71">
         <v>14490</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="71">
         <v>16471</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="71">
         <v>17879</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="71">
         <v>20695</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="71">
         <v>23527</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="71">
         <v>28729</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="71">
         <v>29352</v>
       </c>
-      <c r="N19" s="77">
+      <c r="N19" s="71">
         <v>17738</v>
       </c>
-      <c r="O19" s="77">
+      <c r="O19" s="71">
         <v>19820</v>
       </c>
-      <c r="P19" s="77">
+      <c r="P19" s="71">
         <v>20042</v>
       </c>
       <c r="Q19" s="43">
@@ -81335,52 +81314,52 @@
       </c>
     </row>
     <row r="20" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="70" t="s">
         <v>969</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="71">
         <v>867</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="71">
         <v>1176</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="71">
         <v>1568</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="71">
         <v>1821</v>
       </c>
-      <c r="K20" s="77">
+      <c r="K20" s="71">
         <v>2268</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="71">
         <v>2462</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="71">
         <v>2809</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="71">
         <v>5344</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="71">
         <v>6245</v>
       </c>
-      <c r="P20" s="77">
+      <c r="P20" s="71">
         <v>7105</v>
       </c>
       <c r="Q20" s="43">
@@ -81457,21 +81436,21 @@
       <c r="A21" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
@@ -81491,58 +81470,58 @@
       <c r="AG21" s="42"/>
       <c r="AH21" s="42"/>
       <c r="AI21" s="42"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
       <c r="AL21" s="41"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22" s="71">
         <v>1658292</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="71">
         <v>1478005</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="71">
         <v>1423921</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="71">
         <v>1359459</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="71">
         <v>1168114</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="71">
         <v>867070</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="71">
         <v>658902</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="71">
         <v>633489</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="71">
         <v>605189</v>
       </c>
-      <c r="K22" s="77">
+      <c r="K22" s="71">
         <v>587033</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="71">
         <v>590930</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="71">
         <v>583486</v>
       </c>
-      <c r="N22" s="77">
+      <c r="N22" s="71">
         <v>570865</v>
       </c>
-      <c r="O22" s="77">
+      <c r="O22" s="71">
         <v>568493</v>
       </c>
-      <c r="P22" s="77">
+      <c r="P22" s="71">
         <v>575604</v>
       </c>
       <c r="Q22" s="41">
@@ -81616,52 +81595,52 @@
       </c>
     </row>
     <row r="23" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="71">
         <v>29031</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="71">
         <v>27780</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="71">
         <v>27077</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="71">
         <v>27846</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="71">
         <v>28094</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="71">
         <v>22548</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="71">
         <v>18835</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="71">
         <v>18344</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="71">
         <v>18004</v>
       </c>
-      <c r="K23" s="77">
+      <c r="K23" s="71">
         <v>18161</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="71">
         <v>18505</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="71">
         <v>18812</v>
       </c>
-      <c r="N23" s="77">
+      <c r="N23" s="71">
         <v>19269</v>
       </c>
-      <c r="O23" s="77">
+      <c r="O23" s="71">
         <v>19684</v>
       </c>
-      <c r="P23" s="77">
+      <c r="P23" s="71">
         <v>20261</v>
       </c>
       <c r="Q23" s="41">
@@ -81735,52 +81714,52 @@
       </c>
     </row>
     <row r="24" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="77">
+      <c r="B24" s="71">
         <v>32104</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="71">
         <v>37164</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="71">
         <v>29787</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="71">
         <v>29407</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="71">
         <v>102161</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="71">
         <v>111086</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="71">
         <v>103527</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="71">
         <v>97492</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="71">
         <v>90064</v>
       </c>
-      <c r="K24" s="77">
+      <c r="K24" s="71">
         <v>88513</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="71">
         <v>86120</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="71">
         <v>84724</v>
       </c>
-      <c r="N24" s="77">
+      <c r="N24" s="71">
         <v>87364</v>
       </c>
-      <c r="O24" s="77">
+      <c r="O24" s="71">
         <v>116108</v>
       </c>
-      <c r="P24" s="77">
+      <c r="P24" s="71">
         <v>121659</v>
       </c>
       <c r="Q24" s="41">
@@ -81854,52 +81833,52 @@
       </c>
     </row>
     <row r="25" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="77">
+      <c r="B25" s="71">
         <v>275090</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="71">
         <v>285493</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="71">
         <v>330473</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="71">
         <v>334739</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="71">
         <v>440552</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="71">
         <v>443530</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="71">
         <v>449832</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="71">
         <v>458679</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="71">
         <v>477883</v>
       </c>
-      <c r="K25" s="77">
+      <c r="K25" s="71">
         <v>497586</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="71">
         <v>515362</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="71">
         <v>550717</v>
       </c>
-      <c r="N25" s="77">
+      <c r="N25" s="71">
         <v>582344</v>
       </c>
-      <c r="O25" s="77">
+      <c r="O25" s="71">
         <v>585818</v>
       </c>
-      <c r="P25" s="77">
+      <c r="P25" s="71">
         <v>618404</v>
       </c>
       <c r="Q25" s="41">
@@ -81973,52 +81952,52 @@
       </c>
     </row>
     <row r="26" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="71">
         <v>1913</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="71">
         <v>2128</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="71">
         <v>1854</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="71">
         <v>1863</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="71">
         <v>1786</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="71">
         <v>1796</v>
       </c>
-      <c r="K26" s="77">
+      <c r="K26" s="71">
         <v>1853</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="71">
         <v>1852</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="71">
         <v>1722</v>
       </c>
-      <c r="N26" s="77">
+      <c r="N26" s="71">
         <v>1730</v>
       </c>
-      <c r="O26" s="77">
+      <c r="O26" s="71">
         <v>1728</v>
       </c>
-      <c r="P26" s="77">
+      <c r="P26" s="71">
         <v>1962</v>
       </c>
       <c r="Q26" s="43">
@@ -82092,52 +82071,52 @@
       </c>
     </row>
     <row r="27" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="71" t="s">
         <v>1598</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="71">
         <v>355</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="71">
         <v>419</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="71">
         <v>291</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="71">
         <v>318</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="71">
         <v>316</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="71">
         <v>336</v>
       </c>
-      <c r="K27" s="77">
+      <c r="K27" s="71">
         <v>360</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="71">
         <v>338</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="71">
         <v>313</v>
       </c>
-      <c r="N27" s="77">
+      <c r="N27" s="71">
         <v>299</v>
       </c>
-      <c r="O27" s="77">
+      <c r="O27" s="71">
         <v>332</v>
       </c>
-      <c r="P27" s="77">
+      <c r="P27" s="71">
         <v>345</v>
       </c>
       <c r="Q27" s="43">
@@ -82214,21 +82193,21 @@
       <c r="A28" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="41"/>
       <c r="S28" s="41"/>
@@ -82248,58 +82227,58 @@
       <c r="AG28" s="42"/>
       <c r="AH28" s="42"/>
       <c r="AI28" s="42"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
       <c r="AL28" s="41"/>
       <c r="AM28" s="41"/>
     </row>
     <row r="29" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="70" t="s">
         <v>970</v>
       </c>
-      <c r="B29" s="77">
+      <c r="B29" s="71">
         <v>16777</v>
       </c>
-      <c r="C29" s="77">
+      <c r="C29" s="71">
         <v>17033</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="71">
         <v>19377</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="71">
         <v>25515</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="71">
         <v>31662</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="71">
         <v>33597</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="71">
         <v>33597</v>
       </c>
-      <c r="I29" s="77" t="s">
+      <c r="I29" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="71">
         <v>30899</v>
       </c>
-      <c r="K29" s="77">
+      <c r="K29" s="71">
         <v>30785</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="71">
         <v>30730</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="71">
         <v>27851</v>
       </c>
-      <c r="N29" s="77">
+      <c r="N29" s="71">
         <v>28908</v>
       </c>
-      <c r="O29" s="77">
+      <c r="O29" s="71">
         <v>33790</v>
       </c>
-      <c r="P29" s="77">
+      <c r="P29" s="71">
         <v>33759</v>
       </c>
       <c r="Q29" s="46">
@@ -82373,52 +82352,52 @@
       </c>
     </row>
     <row r="30" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="70" t="s">
         <v>971</v>
       </c>
-      <c r="B30" s="77">
+      <c r="B30" s="71">
         <v>6543</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="71">
         <v>6083</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="71">
         <v>6455</v>
       </c>
-      <c r="E30" s="77">
+      <c r="E30" s="71">
         <v>6144</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="71">
         <v>7126</v>
       </c>
-      <c r="G30" s="77">
+      <c r="G30" s="71">
         <v>7522</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="71">
         <v>8236</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="71">
         <v>8311</v>
       </c>
-      <c r="K30" s="77">
+      <c r="K30" s="71">
         <v>8323</v>
       </c>
-      <c r="L30" s="77">
+      <c r="L30" s="71">
         <v>8334</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="71">
         <v>9009</v>
       </c>
-      <c r="N30" s="77">
+      <c r="N30" s="71">
         <v>9037</v>
       </c>
-      <c r="O30" s="77">
+      <c r="O30" s="71">
         <v>9966</v>
       </c>
-      <c r="P30" s="77">
+      <c r="P30" s="71">
         <v>9980</v>
       </c>
       <c r="Q30" s="46">
@@ -82492,52 +82471,52 @@
       </c>
     </row>
     <row r="31" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="78" t="s">
         <v>972</v>
       </c>
-      <c r="B31" s="77">
+      <c r="B31" s="71">
         <v>2926</v>
       </c>
-      <c r="C31" s="77">
+      <c r="C31" s="71">
         <v>2376</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="71">
         <v>1579</v>
       </c>
-      <c r="E31" s="77">
+      <c r="E31" s="71">
         <v>857</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="71">
         <v>864</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="71">
         <v>737</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="71">
         <v>636</v>
       </c>
-      <c r="I31" s="77">
+      <c r="I31" s="71">
         <v>619</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="71">
         <v>603</v>
       </c>
-      <c r="K31" s="77">
+      <c r="K31" s="71">
         <v>565</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="71">
         <v>543</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="71">
         <v>509</v>
       </c>
-      <c r="N31" s="77">
+      <c r="N31" s="71">
         <v>495</v>
       </c>
-      <c r="O31" s="77">
+      <c r="O31" s="71">
         <v>477</v>
       </c>
-      <c r="P31" s="77">
+      <c r="P31" s="71">
         <v>470</v>
       </c>
       <c r="Q31" s="46">
@@ -82611,52 +82590,52 @@
       </c>
     </row>
     <row r="32" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="79" t="s">
         <v>973</v>
       </c>
-      <c r="B32" s="77">
+      <c r="B32" s="71">
         <v>2450484</v>
       </c>
-      <c r="C32" s="77">
+      <c r="C32" s="71">
         <v>4138140</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="71">
         <v>5128345</v>
       </c>
-      <c r="E32" s="77">
+      <c r="E32" s="71">
         <v>7303286</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="71">
         <v>8577857</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="71">
         <v>9589483</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="71">
         <v>10996253</v>
       </c>
-      <c r="I32" s="77">
+      <c r="I32" s="71">
         <v>11068440</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="71">
         <v>11132386</v>
       </c>
-      <c r="K32" s="77">
+      <c r="K32" s="71">
         <v>11282736</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="71">
         <v>11429585</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="71">
         <v>11734710</v>
       </c>
-      <c r="N32" s="77">
+      <c r="N32" s="71">
         <v>11877938</v>
       </c>
-      <c r="O32" s="77">
+      <c r="O32" s="71">
         <v>12312982</v>
       </c>
-      <c r="P32" s="77">
+      <c r="P32" s="71">
         <v>12565930</v>
       </c>
       <c r="Q32" s="50">
@@ -82730,30 +82709,30 @@
       </c>
     </row>
     <row r="33" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="96" t="s">
         <v>1599</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
       <c r="W33" s="53"/>
       <c r="X33" s="53"/>
       <c r="Y33" s="53"/>
@@ -82766,114 +82745,114 @@
       <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
-      <c r="Y35" s="88"/>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="88"/>
-      <c r="AF35" s="88"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="88"/>
-      <c r="AI35" s="88"/>
-      <c r="AJ35" s="88"/>
-      <c r="AK35" s="88"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="80"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="88"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="88"/>
-      <c r="AA36" s="88"/>
-      <c r="AB36" s="88"/>
-      <c r="AC36" s="88"/>
-      <c r="AD36" s="88"/>
-      <c r="AE36" s="88"/>
-      <c r="AF36" s="88"/>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="88"/>
-      <c r="AI36" s="88"/>
-      <c r="AJ36" s="88"/>
-      <c r="AK36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="80"/>
+      <c r="AD36" s="80"/>
+      <c r="AE36" s="80"/>
+      <c r="AF36" s="80"/>
+      <c r="AG36" s="80"/>
+      <c r="AH36" s="80"/>
+      <c r="AI36" s="80"/>
+      <c r="AJ36" s="80"/>
+      <c r="AK36" s="80"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
     </row>
@@ -82902,279 +82881,279 @@
       <c r="T37" s="90"/>
       <c r="U37" s="90"/>
       <c r="V37" s="90"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="88"/>
-      <c r="AF37" s="88"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="88"/>
-      <c r="AI37" s="88"/>
-      <c r="AJ37" s="88"/>
-      <c r="AK37" s="88"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="80"/>
+      <c r="AD37" s="80"/>
+      <c r="AE37" s="80"/>
+      <c r="AF37" s="80"/>
+      <c r="AG37" s="80"/>
+      <c r="AH37" s="80"/>
+      <c r="AI37" s="80"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="80"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="88" t="s">
         <v>1600</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="88"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="88"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="88"/>
-      <c r="AI38" s="88"/>
-      <c r="AJ38" s="88"/>
-      <c r="AK38" s="88"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="80"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="80"/>
+      <c r="AD38" s="80"/>
+      <c r="AE38" s="80"/>
+      <c r="AF38" s="80"/>
+      <c r="AG38" s="80"/>
+      <c r="AH38" s="80"/>
+      <c r="AI38" s="80"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="80"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="88" t="s">
         <v>975</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="88"/>
-      <c r="Y39" s="88"/>
-      <c r="Z39" s="88"/>
-      <c r="AA39" s="88"/>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="88"/>
-      <c r="AD39" s="88"/>
-      <c r="AE39" s="88"/>
-      <c r="AF39" s="88"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="88"/>
-      <c r="AI39" s="88"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="80"/>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="80"/>
+      <c r="AB39" s="80"/>
+      <c r="AC39" s="80"/>
+      <c r="AD39" s="80"/>
+      <c r="AE39" s="80"/>
+      <c r="AF39" s="80"/>
+      <c r="AG39" s="80"/>
+      <c r="AH39" s="80"/>
+      <c r="AI39" s="80"/>
+      <c r="AJ39" s="80"/>
+      <c r="AK39" s="80"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="88" t="s">
         <v>976</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="88"/>
-      <c r="AA40" s="88"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="88"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="88"/>
-      <c r="AF40" s="88"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="88"/>
-      <c r="AI40" s="88"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="80"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="80"/>
+      <c r="AC40" s="80"/>
+      <c r="AD40" s="80"/>
+      <c r="AE40" s="80"/>
+      <c r="AF40" s="80"/>
+      <c r="AG40" s="80"/>
+      <c r="AH40" s="80"/>
+      <c r="AI40" s="80"/>
+      <c r="AJ40" s="80"/>
+      <c r="AK40" s="80"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="88" t="s">
         <v>977</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="88"/>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="80"/>
+      <c r="AD41" s="80"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="80"/>
+      <c r="AG41" s="80"/>
+      <c r="AH41" s="80"/>
+      <c r="AI41" s="80"/>
+      <c r="AJ41" s="80"/>
+      <c r="AK41" s="80"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
     </row>
     <row r="42" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="89" t="s">
         <v>978</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88"/>
-      <c r="AI42" s="88"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="80"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="80"/>
+      <c r="AE42" s="80"/>
+      <c r="AF42" s="80"/>
+      <c r="AG42" s="80"/>
+      <c r="AH42" s="80"/>
+      <c r="AI42" s="80"/>
+      <c r="AJ42" s="80"/>
+      <c r="AK42" s="80"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
     </row>
     <row r="43" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="89" t="s">
         <v>979</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="91"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="88"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="88"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="88"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="88"/>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="88"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="89"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="80"/>
+      <c r="AE43" s="80"/>
+      <c r="AF43" s="80"/>
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="80"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="80"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
     </row>
@@ -83203,2227 +83182,2227 @@
       <c r="T44" s="90"/>
       <c r="U44" s="90"/>
       <c r="V44" s="90"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="88"/>
-      <c r="AI44" s="88"/>
-      <c r="AJ44" s="88"/>
-      <c r="AK44" s="88"/>
+      <c r="W44" s="80"/>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="80"/>
+      <c r="Z44" s="80"/>
+      <c r="AA44" s="80"/>
+      <c r="AB44" s="80"/>
+      <c r="AC44" s="80"/>
+      <c r="AD44" s="80"/>
+      <c r="AE44" s="80"/>
+      <c r="AF44" s="80"/>
+      <c r="AG44" s="80"/>
+      <c r="AH44" s="80"/>
+      <c r="AI44" s="80"/>
+      <c r="AJ44" s="80"/>
+      <c r="AK44" s="80"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
     </row>
     <row r="45" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="88" t="s">
         <v>981</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="89"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="88"/>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="88"/>
-      <c r="AK45" s="88"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="80"/>
+      <c r="AB45" s="80"/>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="80"/>
+      <c r="AE45" s="80"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="80"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="80"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
     </row>
     <row r="46" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="88" t="s">
         <v>982</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="89"/>
-      <c r="V46" s="89"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="88"/>
-      <c r="AD46" s="88"/>
-      <c r="AE46" s="88"/>
-      <c r="AF46" s="88"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="88"/>
-      <c r="AI46" s="88"/>
-      <c r="AJ46" s="88"/>
-      <c r="AK46" s="88"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
+      <c r="Z46" s="80"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="80"/>
+      <c r="AC46" s="80"/>
+      <c r="AD46" s="80"/>
+      <c r="AE46" s="80"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="80"/>
+      <c r="AI46" s="80"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="80"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
     </row>
     <row r="47" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="88" t="s">
         <v>983</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="89"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="89"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="88"/>
-      <c r="AE47" s="88"/>
-      <c r="AF47" s="88"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="88"/>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
-      <c r="AK47" s="88"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="80"/>
+      <c r="Z47" s="80"/>
+      <c r="AA47" s="80"/>
+      <c r="AB47" s="80"/>
+      <c r="AC47" s="80"/>
+      <c r="AD47" s="80"/>
+      <c r="AE47" s="80"/>
+      <c r="AF47" s="80"/>
+      <c r="AG47" s="80"/>
+      <c r="AH47" s="80"/>
+      <c r="AI47" s="80"/>
+      <c r="AJ47" s="80"/>
+      <c r="AK47" s="80"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
     </row>
     <row r="48" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="88" t="s">
         <v>984</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="88"/>
-      <c r="AD48" s="88"/>
-      <c r="AE48" s="88"/>
-      <c r="AF48" s="88"/>
-      <c r="AG48" s="88"/>
-      <c r="AH48" s="88"/>
-      <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
-      <c r="AK48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="80"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="80"/>
+      <c r="AC48" s="80"/>
+      <c r="AD48" s="80"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="80"/>
+      <c r="AJ48" s="80"/>
+      <c r="AK48" s="80"/>
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
     </row>
     <row r="49" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="88" t="s">
         <v>985</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="89"/>
-      <c r="R49" s="89"/>
-      <c r="S49" s="89"/>
-      <c r="T49" s="89"/>
-      <c r="U49" s="89"/>
-      <c r="V49" s="89"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="88"/>
-      <c r="AD49" s="88"/>
-      <c r="AE49" s="88"/>
-      <c r="AF49" s="88"/>
-      <c r="AG49" s="88"/>
-      <c r="AH49" s="88"/>
-      <c r="AI49" s="88"/>
-      <c r="AJ49" s="88"/>
-      <c r="AK49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
+      <c r="AA49" s="80"/>
+      <c r="AB49" s="80"/>
+      <c r="AC49" s="80"/>
+      <c r="AD49" s="80"/>
+      <c r="AE49" s="80"/>
+      <c r="AF49" s="80"/>
+      <c r="AG49" s="80"/>
+      <c r="AH49" s="80"/>
+      <c r="AI49" s="80"/>
+      <c r="AJ49" s="80"/>
+      <c r="AK49" s="80"/>
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
     </row>
     <row r="50" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="88" t="s">
         <v>1601</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="89"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="88"/>
-      <c r="AD50" s="88"/>
-      <c r="AE50" s="88"/>
-      <c r="AF50" s="88"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="88"/>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="88"/>
-      <c r="AK50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="80"/>
+      <c r="AD50" s="80"/>
+      <c r="AE50" s="80"/>
+      <c r="AF50" s="80"/>
+      <c r="AG50" s="80"/>
+      <c r="AH50" s="80"/>
+      <c r="AI50" s="80"/>
+      <c r="AJ50" s="80"/>
+      <c r="AK50" s="80"/>
       <c r="AL50" s="7"/>
       <c r="AM50" s="7"/>
     </row>
     <row r="51" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="88"/>
-      <c r="AD51" s="88"/>
-      <c r="AE51" s="88"/>
-      <c r="AF51" s="88"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="88"/>
-      <c r="AI51" s="88"/>
-      <c r="AJ51" s="88"/>
-      <c r="AK51" s="88"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
+      <c r="Z51" s="80"/>
+      <c r="AA51" s="80"/>
+      <c r="AB51" s="80"/>
+      <c r="AC51" s="80"/>
+      <c r="AD51" s="80"/>
+      <c r="AE51" s="80"/>
+      <c r="AF51" s="80"/>
+      <c r="AG51" s="80"/>
+      <c r="AH51" s="80"/>
+      <c r="AI51" s="80"/>
+      <c r="AJ51" s="80"/>
+      <c r="AK51" s="80"/>
       <c r="AL51" s="7"/>
       <c r="AM51" s="7"/>
     </row>
     <row r="52" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="92"/>
-      <c r="Q52" s="92"/>
-      <c r="R52" s="92"/>
-      <c r="S52" s="92"/>
-      <c r="T52" s="92"/>
-      <c r="U52" s="92"/>
-      <c r="V52" s="92"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="88"/>
-      <c r="AD52" s="88"/>
-      <c r="AE52" s="88"/>
-      <c r="AF52" s="88"/>
-      <c r="AG52" s="88"/>
-      <c r="AH52" s="88"/>
-      <c r="AI52" s="88"/>
-      <c r="AJ52" s="88"/>
-      <c r="AK52" s="88"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="80"/>
+      <c r="AA52" s="80"/>
+      <c r="AB52" s="80"/>
+      <c r="AC52" s="80"/>
+      <c r="AD52" s="80"/>
+      <c r="AE52" s="80"/>
+      <c r="AF52" s="80"/>
+      <c r="AG52" s="80"/>
+      <c r="AH52" s="80"/>
+      <c r="AI52" s="80"/>
+      <c r="AJ52" s="80"/>
+      <c r="AK52" s="80"/>
       <c r="AL52" s="7"/>
       <c r="AM52" s="7"/>
     </row>
     <row r="53" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="63"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="63"/>
-      <c r="V53" s="63"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="88"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="88"/>
-      <c r="AD53" s="88"/>
-      <c r="AE53" s="88"/>
-      <c r="AF53" s="88"/>
-      <c r="AG53" s="88"/>
-      <c r="AH53" s="88"/>
-      <c r="AI53" s="88"/>
-      <c r="AJ53" s="88"/>
-      <c r="AK53" s="88"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
+      <c r="AA53" s="80"/>
+      <c r="AB53" s="80"/>
+      <c r="AC53" s="80"/>
+      <c r="AD53" s="80"/>
+      <c r="AE53" s="80"/>
+      <c r="AF53" s="80"/>
+      <c r="AG53" s="80"/>
+      <c r="AH53" s="80"/>
+      <c r="AI53" s="80"/>
+      <c r="AJ53" s="80"/>
+      <c r="AK53" s="80"/>
       <c r="AL53" s="7"/>
       <c r="AM53" s="7"/>
     </row>
     <row r="54" spans="1:39" s="14" customFormat="1" ht="38.85" customHeight="1">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="93"/>
-      <c r="V54" s="93"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="94"/>
+      <c r="V54" s="94"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
     </row>
     <row r="55" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
-      <c r="AC55" s="88"/>
-      <c r="AD55" s="88"/>
-      <c r="AE55" s="88"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="88"/>
-      <c r="AH55" s="88"/>
-      <c r="AI55" s="88"/>
-      <c r="AJ55" s="88"/>
-      <c r="AK55" s="88"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="80"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
+      <c r="AA55" s="80"/>
+      <c r="AB55" s="80"/>
+      <c r="AC55" s="80"/>
+      <c r="AD55" s="80"/>
+      <c r="AE55" s="80"/>
+      <c r="AF55" s="80"/>
+      <c r="AG55" s="80"/>
+      <c r="AH55" s="80"/>
+      <c r="AI55" s="80"/>
+      <c r="AJ55" s="80"/>
+      <c r="AK55" s="80"/>
       <c r="AL55" s="7"/>
       <c r="AM55" s="7"/>
     </row>
     <row r="56" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A56" s="63" t="s">
+      <c r="A56" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
-      <c r="AC56" s="88"/>
-      <c r="AD56" s="88"/>
-      <c r="AE56" s="88"/>
-      <c r="AF56" s="88"/>
-      <c r="AG56" s="88"/>
-      <c r="AH56" s="88"/>
-      <c r="AI56" s="88"/>
-      <c r="AJ56" s="88"/>
-      <c r="AK56" s="88"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="85"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="80"/>
+      <c r="AC56" s="80"/>
+      <c r="AD56" s="80"/>
+      <c r="AE56" s="80"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="80"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="80"/>
       <c r="AL56" s="7"/>
       <c r="AM56" s="7"/>
     </row>
     <row r="57" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
-      <c r="AC57" s="88"/>
-      <c r="AD57" s="88"/>
-      <c r="AE57" s="88"/>
-      <c r="AF57" s="88"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="88"/>
-      <c r="AI57" s="88"/>
-      <c r="AJ57" s="88"/>
-      <c r="AK57" s="88"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="82"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="80"/>
+      <c r="AC57" s="80"/>
+      <c r="AD57" s="80"/>
+      <c r="AE57" s="80"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
+      <c r="AH57" s="80"/>
+      <c r="AI57" s="80"/>
+      <c r="AJ57" s="80"/>
+      <c r="AK57" s="80"/>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
     </row>
     <row r="58" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A58" s="95"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="95"/>
-      <c r="R58" s="95"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="95"/>
-      <c r="U58" s="95"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="88"/>
-      <c r="AC58" s="88"/>
-      <c r="AD58" s="88"/>
-      <c r="AE58" s="88"/>
-      <c r="AF58" s="88"/>
-      <c r="AG58" s="88"/>
-      <c r="AH58" s="88"/>
-      <c r="AI58" s="88"/>
-      <c r="AJ58" s="88"/>
-      <c r="AK58" s="88"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="92"/>
+      <c r="N58" s="92"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="92"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="92"/>
+      <c r="T58" s="92"/>
+      <c r="U58" s="92"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="80"/>
+      <c r="AA58" s="80"/>
+      <c r="AB58" s="80"/>
+      <c r="AC58" s="80"/>
+      <c r="AD58" s="80"/>
+      <c r="AE58" s="80"/>
+      <c r="AF58" s="80"/>
+      <c r="AG58" s="80"/>
+      <c r="AH58" s="80"/>
+      <c r="AI58" s="80"/>
+      <c r="AJ58" s="80"/>
+      <c r="AK58" s="80"/>
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="96"/>
-      <c r="V59" s="96"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
-      <c r="AC59" s="88"/>
-      <c r="AD59" s="88"/>
-      <c r="AE59" s="88"/>
-      <c r="AF59" s="88"/>
-      <c r="AG59" s="88"/>
-      <c r="AH59" s="88"/>
-      <c r="AI59" s="88"/>
-      <c r="AJ59" s="88"/>
-      <c r="AK59" s="88"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="91"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="91"/>
+      <c r="T59" s="91"/>
+      <c r="U59" s="91"/>
+      <c r="V59" s="91"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="80"/>
+      <c r="Y59" s="80"/>
+      <c r="Z59" s="80"/>
+      <c r="AA59" s="80"/>
+      <c r="AB59" s="80"/>
+      <c r="AC59" s="80"/>
+      <c r="AD59" s="80"/>
+      <c r="AE59" s="80"/>
+      <c r="AF59" s="80"/>
+      <c r="AG59" s="80"/>
+      <c r="AH59" s="80"/>
+      <c r="AI59" s="80"/>
+      <c r="AJ59" s="80"/>
+      <c r="AK59" s="80"/>
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
     </row>
     <row r="60" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A60" s="96" t="s">
+      <c r="A60" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="96"/>
-      <c r="S60" s="96"/>
-      <c r="T60" s="96"/>
-      <c r="U60" s="96"/>
-      <c r="V60" s="96"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
-      <c r="AC60" s="88"/>
-      <c r="AD60" s="88"/>
-      <c r="AE60" s="88"/>
-      <c r="AF60" s="88"/>
-      <c r="AG60" s="88"/>
-      <c r="AH60" s="88"/>
-      <c r="AI60" s="88"/>
-      <c r="AJ60" s="88"/>
-      <c r="AK60" s="88"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="91"/>
+      <c r="P60" s="91"/>
+      <c r="Q60" s="91"/>
+      <c r="R60" s="91"/>
+      <c r="S60" s="91"/>
+      <c r="T60" s="91"/>
+      <c r="U60" s="91"/>
+      <c r="V60" s="91"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="80"/>
+      <c r="Y60" s="80"/>
+      <c r="Z60" s="80"/>
+      <c r="AA60" s="80"/>
+      <c r="AB60" s="80"/>
+      <c r="AC60" s="80"/>
+      <c r="AD60" s="80"/>
+      <c r="AE60" s="80"/>
+      <c r="AF60" s="80"/>
+      <c r="AG60" s="80"/>
+      <c r="AH60" s="80"/>
+      <c r="AI60" s="80"/>
+      <c r="AJ60" s="80"/>
+      <c r="AK60" s="80"/>
       <c r="AL60" s="7"/>
       <c r="AM60" s="7"/>
     </row>
     <row r="61" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="97"/>
-      <c r="R61" s="97"/>
-      <c r="S61" s="97"/>
-      <c r="T61" s="97"/>
-      <c r="U61" s="97"/>
-      <c r="V61" s="97"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="88"/>
-      <c r="AC61" s="88"/>
-      <c r="AD61" s="88"/>
-      <c r="AE61" s="88"/>
-      <c r="AF61" s="88"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="88"/>
-      <c r="AI61" s="88"/>
-      <c r="AJ61" s="88"/>
-      <c r="AK61" s="88"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
+      <c r="V61" s="83"/>
+      <c r="W61" s="80"/>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="80"/>
+      <c r="Z61" s="80"/>
+      <c r="AA61" s="80"/>
+      <c r="AB61" s="80"/>
+      <c r="AC61" s="80"/>
+      <c r="AD61" s="80"/>
+      <c r="AE61" s="80"/>
+      <c r="AF61" s="80"/>
+      <c r="AG61" s="80"/>
+      <c r="AH61" s="80"/>
+      <c r="AI61" s="80"/>
+      <c r="AJ61" s="80"/>
+      <c r="AK61" s="80"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
     </row>
     <row r="62" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="86" t="s">
         <v>986</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="R62" s="64"/>
-      <c r="S62" s="64"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="64"/>
-      <c r="V62" s="64"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AF62" s="88"/>
-      <c r="AG62" s="88"/>
-      <c r="AH62" s="88"/>
-      <c r="AI62" s="88"/>
-      <c r="AJ62" s="88"/>
-      <c r="AK62" s="88"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="86"/>
+      <c r="O62" s="86"/>
+      <c r="P62" s="86"/>
+      <c r="Q62" s="86"/>
+      <c r="R62" s="86"/>
+      <c r="S62" s="86"/>
+      <c r="T62" s="86"/>
+      <c r="U62" s="86"/>
+      <c r="V62" s="86"/>
+      <c r="W62" s="80"/>
+      <c r="X62" s="80"/>
+      <c r="Y62" s="80"/>
+      <c r="Z62" s="80"/>
+      <c r="AA62" s="80"/>
+      <c r="AB62" s="80"/>
+      <c r="AC62" s="80"/>
+      <c r="AD62" s="80"/>
+      <c r="AE62" s="80"/>
+      <c r="AF62" s="80"/>
+      <c r="AG62" s="80"/>
+      <c r="AH62" s="80"/>
+      <c r="AI62" s="80"/>
+      <c r="AJ62" s="80"/>
+      <c r="AK62" s="80"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
     </row>
     <row r="63" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="84" t="s">
         <v>987</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="88"/>
-      <c r="AA63" s="88"/>
-      <c r="AB63" s="88"/>
-      <c r="AC63" s="88"/>
-      <c r="AD63" s="88"/>
-      <c r="AE63" s="88"/>
-      <c r="AF63" s="88"/>
-      <c r="AG63" s="88"/>
-      <c r="AH63" s="88"/>
-      <c r="AI63" s="88"/>
-      <c r="AJ63" s="88"/>
-      <c r="AK63" s="88"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="84"/>
+      <c r="U63" s="84"/>
+      <c r="V63" s="84"/>
+      <c r="W63" s="80"/>
+      <c r="X63" s="80"/>
+      <c r="Y63" s="80"/>
+      <c r="Z63" s="80"/>
+      <c r="AA63" s="80"/>
+      <c r="AB63" s="80"/>
+      <c r="AC63" s="80"/>
+      <c r="AD63" s="80"/>
+      <c r="AE63" s="80"/>
+      <c r="AF63" s="80"/>
+      <c r="AG63" s="80"/>
+      <c r="AH63" s="80"/>
+      <c r="AI63" s="80"/>
+      <c r="AJ63" s="80"/>
+      <c r="AK63" s="80"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
     </row>
     <row r="64" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="84" t="s">
         <v>988</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="88"/>
-      <c r="AA64" s="88"/>
-      <c r="AB64" s="88"/>
-      <c r="AC64" s="88"/>
-      <c r="AD64" s="88"/>
-      <c r="AE64" s="88"/>
-      <c r="AF64" s="88"/>
-      <c r="AG64" s="88"/>
-      <c r="AH64" s="88"/>
-      <c r="AI64" s="88"/>
-      <c r="AJ64" s="88"/>
-      <c r="AK64" s="88"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="84"/>
+      <c r="T64" s="84"/>
+      <c r="U64" s="84"/>
+      <c r="V64" s="84"/>
+      <c r="W64" s="80"/>
+      <c r="X64" s="80"/>
+      <c r="Y64" s="80"/>
+      <c r="Z64" s="80"/>
+      <c r="AA64" s="80"/>
+      <c r="AB64" s="80"/>
+      <c r="AC64" s="80"/>
+      <c r="AD64" s="80"/>
+      <c r="AE64" s="80"/>
+      <c r="AF64" s="80"/>
+      <c r="AG64" s="80"/>
+      <c r="AH64" s="80"/>
+      <c r="AI64" s="80"/>
+      <c r="AJ64" s="80"/>
+      <c r="AK64" s="80"/>
       <c r="AL64" s="7"/>
       <c r="AM64" s="7"/>
     </row>
     <row r="65" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="84" t="s">
         <v>989</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="62"/>
-      <c r="U65" s="62"/>
-      <c r="V65" s="62"/>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
-      <c r="Z65" s="88"/>
-      <c r="AA65" s="88"/>
-      <c r="AB65" s="88"/>
-      <c r="AC65" s="88"/>
-      <c r="AD65" s="88"/>
-      <c r="AE65" s="88"/>
-      <c r="AF65" s="88"/>
-      <c r="AG65" s="88"/>
-      <c r="AH65" s="88"/>
-      <c r="AI65" s="88"/>
-      <c r="AJ65" s="88"/>
-      <c r="AK65" s="88"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="S65" s="84"/>
+      <c r="T65" s="84"/>
+      <c r="U65" s="84"/>
+      <c r="V65" s="84"/>
+      <c r="W65" s="80"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
+      <c r="Z65" s="80"/>
+      <c r="AA65" s="80"/>
+      <c r="AB65" s="80"/>
+      <c r="AC65" s="80"/>
+      <c r="AD65" s="80"/>
+      <c r="AE65" s="80"/>
+      <c r="AF65" s="80"/>
+      <c r="AG65" s="80"/>
+      <c r="AH65" s="80"/>
+      <c r="AI65" s="80"/>
+      <c r="AJ65" s="80"/>
+      <c r="AK65" s="80"/>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
     </row>
     <row r="66" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="84" t="s">
         <v>1602</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="62"/>
-      <c r="S66" s="62"/>
-      <c r="T66" s="62"/>
-      <c r="U66" s="62"/>
-      <c r="V66" s="62"/>
-      <c r="W66" s="88"/>
-      <c r="X66" s="88"/>
-      <c r="Y66" s="88"/>
-      <c r="Z66" s="88"/>
-      <c r="AA66" s="88"/>
-      <c r="AB66" s="88"/>
-      <c r="AC66" s="88"/>
-      <c r="AD66" s="88"/>
-      <c r="AE66" s="88"/>
-      <c r="AF66" s="88"/>
-      <c r="AG66" s="88"/>
-      <c r="AH66" s="88"/>
-      <c r="AI66" s="88"/>
-      <c r="AJ66" s="88"/>
-      <c r="AK66" s="88"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="S66" s="84"/>
+      <c r="T66" s="84"/>
+      <c r="U66" s="84"/>
+      <c r="V66" s="84"/>
+      <c r="W66" s="80"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
+      <c r="Z66" s="80"/>
+      <c r="AA66" s="80"/>
+      <c r="AB66" s="80"/>
+      <c r="AC66" s="80"/>
+      <c r="AD66" s="80"/>
+      <c r="AE66" s="80"/>
+      <c r="AF66" s="80"/>
+      <c r="AG66" s="80"/>
+      <c r="AH66" s="80"/>
+      <c r="AI66" s="80"/>
+      <c r="AJ66" s="80"/>
+      <c r="AK66" s="80"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
     </row>
     <row r="67" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="97"/>
-      <c r="M67" s="97"/>
-      <c r="N67" s="97"/>
-      <c r="O67" s="97"/>
-      <c r="P67" s="97"/>
-      <c r="Q67" s="97"/>
-      <c r="R67" s="97"/>
-      <c r="S67" s="97"/>
-      <c r="T67" s="97"/>
-      <c r="U67" s="97"/>
-      <c r="V67" s="97"/>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="88"/>
-      <c r="AA67" s="88"/>
-      <c r="AB67" s="88"/>
-      <c r="AC67" s="88"/>
-      <c r="AD67" s="88"/>
-      <c r="AE67" s="88"/>
-      <c r="AF67" s="88"/>
-      <c r="AG67" s="88"/>
-      <c r="AH67" s="88"/>
-      <c r="AI67" s="88"/>
-      <c r="AJ67" s="88"/>
-      <c r="AK67" s="88"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
+      <c r="R67" s="83"/>
+      <c r="S67" s="83"/>
+      <c r="T67" s="83"/>
+      <c r="U67" s="83"/>
+      <c r="V67" s="83"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="80"/>
+      <c r="AA67" s="80"/>
+      <c r="AB67" s="80"/>
+      <c r="AC67" s="80"/>
+      <c r="AD67" s="80"/>
+      <c r="AE67" s="80"/>
+      <c r="AF67" s="80"/>
+      <c r="AG67" s="80"/>
+      <c r="AH67" s="80"/>
+      <c r="AI67" s="80"/>
+      <c r="AJ67" s="80"/>
+      <c r="AK67" s="80"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
     </row>
     <row r="68" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
-      <c r="P68" s="62"/>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="62"/>
-      <c r="S68" s="62"/>
-      <c r="T68" s="62"/>
-      <c r="U68" s="62"/>
-      <c r="V68" s="62"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="88"/>
-      <c r="Y68" s="88"/>
-      <c r="Z68" s="88"/>
-      <c r="AA68" s="88"/>
-      <c r="AB68" s="88"/>
-      <c r="AC68" s="88"/>
-      <c r="AD68" s="88"/>
-      <c r="AE68" s="88"/>
-      <c r="AF68" s="88"/>
-      <c r="AG68" s="88"/>
-      <c r="AH68" s="88"/>
-      <c r="AI68" s="88"/>
-      <c r="AJ68" s="88"/>
-      <c r="AK68" s="88"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="84"/>
+      <c r="T68" s="84"/>
+      <c r="U68" s="84"/>
+      <c r="V68" s="84"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
+      <c r="Z68" s="80"/>
+      <c r="AA68" s="80"/>
+      <c r="AB68" s="80"/>
+      <c r="AC68" s="80"/>
+      <c r="AD68" s="80"/>
+      <c r="AE68" s="80"/>
+      <c r="AF68" s="80"/>
+      <c r="AG68" s="80"/>
+      <c r="AH68" s="80"/>
+      <c r="AI68" s="80"/>
+      <c r="AJ68" s="80"/>
+      <c r="AK68" s="80"/>
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
     </row>
     <row r="69" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="84" t="s">
         <v>990</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="62"/>
-      <c r="V69" s="62"/>
-      <c r="W69" s="88"/>
-      <c r="X69" s="88"/>
-      <c r="Y69" s="88"/>
-      <c r="Z69" s="88"/>
-      <c r="AA69" s="88"/>
-      <c r="AB69" s="88"/>
-      <c r="AC69" s="88"/>
-      <c r="AD69" s="88"/>
-      <c r="AE69" s="88"/>
-      <c r="AF69" s="88"/>
-      <c r="AG69" s="88"/>
-      <c r="AH69" s="88"/>
-      <c r="AI69" s="88"/>
-      <c r="AJ69" s="88"/>
-      <c r="AK69" s="88"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="84"/>
+      <c r="V69" s="84"/>
+      <c r="W69" s="80"/>
+      <c r="X69" s="80"/>
+      <c r="Y69" s="80"/>
+      <c r="Z69" s="80"/>
+      <c r="AA69" s="80"/>
+      <c r="AB69" s="80"/>
+      <c r="AC69" s="80"/>
+      <c r="AD69" s="80"/>
+      <c r="AE69" s="80"/>
+      <c r="AF69" s="80"/>
+      <c r="AG69" s="80"/>
+      <c r="AH69" s="80"/>
+      <c r="AI69" s="80"/>
+      <c r="AJ69" s="80"/>
+      <c r="AK69" s="80"/>
       <c r="AL69" s="7"/>
       <c r="AM69" s="7"/>
     </row>
     <row r="70" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A70" s="62" t="s">
+      <c r="A70" s="84" t="s">
         <v>991</v>
       </c>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="62"/>
-      <c r="P70" s="62"/>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="62"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="62"/>
-      <c r="U70" s="62"/>
-      <c r="V70" s="62"/>
-      <c r="W70" s="88"/>
-      <c r="X70" s="88"/>
-      <c r="Y70" s="88"/>
-      <c r="Z70" s="88"/>
-      <c r="AA70" s="88"/>
-      <c r="AB70" s="88"/>
-      <c r="AC70" s="88"/>
-      <c r="AD70" s="88"/>
-      <c r="AE70" s="88"/>
-      <c r="AF70" s="88"/>
-      <c r="AG70" s="88"/>
-      <c r="AH70" s="88"/>
-      <c r="AI70" s="88"/>
-      <c r="AJ70" s="88"/>
-      <c r="AK70" s="88"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="84"/>
+      <c r="V70" s="84"/>
+      <c r="W70" s="80"/>
+      <c r="X70" s="80"/>
+      <c r="Y70" s="80"/>
+      <c r="Z70" s="80"/>
+      <c r="AA70" s="80"/>
+      <c r="AB70" s="80"/>
+      <c r="AC70" s="80"/>
+      <c r="AD70" s="80"/>
+      <c r="AE70" s="80"/>
+      <c r="AF70" s="80"/>
+      <c r="AG70" s="80"/>
+      <c r="AH70" s="80"/>
+      <c r="AI70" s="80"/>
+      <c r="AJ70" s="80"/>
+      <c r="AK70" s="80"/>
       <c r="AL70" s="7"/>
       <c r="AM70" s="7"/>
     </row>
     <row r="71" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="84" t="s">
         <v>992</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="62"/>
-      <c r="U71" s="62"/>
-      <c r="V71" s="62"/>
-      <c r="W71" s="88"/>
-      <c r="X71" s="88"/>
-      <c r="Y71" s="88"/>
-      <c r="Z71" s="88"/>
-      <c r="AA71" s="88"/>
-      <c r="AB71" s="88"/>
-      <c r="AC71" s="88"/>
-      <c r="AD71" s="88"/>
-      <c r="AE71" s="88"/>
-      <c r="AF71" s="88"/>
-      <c r="AG71" s="88"/>
-      <c r="AH71" s="88"/>
-      <c r="AI71" s="88"/>
-      <c r="AJ71" s="88"/>
-      <c r="AK71" s="88"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="84"/>
+      <c r="U71" s="84"/>
+      <c r="V71" s="84"/>
+      <c r="W71" s="80"/>
+      <c r="X71" s="80"/>
+      <c r="Y71" s="80"/>
+      <c r="Z71" s="80"/>
+      <c r="AA71" s="80"/>
+      <c r="AB71" s="80"/>
+      <c r="AC71" s="80"/>
+      <c r="AD71" s="80"/>
+      <c r="AE71" s="80"/>
+      <c r="AF71" s="80"/>
+      <c r="AG71" s="80"/>
+      <c r="AH71" s="80"/>
+      <c r="AI71" s="80"/>
+      <c r="AJ71" s="80"/>
+      <c r="AK71" s="80"/>
       <c r="AL71" s="7"/>
       <c r="AM71" s="7"/>
     </row>
     <row r="72" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="84" t="s">
         <v>1603</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="62"/>
-      <c r="S72" s="62"/>
-      <c r="T72" s="62"/>
-      <c r="U72" s="62"/>
-      <c r="V72" s="62"/>
-      <c r="W72" s="88"/>
-      <c r="X72" s="88"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="88"/>
-      <c r="AA72" s="88"/>
-      <c r="AB72" s="88"/>
-      <c r="AC72" s="88"/>
-      <c r="AD72" s="88"/>
-      <c r="AE72" s="88"/>
-      <c r="AF72" s="88"/>
-      <c r="AG72" s="88"/>
-      <c r="AH72" s="88"/>
-      <c r="AI72" s="88"/>
-      <c r="AJ72" s="88"/>
-      <c r="AK72" s="88"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84"/>
+      <c r="T72" s="84"/>
+      <c r="U72" s="84"/>
+      <c r="V72" s="84"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="80"/>
+      <c r="Z72" s="80"/>
+      <c r="AA72" s="80"/>
+      <c r="AB72" s="80"/>
+      <c r="AC72" s="80"/>
+      <c r="AD72" s="80"/>
+      <c r="AE72" s="80"/>
+      <c r="AF72" s="80"/>
+      <c r="AG72" s="80"/>
+      <c r="AH72" s="80"/>
+      <c r="AI72" s="80"/>
+      <c r="AJ72" s="80"/>
+      <c r="AK72" s="80"/>
       <c r="AL72" s="7"/>
       <c r="AM72" s="7"/>
     </row>
     <row r="73" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="84" t="s">
         <v>1604</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="62"/>
-      <c r="S73" s="62"/>
-      <c r="T73" s="62"/>
-      <c r="U73" s="62"/>
-      <c r="V73" s="62"/>
-      <c r="W73" s="88"/>
-      <c r="X73" s="88"/>
-      <c r="Y73" s="88"/>
-      <c r="Z73" s="88"/>
-      <c r="AA73" s="88"/>
-      <c r="AB73" s="88"/>
-      <c r="AC73" s="88"/>
-      <c r="AD73" s="88"/>
-      <c r="AE73" s="88"/>
-      <c r="AF73" s="88"/>
-      <c r="AG73" s="88"/>
-      <c r="AH73" s="88"/>
-      <c r="AI73" s="88"/>
-      <c r="AJ73" s="88"/>
-      <c r="AK73" s="88"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="84"/>
+      <c r="T73" s="84"/>
+      <c r="U73" s="84"/>
+      <c r="V73" s="84"/>
+      <c r="W73" s="80"/>
+      <c r="X73" s="80"/>
+      <c r="Y73" s="80"/>
+      <c r="Z73" s="80"/>
+      <c r="AA73" s="80"/>
+      <c r="AB73" s="80"/>
+      <c r="AC73" s="80"/>
+      <c r="AD73" s="80"/>
+      <c r="AE73" s="80"/>
+      <c r="AF73" s="80"/>
+      <c r="AG73" s="80"/>
+      <c r="AH73" s="80"/>
+      <c r="AI73" s="80"/>
+      <c r="AJ73" s="80"/>
+      <c r="AK73" s="80"/>
       <c r="AL73" s="7"/>
       <c r="AM73" s="7"/>
     </row>
     <row r="74" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="98"/>
-      <c r="P74" s="98"/>
-      <c r="Q74" s="98"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
-      <c r="T74" s="98"/>
-      <c r="U74" s="98"/>
-      <c r="V74" s="98"/>
-      <c r="W74" s="88"/>
-      <c r="X74" s="88"/>
-      <c r="Y74" s="88"/>
-      <c r="Z74" s="88"/>
-      <c r="AA74" s="88"/>
-      <c r="AB74" s="88"/>
-      <c r="AC74" s="88"/>
-      <c r="AD74" s="88"/>
-      <c r="AE74" s="88"/>
-      <c r="AF74" s="88"/>
-      <c r="AG74" s="88"/>
-      <c r="AH74" s="88"/>
-      <c r="AI74" s="88"/>
-      <c r="AJ74" s="88"/>
-      <c r="AK74" s="88"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="87"/>
+      <c r="L74" s="87"/>
+      <c r="M74" s="87"/>
+      <c r="N74" s="87"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="87"/>
+      <c r="S74" s="87"/>
+      <c r="T74" s="87"/>
+      <c r="U74" s="87"/>
+      <c r="V74" s="87"/>
+      <c r="W74" s="80"/>
+      <c r="X74" s="80"/>
+      <c r="Y74" s="80"/>
+      <c r="Z74" s="80"/>
+      <c r="AA74" s="80"/>
+      <c r="AB74" s="80"/>
+      <c r="AC74" s="80"/>
+      <c r="AD74" s="80"/>
+      <c r="AE74" s="80"/>
+      <c r="AF74" s="80"/>
+      <c r="AG74" s="80"/>
+      <c r="AH74" s="80"/>
+      <c r="AI74" s="80"/>
+      <c r="AJ74" s="80"/>
+      <c r="AK74" s="80"/>
       <c r="AL74" s="7"/>
       <c r="AM74" s="7"/>
     </row>
     <row r="75" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="63"/>
-      <c r="T75" s="63"/>
-      <c r="U75" s="63"/>
-      <c r="V75" s="63"/>
-      <c r="W75" s="88"/>
-      <c r="X75" s="88"/>
-      <c r="Y75" s="88"/>
-      <c r="Z75" s="88"/>
-      <c r="AA75" s="88"/>
-      <c r="AB75" s="88"/>
-      <c r="AC75" s="88"/>
-      <c r="AD75" s="88"/>
-      <c r="AE75" s="88"/>
-      <c r="AF75" s="88"/>
-      <c r="AG75" s="88"/>
-      <c r="AH75" s="88"/>
-      <c r="AI75" s="88"/>
-      <c r="AJ75" s="88"/>
-      <c r="AK75" s="88"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="85"/>
+      <c r="O75" s="85"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
+      <c r="R75" s="85"/>
+      <c r="S75" s="85"/>
+      <c r="T75" s="85"/>
+      <c r="U75" s="85"/>
+      <c r="V75" s="85"/>
+      <c r="W75" s="80"/>
+      <c r="X75" s="80"/>
+      <c r="Y75" s="80"/>
+      <c r="Z75" s="80"/>
+      <c r="AA75" s="80"/>
+      <c r="AB75" s="80"/>
+      <c r="AC75" s="80"/>
+      <c r="AD75" s="80"/>
+      <c r="AE75" s="80"/>
+      <c r="AF75" s="80"/>
+      <c r="AG75" s="80"/>
+      <c r="AH75" s="80"/>
+      <c r="AI75" s="80"/>
+      <c r="AJ75" s="80"/>
+      <c r="AK75" s="80"/>
       <c r="AL75" s="7"/>
       <c r="AM75" s="7"/>
     </row>
     <row r="76" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="84" t="s">
         <v>1605</v>
       </c>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
-      <c r="O76" s="62"/>
-      <c r="P76" s="62"/>
-      <c r="Q76" s="62"/>
-      <c r="R76" s="62"/>
-      <c r="S76" s="62"/>
-      <c r="T76" s="62"/>
-      <c r="U76" s="62"/>
-      <c r="V76" s="62"/>
-      <c r="W76" s="88"/>
-      <c r="X76" s="88"/>
-      <c r="Y76" s="88"/>
-      <c r="Z76" s="88"/>
-      <c r="AA76" s="88"/>
-      <c r="AB76" s="88"/>
-      <c r="AC76" s="88"/>
-      <c r="AD76" s="88"/>
-      <c r="AE76" s="88"/>
-      <c r="AF76" s="88"/>
-      <c r="AG76" s="88"/>
-      <c r="AH76" s="88"/>
-      <c r="AI76" s="88"/>
-      <c r="AJ76" s="88"/>
-      <c r="AK76" s="88"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="S76" s="84"/>
+      <c r="T76" s="84"/>
+      <c r="U76" s="84"/>
+      <c r="V76" s="84"/>
+      <c r="W76" s="80"/>
+      <c r="X76" s="80"/>
+      <c r="Y76" s="80"/>
+      <c r="Z76" s="80"/>
+      <c r="AA76" s="80"/>
+      <c r="AB76" s="80"/>
+      <c r="AC76" s="80"/>
+      <c r="AD76" s="80"/>
+      <c r="AE76" s="80"/>
+      <c r="AF76" s="80"/>
+      <c r="AG76" s="80"/>
+      <c r="AH76" s="80"/>
+      <c r="AI76" s="80"/>
+      <c r="AJ76" s="80"/>
+      <c r="AK76" s="80"/>
       <c r="AL76" s="7"/>
       <c r="AM76" s="7"/>
     </row>
     <row r="77" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="98" t="s">
+      <c r="A77" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98"/>
-      <c r="K77" s="98"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="98"/>
-      <c r="N77" s="98"/>
-      <c r="O77" s="98"/>
-      <c r="P77" s="98"/>
-      <c r="Q77" s="98"/>
-      <c r="R77" s="98"/>
-      <c r="S77" s="98"/>
-      <c r="T77" s="98"/>
-      <c r="U77" s="98"/>
-      <c r="V77" s="98"/>
-      <c r="W77" s="88"/>
-      <c r="X77" s="88"/>
-      <c r="Y77" s="88"/>
-      <c r="Z77" s="88"/>
-      <c r="AA77" s="88"/>
-      <c r="AB77" s="88"/>
-      <c r="AC77" s="88"/>
-      <c r="AD77" s="88"/>
-      <c r="AE77" s="88"/>
-      <c r="AF77" s="88"/>
-      <c r="AG77" s="88"/>
-      <c r="AH77" s="88"/>
-      <c r="AI77" s="88"/>
-      <c r="AJ77" s="88"/>
-      <c r="AK77" s="88"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="87"/>
+      <c r="L77" s="87"/>
+      <c r="M77" s="87"/>
+      <c r="N77" s="87"/>
+      <c r="O77" s="87"/>
+      <c r="P77" s="87"/>
+      <c r="Q77" s="87"/>
+      <c r="R77" s="87"/>
+      <c r="S77" s="87"/>
+      <c r="T77" s="87"/>
+      <c r="U77" s="87"/>
+      <c r="V77" s="87"/>
+      <c r="W77" s="80"/>
+      <c r="X77" s="80"/>
+      <c r="Y77" s="80"/>
+      <c r="Z77" s="80"/>
+      <c r="AA77" s="80"/>
+      <c r="AB77" s="80"/>
+      <c r="AC77" s="80"/>
+      <c r="AD77" s="80"/>
+      <c r="AE77" s="80"/>
+      <c r="AF77" s="80"/>
+      <c r="AG77" s="80"/>
+      <c r="AH77" s="80"/>
+      <c r="AI77" s="80"/>
+      <c r="AJ77" s="80"/>
+      <c r="AK77" s="80"/>
       <c r="AL77" s="7"/>
       <c r="AM77" s="7"/>
     </row>
     <row r="78" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="84" t="s">
         <v>994</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="62"/>
-      <c r="P78" s="62"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="62"/>
-      <c r="S78" s="62"/>
-      <c r="T78" s="62"/>
-      <c r="U78" s="62"/>
-      <c r="V78" s="62"/>
-      <c r="W78" s="88"/>
-      <c r="X78" s="88"/>
-      <c r="Y78" s="88"/>
-      <c r="Z78" s="88"/>
-      <c r="AA78" s="88"/>
-      <c r="AB78" s="88"/>
-      <c r="AC78" s="88"/>
-      <c r="AD78" s="88"/>
-      <c r="AE78" s="88"/>
-      <c r="AF78" s="88"/>
-      <c r="AG78" s="88"/>
-      <c r="AH78" s="88"/>
-      <c r="AI78" s="88"/>
-      <c r="AJ78" s="88"/>
-      <c r="AK78" s="88"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="84"/>
+      <c r="S78" s="84"/>
+      <c r="T78" s="84"/>
+      <c r="U78" s="84"/>
+      <c r="V78" s="84"/>
+      <c r="W78" s="80"/>
+      <c r="X78" s="80"/>
+      <c r="Y78" s="80"/>
+      <c r="Z78" s="80"/>
+      <c r="AA78" s="80"/>
+      <c r="AB78" s="80"/>
+      <c r="AC78" s="80"/>
+      <c r="AD78" s="80"/>
+      <c r="AE78" s="80"/>
+      <c r="AF78" s="80"/>
+      <c r="AG78" s="80"/>
+      <c r="AH78" s="80"/>
+      <c r="AI78" s="80"/>
+      <c r="AJ78" s="80"/>
+      <c r="AK78" s="80"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="7"/>
     </row>
     <row r="79" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="62" t="s">
+      <c r="A79" s="84" t="s">
         <v>995</v>
       </c>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="62"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="62"/>
-      <c r="R79" s="62"/>
-      <c r="S79" s="62"/>
-      <c r="T79" s="62"/>
-      <c r="U79" s="62"/>
-      <c r="V79" s="62"/>
-      <c r="W79" s="88"/>
-      <c r="X79" s="88"/>
-      <c r="Y79" s="88"/>
-      <c r="Z79" s="88"/>
-      <c r="AA79" s="88"/>
-      <c r="AB79" s="88"/>
-      <c r="AC79" s="88"/>
-      <c r="AD79" s="88"/>
-      <c r="AE79" s="88"/>
-      <c r="AF79" s="88"/>
-      <c r="AG79" s="88"/>
-      <c r="AH79" s="88"/>
-      <c r="AI79" s="88"/>
-      <c r="AJ79" s="88"/>
-      <c r="AK79" s="88"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+      <c r="T79" s="84"/>
+      <c r="U79" s="84"/>
+      <c r="V79" s="84"/>
+      <c r="W79" s="80"/>
+      <c r="X79" s="80"/>
+      <c r="Y79" s="80"/>
+      <c r="Z79" s="80"/>
+      <c r="AA79" s="80"/>
+      <c r="AB79" s="80"/>
+      <c r="AC79" s="80"/>
+      <c r="AD79" s="80"/>
+      <c r="AE79" s="80"/>
+      <c r="AF79" s="80"/>
+      <c r="AG79" s="80"/>
+      <c r="AH79" s="80"/>
+      <c r="AI79" s="80"/>
+      <c r="AJ79" s="80"/>
+      <c r="AK79" s="80"/>
       <c r="AL79" s="7"/>
       <c r="AM79" s="7"/>
     </row>
     <row r="80" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="84" t="s">
         <v>1606</v>
       </c>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
-      <c r="O80" s="62"/>
-      <c r="P80" s="62"/>
-      <c r="Q80" s="62"/>
-      <c r="R80" s="62"/>
-      <c r="S80" s="62"/>
-      <c r="T80" s="62"/>
-      <c r="U80" s="62"/>
-      <c r="V80" s="62"/>
-      <c r="W80" s="88"/>
-      <c r="X80" s="88"/>
-      <c r="Y80" s="88"/>
-      <c r="Z80" s="88"/>
-      <c r="AA80" s="88"/>
-      <c r="AB80" s="88"/>
-      <c r="AC80" s="88"/>
-      <c r="AD80" s="88"/>
-      <c r="AE80" s="88"/>
-      <c r="AF80" s="88"/>
-      <c r="AG80" s="88"/>
-      <c r="AH80" s="88"/>
-      <c r="AI80" s="88"/>
-      <c r="AJ80" s="88"/>
-      <c r="AK80" s="88"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
+      <c r="S80" s="84"/>
+      <c r="T80" s="84"/>
+      <c r="U80" s="84"/>
+      <c r="V80" s="84"/>
+      <c r="W80" s="80"/>
+      <c r="X80" s="80"/>
+      <c r="Y80" s="80"/>
+      <c r="Z80" s="80"/>
+      <c r="AA80" s="80"/>
+      <c r="AB80" s="80"/>
+      <c r="AC80" s="80"/>
+      <c r="AD80" s="80"/>
+      <c r="AE80" s="80"/>
+      <c r="AF80" s="80"/>
+      <c r="AG80" s="80"/>
+      <c r="AH80" s="80"/>
+      <c r="AI80" s="80"/>
+      <c r="AJ80" s="80"/>
+      <c r="AK80" s="80"/>
       <c r="AL80" s="7"/>
       <c r="AM80" s="7"/>
     </row>
     <row r="81" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="98" t="s">
+      <c r="A81" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="98"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="98"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="98"/>
-      <c r="H81" s="98"/>
-      <c r="I81" s="98"/>
-      <c r="J81" s="98"/>
-      <c r="K81" s="98"/>
-      <c r="L81" s="98"/>
-      <c r="M81" s="98"/>
-      <c r="N81" s="98"/>
-      <c r="O81" s="98"/>
-      <c r="P81" s="98"/>
-      <c r="Q81" s="98"/>
-      <c r="R81" s="98"/>
-      <c r="S81" s="98"/>
-      <c r="T81" s="98"/>
-      <c r="U81" s="98"/>
-      <c r="V81" s="98"/>
-      <c r="W81" s="88"/>
-      <c r="X81" s="88"/>
-      <c r="Y81" s="88"/>
-      <c r="Z81" s="88"/>
-      <c r="AA81" s="88"/>
-      <c r="AB81" s="88"/>
-      <c r="AC81" s="88"/>
-      <c r="AD81" s="88"/>
-      <c r="AE81" s="88"/>
-      <c r="AF81" s="88"/>
-      <c r="AG81" s="88"/>
-      <c r="AH81" s="88"/>
-      <c r="AI81" s="88"/>
-      <c r="AJ81" s="88"/>
-      <c r="AK81" s="88"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="87"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="87"/>
+      <c r="K81" s="87"/>
+      <c r="L81" s="87"/>
+      <c r="M81" s="87"/>
+      <c r="N81" s="87"/>
+      <c r="O81" s="87"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="87"/>
+      <c r="R81" s="87"/>
+      <c r="S81" s="87"/>
+      <c r="T81" s="87"/>
+      <c r="U81" s="87"/>
+      <c r="V81" s="87"/>
+      <c r="W81" s="80"/>
+      <c r="X81" s="80"/>
+      <c r="Y81" s="80"/>
+      <c r="Z81" s="80"/>
+      <c r="AA81" s="80"/>
+      <c r="AB81" s="80"/>
+      <c r="AC81" s="80"/>
+      <c r="AD81" s="80"/>
+      <c r="AE81" s="80"/>
+      <c r="AF81" s="80"/>
+      <c r="AG81" s="80"/>
+      <c r="AH81" s="80"/>
+      <c r="AI81" s="80"/>
+      <c r="AJ81" s="80"/>
+      <c r="AK81" s="80"/>
       <c r="AL81" s="7"/>
       <c r="AM81" s="7"/>
     </row>
     <row r="82" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="84" t="s">
         <v>1607</v>
       </c>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="62"/>
-      <c r="P82" s="62"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="62"/>
-      <c r="S82" s="62"/>
-      <c r="T82" s="62"/>
-      <c r="U82" s="62"/>
-      <c r="V82" s="62"/>
-      <c r="W82" s="88"/>
-      <c r="X82" s="88"/>
-      <c r="Y82" s="88"/>
-      <c r="Z82" s="88"/>
-      <c r="AA82" s="88"/>
-      <c r="AB82" s="88"/>
-      <c r="AC82" s="88"/>
-      <c r="AD82" s="88"/>
-      <c r="AE82" s="88"/>
-      <c r="AF82" s="88"/>
-      <c r="AG82" s="88"/>
-      <c r="AH82" s="88"/>
-      <c r="AI82" s="88"/>
-      <c r="AJ82" s="88"/>
-      <c r="AK82" s="88"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
+      <c r="S82" s="84"/>
+      <c r="T82" s="84"/>
+      <c r="U82" s="84"/>
+      <c r="V82" s="84"/>
+      <c r="W82" s="80"/>
+      <c r="X82" s="80"/>
+      <c r="Y82" s="80"/>
+      <c r="Z82" s="80"/>
+      <c r="AA82" s="80"/>
+      <c r="AB82" s="80"/>
+      <c r="AC82" s="80"/>
+      <c r="AD82" s="80"/>
+      <c r="AE82" s="80"/>
+      <c r="AF82" s="80"/>
+      <c r="AG82" s="80"/>
+      <c r="AH82" s="80"/>
+      <c r="AI82" s="80"/>
+      <c r="AJ82" s="80"/>
+      <c r="AK82" s="80"/>
       <c r="AL82" s="7"/>
       <c r="AM82" s="7"/>
     </row>
     <row r="83" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="98" t="s">
+      <c r="A83" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="98"/>
-      <c r="H83" s="98"/>
-      <c r="I83" s="98"/>
-      <c r="J83" s="98"/>
-      <c r="K83" s="98"/>
-      <c r="L83" s="98"/>
-      <c r="M83" s="98"/>
-      <c r="N83" s="98"/>
-      <c r="O83" s="98"/>
-      <c r="P83" s="98"/>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="98"/>
-      <c r="S83" s="98"/>
-      <c r="T83" s="98"/>
-      <c r="U83" s="98"/>
-      <c r="V83" s="98"/>
-      <c r="W83" s="88"/>
-      <c r="X83" s="88"/>
-      <c r="Y83" s="88"/>
-      <c r="Z83" s="88"/>
-      <c r="AA83" s="88"/>
-      <c r="AB83" s="88"/>
-      <c r="AC83" s="88"/>
-      <c r="AD83" s="88"/>
-      <c r="AE83" s="88"/>
-      <c r="AF83" s="88"/>
-      <c r="AG83" s="88"/>
-      <c r="AH83" s="88"/>
-      <c r="AI83" s="88"/>
-      <c r="AJ83" s="88"/>
-      <c r="AK83" s="88"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="87"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+      <c r="J83" s="87"/>
+      <c r="K83" s="87"/>
+      <c r="L83" s="87"/>
+      <c r="M83" s="87"/>
+      <c r="N83" s="87"/>
+      <c r="O83" s="87"/>
+      <c r="P83" s="87"/>
+      <c r="Q83" s="87"/>
+      <c r="R83" s="87"/>
+      <c r="S83" s="87"/>
+      <c r="T83" s="87"/>
+      <c r="U83" s="87"/>
+      <c r="V83" s="87"/>
+      <c r="W83" s="80"/>
+      <c r="X83" s="80"/>
+      <c r="Y83" s="80"/>
+      <c r="Z83" s="80"/>
+      <c r="AA83" s="80"/>
+      <c r="AB83" s="80"/>
+      <c r="AC83" s="80"/>
+      <c r="AD83" s="80"/>
+      <c r="AE83" s="80"/>
+      <c r="AF83" s="80"/>
+      <c r="AG83" s="80"/>
+      <c r="AH83" s="80"/>
+      <c r="AI83" s="80"/>
+      <c r="AJ83" s="80"/>
+      <c r="AK83" s="80"/>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
     </row>
     <row r="84" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="62"/>
-      <c r="S84" s="62"/>
-      <c r="T84" s="62"/>
-      <c r="U84" s="62"/>
-      <c r="V84" s="62"/>
-      <c r="W84" s="88"/>
-      <c r="X84" s="88"/>
-      <c r="Y84" s="88"/>
-      <c r="Z84" s="88"/>
-      <c r="AA84" s="88"/>
-      <c r="AB84" s="88"/>
-      <c r="AC84" s="88"/>
-      <c r="AD84" s="88"/>
-      <c r="AE84" s="88"/>
-      <c r="AF84" s="88"/>
-      <c r="AG84" s="88"/>
-      <c r="AH84" s="88"/>
-      <c r="AI84" s="88"/>
-      <c r="AJ84" s="88"/>
-      <c r="AK84" s="88"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
+      <c r="S84" s="84"/>
+      <c r="T84" s="84"/>
+      <c r="U84" s="84"/>
+      <c r="V84" s="84"/>
+      <c r="W84" s="80"/>
+      <c r="X84" s="80"/>
+      <c r="Y84" s="80"/>
+      <c r="Z84" s="80"/>
+      <c r="AA84" s="80"/>
+      <c r="AB84" s="80"/>
+      <c r="AC84" s="80"/>
+      <c r="AD84" s="80"/>
+      <c r="AE84" s="80"/>
+      <c r="AF84" s="80"/>
+      <c r="AG84" s="80"/>
+      <c r="AH84" s="80"/>
+      <c r="AI84" s="80"/>
+      <c r="AJ84" s="80"/>
+      <c r="AK84" s="80"/>
       <c r="AL84" s="7"/>
       <c r="AM84" s="7"/>
     </row>
     <row r="85" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
-      <c r="N85" s="62"/>
-      <c r="O85" s="62"/>
-      <c r="P85" s="62"/>
-      <c r="Q85" s="62"/>
-      <c r="R85" s="62"/>
-      <c r="S85" s="62"/>
-      <c r="T85" s="62"/>
-      <c r="U85" s="62"/>
-      <c r="V85" s="62"/>
-      <c r="W85" s="88"/>
-      <c r="X85" s="88"/>
-      <c r="Y85" s="88"/>
-      <c r="Z85" s="88"/>
-      <c r="AA85" s="88"/>
-      <c r="AB85" s="88"/>
-      <c r="AC85" s="88"/>
-      <c r="AD85" s="88"/>
-      <c r="AE85" s="88"/>
-      <c r="AF85" s="88"/>
-      <c r="AG85" s="88"/>
-      <c r="AH85" s="88"/>
-      <c r="AI85" s="88"/>
-      <c r="AJ85" s="88"/>
-      <c r="AK85" s="88"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84"/>
+      <c r="R85" s="84"/>
+      <c r="S85" s="84"/>
+      <c r="T85" s="84"/>
+      <c r="U85" s="84"/>
+      <c r="V85" s="84"/>
+      <c r="W85" s="80"/>
+      <c r="X85" s="80"/>
+      <c r="Y85" s="80"/>
+      <c r="Z85" s="80"/>
+      <c r="AA85" s="80"/>
+      <c r="AB85" s="80"/>
+      <c r="AC85" s="80"/>
+      <c r="AD85" s="80"/>
+      <c r="AE85" s="80"/>
+      <c r="AF85" s="80"/>
+      <c r="AG85" s="80"/>
+      <c r="AH85" s="80"/>
+      <c r="AI85" s="80"/>
+      <c r="AJ85" s="80"/>
+      <c r="AK85" s="80"/>
       <c r="AL85" s="7"/>
       <c r="AM85" s="7"/>
     </row>
     <row r="86" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="84" t="s">
         <v>1608</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="62"/>
-      <c r="S86" s="62"/>
-      <c r="T86" s="62"/>
-      <c r="U86" s="62"/>
-      <c r="V86" s="62"/>
-      <c r="W86" s="88"/>
-      <c r="X86" s="88"/>
-      <c r="Y86" s="88"/>
-      <c r="Z86" s="88"/>
-      <c r="AA86" s="88"/>
-      <c r="AB86" s="88"/>
-      <c r="AC86" s="88"/>
-      <c r="AD86" s="88"/>
-      <c r="AE86" s="88"/>
-      <c r="AF86" s="88"/>
-      <c r="AG86" s="88"/>
-      <c r="AH86" s="88"/>
-      <c r="AI86" s="88"/>
-      <c r="AJ86" s="88"/>
-      <c r="AK86" s="88"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="84"/>
+      <c r="K86" s="84"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="84"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="84"/>
+      <c r="P86" s="84"/>
+      <c r="Q86" s="84"/>
+      <c r="R86" s="84"/>
+      <c r="S86" s="84"/>
+      <c r="T86" s="84"/>
+      <c r="U86" s="84"/>
+      <c r="V86" s="84"/>
+      <c r="W86" s="80"/>
+      <c r="X86" s="80"/>
+      <c r="Y86" s="80"/>
+      <c r="Z86" s="80"/>
+      <c r="AA86" s="80"/>
+      <c r="AB86" s="80"/>
+      <c r="AC86" s="80"/>
+      <c r="AD86" s="80"/>
+      <c r="AE86" s="80"/>
+      <c r="AF86" s="80"/>
+      <c r="AG86" s="80"/>
+      <c r="AH86" s="80"/>
+      <c r="AI86" s="80"/>
+      <c r="AJ86" s="80"/>
+      <c r="AK86" s="80"/>
       <c r="AL86" s="7"/>
       <c r="AM86" s="7"/>
     </row>
     <row r="87" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="98" t="s">
+      <c r="A87" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="98"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="98"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="98"/>
-      <c r="H87" s="98"/>
-      <c r="I87" s="98"/>
-      <c r="J87" s="98"/>
-      <c r="K87" s="98"/>
-      <c r="L87" s="98"/>
-      <c r="M87" s="98"/>
-      <c r="N87" s="98"/>
-      <c r="O87" s="98"/>
-      <c r="P87" s="98"/>
-      <c r="Q87" s="98"/>
-      <c r="R87" s="98"/>
-      <c r="S87" s="98"/>
-      <c r="T87" s="98"/>
-      <c r="U87" s="98"/>
-      <c r="V87" s="98"/>
-      <c r="W87" s="88"/>
-      <c r="X87" s="88"/>
-      <c r="Y87" s="88"/>
-      <c r="Z87" s="88"/>
-      <c r="AA87" s="88"/>
-      <c r="AB87" s="88"/>
-      <c r="AC87" s="88"/>
-      <c r="AD87" s="88"/>
-      <c r="AE87" s="88"/>
-      <c r="AF87" s="88"/>
-      <c r="AG87" s="88"/>
-      <c r="AH87" s="88"/>
-      <c r="AI87" s="88"/>
-      <c r="AJ87" s="88"/>
-      <c r="AK87" s="88"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="87"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="87"/>
+      <c r="J87" s="87"/>
+      <c r="K87" s="87"/>
+      <c r="L87" s="87"/>
+      <c r="M87" s="87"/>
+      <c r="N87" s="87"/>
+      <c r="O87" s="87"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="87"/>
+      <c r="R87" s="87"/>
+      <c r="S87" s="87"/>
+      <c r="T87" s="87"/>
+      <c r="U87" s="87"/>
+      <c r="V87" s="87"/>
+      <c r="W87" s="80"/>
+      <c r="X87" s="80"/>
+      <c r="Y87" s="80"/>
+      <c r="Z87" s="80"/>
+      <c r="AA87" s="80"/>
+      <c r="AB87" s="80"/>
+      <c r="AC87" s="80"/>
+      <c r="AD87" s="80"/>
+      <c r="AE87" s="80"/>
+      <c r="AF87" s="80"/>
+      <c r="AG87" s="80"/>
+      <c r="AH87" s="80"/>
+      <c r="AI87" s="80"/>
+      <c r="AJ87" s="80"/>
+      <c r="AK87" s="80"/>
       <c r="AL87" s="7"/>
       <c r="AM87" s="7"/>
     </row>
     <row r="88" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A88" s="97" t="s">
+      <c r="A88" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="97"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="97"/>
-      <c r="F88" s="97"/>
-      <c r="G88" s="97"/>
-      <c r="H88" s="97"/>
-      <c r="I88" s="97"/>
-      <c r="J88" s="97"/>
-      <c r="K88" s="97"/>
-      <c r="L88" s="97"/>
-      <c r="M88" s="97"/>
-      <c r="N88" s="97"/>
-      <c r="O88" s="97"/>
-      <c r="P88" s="97"/>
-      <c r="Q88" s="97"/>
-      <c r="R88" s="97"/>
-      <c r="S88" s="97"/>
-      <c r="T88" s="97"/>
-      <c r="U88" s="97"/>
-      <c r="V88" s="97"/>
-      <c r="W88" s="88"/>
-      <c r="X88" s="88"/>
-      <c r="Y88" s="88"/>
-      <c r="Z88" s="88"/>
-      <c r="AA88" s="88"/>
-      <c r="AB88" s="88"/>
-      <c r="AC88" s="88"/>
-      <c r="AD88" s="88"/>
-      <c r="AE88" s="88"/>
-      <c r="AF88" s="88"/>
-      <c r="AG88" s="88"/>
-      <c r="AH88" s="88"/>
-      <c r="AI88" s="88"/>
-      <c r="AJ88" s="88"/>
-      <c r="AK88" s="88"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
+      <c r="K88" s="83"/>
+      <c r="L88" s="83"/>
+      <c r="M88" s="83"/>
+      <c r="N88" s="83"/>
+      <c r="O88" s="83"/>
+      <c r="P88" s="83"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
+      <c r="T88" s="83"/>
+      <c r="U88" s="83"/>
+      <c r="V88" s="83"/>
+      <c r="W88" s="80"/>
+      <c r="X88" s="80"/>
+      <c r="Y88" s="80"/>
+      <c r="Z88" s="80"/>
+      <c r="AA88" s="80"/>
+      <c r="AB88" s="80"/>
+      <c r="AC88" s="80"/>
+      <c r="AD88" s="80"/>
+      <c r="AE88" s="80"/>
+      <c r="AF88" s="80"/>
+      <c r="AG88" s="80"/>
+      <c r="AH88" s="80"/>
+      <c r="AI88" s="80"/>
+      <c r="AJ88" s="80"/>
+      <c r="AK88" s="80"/>
       <c r="AL88" s="7"/>
       <c r="AM88" s="7"/>
     </row>
     <row r="89" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A89" s="63" t="s">
+      <c r="A89" s="85" t="s">
         <v>997</v>
       </c>
-      <c r="B89" s="63"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
-      <c r="N89" s="63"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="63"/>
-      <c r="R89" s="63"/>
-      <c r="S89" s="63"/>
-      <c r="T89" s="63"/>
-      <c r="U89" s="63"/>
-      <c r="V89" s="63"/>
-      <c r="W89" s="88"/>
-      <c r="X89" s="88"/>
-      <c r="Y89" s="88"/>
-      <c r="Z89" s="88"/>
-      <c r="AA89" s="88"/>
-      <c r="AB89" s="88"/>
-      <c r="AC89" s="88"/>
-      <c r="AD89" s="88"/>
-      <c r="AE89" s="88"/>
-      <c r="AF89" s="88"/>
-      <c r="AG89" s="88"/>
-      <c r="AH89" s="88"/>
-      <c r="AI89" s="88"/>
-      <c r="AJ89" s="88"/>
-      <c r="AK89" s="88"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="85"/>
+      <c r="P89" s="85"/>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="85"/>
+      <c r="S89" s="85"/>
+      <c r="T89" s="85"/>
+      <c r="U89" s="85"/>
+      <c r="V89" s="85"/>
+      <c r="W89" s="80"/>
+      <c r="X89" s="80"/>
+      <c r="Y89" s="80"/>
+      <c r="Z89" s="80"/>
+      <c r="AA89" s="80"/>
+      <c r="AB89" s="80"/>
+      <c r="AC89" s="80"/>
+      <c r="AD89" s="80"/>
+      <c r="AE89" s="80"/>
+      <c r="AF89" s="80"/>
+      <c r="AG89" s="80"/>
+      <c r="AH89" s="80"/>
+      <c r="AI89" s="80"/>
+      <c r="AJ89" s="80"/>
+      <c r="AK89" s="80"/>
       <c r="AL89" s="7"/>
       <c r="AM89" s="7"/>
     </row>
     <row r="90" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="63" t="s">
+      <c r="A90" s="85" t="s">
         <v>1609</v>
       </c>
-      <c r="B90" s="63"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="63"/>
-      <c r="O90" s="63"/>
-      <c r="P90" s="63"/>
-      <c r="Q90" s="63"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="63"/>
-      <c r="T90" s="63"/>
-      <c r="U90" s="63"/>
-      <c r="V90" s="63"/>
-      <c r="W90" s="88"/>
-      <c r="X90" s="88"/>
-      <c r="Y90" s="88"/>
-      <c r="Z90" s="88"/>
-      <c r="AA90" s="88"/>
-      <c r="AB90" s="88"/>
-      <c r="AC90" s="88"/>
-      <c r="AD90" s="88"/>
-      <c r="AE90" s="88"/>
-      <c r="AF90" s="88"/>
-      <c r="AG90" s="88"/>
-      <c r="AH90" s="88"/>
-      <c r="AI90" s="88"/>
-      <c r="AJ90" s="88"/>
-      <c r="AK90" s="88"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="85"/>
+      <c r="O90" s="85"/>
+      <c r="P90" s="85"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="85"/>
+      <c r="S90" s="85"/>
+      <c r="T90" s="85"/>
+      <c r="U90" s="85"/>
+      <c r="V90" s="85"/>
+      <c r="W90" s="80"/>
+      <c r="X90" s="80"/>
+      <c r="Y90" s="80"/>
+      <c r="Z90" s="80"/>
+      <c r="AA90" s="80"/>
+      <c r="AB90" s="80"/>
+      <c r="AC90" s="80"/>
+      <c r="AD90" s="80"/>
+      <c r="AE90" s="80"/>
+      <c r="AF90" s="80"/>
+      <c r="AG90" s="80"/>
+      <c r="AH90" s="80"/>
+      <c r="AI90" s="80"/>
+      <c r="AJ90" s="80"/>
+      <c r="AK90" s="80"/>
       <c r="AL90" s="7"/>
       <c r="AM90" s="7"/>
     </row>
     <row r="91" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="97" t="s">
+      <c r="A91" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
-      <c r="G91" s="97"/>
-      <c r="H91" s="97"/>
-      <c r="I91" s="97"/>
-      <c r="J91" s="97"/>
-      <c r="K91" s="97"/>
-      <c r="L91" s="97"/>
-      <c r="M91" s="97"/>
-      <c r="N91" s="97"/>
-      <c r="O91" s="97"/>
-      <c r="P91" s="97"/>
-      <c r="Q91" s="97"/>
-      <c r="R91" s="97"/>
-      <c r="S91" s="97"/>
-      <c r="T91" s="97"/>
-      <c r="U91" s="97"/>
-      <c r="V91" s="97"/>
-      <c r="W91" s="88"/>
-      <c r="X91" s="88"/>
-      <c r="Y91" s="88"/>
-      <c r="Z91" s="88"/>
-      <c r="AA91" s="88"/>
-      <c r="AB91" s="88"/>
-      <c r="AC91" s="88"/>
-      <c r="AD91" s="88"/>
-      <c r="AE91" s="88"/>
-      <c r="AF91" s="88"/>
-      <c r="AG91" s="88"/>
-      <c r="AH91" s="88"/>
-      <c r="AI91" s="88"/>
-      <c r="AJ91" s="88"/>
-      <c r="AK91" s="88"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="83"/>
+      <c r="M91" s="83"/>
+      <c r="N91" s="83"/>
+      <c r="O91" s="83"/>
+      <c r="P91" s="83"/>
+      <c r="Q91" s="83"/>
+      <c r="R91" s="83"/>
+      <c r="S91" s="83"/>
+      <c r="T91" s="83"/>
+      <c r="U91" s="83"/>
+      <c r="V91" s="83"/>
+      <c r="W91" s="80"/>
+      <c r="X91" s="80"/>
+      <c r="Y91" s="80"/>
+      <c r="Z91" s="80"/>
+      <c r="AA91" s="80"/>
+      <c r="AB91" s="80"/>
+      <c r="AC91" s="80"/>
+      <c r="AD91" s="80"/>
+      <c r="AE91" s="80"/>
+      <c r="AF91" s="80"/>
+      <c r="AG91" s="80"/>
+      <c r="AH91" s="80"/>
+      <c r="AI91" s="80"/>
+      <c r="AJ91" s="80"/>
+      <c r="AK91" s="80"/>
       <c r="AL91" s="7"/>
       <c r="AM91" s="7"/>
     </row>
     <row r="92" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="64" t="s">
+      <c r="A92" s="86" t="s">
         <v>998</v>
       </c>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
-      <c r="M92" s="64"/>
-      <c r="N92" s="64"/>
-      <c r="O92" s="64"/>
-      <c r="P92" s="64"/>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="64"/>
-      <c r="S92" s="64"/>
-      <c r="T92" s="64"/>
-      <c r="U92" s="64"/>
-      <c r="V92" s="64"/>
-      <c r="W92" s="88"/>
-      <c r="X92" s="88"/>
-      <c r="Y92" s="88"/>
-      <c r="Z92" s="88"/>
-      <c r="AA92" s="88"/>
-      <c r="AB92" s="88"/>
-      <c r="AC92" s="88"/>
-      <c r="AD92" s="88"/>
-      <c r="AE92" s="88"/>
-      <c r="AF92" s="88"/>
-      <c r="AG92" s="88"/>
-      <c r="AH92" s="88"/>
-      <c r="AI92" s="88"/>
-      <c r="AJ92" s="88"/>
-      <c r="AK92" s="88"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="86"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="86"/>
+      <c r="M92" s="86"/>
+      <c r="N92" s="86"/>
+      <c r="O92" s="86"/>
+      <c r="P92" s="86"/>
+      <c r="Q92" s="86"/>
+      <c r="R92" s="86"/>
+      <c r="S92" s="86"/>
+      <c r="T92" s="86"/>
+      <c r="U92" s="86"/>
+      <c r="V92" s="86"/>
+      <c r="W92" s="80"/>
+      <c r="X92" s="80"/>
+      <c r="Y92" s="80"/>
+      <c r="Z92" s="80"/>
+      <c r="AA92" s="80"/>
+      <c r="AB92" s="80"/>
+      <c r="AC92" s="80"/>
+      <c r="AD92" s="80"/>
+      <c r="AE92" s="80"/>
+      <c r="AF92" s="80"/>
+      <c r="AG92" s="80"/>
+      <c r="AH92" s="80"/>
+      <c r="AI92" s="80"/>
+      <c r="AJ92" s="80"/>
+      <c r="AK92" s="80"/>
       <c r="AL92" s="7"/>
       <c r="AM92" s="7"/>
     </row>
     <row r="93" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="63" t="s">
+      <c r="A93" s="85" t="s">
         <v>1610</v>
       </c>
-      <c r="B93" s="63"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="63"/>
-      <c r="J93" s="63"/>
-      <c r="K93" s="63"/>
-      <c r="L93" s="63"/>
-      <c r="M93" s="63"/>
-      <c r="N93" s="63"/>
-      <c r="O93" s="63"/>
-      <c r="P93" s="63"/>
-      <c r="Q93" s="63"/>
-      <c r="R93" s="63"/>
-      <c r="S93" s="63"/>
-      <c r="T93" s="63"/>
-      <c r="U93" s="63"/>
-      <c r="V93" s="63"/>
-      <c r="W93" s="88"/>
-      <c r="X93" s="88"/>
-      <c r="Y93" s="88"/>
-      <c r="Z93" s="88"/>
-      <c r="AA93" s="88"/>
-      <c r="AB93" s="88"/>
-      <c r="AC93" s="88"/>
-      <c r="AD93" s="88"/>
-      <c r="AE93" s="88"/>
-      <c r="AF93" s="88"/>
-      <c r="AG93" s="88"/>
-      <c r="AH93" s="88"/>
-      <c r="AI93" s="88"/>
-      <c r="AJ93" s="88"/>
-      <c r="AK93" s="88"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="85"/>
+      <c r="P93" s="85"/>
+      <c r="Q93" s="85"/>
+      <c r="R93" s="85"/>
+      <c r="S93" s="85"/>
+      <c r="T93" s="85"/>
+      <c r="U93" s="85"/>
+      <c r="V93" s="85"/>
+      <c r="W93" s="80"/>
+      <c r="X93" s="80"/>
+      <c r="Y93" s="80"/>
+      <c r="Z93" s="80"/>
+      <c r="AA93" s="80"/>
+      <c r="AB93" s="80"/>
+      <c r="AC93" s="80"/>
+      <c r="AD93" s="80"/>
+      <c r="AE93" s="80"/>
+      <c r="AF93" s="80"/>
+      <c r="AG93" s="80"/>
+      <c r="AH93" s="80"/>
+      <c r="AI93" s="80"/>
+      <c r="AJ93" s="80"/>
+      <c r="AK93" s="80"/>
       <c r="AL93" s="7"/>
       <c r="AM93" s="7"/>
     </row>
     <row r="94" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="94" t="s">
+      <c r="A94" s="82" t="s">
         <v>1611</v>
       </c>
-      <c r="B94" s="94"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="94"/>
-      <c r="H94" s="94"/>
-      <c r="I94" s="94"/>
-      <c r="J94" s="94"/>
-      <c r="K94" s="94"/>
-      <c r="L94" s="94"/>
-      <c r="M94" s="94"/>
-      <c r="N94" s="94"/>
-      <c r="O94" s="94"/>
-      <c r="P94" s="94"/>
-      <c r="Q94" s="94"/>
-      <c r="R94" s="94"/>
-      <c r="S94" s="94"/>
-      <c r="T94" s="94"/>
-      <c r="U94" s="94"/>
-      <c r="V94" s="94"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="82"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="82"/>
+      <c r="M94" s="82"/>
+      <c r="N94" s="82"/>
+      <c r="O94" s="82"/>
+      <c r="P94" s="82"/>
+      <c r="Q94" s="82"/>
+      <c r="R94" s="82"/>
+      <c r="S94" s="82"/>
+      <c r="T94" s="82"/>
+      <c r="U94" s="82"/>
+      <c r="V94" s="82"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
-      <c r="AA94" s="88"/>
-      <c r="AB94" s="88"/>
-      <c r="AC94" s="88"/>
-      <c r="AD94" s="88"/>
-      <c r="AE94" s="88"/>
-      <c r="AF94" s="88"/>
-      <c r="AG94" s="88"/>
-      <c r="AH94" s="88"/>
-      <c r="AI94" s="88"/>
-      <c r="AJ94" s="88"/>
-      <c r="AK94" s="88"/>
+      <c r="AA94" s="80"/>
+      <c r="AB94" s="80"/>
+      <c r="AC94" s="80"/>
+      <c r="AD94" s="80"/>
+      <c r="AE94" s="80"/>
+      <c r="AF94" s="80"/>
+      <c r="AG94" s="80"/>
+      <c r="AH94" s="80"/>
+      <c r="AI94" s="80"/>
+      <c r="AJ94" s="80"/>
+      <c r="AK94" s="80"/>
       <c r="AL94" s="7"/>
       <c r="AM94" s="7"/>
     </row>
     <row r="95" spans="1:39" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="97" t="s">
+      <c r="A95" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="97"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="97"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="97"/>
-      <c r="J95" s="97"/>
-      <c r="K95" s="97"/>
-      <c r="L95" s="97"/>
-      <c r="M95" s="97"/>
-      <c r="N95" s="97"/>
-      <c r="O95" s="97"/>
-      <c r="P95" s="97"/>
-      <c r="Q95" s="97"/>
-      <c r="R95" s="97"/>
-      <c r="S95" s="97"/>
-      <c r="T95" s="97"/>
-      <c r="U95" s="97"/>
-      <c r="V95" s="97"/>
-      <c r="W95" s="88"/>
-      <c r="X95" s="88"/>
-      <c r="Y95" s="88"/>
-      <c r="Z95" s="88"/>
-      <c r="AA95" s="88"/>
-      <c r="AB95" s="88"/>
-      <c r="AC95" s="88"/>
-      <c r="AD95" s="88"/>
-      <c r="AE95" s="88"/>
-      <c r="AF95" s="88"/>
-      <c r="AG95" s="88"/>
-      <c r="AH95" s="88"/>
-      <c r="AI95" s="88"/>
-      <c r="AJ95" s="88"/>
-      <c r="AK95" s="88"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
+      <c r="I95" s="83"/>
+      <c r="J95" s="83"/>
+      <c r="K95" s="83"/>
+      <c r="L95" s="83"/>
+      <c r="M95" s="83"/>
+      <c r="N95" s="83"/>
+      <c r="O95" s="83"/>
+      <c r="P95" s="83"/>
+      <c r="Q95" s="83"/>
+      <c r="R95" s="83"/>
+      <c r="S95" s="83"/>
+      <c r="T95" s="83"/>
+      <c r="U95" s="83"/>
+      <c r="V95" s="83"/>
+      <c r="W95" s="80"/>
+      <c r="X95" s="80"/>
+      <c r="Y95" s="80"/>
+      <c r="Z95" s="80"/>
+      <c r="AA95" s="80"/>
+      <c r="AB95" s="80"/>
+      <c r="AC95" s="80"/>
+      <c r="AD95" s="80"/>
+      <c r="AE95" s="80"/>
+      <c r="AF95" s="80"/>
+      <c r="AG95" s="80"/>
+      <c r="AH95" s="80"/>
+      <c r="AI95" s="80"/>
+      <c r="AJ95" s="80"/>
+      <c r="AK95" s="80"/>
       <c r="AL95" s="7"/>
       <c r="AM95" s="7"/>
     </row>
     <row r="96" spans="1:39" s="16" customFormat="1">
-      <c r="A96" s="62" t="s">
+      <c r="A96" s="84" t="s">
         <v>1612</v>
       </c>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="62"/>
-      <c r="N96" s="62"/>
-      <c r="O96" s="62"/>
-      <c r="P96" s="62"/>
-      <c r="Q96" s="62"/>
-      <c r="R96" s="62"/>
-      <c r="S96" s="62"/>
-      <c r="T96" s="62"/>
-      <c r="U96" s="62"/>
-      <c r="V96" s="62"/>
-      <c r="W96" s="88"/>
-      <c r="X96" s="88"/>
-      <c r="Y96" s="88"/>
-      <c r="Z96" s="88"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="84"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="84"/>
+      <c r="T96" s="84"/>
+      <c r="U96" s="84"/>
+      <c r="V96" s="84"/>
+      <c r="W96" s="80"/>
+      <c r="X96" s="80"/>
+      <c r="Y96" s="80"/>
+      <c r="Z96" s="80"/>
       <c r="AA96" s="15"/>
       <c r="AB96" s="15"/>
       <c r="AC96" s="15"/>
@@ -85440,34 +85419,34 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A94:V94"/>
-    <mergeCell ref="A95:V95"/>
-    <mergeCell ref="A96:V96"/>
-    <mergeCell ref="A89:V89"/>
-    <mergeCell ref="A90:V90"/>
-    <mergeCell ref="A91:V91"/>
-    <mergeCell ref="A92:V92"/>
-    <mergeCell ref="A93:V93"/>
-    <mergeCell ref="A84:V84"/>
-    <mergeCell ref="A85:V85"/>
-    <mergeCell ref="A86:V86"/>
-    <mergeCell ref="A87:V87"/>
-    <mergeCell ref="A88:V88"/>
-    <mergeCell ref="A47:V47"/>
-    <mergeCell ref="A48:V48"/>
-    <mergeCell ref="A49:V49"/>
-    <mergeCell ref="A50:V50"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A42:V42"/>
-    <mergeCell ref="A43:V43"/>
-    <mergeCell ref="A44:V44"/>
-    <mergeCell ref="A45:V45"/>
-    <mergeCell ref="A46:V46"/>
-    <mergeCell ref="A37:V37"/>
-    <mergeCell ref="A38:V38"/>
-    <mergeCell ref="A39:V39"/>
-    <mergeCell ref="A40:V40"/>
-    <mergeCell ref="A41:V41"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="A53:V53"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A33:V33"/>
+    <mergeCell ref="A34:V34"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="A55:V55"/>
+    <mergeCell ref="A56:V56"/>
+    <mergeCell ref="A57:V57"/>
+    <mergeCell ref="A58:V58"/>
+    <mergeCell ref="A59:V59"/>
+    <mergeCell ref="A60:V60"/>
+    <mergeCell ref="A61:V61"/>
+    <mergeCell ref="A62:V62"/>
+    <mergeCell ref="A63:V63"/>
+    <mergeCell ref="A64:V64"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A69:V69"/>
+    <mergeCell ref="A70:V70"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="A73:V73"/>
+    <mergeCell ref="A74:V74"/>
     <mergeCell ref="A80:V80"/>
     <mergeCell ref="A81:V81"/>
     <mergeCell ref="A82:V82"/>
@@ -85477,34 +85456,34 @@
     <mergeCell ref="A77:V77"/>
     <mergeCell ref="A78:V78"/>
     <mergeCell ref="A79:V79"/>
-    <mergeCell ref="A70:V70"/>
-    <mergeCell ref="A71:V71"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="A73:V73"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="A67:V67"/>
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A69:V69"/>
-    <mergeCell ref="A60:V60"/>
-    <mergeCell ref="A61:V61"/>
-    <mergeCell ref="A62:V62"/>
-    <mergeCell ref="A63:V63"/>
-    <mergeCell ref="A64:V64"/>
-    <mergeCell ref="A55:V55"/>
-    <mergeCell ref="A56:V56"/>
-    <mergeCell ref="A57:V57"/>
-    <mergeCell ref="A58:V58"/>
-    <mergeCell ref="A59:V59"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="A53:V53"/>
-    <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A33:V33"/>
-    <mergeCell ref="A34:V34"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="A37:V37"/>
+    <mergeCell ref="A38:V38"/>
+    <mergeCell ref="A39:V39"/>
+    <mergeCell ref="A40:V40"/>
+    <mergeCell ref="A41:V41"/>
+    <mergeCell ref="A42:V42"/>
+    <mergeCell ref="A43:V43"/>
+    <mergeCell ref="A44:V44"/>
+    <mergeCell ref="A45:V45"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="A48:V48"/>
+    <mergeCell ref="A49:V49"/>
+    <mergeCell ref="A50:V50"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A84:V84"/>
+    <mergeCell ref="A85:V85"/>
+    <mergeCell ref="A86:V86"/>
+    <mergeCell ref="A87:V87"/>
+    <mergeCell ref="A88:V88"/>
+    <mergeCell ref="A94:V94"/>
+    <mergeCell ref="A95:V95"/>
+    <mergeCell ref="A96:V96"/>
+    <mergeCell ref="A89:V89"/>
+    <mergeCell ref="A90:V90"/>
+    <mergeCell ref="A91:V91"/>
+    <mergeCell ref="A92:V92"/>
+    <mergeCell ref="A93:V93"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:P3 B4:B32">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="false">

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0F176-EFE5-4E2E-8133-3F45F854E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501B90F0-5DAF-40B0-9BA5-60EEE8D036BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7356,40 +7356,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7406,6 +7376,36 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="146">
@@ -7556,28 +7556,7 @@
     <cellStyle name="Wrap Bold" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Wrap Title" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -7709,9 +7688,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7749,9 +7728,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7784,26 +7763,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7836,26 +7798,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8031,7 +7976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8867,7 +8812,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9155,8 +9100,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9218,8 +9163,8 @@
         <v>10118227.405999999</v>
       </c>
       <c r="F2" s="6">
-        <f>INDEX('AEO 2021 45'!67:67,MATCH(About!$B$88,'AEO 2021 45'!$1:$1,0))*10^6+INDEX('AEO 2021 45'!68:68,MATCH(About!$B$88,'AEO 2021 45'!$1:$1,0))*10^6+SUM(SUM(INDEX('AEO 2021 49'!$140:$141,0,MATCH(About!$B$88,'AEO 2021 49'!1:1,0))),SUM(INDEX('AEO 2021 49'!$151:$152,0,MATCH(About!$B$88,'AEO 2021 49'!1:1,0))))*10^6</f>
-        <v>1946802</v>
+        <f>INDEX('AEO 2021 45'!67:67,MATCH(About!$B$88,'AEO 2021 45'!$1:$1,0))*1000+INDEX('AEO 2021 45'!68:68,MATCH(About!$B$88,'AEO 2021 45'!$1:$1,0))*1000+SUM(SUM(INDEX('AEO 2021 49'!$140:$141,0,MATCH(About!$B$88,'AEO 2021 49'!1:1,0))),SUM(INDEX('AEO 2021 49'!$151:$152,0,MATCH(About!$B$88,'AEO 2021 49'!1:1,0))))*10^6</f>
+        <v>2848.8989999999999</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(INDEX('AEO 2021 45'!63:63,0,MATCH(About!$B$88,'AEO 2021 45'!1:1,0)))*1000+SUM(INDEX('AEO 2021 49'!$136:$136,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)),INDEX('AEO 2021 49'!$147:$147,MATCH(About!$B$88,'AEO 2021 49'!$1:$1,0)))*10^6</f>
@@ -25802,8 +25747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -30366,7 +30311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -55335,7 +55280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -79286,47 +79231,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
     </row>
     <row r="2" spans="1:39" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -82709,30 +82654,30 @@
       </c>
     </row>
     <row r="33" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="86" t="s">
         <v>1599</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
       <c r="W33" s="53"/>
       <c r="X33" s="53"/>
       <c r="Y33" s="53"/>
@@ -82745,56 +82690,56 @@
       <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
-      <c r="U35" s="98"/>
-      <c r="V35" s="98"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
       <c r="W35" s="80"/>
       <c r="X35" s="80"/>
       <c r="Y35" s="80"/>
@@ -82814,30 +82759,30 @@
       <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="88"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
       <c r="W36" s="80"/>
       <c r="X36" s="80"/>
       <c r="Y36" s="80"/>
@@ -82857,30 +82802,30 @@
       <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="1:39" s="14" customFormat="1" ht="38.85" customHeight="1">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="97" t="s">
         <v>974</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="97"/>
       <c r="W37" s="80"/>
       <c r="X37" s="80"/>
       <c r="Y37" s="80"/>
@@ -82900,30 +82845,30 @@
       <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="89" t="s">
         <v>1600</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
       <c r="W38" s="80"/>
       <c r="X38" s="80"/>
       <c r="Y38" s="80"/>
@@ -82943,30 +82888,30 @@
       <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="89" t="s">
         <v>975</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="89"/>
       <c r="W39" s="80"/>
       <c r="X39" s="80"/>
       <c r="Y39" s="80"/>
@@ -82986,30 +82931,30 @@
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="89" t="s">
         <v>976</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
       <c r="W40" s="80"/>
       <c r="X40" s="80"/>
       <c r="Y40" s="80"/>
@@ -83029,30 +82974,30 @@
       <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="89" t="s">
         <v>977</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
       <c r="W41" s="80"/>
       <c r="X41" s="80"/>
       <c r="Y41" s="80"/>
@@ -83072,30 +83017,30 @@
       <c r="AM41" s="7"/>
     </row>
     <row r="42" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="98" t="s">
         <v>978</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89"/>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
-      <c r="V42" s="89"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="98"/>
+      <c r="S42" s="98"/>
+      <c r="T42" s="98"/>
+      <c r="U42" s="98"/>
+      <c r="V42" s="98"/>
       <c r="W42" s="80"/>
       <c r="X42" s="80"/>
       <c r="Y42" s="80"/>
@@ -83115,30 +83060,30 @@
       <c r="AM42" s="7"/>
     </row>
     <row r="43" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="98" t="s">
         <v>979</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="89"/>
-      <c r="U43" s="89"/>
-      <c r="V43" s="89"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="98"/>
+      <c r="R43" s="98"/>
+      <c r="S43" s="98"/>
+      <c r="T43" s="98"/>
+      <c r="U43" s="98"/>
+      <c r="V43" s="98"/>
       <c r="W43" s="80"/>
       <c r="X43" s="80"/>
       <c r="Y43" s="80"/>
@@ -83158,30 +83103,30 @@
       <c r="AM43" s="7"/>
     </row>
     <row r="44" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="97" t="s">
         <v>980</v>
       </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
       <c r="W44" s="80"/>
       <c r="X44" s="80"/>
       <c r="Y44" s="80"/>
@@ -83201,30 +83146,30 @@
       <c r="AM44" s="7"/>
     </row>
     <row r="45" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="89" t="s">
         <v>981</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="89"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="89"/>
       <c r="W45" s="80"/>
       <c r="X45" s="80"/>
       <c r="Y45" s="80"/>
@@ -83244,30 +83189,30 @@
       <c r="AM45" s="7"/>
     </row>
     <row r="46" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="89" t="s">
         <v>982</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
       <c r="W46" s="80"/>
       <c r="X46" s="80"/>
       <c r="Y46" s="80"/>
@@ -83287,30 +83232,30 @@
       <c r="AM46" s="7"/>
     </row>
     <row r="47" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="89" t="s">
         <v>983</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
       <c r="W47" s="80"/>
       <c r="X47" s="80"/>
       <c r="Y47" s="80"/>
@@ -83330,30 +83275,30 @@
       <c r="AM47" s="7"/>
     </row>
     <row r="48" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="89" t="s">
         <v>984</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
       <c r="W48" s="80"/>
       <c r="X48" s="80"/>
       <c r="Y48" s="80"/>
@@ -83373,30 +83318,30 @@
       <c r="AM48" s="7"/>
     </row>
     <row r="49" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="89" t="s">
         <v>985</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
       <c r="W49" s="80"/>
       <c r="X49" s="80"/>
       <c r="Y49" s="80"/>
@@ -83416,30 +83361,30 @@
       <c r="AM49" s="7"/>
     </row>
     <row r="50" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="89" t="s">
         <v>1601</v>
       </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
       <c r="W50" s="80"/>
       <c r="X50" s="80"/>
       <c r="Y50" s="80"/>
@@ -83459,28 +83404,28 @@
       <c r="AM50" s="7"/>
     </row>
     <row r="51" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
       <c r="W51" s="80"/>
       <c r="X51" s="80"/>
       <c r="Y51" s="80"/>
@@ -83500,30 +83445,30 @@
       <c r="AM51" s="7"/>
     </row>
     <row r="52" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
       <c r="W52" s="80"/>
       <c r="X52" s="80"/>
       <c r="Y52" s="80"/>
@@ -83543,30 +83488,30 @@
       <c r="AM52" s="7"/>
     </row>
     <row r="53" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="83"/>
+      <c r="V53" s="83"/>
       <c r="W53" s="80"/>
       <c r="X53" s="80"/>
       <c r="Y53" s="80"/>
@@ -83586,58 +83531,58 @@
       <c r="AM53" s="7"/>
     </row>
     <row r="54" spans="1:39" s="14" customFormat="1" ht="38.85" customHeight="1">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
     </row>
     <row r="55" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-      <c r="Q55" s="85"/>
-      <c r="R55" s="85"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="85"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="83"/>
       <c r="W55" s="80"/>
       <c r="X55" s="80"/>
       <c r="Y55" s="80"/>
@@ -83657,30 +83602,30 @@
       <c r="AM55" s="7"/>
     </row>
     <row r="56" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="85"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="83"/>
       <c r="W56" s="80"/>
       <c r="X56" s="80"/>
       <c r="Y56" s="80"/>
@@ -83700,30 +83645,30 @@
       <c r="AM56" s="7"/>
     </row>
     <row r="57" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="82"/>
-      <c r="V57" s="82"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="90"/>
       <c r="W57" s="80"/>
       <c r="X57" s="80"/>
       <c r="Y57" s="80"/>
@@ -83743,28 +83688,28 @@
       <c r="AM57" s="7"/>
     </row>
     <row r="58" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="92"/>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="92"/>
-      <c r="T58" s="92"/>
-      <c r="U58" s="92"/>
-      <c r="V58" s="92"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="91"/>
+      <c r="T58" s="91"/>
+      <c r="U58" s="91"/>
+      <c r="V58" s="91"/>
       <c r="W58" s="80"/>
       <c r="X58" s="80"/>
       <c r="Y58" s="80"/>
@@ -83784,30 +83729,30 @@
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="91"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="91"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="91"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="91"/>
-      <c r="U59" s="91"/>
-      <c r="V59" s="91"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="92"/>
+      <c r="N59" s="92"/>
+      <c r="O59" s="92"/>
+      <c r="P59" s="92"/>
+      <c r="Q59" s="92"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="92"/>
+      <c r="T59" s="92"/>
+      <c r="U59" s="92"/>
+      <c r="V59" s="92"/>
       <c r="W59" s="80"/>
       <c r="X59" s="80"/>
       <c r="Y59" s="80"/>
@@ -83827,30 +83772,30 @@
       <c r="AM59" s="7"/>
     </row>
     <row r="60" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A60" s="91" t="s">
+      <c r="A60" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="91"/>
-      <c r="O60" s="91"/>
-      <c r="P60" s="91"/>
-      <c r="Q60" s="91"/>
-      <c r="R60" s="91"/>
-      <c r="S60" s="91"/>
-      <c r="T60" s="91"/>
-      <c r="U60" s="91"/>
-      <c r="V60" s="91"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="92"/>
+      <c r="T60" s="92"/>
+      <c r="U60" s="92"/>
+      <c r="V60" s="92"/>
       <c r="W60" s="80"/>
       <c r="X60" s="80"/>
       <c r="Y60" s="80"/>
@@ -83870,30 +83815,30 @@
       <c r="AM60" s="7"/>
     </row>
     <row r="61" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="83"/>
-      <c r="U61" s="83"/>
-      <c r="V61" s="83"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="93"/>
+      <c r="V61" s="93"/>
       <c r="W61" s="80"/>
       <c r="X61" s="80"/>
       <c r="Y61" s="80"/>
@@ -83913,30 +83858,30 @@
       <c r="AM61" s="7"/>
     </row>
     <row r="62" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="94" t="s">
         <v>986</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-      <c r="O62" s="86"/>
-      <c r="P62" s="86"/>
-      <c r="Q62" s="86"/>
-      <c r="R62" s="86"/>
-      <c r="S62" s="86"/>
-      <c r="T62" s="86"/>
-      <c r="U62" s="86"/>
-      <c r="V62" s="86"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="94"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="94"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
+      <c r="T62" s="94"/>
+      <c r="U62" s="94"/>
+      <c r="V62" s="94"/>
       <c r="W62" s="80"/>
       <c r="X62" s="80"/>
       <c r="Y62" s="80"/>
@@ -83956,30 +83901,30 @@
       <c r="AM62" s="7"/>
     </row>
     <row r="63" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="95" t="s">
         <v>987</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="84"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
+      <c r="O63" s="95"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="95"/>
+      <c r="R63" s="95"/>
+      <c r="S63" s="95"/>
+      <c r="T63" s="95"/>
+      <c r="U63" s="95"/>
+      <c r="V63" s="95"/>
       <c r="W63" s="80"/>
       <c r="X63" s="80"/>
       <c r="Y63" s="80"/>
@@ -83999,30 +83944,30 @@
       <c r="AM63" s="7"/>
     </row>
     <row r="64" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="95" t="s">
         <v>988</v>
       </c>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="S64" s="84"/>
-      <c r="T64" s="84"/>
-      <c r="U64" s="84"/>
-      <c r="V64" s="84"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95"/>
+      <c r="L64" s="95"/>
+      <c r="M64" s="95"/>
+      <c r="N64" s="95"/>
+      <c r="O64" s="95"/>
+      <c r="P64" s="95"/>
+      <c r="Q64" s="95"/>
+      <c r="R64" s="95"/>
+      <c r="S64" s="95"/>
+      <c r="T64" s="95"/>
+      <c r="U64" s="95"/>
+      <c r="V64" s="95"/>
       <c r="W64" s="80"/>
       <c r="X64" s="80"/>
       <c r="Y64" s="80"/>
@@ -84042,30 +83987,30 @@
       <c r="AM64" s="7"/>
     </row>
     <row r="65" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="95" t="s">
         <v>989</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="84"/>
-      <c r="V65" s="84"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="95"/>
+      <c r="R65" s="95"/>
+      <c r="S65" s="95"/>
+      <c r="T65" s="95"/>
+      <c r="U65" s="95"/>
+      <c r="V65" s="95"/>
       <c r="W65" s="80"/>
       <c r="X65" s="80"/>
       <c r="Y65" s="80"/>
@@ -84085,30 +84030,30 @@
       <c r="AM65" s="7"/>
     </row>
     <row r="66" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="95" t="s">
         <v>1602</v>
       </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
-      <c r="U66" s="84"/>
-      <c r="V66" s="84"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="95"/>
+      <c r="R66" s="95"/>
+      <c r="S66" s="95"/>
+      <c r="T66" s="95"/>
+      <c r="U66" s="95"/>
+      <c r="V66" s="95"/>
       <c r="W66" s="80"/>
       <c r="X66" s="80"/>
       <c r="Y66" s="80"/>
@@ -84128,30 +84073,30 @@
       <c r="AM66" s="7"/>
     </row>
     <row r="67" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="83"/>
-      <c r="S67" s="83"/>
-      <c r="T67" s="83"/>
-      <c r="U67" s="83"/>
-      <c r="V67" s="83"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="93"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="93"/>
+      <c r="U67" s="93"/>
+      <c r="V67" s="93"/>
       <c r="W67" s="80"/>
       <c r="X67" s="80"/>
       <c r="Y67" s="80"/>
@@ -84171,30 +84116,30 @@
       <c r="AM67" s="7"/>
     </row>
     <row r="68" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="84"/>
-      <c r="V68" s="84"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="95"/>
+      <c r="N68" s="95"/>
+      <c r="O68" s="95"/>
+      <c r="P68" s="95"/>
+      <c r="Q68" s="95"/>
+      <c r="R68" s="95"/>
+      <c r="S68" s="95"/>
+      <c r="T68" s="95"/>
+      <c r="U68" s="95"/>
+      <c r="V68" s="95"/>
       <c r="W68" s="80"/>
       <c r="X68" s="80"/>
       <c r="Y68" s="80"/>
@@ -84214,30 +84159,30 @@
       <c r="AM68" s="7"/>
     </row>
     <row r="69" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="95" t="s">
         <v>990</v>
       </c>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="95"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="95"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="95"/>
+      <c r="T69" s="95"/>
+      <c r="U69" s="95"/>
+      <c r="V69" s="95"/>
       <c r="W69" s="80"/>
       <c r="X69" s="80"/>
       <c r="Y69" s="80"/>
@@ -84257,30 +84202,30 @@
       <c r="AM69" s="7"/>
     </row>
     <row r="70" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="95" t="s">
         <v>991</v>
       </c>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="95"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="95"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="95"/>
+      <c r="N70" s="95"/>
+      <c r="O70" s="95"/>
+      <c r="P70" s="95"/>
+      <c r="Q70" s="95"/>
+      <c r="R70" s="95"/>
+      <c r="S70" s="95"/>
+      <c r="T70" s="95"/>
+      <c r="U70" s="95"/>
+      <c r="V70" s="95"/>
       <c r="W70" s="80"/>
       <c r="X70" s="80"/>
       <c r="Y70" s="80"/>
@@ -84300,30 +84245,30 @@
       <c r="AM70" s="7"/>
     </row>
     <row r="71" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="95" t="s">
         <v>992</v>
       </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="84"/>
-      <c r="V71" s="84"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="95"/>
+      <c r="Q71" s="95"/>
+      <c r="R71" s="95"/>
+      <c r="S71" s="95"/>
+      <c r="T71" s="95"/>
+      <c r="U71" s="95"/>
+      <c r="V71" s="95"/>
       <c r="W71" s="80"/>
       <c r="X71" s="80"/>
       <c r="Y71" s="80"/>
@@ -84343,30 +84288,30 @@
       <c r="AM71" s="7"/>
     </row>
     <row r="72" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="95" t="s">
         <v>1603</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84"/>
-      <c r="T72" s="84"/>
-      <c r="U72" s="84"/>
-      <c r="V72" s="84"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="95"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="95"/>
+      <c r="N72" s="95"/>
+      <c r="O72" s="95"/>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="95"/>
+      <c r="R72" s="95"/>
+      <c r="S72" s="95"/>
+      <c r="T72" s="95"/>
+      <c r="U72" s="95"/>
+      <c r="V72" s="95"/>
       <c r="W72" s="80"/>
       <c r="X72" s="80"/>
       <c r="Y72" s="80"/>
@@ -84386,30 +84331,30 @@
       <c r="AM72" s="7"/>
     </row>
     <row r="73" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="95" t="s">
         <v>1604</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
-      <c r="U73" s="84"/>
-      <c r="V73" s="84"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="95"/>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="95"/>
+      <c r="R73" s="95"/>
+      <c r="S73" s="95"/>
+      <c r="T73" s="95"/>
+      <c r="U73" s="95"/>
+      <c r="V73" s="95"/>
       <c r="W73" s="80"/>
       <c r="X73" s="80"/>
       <c r="Y73" s="80"/>
@@ -84429,30 +84374,30 @@
       <c r="AM73" s="7"/>
     </row>
     <row r="74" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="87"/>
-      <c r="M74" s="87"/>
-      <c r="N74" s="87"/>
-      <c r="O74" s="87"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="87"/>
-      <c r="S74" s="87"/>
-      <c r="T74" s="87"/>
-      <c r="U74" s="87"/>
-      <c r="V74" s="87"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="96"/>
+      <c r="V74" s="96"/>
       <c r="W74" s="80"/>
       <c r="X74" s="80"/>
       <c r="Y74" s="80"/>
@@ -84472,30 +84417,30 @@
       <c r="AM74" s="7"/>
     </row>
     <row r="75" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="85" t="s">
+      <c r="A75" s="83" t="s">
         <v>993</v>
       </c>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="85"/>
-      <c r="Q75" s="85"/>
-      <c r="R75" s="85"/>
-      <c r="S75" s="85"/>
-      <c r="T75" s="85"/>
-      <c r="U75" s="85"/>
-      <c r="V75" s="85"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="83"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="83"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="83"/>
+      <c r="R75" s="83"/>
+      <c r="S75" s="83"/>
+      <c r="T75" s="83"/>
+      <c r="U75" s="83"/>
+      <c r="V75" s="83"/>
       <c r="W75" s="80"/>
       <c r="X75" s="80"/>
       <c r="Y75" s="80"/>
@@ -84515,30 +84460,30 @@
       <c r="AM75" s="7"/>
     </row>
     <row r="76" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="95" t="s">
         <v>1605</v>
       </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
-      <c r="R76" s="84"/>
-      <c r="S76" s="84"/>
-      <c r="T76" s="84"/>
-      <c r="U76" s="84"/>
-      <c r="V76" s="84"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="95"/>
+      <c r="K76" s="95"/>
+      <c r="L76" s="95"/>
+      <c r="M76" s="95"/>
+      <c r="N76" s="95"/>
+      <c r="O76" s="95"/>
+      <c r="P76" s="95"/>
+      <c r="Q76" s="95"/>
+      <c r="R76" s="95"/>
+      <c r="S76" s="95"/>
+      <c r="T76" s="95"/>
+      <c r="U76" s="95"/>
+      <c r="V76" s="95"/>
       <c r="W76" s="80"/>
       <c r="X76" s="80"/>
       <c r="Y76" s="80"/>
@@ -84558,30 +84503,30 @@
       <c r="AM76" s="7"/>
     </row>
     <row r="77" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="87"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="87"/>
-      <c r="N77" s="87"/>
-      <c r="O77" s="87"/>
-      <c r="P77" s="87"/>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="87"/>
-      <c r="S77" s="87"/>
-      <c r="T77" s="87"/>
-      <c r="U77" s="87"/>
-      <c r="V77" s="87"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="96"/>
+      <c r="Q77" s="96"/>
+      <c r="R77" s="96"/>
+      <c r="S77" s="96"/>
+      <c r="T77" s="96"/>
+      <c r="U77" s="96"/>
+      <c r="V77" s="96"/>
       <c r="W77" s="80"/>
       <c r="X77" s="80"/>
       <c r="Y77" s="80"/>
@@ -84601,30 +84546,30 @@
       <c r="AM77" s="7"/>
     </row>
     <row r="78" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="84" t="s">
+      <c r="A78" s="95" t="s">
         <v>994</v>
       </c>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="84"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84"/>
-      <c r="R78" s="84"/>
-      <c r="S78" s="84"/>
-      <c r="T78" s="84"/>
-      <c r="U78" s="84"/>
-      <c r="V78" s="84"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="95"/>
+      <c r="U78" s="95"/>
+      <c r="V78" s="95"/>
       <c r="W78" s="80"/>
       <c r="X78" s="80"/>
       <c r="Y78" s="80"/>
@@ -84644,30 +84589,30 @@
       <c r="AM78" s="7"/>
     </row>
     <row r="79" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="95" t="s">
         <v>995</v>
       </c>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
-      <c r="S79" s="84"/>
-      <c r="T79" s="84"/>
-      <c r="U79" s="84"/>
-      <c r="V79" s="84"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="95"/>
+      <c r="P79" s="95"/>
+      <c r="Q79" s="95"/>
+      <c r="R79" s="95"/>
+      <c r="S79" s="95"/>
+      <c r="T79" s="95"/>
+      <c r="U79" s="95"/>
+      <c r="V79" s="95"/>
       <c r="W79" s="80"/>
       <c r="X79" s="80"/>
       <c r="Y79" s="80"/>
@@ -84687,30 +84632,30 @@
       <c r="AM79" s="7"/>
     </row>
     <row r="80" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="95" t="s">
         <v>1606</v>
       </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="R80" s="84"/>
-      <c r="S80" s="84"/>
-      <c r="T80" s="84"/>
-      <c r="U80" s="84"/>
-      <c r="V80" s="84"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="95"/>
+      <c r="I80" s="95"/>
+      <c r="J80" s="95"/>
+      <c r="K80" s="95"/>
+      <c r="L80" s="95"/>
+      <c r="M80" s="95"/>
+      <c r="N80" s="95"/>
+      <c r="O80" s="95"/>
+      <c r="P80" s="95"/>
+      <c r="Q80" s="95"/>
+      <c r="R80" s="95"/>
+      <c r="S80" s="95"/>
+      <c r="T80" s="95"/>
+      <c r="U80" s="95"/>
+      <c r="V80" s="95"/>
       <c r="W80" s="80"/>
       <c r="X80" s="80"/>
       <c r="Y80" s="80"/>
@@ -84730,30 +84675,30 @@
       <c r="AM80" s="7"/>
     </row>
     <row r="81" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="87"/>
-      <c r="P81" s="87"/>
-      <c r="Q81" s="87"/>
-      <c r="R81" s="87"/>
-      <c r="S81" s="87"/>
-      <c r="T81" s="87"/>
-      <c r="U81" s="87"/>
-      <c r="V81" s="87"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="96"/>
+      <c r="L81" s="96"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="96"/>
+      <c r="O81" s="96"/>
+      <c r="P81" s="96"/>
+      <c r="Q81" s="96"/>
+      <c r="R81" s="96"/>
+      <c r="S81" s="96"/>
+      <c r="T81" s="96"/>
+      <c r="U81" s="96"/>
+      <c r="V81" s="96"/>
       <c r="W81" s="80"/>
       <c r="X81" s="80"/>
       <c r="Y81" s="80"/>
@@ -84773,30 +84718,30 @@
       <c r="AM81" s="7"/>
     </row>
     <row r="82" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="95" t="s">
         <v>1607</v>
       </c>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
-      <c r="S82" s="84"/>
-      <c r="T82" s="84"/>
-      <c r="U82" s="84"/>
-      <c r="V82" s="84"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="95"/>
+      <c r="L82" s="95"/>
+      <c r="M82" s="95"/>
+      <c r="N82" s="95"/>
+      <c r="O82" s="95"/>
+      <c r="P82" s="95"/>
+      <c r="Q82" s="95"/>
+      <c r="R82" s="95"/>
+      <c r="S82" s="95"/>
+      <c r="T82" s="95"/>
+      <c r="U82" s="95"/>
+      <c r="V82" s="95"/>
       <c r="W82" s="80"/>
       <c r="X82" s="80"/>
       <c r="Y82" s="80"/>
@@ -84816,30 +84761,30 @@
       <c r="AM82" s="7"/>
     </row>
     <row r="83" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="87"/>
-      <c r="K83" s="87"/>
-      <c r="L83" s="87"/>
-      <c r="M83" s="87"/>
-      <c r="N83" s="87"/>
-      <c r="O83" s="87"/>
-      <c r="P83" s="87"/>
-      <c r="Q83" s="87"/>
-      <c r="R83" s="87"/>
-      <c r="S83" s="87"/>
-      <c r="T83" s="87"/>
-      <c r="U83" s="87"/>
-      <c r="V83" s="87"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="96"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="96"/>
+      <c r="M83" s="96"/>
+      <c r="N83" s="96"/>
+      <c r="O83" s="96"/>
+      <c r="P83" s="96"/>
+      <c r="Q83" s="96"/>
+      <c r="R83" s="96"/>
+      <c r="S83" s="96"/>
+      <c r="T83" s="96"/>
+      <c r="U83" s="96"/>
+      <c r="V83" s="96"/>
       <c r="W83" s="80"/>
       <c r="X83" s="80"/>
       <c r="Y83" s="80"/>
@@ -84859,30 +84804,30 @@
       <c r="AM83" s="7"/>
     </row>
     <row r="84" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="84"/>
-      <c r="S84" s="84"/>
-      <c r="T84" s="84"/>
-      <c r="U84" s="84"/>
-      <c r="V84" s="84"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="95"/>
+      <c r="H84" s="95"/>
+      <c r="I84" s="95"/>
+      <c r="J84" s="95"/>
+      <c r="K84" s="95"/>
+      <c r="L84" s="95"/>
+      <c r="M84" s="95"/>
+      <c r="N84" s="95"/>
+      <c r="O84" s="95"/>
+      <c r="P84" s="95"/>
+      <c r="Q84" s="95"/>
+      <c r="R84" s="95"/>
+      <c r="S84" s="95"/>
+      <c r="T84" s="95"/>
+      <c r="U84" s="95"/>
+      <c r="V84" s="95"/>
       <c r="W84" s="80"/>
       <c r="X84" s="80"/>
       <c r="Y84" s="80"/>
@@ -84902,30 +84847,30 @@
       <c r="AM84" s="7"/>
     </row>
     <row r="85" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="95" t="s">
         <v>996</v>
       </c>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="84"/>
-      <c r="S85" s="84"/>
-      <c r="T85" s="84"/>
-      <c r="U85" s="84"/>
-      <c r="V85" s="84"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="95"/>
+      <c r="I85" s="95"/>
+      <c r="J85" s="95"/>
+      <c r="K85" s="95"/>
+      <c r="L85" s="95"/>
+      <c r="M85" s="95"/>
+      <c r="N85" s="95"/>
+      <c r="O85" s="95"/>
+      <c r="P85" s="95"/>
+      <c r="Q85" s="95"/>
+      <c r="R85" s="95"/>
+      <c r="S85" s="95"/>
+      <c r="T85" s="95"/>
+      <c r="U85" s="95"/>
+      <c r="V85" s="95"/>
       <c r="W85" s="80"/>
       <c r="X85" s="80"/>
       <c r="Y85" s="80"/>
@@ -84945,30 +84890,30 @@
       <c r="AM85" s="7"/>
     </row>
     <row r="86" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="84" t="s">
+      <c r="A86" s="95" t="s">
         <v>1608</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="84"/>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="84"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="84"/>
-      <c r="R86" s="84"/>
-      <c r="S86" s="84"/>
-      <c r="T86" s="84"/>
-      <c r="U86" s="84"/>
-      <c r="V86" s="84"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="95"/>
+      <c r="Q86" s="95"/>
+      <c r="R86" s="95"/>
+      <c r="S86" s="95"/>
+      <c r="T86" s="95"/>
+      <c r="U86" s="95"/>
+      <c r="V86" s="95"/>
       <c r="W86" s="80"/>
       <c r="X86" s="80"/>
       <c r="Y86" s="80"/>
@@ -84988,30 +84933,30 @@
       <c r="AM86" s="7"/>
     </row>
     <row r="87" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="87" t="s">
+      <c r="A87" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="87"/>
-      <c r="I87" s="87"/>
-      <c r="J87" s="87"/>
-      <c r="K87" s="87"/>
-      <c r="L87" s="87"/>
-      <c r="M87" s="87"/>
-      <c r="N87" s="87"/>
-      <c r="O87" s="87"/>
-      <c r="P87" s="87"/>
-      <c r="Q87" s="87"/>
-      <c r="R87" s="87"/>
-      <c r="S87" s="87"/>
-      <c r="T87" s="87"/>
-      <c r="U87" s="87"/>
-      <c r="V87" s="87"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="96"/>
+      <c r="I87" s="96"/>
+      <c r="J87" s="96"/>
+      <c r="K87" s="96"/>
+      <c r="L87" s="96"/>
+      <c r="M87" s="96"/>
+      <c r="N87" s="96"/>
+      <c r="O87" s="96"/>
+      <c r="P87" s="96"/>
+      <c r="Q87" s="96"/>
+      <c r="R87" s="96"/>
+      <c r="S87" s="96"/>
+      <c r="T87" s="96"/>
+      <c r="U87" s="96"/>
+      <c r="V87" s="96"/>
       <c r="W87" s="80"/>
       <c r="X87" s="80"/>
       <c r="Y87" s="80"/>
@@ -85031,30 +84976,30 @@
       <c r="AM87" s="7"/>
     </row>
     <row r="88" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="83"/>
-      <c r="M88" s="83"/>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
-      <c r="V88" s="83"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="93"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="93"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="93"/>
+      <c r="S88" s="93"/>
+      <c r="T88" s="93"/>
+      <c r="U88" s="93"/>
+      <c r="V88" s="93"/>
       <c r="W88" s="80"/>
       <c r="X88" s="80"/>
       <c r="Y88" s="80"/>
@@ -85074,30 +85019,30 @@
       <c r="AM88" s="7"/>
     </row>
     <row r="89" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="83" t="s">
         <v>997</v>
       </c>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="85"/>
-      <c r="O89" s="85"/>
-      <c r="P89" s="85"/>
-      <c r="Q89" s="85"/>
-      <c r="R89" s="85"/>
-      <c r="S89" s="85"/>
-      <c r="T89" s="85"/>
-      <c r="U89" s="85"/>
-      <c r="V89" s="85"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="83"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="83"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
+      <c r="T89" s="83"/>
+      <c r="U89" s="83"/>
+      <c r="V89" s="83"/>
       <c r="W89" s="80"/>
       <c r="X89" s="80"/>
       <c r="Y89" s="80"/>
@@ -85117,30 +85062,30 @@
       <c r="AM89" s="7"/>
     </row>
     <row r="90" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="85" t="s">
+      <c r="A90" s="83" t="s">
         <v>1609</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="85"/>
-      <c r="I90" s="85"/>
-      <c r="J90" s="85"/>
-      <c r="K90" s="85"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="85"/>
-      <c r="N90" s="85"/>
-      <c r="O90" s="85"/>
-      <c r="P90" s="85"/>
-      <c r="Q90" s="85"/>
-      <c r="R90" s="85"/>
-      <c r="S90" s="85"/>
-      <c r="T90" s="85"/>
-      <c r="U90" s="85"/>
-      <c r="V90" s="85"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="83"/>
+      <c r="K90" s="83"/>
+      <c r="L90" s="83"/>
+      <c r="M90" s="83"/>
+      <c r="N90" s="83"/>
+      <c r="O90" s="83"/>
+      <c r="P90" s="83"/>
+      <c r="Q90" s="83"/>
+      <c r="R90" s="83"/>
+      <c r="S90" s="83"/>
+      <c r="T90" s="83"/>
+      <c r="U90" s="83"/>
+      <c r="V90" s="83"/>
       <c r="W90" s="80"/>
       <c r="X90" s="80"/>
       <c r="Y90" s="80"/>
@@ -85160,30 +85105,30 @@
       <c r="AM90" s="7"/>
     </row>
     <row r="91" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="83" t="s">
+      <c r="A91" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="83"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="83"/>
-      <c r="L91" s="83"/>
-      <c r="M91" s="83"/>
-      <c r="N91" s="83"/>
-      <c r="O91" s="83"/>
-      <c r="P91" s="83"/>
-      <c r="Q91" s="83"/>
-      <c r="R91" s="83"/>
-      <c r="S91" s="83"/>
-      <c r="T91" s="83"/>
-      <c r="U91" s="83"/>
-      <c r="V91" s="83"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="93"/>
+      <c r="K91" s="93"/>
+      <c r="L91" s="93"/>
+      <c r="M91" s="93"/>
+      <c r="N91" s="93"/>
+      <c r="O91" s="93"/>
+      <c r="P91" s="93"/>
+      <c r="Q91" s="93"/>
+      <c r="R91" s="93"/>
+      <c r="S91" s="93"/>
+      <c r="T91" s="93"/>
+      <c r="U91" s="93"/>
+      <c r="V91" s="93"/>
       <c r="W91" s="80"/>
       <c r="X91" s="80"/>
       <c r="Y91" s="80"/>
@@ -85203,30 +85148,30 @@
       <c r="AM91" s="7"/>
     </row>
     <row r="92" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="86" t="s">
+      <c r="A92" s="94" t="s">
         <v>998</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="86"/>
-      <c r="L92" s="86"/>
-      <c r="M92" s="86"/>
-      <c r="N92" s="86"/>
-      <c r="O92" s="86"/>
-      <c r="P92" s="86"/>
-      <c r="Q92" s="86"/>
-      <c r="R92" s="86"/>
-      <c r="S92" s="86"/>
-      <c r="T92" s="86"/>
-      <c r="U92" s="86"/>
-      <c r="V92" s="86"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="94"/>
+      <c r="M92" s="94"/>
+      <c r="N92" s="94"/>
+      <c r="O92" s="94"/>
+      <c r="P92" s="94"/>
+      <c r="Q92" s="94"/>
+      <c r="R92" s="94"/>
+      <c r="S92" s="94"/>
+      <c r="T92" s="94"/>
+      <c r="U92" s="94"/>
+      <c r="V92" s="94"/>
       <c r="W92" s="80"/>
       <c r="X92" s="80"/>
       <c r="Y92" s="80"/>
@@ -85246,30 +85191,30 @@
       <c r="AM92" s="7"/>
     </row>
     <row r="93" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="83" t="s">
         <v>1610</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-      <c r="P93" s="85"/>
-      <c r="Q93" s="85"/>
-      <c r="R93" s="85"/>
-      <c r="S93" s="85"/>
-      <c r="T93" s="85"/>
-      <c r="U93" s="85"/>
-      <c r="V93" s="85"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="83"/>
+      <c r="N93" s="83"/>
+      <c r="O93" s="83"/>
+      <c r="P93" s="83"/>
+      <c r="Q93" s="83"/>
+      <c r="R93" s="83"/>
+      <c r="S93" s="83"/>
+      <c r="T93" s="83"/>
+      <c r="U93" s="83"/>
+      <c r="V93" s="83"/>
       <c r="W93" s="80"/>
       <c r="X93" s="80"/>
       <c r="Y93" s="80"/>
@@ -85289,30 +85234,30 @@
       <c r="AM93" s="7"/>
     </row>
     <row r="94" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="90" t="s">
         <v>1611</v>
       </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="P94" s="82"/>
-      <c r="Q94" s="82"/>
-      <c r="R94" s="82"/>
-      <c r="S94" s="82"/>
-      <c r="T94" s="82"/>
-      <c r="U94" s="82"/>
-      <c r="V94" s="82"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="90"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="90"/>
+      <c r="J94" s="90"/>
+      <c r="K94" s="90"/>
+      <c r="L94" s="90"/>
+      <c r="M94" s="90"/>
+      <c r="N94" s="90"/>
+      <c r="O94" s="90"/>
+      <c r="P94" s="90"/>
+      <c r="Q94" s="90"/>
+      <c r="R94" s="90"/>
+      <c r="S94" s="90"/>
+      <c r="T94" s="90"/>
+      <c r="U94" s="90"/>
+      <c r="V94" s="90"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
@@ -85332,30 +85277,30 @@
       <c r="AM94" s="7"/>
     </row>
     <row r="95" spans="1:39" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="83" t="s">
+      <c r="A95" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="83"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="83"/>
-      <c r="L95" s="83"/>
-      <c r="M95" s="83"/>
-      <c r="N95" s="83"/>
-      <c r="O95" s="83"/>
-      <c r="P95" s="83"/>
-      <c r="Q95" s="83"/>
-      <c r="R95" s="83"/>
-      <c r="S95" s="83"/>
-      <c r="T95" s="83"/>
-      <c r="U95" s="83"/>
-      <c r="V95" s="83"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="93"/>
+      <c r="I95" s="93"/>
+      <c r="J95" s="93"/>
+      <c r="K95" s="93"/>
+      <c r="L95" s="93"/>
+      <c r="M95" s="93"/>
+      <c r="N95" s="93"/>
+      <c r="O95" s="93"/>
+      <c r="P95" s="93"/>
+      <c r="Q95" s="93"/>
+      <c r="R95" s="93"/>
+      <c r="S95" s="93"/>
+      <c r="T95" s="93"/>
+      <c r="U95" s="93"/>
+      <c r="V95" s="93"/>
       <c r="W95" s="80"/>
       <c r="X95" s="80"/>
       <c r="Y95" s="80"/>
@@ -85375,30 +85320,30 @@
       <c r="AM95" s="7"/>
     </row>
     <row r="96" spans="1:39" s="16" customFormat="1">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="95" t="s">
         <v>1612</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="84"/>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
-      <c r="R96" s="84"/>
-      <c r="S96" s="84"/>
-      <c r="T96" s="84"/>
-      <c r="U96" s="84"/>
-      <c r="V96" s="84"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
+      <c r="H96" s="95"/>
+      <c r="I96" s="95"/>
+      <c r="J96" s="95"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
+      <c r="M96" s="95"/>
+      <c r="N96" s="95"/>
+      <c r="O96" s="95"/>
+      <c r="P96" s="95"/>
+      <c r="Q96" s="95"/>
+      <c r="R96" s="95"/>
+      <c r="S96" s="95"/>
+      <c r="T96" s="95"/>
+      <c r="U96" s="95"/>
+      <c r="V96" s="95"/>
       <c r="W96" s="80"/>
       <c r="X96" s="80"/>
       <c r="Y96" s="80"/>
@@ -85419,61 +85364,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="A53:V53"/>
-    <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A33:V33"/>
-    <mergeCell ref="A34:V34"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A36:V36"/>
-    <mergeCell ref="A55:V55"/>
-    <mergeCell ref="A56:V56"/>
-    <mergeCell ref="A57:V57"/>
-    <mergeCell ref="A58:V58"/>
-    <mergeCell ref="A59:V59"/>
-    <mergeCell ref="A60:V60"/>
-    <mergeCell ref="A61:V61"/>
-    <mergeCell ref="A62:V62"/>
-    <mergeCell ref="A63:V63"/>
-    <mergeCell ref="A64:V64"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="A67:V67"/>
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A69:V69"/>
-    <mergeCell ref="A70:V70"/>
-    <mergeCell ref="A71:V71"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="A73:V73"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="A80:V80"/>
-    <mergeCell ref="A81:V81"/>
-    <mergeCell ref="A82:V82"/>
-    <mergeCell ref="A83:V83"/>
-    <mergeCell ref="A75:V75"/>
-    <mergeCell ref="A76:V76"/>
-    <mergeCell ref="A77:V77"/>
-    <mergeCell ref="A78:V78"/>
-    <mergeCell ref="A79:V79"/>
-    <mergeCell ref="A37:V37"/>
-    <mergeCell ref="A38:V38"/>
-    <mergeCell ref="A39:V39"/>
-    <mergeCell ref="A40:V40"/>
-    <mergeCell ref="A41:V41"/>
-    <mergeCell ref="A42:V42"/>
-    <mergeCell ref="A43:V43"/>
-    <mergeCell ref="A44:V44"/>
-    <mergeCell ref="A45:V45"/>
-    <mergeCell ref="A46:V46"/>
-    <mergeCell ref="A47:V47"/>
-    <mergeCell ref="A48:V48"/>
-    <mergeCell ref="A49:V49"/>
-    <mergeCell ref="A50:V50"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A84:V84"/>
-    <mergeCell ref="A85:V85"/>
-    <mergeCell ref="A86:V86"/>
     <mergeCell ref="A87:V87"/>
     <mergeCell ref="A88:V88"/>
     <mergeCell ref="A94:V94"/>
@@ -85484,40 +85374,80 @@
     <mergeCell ref="A91:V91"/>
     <mergeCell ref="A92:V92"/>
     <mergeCell ref="A93:V93"/>
+    <mergeCell ref="A50:V50"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A84:V84"/>
+    <mergeCell ref="A85:V85"/>
+    <mergeCell ref="A86:V86"/>
+    <mergeCell ref="A45:V45"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="A48:V48"/>
+    <mergeCell ref="A49:V49"/>
+    <mergeCell ref="A80:V80"/>
+    <mergeCell ref="A81:V81"/>
+    <mergeCell ref="A82:V82"/>
+    <mergeCell ref="A83:V83"/>
+    <mergeCell ref="A75:V75"/>
+    <mergeCell ref="A76:V76"/>
+    <mergeCell ref="A77:V77"/>
+    <mergeCell ref="A78:V78"/>
+    <mergeCell ref="A79:V79"/>
+    <mergeCell ref="A70:V70"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="A73:V73"/>
+    <mergeCell ref="A74:V74"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A69:V69"/>
+    <mergeCell ref="A60:V60"/>
+    <mergeCell ref="A61:V61"/>
+    <mergeCell ref="A62:V62"/>
+    <mergeCell ref="A63:V63"/>
+    <mergeCell ref="A64:V64"/>
+    <mergeCell ref="A55:V55"/>
+    <mergeCell ref="A56:V56"/>
+    <mergeCell ref="A57:V57"/>
+    <mergeCell ref="A58:V58"/>
+    <mergeCell ref="A59:V59"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="A53:V53"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A33:V33"/>
+    <mergeCell ref="A34:V34"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="A37:V37"/>
+    <mergeCell ref="A38:V38"/>
+    <mergeCell ref="A39:V39"/>
+    <mergeCell ref="A40:V40"/>
+    <mergeCell ref="A41:V41"/>
+    <mergeCell ref="A42:V42"/>
+    <mergeCell ref="A43:V43"/>
+    <mergeCell ref="A44:V44"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:P3 B4:B32">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="false">
+  <conditionalFormatting sqref="B2:AA32">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:P32">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C4)))</formula>
+  <conditionalFormatting sqref="AB5:AK23 AL22:AL23 AM22:AM27 AB24:AL27">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",AB5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:AA13 AA14:AA20 Q14:S20 Q21:AA32">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",Q2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T14:Z20">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",T14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AK3 AB28:AK32 AL22:AL23 AB24:AL27 AL6:AM13 AB5:AK23 AB4:AM4 AL29:AM31 AM22:AM27">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="false">
+  <conditionalFormatting sqref="AB2:AM4 AB28:AM32">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM3 AL32:AM32 AL21:AM21 AL28:AM28 AL5:AM5">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AL2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14:AM20">
+  <conditionalFormatting sqref="AL5:AM21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AL14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("false",AL5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501B90F0-5DAF-40B0-9BA5-60EEE8D036BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D544DCF-5C7D-42FD-B02A-C74F14151A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="1614">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -7329,9 +7329,6 @@
       <alignment horizontal="right" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -7356,17 +7353,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7377,35 +7395,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="146">
@@ -7556,7 +7556,21 @@
     <cellStyle name="Wrap Bold" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Wrap Title" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7976,8 +7990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8453,14 +8467,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8799,6 +8814,9 @@
         <v>11576012825000</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8811,8 +8829,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8896,8 +8914,8 @@
         <v>300</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(INDEX('AEO 2021 36'!$66:$66,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)),INDEX('AEO 2021 36'!$74:$74,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)),INDEX('AEO 2021 36'!$82:$82,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)))/INDEX('AEO 2021 36'!$61:$61,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0))*INDEX('NTS 1-11'!$12:$12,MATCH(About!$B$88,'NTS 1-11'!$2:$2,0))-'SYVbT-freight'!C2</f>
-        <v>127466.0117345309</v>
+        <f>SUM(INDEX('AEO 2021 36'!$66:$66,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)),INDEX('AEO 2021 36'!$74:$74,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)),INDEX('AEO 2021 36'!$82:$82,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)))/INDEX('AEO 2021 36'!$61:$61,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0))*INDEX('NTS 1-11'!$12:$12,MATCH(About!$B$88,'NTS 1-11'!$2:$2,0))</f>
+        <v>142618.8307345309</v>
       </c>
       <c r="D3" s="6">
         <f>SUM(INDEX('AEO 2021 36'!$63:$63,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)),INDEX('AEO 2021 36'!$71:$71,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)),INDEX('AEO 2021 36'!$79:$79,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0)))/INDEX('AEO 2021 36'!$61:$61,MATCH(About!$B$88,'AEO 2021 36'!$1:$1,0))*INDEX('NTS 1-11'!$12:$12,MATCH(About!$B$88,'NTS 1-11'!$2:$2,0))</f>
@@ -9100,8 +9118,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9281,7 +9299,7 @@
       </c>
       <c r="E6" s="6">
         <f>SUM(INDEX('NTS 1-11'!30:31,0,MATCH(About!$B$88,'NTS 1-11'!2:2,0)))</f>
-        <v>10518</v>
+        <v>10524</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -15502,41 +15520,41 @@
     </row>
     <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1"/>
     <row r="87" spans="1:34" ht="15" customHeight="1">
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="80" t="s">
         <v>1018</v>
       </c>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
-      <c r="N87" s="81"/>
-      <c r="O87" s="81"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
-      <c r="W87" s="81"/>
-      <c r="X87" s="81"/>
-      <c r="Y87" s="81"/>
-      <c r="Z87" s="81"/>
-      <c r="AA87" s="81"/>
-      <c r="AB87" s="81"/>
-      <c r="AC87" s="81"/>
-      <c r="AD87" s="81"/>
-      <c r="AE87" s="81"/>
-      <c r="AF87" s="81"/>
-      <c r="AG87" s="81"/>
-      <c r="AH87" s="81"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="80"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="80"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="80"/>
+      <c r="Q87" s="80"/>
+      <c r="R87" s="80"/>
+      <c r="S87" s="80"/>
+      <c r="T87" s="80"/>
+      <c r="U87" s="80"/>
+      <c r="V87" s="80"/>
+      <c r="W87" s="80"/>
+      <c r="X87" s="80"/>
+      <c r="Y87" s="80"/>
+      <c r="Z87" s="80"/>
+      <c r="AA87" s="80"/>
+      <c r="AB87" s="80"/>
+      <c r="AC87" s="80"/>
+      <c r="AD87" s="80"/>
+      <c r="AE87" s="80"/>
+      <c r="AF87" s="80"/>
+      <c r="AG87" s="80"/>
+      <c r="AH87" s="80"/>
     </row>
     <row r="88" spans="1:34" ht="15" customHeight="1">
       <c r="B88" s="18" t="s">
@@ -15601,7 +15619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ104"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
@@ -79213,67 +79231,68 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM96"/>
+  <dimension ref="A1:AQ96"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ14" sqref="AQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="51.85546875" style="7" customWidth="1"/>
-    <col min="2" max="19" width="11.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="17" customWidth="1"/>
-    <col min="21" max="36" width="11.7109375" style="7" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="7" customWidth="1"/>
-    <col min="38" max="38" width="12.42578125" style="7" customWidth="1"/>
-    <col min="39" max="16384" width="9.28515625" style="7"/>
+    <col min="2" max="19" width="11.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="21" max="36" width="11.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" style="7" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:43" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A1" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-    </row>
-    <row r="2" spans="1:39" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+    </row>
+    <row r="2" spans="1:43" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="37">
         <v>1960</v>
@@ -79389,8 +79408,11 @@
       <c r="AM2" s="39">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN2" s="39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>76</v>
       </c>
@@ -79429,8 +79451,9 @@
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
       <c r="AM3" s="11"/>
-    </row>
-    <row r="4" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="70" t="s">
         <v>75</v>
       </c>
@@ -79548,8 +79571,11 @@
       <c r="AM4" s="41">
         <v>5815</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN4" s="41">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="70" t="s">
         <v>74</v>
       </c>
@@ -79664,11 +79690,14 @@
       <c r="AL5" s="41">
         <v>204140.00000000006</v>
       </c>
-      <c r="AM5" s="41">
-        <v>204405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AM5" s="73">
+        <v>209194</v>
+      </c>
+      <c r="AN5" s="41">
+        <v>209140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>73</v>
       </c>
@@ -79780,14 +79809,17 @@
       <c r="AK6" s="44">
         <v>276491174</v>
       </c>
-      <c r="AL6" s="73">
+      <c r="AL6" s="44">
         <v>275936367</v>
       </c>
       <c r="AM6" s="44">
         <v>282366285</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN6" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>963</v>
       </c>
@@ -79899,14 +79931,17 @@
       <c r="AK7" s="41">
         <v>194348815</v>
       </c>
-      <c r="AL7" s="74">
+      <c r="AL7" s="41">
         <v>194882977</v>
       </c>
       <c r="AM7" s="41">
         <v>197236007</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN7" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>964</v>
       </c>
@@ -80018,14 +80053,17 @@
       <c r="AK8" s="41">
         <v>8596314</v>
       </c>
-      <c r="AL8" s="74">
+      <c r="AL8" s="41">
         <v>8347435</v>
       </c>
       <c r="AM8" s="41">
         <v>9892706</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN8" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="70" t="s">
         <v>72</v>
       </c>
@@ -80137,15 +80175,18 @@
       <c r="AK9" s="41">
         <v>59465369</v>
       </c>
-      <c r="AL9" s="74">
+      <c r="AL9" s="41">
         <v>58796280</v>
       </c>
       <c r="AM9" s="41">
         <v>60439172</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="75" t="s">
+      <c r="AN9" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="74" t="s">
         <v>1597</v>
       </c>
       <c r="B10" s="71" t="s">
@@ -80256,14 +80297,17 @@
       <c r="AK10" s="41">
         <v>10160433</v>
       </c>
-      <c r="AL10" s="74">
+      <c r="AL10" s="41">
         <v>9908409</v>
       </c>
       <c r="AM10" s="41">
         <v>10715697</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN10" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="70" t="s">
         <v>965</v>
       </c>
@@ -80375,14 +80419,17 @@
       <c r="AK11" s="41">
         <v>2925210</v>
       </c>
-      <c r="AL11" s="74">
+      <c r="AL11" s="41">
         <v>2990962</v>
       </c>
       <c r="AM11" s="41">
         <v>3143484</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN11" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="70" t="s">
         <v>71</v>
       </c>
@@ -80494,14 +80541,17 @@
       <c r="AK12" s="41">
         <v>995033</v>
       </c>
-      <c r="AL12" s="74">
+      <c r="AL12" s="41">
         <v>1010304</v>
       </c>
       <c r="AM12" s="41">
         <v>939219</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN12" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="45" t="s">
         <v>966</v>
       </c>
@@ -80540,11 +80590,12 @@
       <c r="AH13" s="42"/>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-    </row>
-    <row r="14" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="41"/>
+    </row>
+    <row r="14" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="70" t="s">
         <v>967</v>
       </c>
@@ -80662,8 +80713,12 @@
       <c r="AM14" s="41">
         <v>62836</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ14" s="10"/>
+    </row>
+    <row r="15" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="70" t="s">
         <v>968</v>
       </c>
@@ -80781,9 +80836,12 @@
       <c r="AM15" s="41">
         <v>2859</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="77" t="s">
+      <c r="AN15" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="76" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="71">
@@ -80900,8 +80958,11 @@
       <c r="AM16" s="41">
         <v>10942</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN16" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="70" t="s">
         <v>69</v>
       </c>
@@ -81019,8 +81080,11 @@
       <c r="AM17" s="41">
         <v>563</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN17" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="70" t="s">
         <v>68</v>
       </c>
@@ -81138,8 +81202,11 @@
       <c r="AM18" s="41">
         <v>7545</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN18" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="70" t="s">
         <v>67</v>
       </c>
@@ -81257,8 +81324,11 @@
       <c r="AM19" s="41">
         <v>31553</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN19" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="70" t="s">
         <v>969</v>
       </c>
@@ -81376,8 +81446,11 @@
       <c r="AM20" s="41">
         <v>13748</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN20" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="40" t="s">
         <v>66</v>
       </c>
@@ -81415,12 +81488,13 @@
       <c r="AG21" s="42"/>
       <c r="AH21" s="42"/>
       <c r="AI21" s="42"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-    </row>
-    <row r="22" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="41"/>
+    </row>
+    <row r="22" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="70" t="s">
         <v>65</v>
       </c>
@@ -81538,8 +81612,11 @@
       <c r="AM22" s="43">
         <v>243087</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN22" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="70" t="s">
         <v>42</v>
       </c>
@@ -81657,8 +81734,11 @@
       <c r="AM23" s="43">
         <v>23264</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN23" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="70" t="s">
         <v>64</v>
       </c>
@@ -81776,8 +81856,11 @@
       <c r="AM24" s="43" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN24" s="43" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="70" t="s">
         <v>63</v>
       </c>
@@ -81895,8 +81978,11 @@
       <c r="AM25" s="43" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="26" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN25" s="43" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="70" t="s">
         <v>62</v>
       </c>
@@ -82014,8 +82100,11 @@
       <c r="AM26" s="43">
         <v>1529</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN26" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="70" t="s">
         <v>61</v>
       </c>
@@ -82133,8 +82222,11 @@
       <c r="AM27" s="43">
         <v>395</v>
       </c>
-    </row>
-    <row r="28" spans="1:39" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AN27" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="40" t="s">
         <v>60</v>
       </c>
@@ -82172,12 +82264,13 @@
       <c r="AG28" s="42"/>
       <c r="AH28" s="42"/>
       <c r="AI28" s="42"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="41"/>
-    </row>
-    <row r="29" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="43"/>
+    </row>
+    <row r="29" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="70" t="s">
         <v>970</v>
       </c>
@@ -82232,8 +82325,8 @@
       <c r="R29" s="41">
         <v>35008</v>
       </c>
-      <c r="S29" s="41">
-        <v>31652</v>
+      <c r="S29" s="73">
+        <v>35036</v>
       </c>
       <c r="T29" s="41">
         <v>34299</v>
@@ -82247,8 +82340,8 @@
       <c r="W29" s="41">
         <v>32380</v>
       </c>
-      <c r="X29" s="41">
-        <v>30625</v>
+      <c r="X29" s="73">
+        <v>32889</v>
       </c>
       <c r="Y29" s="41">
         <v>33091</v>
@@ -82262,8 +82355,8 @@
       <c r="AB29" s="43">
         <v>31906</v>
       </c>
-      <c r="AC29" s="43">
-        <v>30987</v>
+      <c r="AC29" s="98">
+        <v>32454</v>
       </c>
       <c r="AD29" s="47">
         <v>32394</v>
@@ -82277,8 +82370,8 @@
       <c r="AG29" s="43">
         <v>32819</v>
       </c>
-      <c r="AH29" s="43">
-        <v>33212</v>
+      <c r="AH29" s="98">
+        <v>33472</v>
       </c>
       <c r="AI29" s="43">
         <v>32808</v>
@@ -82289,14 +82382,17 @@
       <c r="AK29" s="43">
         <v>33600</v>
       </c>
-      <c r="AL29" s="43">
-        <v>34168</v>
-      </c>
-      <c r="AM29" s="43" t="s">
+      <c r="AL29" s="98">
+        <v>34209</v>
+      </c>
+      <c r="AM29" s="43">
+        <v>34364</v>
+      </c>
+      <c r="AN29" s="43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
+    <row r="30" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="70" t="s">
         <v>971</v>
       </c>
@@ -82351,8 +82447,8 @@
       <c r="R30" s="41">
         <v>10410</v>
       </c>
-      <c r="S30" s="41">
-        <v>9351</v>
+      <c r="S30" s="73">
+        <v>10449</v>
       </c>
       <c r="T30" s="41">
         <v>10127</v>
@@ -82366,8 +82462,8 @@
       <c r="W30" s="41">
         <v>10497</v>
       </c>
-      <c r="X30" s="41">
-        <v>9479</v>
+      <c r="X30" s="73">
+        <v>10587</v>
       </c>
       <c r="Y30" s="41">
         <v>10223</v>
@@ -82381,8 +82477,8 @@
       <c r="AB30" s="43">
         <v>10775</v>
       </c>
-      <c r="AC30" s="43">
-        <v>9558</v>
+      <c r="AC30" s="98">
+        <v>10702</v>
       </c>
       <c r="AD30" s="43">
         <v>10139</v>
@@ -82396,8 +82492,8 @@
       <c r="AG30" s="43">
         <v>10108</v>
       </c>
-      <c r="AH30" s="43">
-        <v>9462</v>
+      <c r="AH30" s="98">
+        <v>10068</v>
       </c>
       <c r="AI30" s="43">
         <v>9344</v>
@@ -82408,15 +82504,18 @@
       <c r="AK30" s="43">
         <v>10152</v>
       </c>
-      <c r="AL30" s="43">
-        <v>10333</v>
-      </c>
-      <c r="AM30" s="43" t="s">
+      <c r="AL30" s="98">
+        <v>10339</v>
+      </c>
+      <c r="AM30" s="43">
+        <v>10392</v>
+      </c>
+      <c r="AN30" s="43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="78" t="s">
+    <row r="31" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="77" t="s">
         <v>972</v>
       </c>
       <c r="B31" s="71">
@@ -82533,9 +82632,12 @@
       <c r="AM31" s="10">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="79" t="s">
+      <c r="AN31" s="10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A32" s="78" t="s">
         <v>973</v>
       </c>
       <c r="B32" s="71">
@@ -82652,32 +82754,35 @@
       <c r="AM32" s="51">
         <v>11957886</v>
       </c>
+      <c r="AN32" s="51">
+        <v>11770383</v>
+      </c>
     </row>
     <row r="33" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="92" t="s">
         <v>1599</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
       <c r="W33" s="53"/>
       <c r="X33" s="53"/>
       <c r="Y33" s="53"/>
@@ -82690,2664 +82795,2664 @@
       <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="80"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="80"/>
-      <c r="AD35" s="80"/>
-      <c r="AE35" s="80"/>
-      <c r="AF35" s="80"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="80"/>
-      <c r="AI35" s="80"/>
-      <c r="AJ35" s="80"/>
-      <c r="AK35" s="80"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="80"/>
-      <c r="X36" s="80"/>
-      <c r="Y36" s="80"/>
-      <c r="Z36" s="80"/>
-      <c r="AA36" s="80"/>
-      <c r="AB36" s="80"/>
-      <c r="AC36" s="80"/>
-      <c r="AD36" s="80"/>
-      <c r="AE36" s="80"/>
-      <c r="AF36" s="80"/>
-      <c r="AG36" s="80"/>
-      <c r="AH36" s="80"/>
-      <c r="AI36" s="80"/>
-      <c r="AJ36" s="80"/>
-      <c r="AK36" s="80"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="79"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="1:39" s="14" customFormat="1" ht="38.85" customHeight="1">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="95" t="s">
         <v>974</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="97"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="80"/>
-      <c r="Y37" s="80"/>
-      <c r="Z37" s="80"/>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="80"/>
-      <c r="AD37" s="80"/>
-      <c r="AE37" s="80"/>
-      <c r="AF37" s="80"/>
-      <c r="AG37" s="80"/>
-      <c r="AH37" s="80"/>
-      <c r="AI37" s="80"/>
-      <c r="AJ37" s="80"/>
-      <c r="AK37" s="80"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="79"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="79"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="79"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="87" t="s">
         <v>1600</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="80"/>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="80"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="80"/>
-      <c r="AD38" s="80"/>
-      <c r="AE38" s="80"/>
-      <c r="AF38" s="80"/>
-      <c r="AG38" s="80"/>
-      <c r="AH38" s="80"/>
-      <c r="AI38" s="80"/>
-      <c r="AJ38" s="80"/>
-      <c r="AK38" s="80"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="79"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="79"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="87" t="s">
         <v>975</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="80"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="80"/>
-      <c r="Z39" s="80"/>
-      <c r="AA39" s="80"/>
-      <c r="AB39" s="80"/>
-      <c r="AC39" s="80"/>
-      <c r="AD39" s="80"/>
-      <c r="AE39" s="80"/>
-      <c r="AF39" s="80"/>
-      <c r="AG39" s="80"/>
-      <c r="AH39" s="80"/>
-      <c r="AI39" s="80"/>
-      <c r="AJ39" s="80"/>
-      <c r="AK39" s="80"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="87" t="s">
         <v>976</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="80"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="80"/>
-      <c r="AC40" s="80"/>
-      <c r="AD40" s="80"/>
-      <c r="AE40" s="80"/>
-      <c r="AF40" s="80"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="80"/>
-      <c r="AI40" s="80"/>
-      <c r="AJ40" s="80"/>
-      <c r="AK40" s="80"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="79"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="79"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="87" t="s">
         <v>977</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="80"/>
-      <c r="AA41" s="80"/>
-      <c r="AB41" s="80"/>
-      <c r="AC41" s="80"/>
-      <c r="AD41" s="80"/>
-      <c r="AE41" s="80"/>
-      <c r="AF41" s="80"/>
-      <c r="AG41" s="80"/>
-      <c r="AH41" s="80"/>
-      <c r="AI41" s="80"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="80"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="79"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="79"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="79"/>
+      <c r="AJ41" s="79"/>
+      <c r="AK41" s="79"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
     </row>
     <row r="42" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="96" t="s">
         <v>978</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="98"/>
-      <c r="S42" s="98"/>
-      <c r="T42" s="98"/>
-      <c r="U42" s="98"/>
-      <c r="V42" s="98"/>
-      <c r="W42" s="80"/>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="80"/>
-      <c r="AA42" s="80"/>
-      <c r="AB42" s="80"/>
-      <c r="AC42" s="80"/>
-      <c r="AD42" s="80"/>
-      <c r="AE42" s="80"/>
-      <c r="AF42" s="80"/>
-      <c r="AG42" s="80"/>
-      <c r="AH42" s="80"/>
-      <c r="AI42" s="80"/>
-      <c r="AJ42" s="80"/>
-      <c r="AK42" s="80"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="79"/>
+      <c r="X42" s="79"/>
+      <c r="Y42" s="79"/>
+      <c r="Z42" s="79"/>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="79"/>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="79"/>
+      <c r="AE42" s="79"/>
+      <c r="AF42" s="79"/>
+      <c r="AG42" s="79"/>
+      <c r="AH42" s="79"/>
+      <c r="AI42" s="79"/>
+      <c r="AJ42" s="79"/>
+      <c r="AK42" s="79"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
     </row>
     <row r="43" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="96" t="s">
         <v>979</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="98"/>
-      <c r="R43" s="98"/>
-      <c r="S43" s="98"/>
-      <c r="T43" s="98"/>
-      <c r="U43" s="98"/>
-      <c r="V43" s="98"/>
-      <c r="W43" s="80"/>
-      <c r="X43" s="80"/>
-      <c r="Y43" s="80"/>
-      <c r="Z43" s="80"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="80"/>
-      <c r="AC43" s="80"/>
-      <c r="AD43" s="80"/>
-      <c r="AE43" s="80"/>
-      <c r="AF43" s="80"/>
-      <c r="AG43" s="80"/>
-      <c r="AH43" s="80"/>
-      <c r="AI43" s="80"/>
-      <c r="AJ43" s="80"/>
-      <c r="AK43" s="80"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="96"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="79"/>
+      <c r="AC43" s="79"/>
+      <c r="AD43" s="79"/>
+      <c r="AE43" s="79"/>
+      <c r="AF43" s="79"/>
+      <c r="AG43" s="79"/>
+      <c r="AH43" s="79"/>
+      <c r="AI43" s="79"/>
+      <c r="AJ43" s="79"/>
+      <c r="AK43" s="79"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
     </row>
     <row r="44" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="95" t="s">
         <v>980</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="80"/>
-      <c r="X44" s="80"/>
-      <c r="Y44" s="80"/>
-      <c r="Z44" s="80"/>
-      <c r="AA44" s="80"/>
-      <c r="AB44" s="80"/>
-      <c r="AC44" s="80"/>
-      <c r="AD44" s="80"/>
-      <c r="AE44" s="80"/>
-      <c r="AF44" s="80"/>
-      <c r="AG44" s="80"/>
-      <c r="AH44" s="80"/>
-      <c r="AI44" s="80"/>
-      <c r="AJ44" s="80"/>
-      <c r="AK44" s="80"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="79"/>
+      <c r="X44" s="79"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="79"/>
+      <c r="AA44" s="79"/>
+      <c r="AB44" s="79"/>
+      <c r="AC44" s="79"/>
+      <c r="AD44" s="79"/>
+      <c r="AE44" s="79"/>
+      <c r="AF44" s="79"/>
+      <c r="AG44" s="79"/>
+      <c r="AH44" s="79"/>
+      <c r="AI44" s="79"/>
+      <c r="AJ44" s="79"/>
+      <c r="AK44" s="79"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
     </row>
     <row r="45" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="87" t="s">
         <v>981</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="89"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="80"/>
-      <c r="Z45" s="80"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="80"/>
-      <c r="AC45" s="80"/>
-      <c r="AD45" s="80"/>
-      <c r="AE45" s="80"/>
-      <c r="AF45" s="80"/>
-      <c r="AG45" s="80"/>
-      <c r="AH45" s="80"/>
-      <c r="AI45" s="80"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="80"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="79"/>
+      <c r="X45" s="79"/>
+      <c r="Y45" s="79"/>
+      <c r="Z45" s="79"/>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="79"/>
+      <c r="AC45" s="79"/>
+      <c r="AD45" s="79"/>
+      <c r="AE45" s="79"/>
+      <c r="AF45" s="79"/>
+      <c r="AG45" s="79"/>
+      <c r="AH45" s="79"/>
+      <c r="AI45" s="79"/>
+      <c r="AJ45" s="79"/>
+      <c r="AK45" s="79"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
     </row>
     <row r="46" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="87" t="s">
         <v>982</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="89"/>
-      <c r="V46" s="89"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="80"/>
-      <c r="Z46" s="80"/>
-      <c r="AA46" s="80"/>
-      <c r="AB46" s="80"/>
-      <c r="AC46" s="80"/>
-      <c r="AD46" s="80"/>
-      <c r="AE46" s="80"/>
-      <c r="AF46" s="80"/>
-      <c r="AG46" s="80"/>
-      <c r="AH46" s="80"/>
-      <c r="AI46" s="80"/>
-      <c r="AJ46" s="80"/>
-      <c r="AK46" s="80"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="87"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="79"/>
+      <c r="AC46" s="79"/>
+      <c r="AD46" s="79"/>
+      <c r="AE46" s="79"/>
+      <c r="AF46" s="79"/>
+      <c r="AG46" s="79"/>
+      <c r="AH46" s="79"/>
+      <c r="AI46" s="79"/>
+      <c r="AJ46" s="79"/>
+      <c r="AK46" s="79"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
     </row>
     <row r="47" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="87" t="s">
         <v>983</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="89"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="89"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="80"/>
-      <c r="Z47" s="80"/>
-      <c r="AA47" s="80"/>
-      <c r="AB47" s="80"/>
-      <c r="AC47" s="80"/>
-      <c r="AD47" s="80"/>
-      <c r="AE47" s="80"/>
-      <c r="AF47" s="80"/>
-      <c r="AG47" s="80"/>
-      <c r="AH47" s="80"/>
-      <c r="AI47" s="80"/>
-      <c r="AJ47" s="80"/>
-      <c r="AK47" s="80"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="79"/>
+      <c r="AA47" s="79"/>
+      <c r="AB47" s="79"/>
+      <c r="AC47" s="79"/>
+      <c r="AD47" s="79"/>
+      <c r="AE47" s="79"/>
+      <c r="AF47" s="79"/>
+      <c r="AG47" s="79"/>
+      <c r="AH47" s="79"/>
+      <c r="AI47" s="79"/>
+      <c r="AJ47" s="79"/>
+      <c r="AK47" s="79"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
     </row>
     <row r="48" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="87" t="s">
         <v>984</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="80"/>
-      <c r="X48" s="80"/>
-      <c r="Y48" s="80"/>
-      <c r="Z48" s="80"/>
-      <c r="AA48" s="80"/>
-      <c r="AB48" s="80"/>
-      <c r="AC48" s="80"/>
-      <c r="AD48" s="80"/>
-      <c r="AE48" s="80"/>
-      <c r="AF48" s="80"/>
-      <c r="AG48" s="80"/>
-      <c r="AH48" s="80"/>
-      <c r="AI48" s="80"/>
-      <c r="AJ48" s="80"/>
-      <c r="AK48" s="80"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="79"/>
+      <c r="X48" s="79"/>
+      <c r="Y48" s="79"/>
+      <c r="Z48" s="79"/>
+      <c r="AA48" s="79"/>
+      <c r="AB48" s="79"/>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="79"/>
+      <c r="AF48" s="79"/>
+      <c r="AG48" s="79"/>
+      <c r="AH48" s="79"/>
+      <c r="AI48" s="79"/>
+      <c r="AJ48" s="79"/>
+      <c r="AK48" s="79"/>
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
     </row>
     <row r="49" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="87" t="s">
         <v>985</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="89"/>
-      <c r="R49" s="89"/>
-      <c r="S49" s="89"/>
-      <c r="T49" s="89"/>
-      <c r="U49" s="89"/>
-      <c r="V49" s="89"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-      <c r="AA49" s="80"/>
-      <c r="AB49" s="80"/>
-      <c r="AC49" s="80"/>
-      <c r="AD49" s="80"/>
-      <c r="AE49" s="80"/>
-      <c r="AF49" s="80"/>
-      <c r="AG49" s="80"/>
-      <c r="AH49" s="80"/>
-      <c r="AI49" s="80"/>
-      <c r="AJ49" s="80"/>
-      <c r="AK49" s="80"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="87"/>
+      <c r="V49" s="87"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="79"/>
+      <c r="AE49" s="79"/>
+      <c r="AF49" s="79"/>
+      <c r="AG49" s="79"/>
+      <c r="AH49" s="79"/>
+      <c r="AI49" s="79"/>
+      <c r="AJ49" s="79"/>
+      <c r="AK49" s="79"/>
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
     </row>
     <row r="50" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="87" t="s">
         <v>1601</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="89"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="80"/>
-      <c r="AD50" s="80"/>
-      <c r="AE50" s="80"/>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="80"/>
-      <c r="AH50" s="80"/>
-      <c r="AI50" s="80"/>
-      <c r="AJ50" s="80"/>
-      <c r="AK50" s="80"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="87"/>
+      <c r="V50" s="87"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="79"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="79"/>
+      <c r="AA50" s="79"/>
+      <c r="AB50" s="79"/>
+      <c r="AC50" s="79"/>
+      <c r="AD50" s="79"/>
+      <c r="AE50" s="79"/>
+      <c r="AF50" s="79"/>
+      <c r="AG50" s="79"/>
+      <c r="AH50" s="79"/>
+      <c r="AI50" s="79"/>
+      <c r="AJ50" s="79"/>
+      <c r="AK50" s="79"/>
       <c r="AL50" s="7"/>
       <c r="AM50" s="7"/>
     </row>
     <row r="51" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="80"/>
-      <c r="AA51" s="80"/>
-      <c r="AB51" s="80"/>
-      <c r="AC51" s="80"/>
-      <c r="AD51" s="80"/>
-      <c r="AE51" s="80"/>
-      <c r="AF51" s="80"/>
-      <c r="AG51" s="80"/>
-      <c r="AH51" s="80"/>
-      <c r="AI51" s="80"/>
-      <c r="AJ51" s="80"/>
-      <c r="AK51" s="80"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
+      <c r="S51" s="87"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="87"/>
+      <c r="V51" s="87"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="79"/>
+      <c r="AB51" s="79"/>
+      <c r="AC51" s="79"/>
+      <c r="AD51" s="79"/>
+      <c r="AE51" s="79"/>
+      <c r="AF51" s="79"/>
+      <c r="AG51" s="79"/>
+      <c r="AH51" s="79"/>
+      <c r="AI51" s="79"/>
+      <c r="AJ51" s="79"/>
+      <c r="AK51" s="79"/>
       <c r="AL51" s="7"/>
       <c r="AM51" s="7"/>
     </row>
     <row r="52" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
-      <c r="AA52" s="80"/>
-      <c r="AB52" s="80"/>
-      <c r="AC52" s="80"/>
-      <c r="AD52" s="80"/>
-      <c r="AE52" s="80"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="80"/>
-      <c r="AH52" s="80"/>
-      <c r="AI52" s="80"/>
-      <c r="AJ52" s="80"/>
-      <c r="AK52" s="80"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="90"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="90"/>
+      <c r="V52" s="90"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="79"/>
+      <c r="AA52" s="79"/>
+      <c r="AB52" s="79"/>
+      <c r="AC52" s="79"/>
+      <c r="AD52" s="79"/>
+      <c r="AE52" s="79"/>
+      <c r="AF52" s="79"/>
+      <c r="AG52" s="79"/>
+      <c r="AH52" s="79"/>
+      <c r="AI52" s="79"/>
+      <c r="AJ52" s="79"/>
+      <c r="AK52" s="79"/>
       <c r="AL52" s="7"/>
       <c r="AM52" s="7"/>
     </row>
     <row r="53" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
-      <c r="V53" s="83"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
-      <c r="AA53" s="80"/>
-      <c r="AB53" s="80"/>
-      <c r="AC53" s="80"/>
-      <c r="AD53" s="80"/>
-      <c r="AE53" s="80"/>
-      <c r="AF53" s="80"/>
-      <c r="AG53" s="80"/>
-      <c r="AH53" s="80"/>
-      <c r="AI53" s="80"/>
-      <c r="AJ53" s="80"/>
-      <c r="AK53" s="80"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
+      <c r="AA53" s="79"/>
+      <c r="AB53" s="79"/>
+      <c r="AC53" s="79"/>
+      <c r="AD53" s="79"/>
+      <c r="AE53" s="79"/>
+      <c r="AF53" s="79"/>
+      <c r="AG53" s="79"/>
+      <c r="AH53" s="79"/>
+      <c r="AI53" s="79"/>
+      <c r="AJ53" s="79"/>
+      <c r="AK53" s="79"/>
       <c r="AL53" s="7"/>
       <c r="AM53" s="7"/>
     </row>
     <row r="54" spans="1:39" s="14" customFormat="1" ht="38.85" customHeight="1">
-      <c r="A54" s="84" t="s">
+      <c r="A54" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="91"/>
+      <c r="S54" s="91"/>
+      <c r="T54" s="91"/>
+      <c r="U54" s="91"/>
+      <c r="V54" s="91"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
     </row>
     <row r="55" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="83"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
-      <c r="AA55" s="80"/>
-      <c r="AB55" s="80"/>
-      <c r="AC55" s="80"/>
-      <c r="AD55" s="80"/>
-      <c r="AE55" s="80"/>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="80"/>
-      <c r="AH55" s="80"/>
-      <c r="AI55" s="80"/>
-      <c r="AJ55" s="80"/>
-      <c r="AK55" s="80"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="79"/>
+      <c r="Y55" s="79"/>
+      <c r="Z55" s="79"/>
+      <c r="AA55" s="79"/>
+      <c r="AB55" s="79"/>
+      <c r="AC55" s="79"/>
+      <c r="AD55" s="79"/>
+      <c r="AE55" s="79"/>
+      <c r="AF55" s="79"/>
+      <c r="AG55" s="79"/>
+      <c r="AH55" s="79"/>
+      <c r="AI55" s="79"/>
+      <c r="AJ55" s="79"/>
+      <c r="AK55" s="79"/>
       <c r="AL55" s="7"/>
       <c r="AM55" s="7"/>
     </row>
     <row r="56" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
-      <c r="T56" s="83"/>
-      <c r="U56" s="83"/>
-      <c r="V56" s="83"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="80"/>
-      <c r="AA56" s="80"/>
-      <c r="AB56" s="80"/>
-      <c r="AC56" s="80"/>
-      <c r="AD56" s="80"/>
-      <c r="AE56" s="80"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
-      <c r="AH56" s="80"/>
-      <c r="AI56" s="80"/>
-      <c r="AJ56" s="80"/>
-      <c r="AK56" s="80"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="85"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="79"/>
+      <c r="Y56" s="79"/>
+      <c r="Z56" s="79"/>
+      <c r="AA56" s="79"/>
+      <c r="AB56" s="79"/>
+      <c r="AC56" s="79"/>
+      <c r="AD56" s="79"/>
+      <c r="AE56" s="79"/>
+      <c r="AF56" s="79"/>
+      <c r="AG56" s="79"/>
+      <c r="AH56" s="79"/>
+      <c r="AI56" s="79"/>
+      <c r="AJ56" s="79"/>
+      <c r="AK56" s="79"/>
       <c r="AL56" s="7"/>
       <c r="AM56" s="7"/>
     </row>
     <row r="57" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
-      <c r="AA57" s="80"/>
-      <c r="AB57" s="80"/>
-      <c r="AC57" s="80"/>
-      <c r="AD57" s="80"/>
-      <c r="AE57" s="80"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="80"/>
-      <c r="AH57" s="80"/>
-      <c r="AI57" s="80"/>
-      <c r="AJ57" s="80"/>
-      <c r="AK57" s="80"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="79"/>
+      <c r="AA57" s="79"/>
+      <c r="AB57" s="79"/>
+      <c r="AC57" s="79"/>
+      <c r="AD57" s="79"/>
+      <c r="AE57" s="79"/>
+      <c r="AF57" s="79"/>
+      <c r="AG57" s="79"/>
+      <c r="AH57" s="79"/>
+      <c r="AI57" s="79"/>
+      <c r="AJ57" s="79"/>
+      <c r="AK57" s="79"/>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
     </row>
     <row r="58" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A58" s="91"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="91"/>
-      <c r="L58" s="91"/>
-      <c r="M58" s="91"/>
-      <c r="N58" s="91"/>
-      <c r="O58" s="91"/>
-      <c r="P58" s="91"/>
-      <c r="Q58" s="91"/>
-      <c r="R58" s="91"/>
-      <c r="S58" s="91"/>
-      <c r="T58" s="91"/>
-      <c r="U58" s="91"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
-      <c r="AA58" s="80"/>
-      <c r="AB58" s="80"/>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="80"/>
-      <c r="AE58" s="80"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="80"/>
-      <c r="AH58" s="80"/>
-      <c r="AI58" s="80"/>
-      <c r="AJ58" s="80"/>
-      <c r="AK58" s="80"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="89"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="79"/>
+      <c r="AA58" s="79"/>
+      <c r="AB58" s="79"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="79"/>
+      <c r="AE58" s="79"/>
+      <c r="AF58" s="79"/>
+      <c r="AG58" s="79"/>
+      <c r="AH58" s="79"/>
+      <c r="AI58" s="79"/>
+      <c r="AJ58" s="79"/>
+      <c r="AK58" s="79"/>
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="92"/>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="92"/>
-      <c r="T59" s="92"/>
-      <c r="U59" s="92"/>
-      <c r="V59" s="92"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="80"/>
-      <c r="Y59" s="80"/>
-      <c r="Z59" s="80"/>
-      <c r="AA59" s="80"/>
-      <c r="AB59" s="80"/>
-      <c r="AC59" s="80"/>
-      <c r="AD59" s="80"/>
-      <c r="AE59" s="80"/>
-      <c r="AF59" s="80"/>
-      <c r="AG59" s="80"/>
-      <c r="AH59" s="80"/>
-      <c r="AI59" s="80"/>
-      <c r="AJ59" s="80"/>
-      <c r="AK59" s="80"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="79"/>
+      <c r="X59" s="79"/>
+      <c r="Y59" s="79"/>
+      <c r="Z59" s="79"/>
+      <c r="AA59" s="79"/>
+      <c r="AB59" s="79"/>
+      <c r="AC59" s="79"/>
+      <c r="AD59" s="79"/>
+      <c r="AE59" s="79"/>
+      <c r="AF59" s="79"/>
+      <c r="AG59" s="79"/>
+      <c r="AH59" s="79"/>
+      <c r="AI59" s="79"/>
+      <c r="AJ59" s="79"/>
+      <c r="AK59" s="79"/>
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
     </row>
     <row r="60" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="92"/>
-      <c r="P60" s="92"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="92"/>
-      <c r="T60" s="92"/>
-      <c r="U60" s="92"/>
-      <c r="V60" s="92"/>
-      <c r="W60" s="80"/>
-      <c r="X60" s="80"/>
-      <c r="Y60" s="80"/>
-      <c r="Z60" s="80"/>
-      <c r="AA60" s="80"/>
-      <c r="AB60" s="80"/>
-      <c r="AC60" s="80"/>
-      <c r="AD60" s="80"/>
-      <c r="AE60" s="80"/>
-      <c r="AF60" s="80"/>
-      <c r="AG60" s="80"/>
-      <c r="AH60" s="80"/>
-      <c r="AI60" s="80"/>
-      <c r="AJ60" s="80"/>
-      <c r="AK60" s="80"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="79"/>
+      <c r="AC60" s="79"/>
+      <c r="AD60" s="79"/>
+      <c r="AE60" s="79"/>
+      <c r="AF60" s="79"/>
+      <c r="AG60" s="79"/>
+      <c r="AH60" s="79"/>
+      <c r="AI60" s="79"/>
+      <c r="AJ60" s="79"/>
+      <c r="AK60" s="79"/>
       <c r="AL60" s="7"/>
       <c r="AM60" s="7"/>
     </row>
     <row r="61" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="93"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="93"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="93"/>
-      <c r="S61" s="93"/>
-      <c r="T61" s="93"/>
-      <c r="U61" s="93"/>
-      <c r="V61" s="93"/>
-      <c r="W61" s="80"/>
-      <c r="X61" s="80"/>
-      <c r="Y61" s="80"/>
-      <c r="Z61" s="80"/>
-      <c r="AA61" s="80"/>
-      <c r="AB61" s="80"/>
-      <c r="AC61" s="80"/>
-      <c r="AD61" s="80"/>
-      <c r="AE61" s="80"/>
-      <c r="AF61" s="80"/>
-      <c r="AG61" s="80"/>
-      <c r="AH61" s="80"/>
-      <c r="AI61" s="80"/>
-      <c r="AJ61" s="80"/>
-      <c r="AK61" s="80"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="82"/>
+      <c r="P61" s="82"/>
+      <c r="Q61" s="82"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="82"/>
+      <c r="T61" s="82"/>
+      <c r="U61" s="82"/>
+      <c r="V61" s="82"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="79"/>
+      <c r="Y61" s="79"/>
+      <c r="Z61" s="79"/>
+      <c r="AA61" s="79"/>
+      <c r="AB61" s="79"/>
+      <c r="AC61" s="79"/>
+      <c r="AD61" s="79"/>
+      <c r="AE61" s="79"/>
+      <c r="AF61" s="79"/>
+      <c r="AG61" s="79"/>
+      <c r="AH61" s="79"/>
+      <c r="AI61" s="79"/>
+      <c r="AJ61" s="79"/>
+      <c r="AK61" s="79"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
     </row>
     <row r="62" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="86" t="s">
         <v>986</v>
       </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="94"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="94"/>
-      <c r="T62" s="94"/>
-      <c r="U62" s="94"/>
-      <c r="V62" s="94"/>
-      <c r="W62" s="80"/>
-      <c r="X62" s="80"/>
-      <c r="Y62" s="80"/>
-      <c r="Z62" s="80"/>
-      <c r="AA62" s="80"/>
-      <c r="AB62" s="80"/>
-      <c r="AC62" s="80"/>
-      <c r="AD62" s="80"/>
-      <c r="AE62" s="80"/>
-      <c r="AF62" s="80"/>
-      <c r="AG62" s="80"/>
-      <c r="AH62" s="80"/>
-      <c r="AI62" s="80"/>
-      <c r="AJ62" s="80"/>
-      <c r="AK62" s="80"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="86"/>
+      <c r="O62" s="86"/>
+      <c r="P62" s="86"/>
+      <c r="Q62" s="86"/>
+      <c r="R62" s="86"/>
+      <c r="S62" s="86"/>
+      <c r="T62" s="86"/>
+      <c r="U62" s="86"/>
+      <c r="V62" s="86"/>
+      <c r="W62" s="79"/>
+      <c r="X62" s="79"/>
+      <c r="Y62" s="79"/>
+      <c r="Z62" s="79"/>
+      <c r="AA62" s="79"/>
+      <c r="AB62" s="79"/>
+      <c r="AC62" s="79"/>
+      <c r="AD62" s="79"/>
+      <c r="AE62" s="79"/>
+      <c r="AF62" s="79"/>
+      <c r="AG62" s="79"/>
+      <c r="AH62" s="79"/>
+      <c r="AI62" s="79"/>
+      <c r="AJ62" s="79"/>
+      <c r="AK62" s="79"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
     </row>
     <row r="63" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="84" t="s">
         <v>987</v>
       </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
-      <c r="O63" s="95"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="95"/>
-      <c r="R63" s="95"/>
-      <c r="S63" s="95"/>
-      <c r="T63" s="95"/>
-      <c r="U63" s="95"/>
-      <c r="V63" s="95"/>
-      <c r="W63" s="80"/>
-      <c r="X63" s="80"/>
-      <c r="Y63" s="80"/>
-      <c r="Z63" s="80"/>
-      <c r="AA63" s="80"/>
-      <c r="AB63" s="80"/>
-      <c r="AC63" s="80"/>
-      <c r="AD63" s="80"/>
-      <c r="AE63" s="80"/>
-      <c r="AF63" s="80"/>
-      <c r="AG63" s="80"/>
-      <c r="AH63" s="80"/>
-      <c r="AI63" s="80"/>
-      <c r="AJ63" s="80"/>
-      <c r="AK63" s="80"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="84"/>
+      <c r="U63" s="84"/>
+      <c r="V63" s="84"/>
+      <c r="W63" s="79"/>
+      <c r="X63" s="79"/>
+      <c r="Y63" s="79"/>
+      <c r="Z63" s="79"/>
+      <c r="AA63" s="79"/>
+      <c r="AB63" s="79"/>
+      <c r="AC63" s="79"/>
+      <c r="AD63" s="79"/>
+      <c r="AE63" s="79"/>
+      <c r="AF63" s="79"/>
+      <c r="AG63" s="79"/>
+      <c r="AH63" s="79"/>
+      <c r="AI63" s="79"/>
+      <c r="AJ63" s="79"/>
+      <c r="AK63" s="79"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
     </row>
     <row r="64" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="84" t="s">
         <v>988</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="95"/>
-      <c r="O64" s="95"/>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="95"/>
-      <c r="S64" s="95"/>
-      <c r="T64" s="95"/>
-      <c r="U64" s="95"/>
-      <c r="V64" s="95"/>
-      <c r="W64" s="80"/>
-      <c r="X64" s="80"/>
-      <c r="Y64" s="80"/>
-      <c r="Z64" s="80"/>
-      <c r="AA64" s="80"/>
-      <c r="AB64" s="80"/>
-      <c r="AC64" s="80"/>
-      <c r="AD64" s="80"/>
-      <c r="AE64" s="80"/>
-      <c r="AF64" s="80"/>
-      <c r="AG64" s="80"/>
-      <c r="AH64" s="80"/>
-      <c r="AI64" s="80"/>
-      <c r="AJ64" s="80"/>
-      <c r="AK64" s="80"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="84"/>
+      <c r="T64" s="84"/>
+      <c r="U64" s="84"/>
+      <c r="V64" s="84"/>
+      <c r="W64" s="79"/>
+      <c r="X64" s="79"/>
+      <c r="Y64" s="79"/>
+      <c r="Z64" s="79"/>
+      <c r="AA64" s="79"/>
+      <c r="AB64" s="79"/>
+      <c r="AC64" s="79"/>
+      <c r="AD64" s="79"/>
+      <c r="AE64" s="79"/>
+      <c r="AF64" s="79"/>
+      <c r="AG64" s="79"/>
+      <c r="AH64" s="79"/>
+      <c r="AI64" s="79"/>
+      <c r="AJ64" s="79"/>
+      <c r="AK64" s="79"/>
       <c r="AL64" s="7"/>
       <c r="AM64" s="7"/>
     </row>
     <row r="65" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="84" t="s">
         <v>989</v>
       </c>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="95"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="95"/>
-      <c r="L65" s="95"/>
-      <c r="M65" s="95"/>
-      <c r="N65" s="95"/>
-      <c r="O65" s="95"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="95"/>
-      <c r="R65" s="95"/>
-      <c r="S65" s="95"/>
-      <c r="T65" s="95"/>
-      <c r="U65" s="95"/>
-      <c r="V65" s="95"/>
-      <c r="W65" s="80"/>
-      <c r="X65" s="80"/>
-      <c r="Y65" s="80"/>
-      <c r="Z65" s="80"/>
-      <c r="AA65" s="80"/>
-      <c r="AB65" s="80"/>
-      <c r="AC65" s="80"/>
-      <c r="AD65" s="80"/>
-      <c r="AE65" s="80"/>
-      <c r="AF65" s="80"/>
-      <c r="AG65" s="80"/>
-      <c r="AH65" s="80"/>
-      <c r="AI65" s="80"/>
-      <c r="AJ65" s="80"/>
-      <c r="AK65" s="80"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="S65" s="84"/>
+      <c r="T65" s="84"/>
+      <c r="U65" s="84"/>
+      <c r="V65" s="84"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
+      <c r="AA65" s="79"/>
+      <c r="AB65" s="79"/>
+      <c r="AC65" s="79"/>
+      <c r="AD65" s="79"/>
+      <c r="AE65" s="79"/>
+      <c r="AF65" s="79"/>
+      <c r="AG65" s="79"/>
+      <c r="AH65" s="79"/>
+      <c r="AI65" s="79"/>
+      <c r="AJ65" s="79"/>
+      <c r="AK65" s="79"/>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
     </row>
     <row r="66" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="84" t="s">
         <v>1602</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
-      <c r="O66" s="95"/>
-      <c r="P66" s="95"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="95"/>
-      <c r="S66" s="95"/>
-      <c r="T66" s="95"/>
-      <c r="U66" s="95"/>
-      <c r="V66" s="95"/>
-      <c r="W66" s="80"/>
-      <c r="X66" s="80"/>
-      <c r="Y66" s="80"/>
-      <c r="Z66" s="80"/>
-      <c r="AA66" s="80"/>
-      <c r="AB66" s="80"/>
-      <c r="AC66" s="80"/>
-      <c r="AD66" s="80"/>
-      <c r="AE66" s="80"/>
-      <c r="AF66" s="80"/>
-      <c r="AG66" s="80"/>
-      <c r="AH66" s="80"/>
-      <c r="AI66" s="80"/>
-      <c r="AJ66" s="80"/>
-      <c r="AK66" s="80"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="S66" s="84"/>
+      <c r="T66" s="84"/>
+      <c r="U66" s="84"/>
+      <c r="V66" s="84"/>
+      <c r="W66" s="79"/>
+      <c r="X66" s="79"/>
+      <c r="Y66" s="79"/>
+      <c r="Z66" s="79"/>
+      <c r="AA66" s="79"/>
+      <c r="AB66" s="79"/>
+      <c r="AC66" s="79"/>
+      <c r="AD66" s="79"/>
+      <c r="AE66" s="79"/>
+      <c r="AF66" s="79"/>
+      <c r="AG66" s="79"/>
+      <c r="AH66" s="79"/>
+      <c r="AI66" s="79"/>
+      <c r="AJ66" s="79"/>
+      <c r="AK66" s="79"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
     </row>
     <row r="67" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="93"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="93"/>
-      <c r="K67" s="93"/>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
-      <c r="N67" s="93"/>
-      <c r="O67" s="93"/>
-      <c r="P67" s="93"/>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="93"/>
-      <c r="S67" s="93"/>
-      <c r="T67" s="93"/>
-      <c r="U67" s="93"/>
-      <c r="V67" s="93"/>
-      <c r="W67" s="80"/>
-      <c r="X67" s="80"/>
-      <c r="Y67" s="80"/>
-      <c r="Z67" s="80"/>
-      <c r="AA67" s="80"/>
-      <c r="AB67" s="80"/>
-      <c r="AC67" s="80"/>
-      <c r="AD67" s="80"/>
-      <c r="AE67" s="80"/>
-      <c r="AF67" s="80"/>
-      <c r="AG67" s="80"/>
-      <c r="AH67" s="80"/>
-      <c r="AI67" s="80"/>
-      <c r="AJ67" s="80"/>
-      <c r="AK67" s="80"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="82"/>
+      <c r="P67" s="82"/>
+      <c r="Q67" s="82"/>
+      <c r="R67" s="82"/>
+      <c r="S67" s="82"/>
+      <c r="T67" s="82"/>
+      <c r="U67" s="82"/>
+      <c r="V67" s="82"/>
+      <c r="W67" s="79"/>
+      <c r="X67" s="79"/>
+      <c r="Y67" s="79"/>
+      <c r="Z67" s="79"/>
+      <c r="AA67" s="79"/>
+      <c r="AB67" s="79"/>
+      <c r="AC67" s="79"/>
+      <c r="AD67" s="79"/>
+      <c r="AE67" s="79"/>
+      <c r="AF67" s="79"/>
+      <c r="AG67" s="79"/>
+      <c r="AH67" s="79"/>
+      <c r="AI67" s="79"/>
+      <c r="AJ67" s="79"/>
+      <c r="AK67" s="79"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
     </row>
     <row r="68" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
-      <c r="R68" s="95"/>
-      <c r="S68" s="95"/>
-      <c r="T68" s="95"/>
-      <c r="U68" s="95"/>
-      <c r="V68" s="95"/>
-      <c r="W68" s="80"/>
-      <c r="X68" s="80"/>
-      <c r="Y68" s="80"/>
-      <c r="Z68" s="80"/>
-      <c r="AA68" s="80"/>
-      <c r="AB68" s="80"/>
-      <c r="AC68" s="80"/>
-      <c r="AD68" s="80"/>
-      <c r="AE68" s="80"/>
-      <c r="AF68" s="80"/>
-      <c r="AG68" s="80"/>
-      <c r="AH68" s="80"/>
-      <c r="AI68" s="80"/>
-      <c r="AJ68" s="80"/>
-      <c r="AK68" s="80"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="84"/>
+      <c r="T68" s="84"/>
+      <c r="U68" s="84"/>
+      <c r="V68" s="84"/>
+      <c r="W68" s="79"/>
+      <c r="X68" s="79"/>
+      <c r="Y68" s="79"/>
+      <c r="Z68" s="79"/>
+      <c r="AA68" s="79"/>
+      <c r="AB68" s="79"/>
+      <c r="AC68" s="79"/>
+      <c r="AD68" s="79"/>
+      <c r="AE68" s="79"/>
+      <c r="AF68" s="79"/>
+      <c r="AG68" s="79"/>
+      <c r="AH68" s="79"/>
+      <c r="AI68" s="79"/>
+      <c r="AJ68" s="79"/>
+      <c r="AK68" s="79"/>
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
     </row>
     <row r="69" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="84" t="s">
         <v>990</v>
       </c>
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="95"/>
-      <c r="J69" s="95"/>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
-      <c r="N69" s="95"/>
-      <c r="O69" s="95"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="95"/>
-      <c r="R69" s="95"/>
-      <c r="S69" s="95"/>
-      <c r="T69" s="95"/>
-      <c r="U69" s="95"/>
-      <c r="V69" s="95"/>
-      <c r="W69" s="80"/>
-      <c r="X69" s="80"/>
-      <c r="Y69" s="80"/>
-      <c r="Z69" s="80"/>
-      <c r="AA69" s="80"/>
-      <c r="AB69" s="80"/>
-      <c r="AC69" s="80"/>
-      <c r="AD69" s="80"/>
-      <c r="AE69" s="80"/>
-      <c r="AF69" s="80"/>
-      <c r="AG69" s="80"/>
-      <c r="AH69" s="80"/>
-      <c r="AI69" s="80"/>
-      <c r="AJ69" s="80"/>
-      <c r="AK69" s="80"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="84"/>
+      <c r="V69" s="84"/>
+      <c r="W69" s="79"/>
+      <c r="X69" s="79"/>
+      <c r="Y69" s="79"/>
+      <c r="Z69" s="79"/>
+      <c r="AA69" s="79"/>
+      <c r="AB69" s="79"/>
+      <c r="AC69" s="79"/>
+      <c r="AD69" s="79"/>
+      <c r="AE69" s="79"/>
+      <c r="AF69" s="79"/>
+      <c r="AG69" s="79"/>
+      <c r="AH69" s="79"/>
+      <c r="AI69" s="79"/>
+      <c r="AJ69" s="79"/>
+      <c r="AK69" s="79"/>
       <c r="AL69" s="7"/>
       <c r="AM69" s="7"/>
     </row>
     <row r="70" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A70" s="95" t="s">
+      <c r="A70" s="84" t="s">
         <v>991</v>
       </c>
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="95"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="95"/>
-      <c r="P70" s="95"/>
-      <c r="Q70" s="95"/>
-      <c r="R70" s="95"/>
-      <c r="S70" s="95"/>
-      <c r="T70" s="95"/>
-      <c r="U70" s="95"/>
-      <c r="V70" s="95"/>
-      <c r="W70" s="80"/>
-      <c r="X70" s="80"/>
-      <c r="Y70" s="80"/>
-      <c r="Z70" s="80"/>
-      <c r="AA70" s="80"/>
-      <c r="AB70" s="80"/>
-      <c r="AC70" s="80"/>
-      <c r="AD70" s="80"/>
-      <c r="AE70" s="80"/>
-      <c r="AF70" s="80"/>
-      <c r="AG70" s="80"/>
-      <c r="AH70" s="80"/>
-      <c r="AI70" s="80"/>
-      <c r="AJ70" s="80"/>
-      <c r="AK70" s="80"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="84"/>
+      <c r="V70" s="84"/>
+      <c r="W70" s="79"/>
+      <c r="X70" s="79"/>
+      <c r="Y70" s="79"/>
+      <c r="Z70" s="79"/>
+      <c r="AA70" s="79"/>
+      <c r="AB70" s="79"/>
+      <c r="AC70" s="79"/>
+      <c r="AD70" s="79"/>
+      <c r="AE70" s="79"/>
+      <c r="AF70" s="79"/>
+      <c r="AG70" s="79"/>
+      <c r="AH70" s="79"/>
+      <c r="AI70" s="79"/>
+      <c r="AJ70" s="79"/>
+      <c r="AK70" s="79"/>
       <c r="AL70" s="7"/>
       <c r="AM70" s="7"/>
     </row>
     <row r="71" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A71" s="95" t="s">
+      <c r="A71" s="84" t="s">
         <v>992</v>
       </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
-      <c r="I71" s="95"/>
-      <c r="J71" s="95"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="95"/>
-      <c r="O71" s="95"/>
-      <c r="P71" s="95"/>
-      <c r="Q71" s="95"/>
-      <c r="R71" s="95"/>
-      <c r="S71" s="95"/>
-      <c r="T71" s="95"/>
-      <c r="U71" s="95"/>
-      <c r="V71" s="95"/>
-      <c r="W71" s="80"/>
-      <c r="X71" s="80"/>
-      <c r="Y71" s="80"/>
-      <c r="Z71" s="80"/>
-      <c r="AA71" s="80"/>
-      <c r="AB71" s="80"/>
-      <c r="AC71" s="80"/>
-      <c r="AD71" s="80"/>
-      <c r="AE71" s="80"/>
-      <c r="AF71" s="80"/>
-      <c r="AG71" s="80"/>
-      <c r="AH71" s="80"/>
-      <c r="AI71" s="80"/>
-      <c r="AJ71" s="80"/>
-      <c r="AK71" s="80"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="84"/>
+      <c r="U71" s="84"/>
+      <c r="V71" s="84"/>
+      <c r="W71" s="79"/>
+      <c r="X71" s="79"/>
+      <c r="Y71" s="79"/>
+      <c r="Z71" s="79"/>
+      <c r="AA71" s="79"/>
+      <c r="AB71" s="79"/>
+      <c r="AC71" s="79"/>
+      <c r="AD71" s="79"/>
+      <c r="AE71" s="79"/>
+      <c r="AF71" s="79"/>
+      <c r="AG71" s="79"/>
+      <c r="AH71" s="79"/>
+      <c r="AI71" s="79"/>
+      <c r="AJ71" s="79"/>
+      <c r="AK71" s="79"/>
       <c r="AL71" s="7"/>
       <c r="AM71" s="7"/>
     </row>
     <row r="72" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="84" t="s">
         <v>1603</v>
       </c>
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="95"/>
-      <c r="N72" s="95"/>
-      <c r="O72" s="95"/>
-      <c r="P72" s="95"/>
-      <c r="Q72" s="95"/>
-      <c r="R72" s="95"/>
-      <c r="S72" s="95"/>
-      <c r="T72" s="95"/>
-      <c r="U72" s="95"/>
-      <c r="V72" s="95"/>
-      <c r="W72" s="80"/>
-      <c r="X72" s="80"/>
-      <c r="Y72" s="80"/>
-      <c r="Z72" s="80"/>
-      <c r="AA72" s="80"/>
-      <c r="AB72" s="80"/>
-      <c r="AC72" s="80"/>
-      <c r="AD72" s="80"/>
-      <c r="AE72" s="80"/>
-      <c r="AF72" s="80"/>
-      <c r="AG72" s="80"/>
-      <c r="AH72" s="80"/>
-      <c r="AI72" s="80"/>
-      <c r="AJ72" s="80"/>
-      <c r="AK72" s="80"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84"/>
+      <c r="T72" s="84"/>
+      <c r="U72" s="84"/>
+      <c r="V72" s="84"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="79"/>
+      <c r="Y72" s="79"/>
+      <c r="Z72" s="79"/>
+      <c r="AA72" s="79"/>
+      <c r="AB72" s="79"/>
+      <c r="AC72" s="79"/>
+      <c r="AD72" s="79"/>
+      <c r="AE72" s="79"/>
+      <c r="AF72" s="79"/>
+      <c r="AG72" s="79"/>
+      <c r="AH72" s="79"/>
+      <c r="AI72" s="79"/>
+      <c r="AJ72" s="79"/>
+      <c r="AK72" s="79"/>
       <c r="AL72" s="7"/>
       <c r="AM72" s="7"/>
     </row>
     <row r="73" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="84" t="s">
         <v>1604</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="95"/>
-      <c r="N73" s="95"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="95"/>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="95"/>
-      <c r="T73" s="95"/>
-      <c r="U73" s="95"/>
-      <c r="V73" s="95"/>
-      <c r="W73" s="80"/>
-      <c r="X73" s="80"/>
-      <c r="Y73" s="80"/>
-      <c r="Z73" s="80"/>
-      <c r="AA73" s="80"/>
-      <c r="AB73" s="80"/>
-      <c r="AC73" s="80"/>
-      <c r="AD73" s="80"/>
-      <c r="AE73" s="80"/>
-      <c r="AF73" s="80"/>
-      <c r="AG73" s="80"/>
-      <c r="AH73" s="80"/>
-      <c r="AI73" s="80"/>
-      <c r="AJ73" s="80"/>
-      <c r="AK73" s="80"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="84"/>
+      <c r="T73" s="84"/>
+      <c r="U73" s="84"/>
+      <c r="V73" s="84"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
+      <c r="Y73" s="79"/>
+      <c r="Z73" s="79"/>
+      <c r="AA73" s="79"/>
+      <c r="AB73" s="79"/>
+      <c r="AC73" s="79"/>
+      <c r="AD73" s="79"/>
+      <c r="AE73" s="79"/>
+      <c r="AF73" s="79"/>
+      <c r="AG73" s="79"/>
+      <c r="AH73" s="79"/>
+      <c r="AI73" s="79"/>
+      <c r="AJ73" s="79"/>
+      <c r="AK73" s="79"/>
       <c r="AL73" s="7"/>
       <c r="AM73" s="7"/>
     </row>
     <row r="74" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A74" s="96" t="s">
+      <c r="A74" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="96"/>
-      <c r="T74" s="96"/>
-      <c r="U74" s="96"/>
-      <c r="V74" s="96"/>
-      <c r="W74" s="80"/>
-      <c r="X74" s="80"/>
-      <c r="Y74" s="80"/>
-      <c r="Z74" s="80"/>
-      <c r="AA74" s="80"/>
-      <c r="AB74" s="80"/>
-      <c r="AC74" s="80"/>
-      <c r="AD74" s="80"/>
-      <c r="AE74" s="80"/>
-      <c r="AF74" s="80"/>
-      <c r="AG74" s="80"/>
-      <c r="AH74" s="80"/>
-      <c r="AI74" s="80"/>
-      <c r="AJ74" s="80"/>
-      <c r="AK74" s="80"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
+      <c r="S74" s="81"/>
+      <c r="T74" s="81"/>
+      <c r="U74" s="81"/>
+      <c r="V74" s="81"/>
+      <c r="W74" s="79"/>
+      <c r="X74" s="79"/>
+      <c r="Y74" s="79"/>
+      <c r="Z74" s="79"/>
+      <c r="AA74" s="79"/>
+      <c r="AB74" s="79"/>
+      <c r="AC74" s="79"/>
+      <c r="AD74" s="79"/>
+      <c r="AE74" s="79"/>
+      <c r="AF74" s="79"/>
+      <c r="AG74" s="79"/>
+      <c r="AH74" s="79"/>
+      <c r="AI74" s="79"/>
+      <c r="AJ74" s="79"/>
+      <c r="AK74" s="79"/>
       <c r="AL74" s="7"/>
       <c r="AM74" s="7"/>
     </row>
     <row r="75" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="B75" s="83"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="83"/>
-      <c r="K75" s="83"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="83"/>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
-      <c r="P75" s="83"/>
-      <c r="Q75" s="83"/>
-      <c r="R75" s="83"/>
-      <c r="S75" s="83"/>
-      <c r="T75" s="83"/>
-      <c r="U75" s="83"/>
-      <c r="V75" s="83"/>
-      <c r="W75" s="80"/>
-      <c r="X75" s="80"/>
-      <c r="Y75" s="80"/>
-      <c r="Z75" s="80"/>
-      <c r="AA75" s="80"/>
-      <c r="AB75" s="80"/>
-      <c r="AC75" s="80"/>
-      <c r="AD75" s="80"/>
-      <c r="AE75" s="80"/>
-      <c r="AF75" s="80"/>
-      <c r="AG75" s="80"/>
-      <c r="AH75" s="80"/>
-      <c r="AI75" s="80"/>
-      <c r="AJ75" s="80"/>
-      <c r="AK75" s="80"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="85"/>
+      <c r="O75" s="85"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
+      <c r="R75" s="85"/>
+      <c r="S75" s="85"/>
+      <c r="T75" s="85"/>
+      <c r="U75" s="85"/>
+      <c r="V75" s="85"/>
+      <c r="W75" s="79"/>
+      <c r="X75" s="79"/>
+      <c r="Y75" s="79"/>
+      <c r="Z75" s="79"/>
+      <c r="AA75" s="79"/>
+      <c r="AB75" s="79"/>
+      <c r="AC75" s="79"/>
+      <c r="AD75" s="79"/>
+      <c r="AE75" s="79"/>
+      <c r="AF75" s="79"/>
+      <c r="AG75" s="79"/>
+      <c r="AH75" s="79"/>
+      <c r="AI75" s="79"/>
+      <c r="AJ75" s="79"/>
+      <c r="AK75" s="79"/>
       <c r="AL75" s="7"/>
       <c r="AM75" s="7"/>
     </row>
     <row r="76" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="84" t="s">
         <v>1605</v>
       </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="95"/>
-      <c r="O76" s="95"/>
-      <c r="P76" s="95"/>
-      <c r="Q76" s="95"/>
-      <c r="R76" s="95"/>
-      <c r="S76" s="95"/>
-      <c r="T76" s="95"/>
-      <c r="U76" s="95"/>
-      <c r="V76" s="95"/>
-      <c r="W76" s="80"/>
-      <c r="X76" s="80"/>
-      <c r="Y76" s="80"/>
-      <c r="Z76" s="80"/>
-      <c r="AA76" s="80"/>
-      <c r="AB76" s="80"/>
-      <c r="AC76" s="80"/>
-      <c r="AD76" s="80"/>
-      <c r="AE76" s="80"/>
-      <c r="AF76" s="80"/>
-      <c r="AG76" s="80"/>
-      <c r="AH76" s="80"/>
-      <c r="AI76" s="80"/>
-      <c r="AJ76" s="80"/>
-      <c r="AK76" s="80"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="S76" s="84"/>
+      <c r="T76" s="84"/>
+      <c r="U76" s="84"/>
+      <c r="V76" s="84"/>
+      <c r="W76" s="79"/>
+      <c r="X76" s="79"/>
+      <c r="Y76" s="79"/>
+      <c r="Z76" s="79"/>
+      <c r="AA76" s="79"/>
+      <c r="AB76" s="79"/>
+      <c r="AC76" s="79"/>
+      <c r="AD76" s="79"/>
+      <c r="AE76" s="79"/>
+      <c r="AF76" s="79"/>
+      <c r="AG76" s="79"/>
+      <c r="AH76" s="79"/>
+      <c r="AI76" s="79"/>
+      <c r="AJ76" s="79"/>
+      <c r="AK76" s="79"/>
       <c r="AL76" s="7"/>
       <c r="AM76" s="7"/>
     </row>
     <row r="77" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="96"/>
-      <c r="T77" s="96"/>
-      <c r="U77" s="96"/>
-      <c r="V77" s="96"/>
-      <c r="W77" s="80"/>
-      <c r="X77" s="80"/>
-      <c r="Y77" s="80"/>
-      <c r="Z77" s="80"/>
-      <c r="AA77" s="80"/>
-      <c r="AB77" s="80"/>
-      <c r="AC77" s="80"/>
-      <c r="AD77" s="80"/>
-      <c r="AE77" s="80"/>
-      <c r="AF77" s="80"/>
-      <c r="AG77" s="80"/>
-      <c r="AH77" s="80"/>
-      <c r="AI77" s="80"/>
-      <c r="AJ77" s="80"/>
-      <c r="AK77" s="80"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="81"/>
+      <c r="M77" s="81"/>
+      <c r="N77" s="81"/>
+      <c r="O77" s="81"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="81"/>
+      <c r="S77" s="81"/>
+      <c r="T77" s="81"/>
+      <c r="U77" s="81"/>
+      <c r="V77" s="81"/>
+      <c r="W77" s="79"/>
+      <c r="X77" s="79"/>
+      <c r="Y77" s="79"/>
+      <c r="Z77" s="79"/>
+      <c r="AA77" s="79"/>
+      <c r="AB77" s="79"/>
+      <c r="AC77" s="79"/>
+      <c r="AD77" s="79"/>
+      <c r="AE77" s="79"/>
+      <c r="AF77" s="79"/>
+      <c r="AG77" s="79"/>
+      <c r="AH77" s="79"/>
+      <c r="AI77" s="79"/>
+      <c r="AJ77" s="79"/>
+      <c r="AK77" s="79"/>
       <c r="AL77" s="7"/>
       <c r="AM77" s="7"/>
     </row>
     <row r="78" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="84" t="s">
         <v>994</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-      <c r="Q78" s="95"/>
-      <c r="R78" s="95"/>
-      <c r="S78" s="95"/>
-      <c r="T78" s="95"/>
-      <c r="U78" s="95"/>
-      <c r="V78" s="95"/>
-      <c r="W78" s="80"/>
-      <c r="X78" s="80"/>
-      <c r="Y78" s="80"/>
-      <c r="Z78" s="80"/>
-      <c r="AA78" s="80"/>
-      <c r="AB78" s="80"/>
-      <c r="AC78" s="80"/>
-      <c r="AD78" s="80"/>
-      <c r="AE78" s="80"/>
-      <c r="AF78" s="80"/>
-      <c r="AG78" s="80"/>
-      <c r="AH78" s="80"/>
-      <c r="AI78" s="80"/>
-      <c r="AJ78" s="80"/>
-      <c r="AK78" s="80"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="84"/>
+      <c r="S78" s="84"/>
+      <c r="T78" s="84"/>
+      <c r="U78" s="84"/>
+      <c r="V78" s="84"/>
+      <c r="W78" s="79"/>
+      <c r="X78" s="79"/>
+      <c r="Y78" s="79"/>
+      <c r="Z78" s="79"/>
+      <c r="AA78" s="79"/>
+      <c r="AB78" s="79"/>
+      <c r="AC78" s="79"/>
+      <c r="AD78" s="79"/>
+      <c r="AE78" s="79"/>
+      <c r="AF78" s="79"/>
+      <c r="AG78" s="79"/>
+      <c r="AH78" s="79"/>
+      <c r="AI78" s="79"/>
+      <c r="AJ78" s="79"/>
+      <c r="AK78" s="79"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="7"/>
     </row>
     <row r="79" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="95" t="s">
+      <c r="A79" s="84" t="s">
         <v>995</v>
       </c>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="95"/>
-      <c r="O79" s="95"/>
-      <c r="P79" s="95"/>
-      <c r="Q79" s="95"/>
-      <c r="R79" s="95"/>
-      <c r="S79" s="95"/>
-      <c r="T79" s="95"/>
-      <c r="U79" s="95"/>
-      <c r="V79" s="95"/>
-      <c r="W79" s="80"/>
-      <c r="X79" s="80"/>
-      <c r="Y79" s="80"/>
-      <c r="Z79" s="80"/>
-      <c r="AA79" s="80"/>
-      <c r="AB79" s="80"/>
-      <c r="AC79" s="80"/>
-      <c r="AD79" s="80"/>
-      <c r="AE79" s="80"/>
-      <c r="AF79" s="80"/>
-      <c r="AG79" s="80"/>
-      <c r="AH79" s="80"/>
-      <c r="AI79" s="80"/>
-      <c r="AJ79" s="80"/>
-      <c r="AK79" s="80"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+      <c r="T79" s="84"/>
+      <c r="U79" s="84"/>
+      <c r="V79" s="84"/>
+      <c r="W79" s="79"/>
+      <c r="X79" s="79"/>
+      <c r="Y79" s="79"/>
+      <c r="Z79" s="79"/>
+      <c r="AA79" s="79"/>
+      <c r="AB79" s="79"/>
+      <c r="AC79" s="79"/>
+      <c r="AD79" s="79"/>
+      <c r="AE79" s="79"/>
+      <c r="AF79" s="79"/>
+      <c r="AG79" s="79"/>
+      <c r="AH79" s="79"/>
+      <c r="AI79" s="79"/>
+      <c r="AJ79" s="79"/>
+      <c r="AK79" s="79"/>
       <c r="AL79" s="7"/>
       <c r="AM79" s="7"/>
     </row>
     <row r="80" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="95" t="s">
+      <c r="A80" s="84" t="s">
         <v>1606</v>
       </c>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="95"/>
-      <c r="K80" s="95"/>
-      <c r="L80" s="95"/>
-      <c r="M80" s="95"/>
-      <c r="N80" s="95"/>
-      <c r="O80" s="95"/>
-      <c r="P80" s="95"/>
-      <c r="Q80" s="95"/>
-      <c r="R80" s="95"/>
-      <c r="S80" s="95"/>
-      <c r="T80" s="95"/>
-      <c r="U80" s="95"/>
-      <c r="V80" s="95"/>
-      <c r="W80" s="80"/>
-      <c r="X80" s="80"/>
-      <c r="Y80" s="80"/>
-      <c r="Z80" s="80"/>
-      <c r="AA80" s="80"/>
-      <c r="AB80" s="80"/>
-      <c r="AC80" s="80"/>
-      <c r="AD80" s="80"/>
-      <c r="AE80" s="80"/>
-      <c r="AF80" s="80"/>
-      <c r="AG80" s="80"/>
-      <c r="AH80" s="80"/>
-      <c r="AI80" s="80"/>
-      <c r="AJ80" s="80"/>
-      <c r="AK80" s="80"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
+      <c r="S80" s="84"/>
+      <c r="T80" s="84"/>
+      <c r="U80" s="84"/>
+      <c r="V80" s="84"/>
+      <c r="W80" s="79"/>
+      <c r="X80" s="79"/>
+      <c r="Y80" s="79"/>
+      <c r="Z80" s="79"/>
+      <c r="AA80" s="79"/>
+      <c r="AB80" s="79"/>
+      <c r="AC80" s="79"/>
+      <c r="AD80" s="79"/>
+      <c r="AE80" s="79"/>
+      <c r="AF80" s="79"/>
+      <c r="AG80" s="79"/>
+      <c r="AH80" s="79"/>
+      <c r="AI80" s="79"/>
+      <c r="AJ80" s="79"/>
+      <c r="AK80" s="79"/>
       <c r="AL80" s="7"/>
       <c r="AM80" s="7"/>
     </row>
     <row r="81" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="96" t="s">
+      <c r="A81" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="96"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-      <c r="T81" s="96"/>
-      <c r="U81" s="96"/>
-      <c r="V81" s="96"/>
-      <c r="W81" s="80"/>
-      <c r="X81" s="80"/>
-      <c r="Y81" s="80"/>
-      <c r="Z81" s="80"/>
-      <c r="AA81" s="80"/>
-      <c r="AB81" s="80"/>
-      <c r="AC81" s="80"/>
-      <c r="AD81" s="80"/>
-      <c r="AE81" s="80"/>
-      <c r="AF81" s="80"/>
-      <c r="AG81" s="80"/>
-      <c r="AH81" s="80"/>
-      <c r="AI81" s="80"/>
-      <c r="AJ81" s="80"/>
-      <c r="AK81" s="80"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="81"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="81"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="81"/>
+      <c r="T81" s="81"/>
+      <c r="U81" s="81"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="79"/>
+      <c r="X81" s="79"/>
+      <c r="Y81" s="79"/>
+      <c r="Z81" s="79"/>
+      <c r="AA81" s="79"/>
+      <c r="AB81" s="79"/>
+      <c r="AC81" s="79"/>
+      <c r="AD81" s="79"/>
+      <c r="AE81" s="79"/>
+      <c r="AF81" s="79"/>
+      <c r="AG81" s="79"/>
+      <c r="AH81" s="79"/>
+      <c r="AI81" s="79"/>
+      <c r="AJ81" s="79"/>
+      <c r="AK81" s="79"/>
       <c r="AL81" s="7"/>
       <c r="AM81" s="7"/>
     </row>
     <row r="82" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="95" t="s">
+      <c r="A82" s="84" t="s">
         <v>1607</v>
       </c>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="95"/>
-      <c r="M82" s="95"/>
-      <c r="N82" s="95"/>
-      <c r="O82" s="95"/>
-      <c r="P82" s="95"/>
-      <c r="Q82" s="95"/>
-      <c r="R82" s="95"/>
-      <c r="S82" s="95"/>
-      <c r="T82" s="95"/>
-      <c r="U82" s="95"/>
-      <c r="V82" s="95"/>
-      <c r="W82" s="80"/>
-      <c r="X82" s="80"/>
-      <c r="Y82" s="80"/>
-      <c r="Z82" s="80"/>
-      <c r="AA82" s="80"/>
-      <c r="AB82" s="80"/>
-      <c r="AC82" s="80"/>
-      <c r="AD82" s="80"/>
-      <c r="AE82" s="80"/>
-      <c r="AF82" s="80"/>
-      <c r="AG82" s="80"/>
-      <c r="AH82" s="80"/>
-      <c r="AI82" s="80"/>
-      <c r="AJ82" s="80"/>
-      <c r="AK82" s="80"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
+      <c r="S82" s="84"/>
+      <c r="T82" s="84"/>
+      <c r="U82" s="84"/>
+      <c r="V82" s="84"/>
+      <c r="W82" s="79"/>
+      <c r="X82" s="79"/>
+      <c r="Y82" s="79"/>
+      <c r="Z82" s="79"/>
+      <c r="AA82" s="79"/>
+      <c r="AB82" s="79"/>
+      <c r="AC82" s="79"/>
+      <c r="AD82" s="79"/>
+      <c r="AE82" s="79"/>
+      <c r="AF82" s="79"/>
+      <c r="AG82" s="79"/>
+      <c r="AH82" s="79"/>
+      <c r="AI82" s="79"/>
+      <c r="AJ82" s="79"/>
+      <c r="AK82" s="79"/>
       <c r="AL82" s="7"/>
       <c r="AM82" s="7"/>
     </row>
     <row r="83" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="96" t="s">
+      <c r="A83" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="96"/>
-      <c r="P83" s="96"/>
-      <c r="Q83" s="96"/>
-      <c r="R83" s="96"/>
-      <c r="S83" s="96"/>
-      <c r="T83" s="96"/>
-      <c r="U83" s="96"/>
-      <c r="V83" s="96"/>
-      <c r="W83" s="80"/>
-      <c r="X83" s="80"/>
-      <c r="Y83" s="80"/>
-      <c r="Z83" s="80"/>
-      <c r="AA83" s="80"/>
-      <c r="AB83" s="80"/>
-      <c r="AC83" s="80"/>
-      <c r="AD83" s="80"/>
-      <c r="AE83" s="80"/>
-      <c r="AF83" s="80"/>
-      <c r="AG83" s="80"/>
-      <c r="AH83" s="80"/>
-      <c r="AI83" s="80"/>
-      <c r="AJ83" s="80"/>
-      <c r="AK83" s="80"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="81"/>
+      <c r="M83" s="81"/>
+      <c r="N83" s="81"/>
+      <c r="O83" s="81"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+      <c r="R83" s="81"/>
+      <c r="S83" s="81"/>
+      <c r="T83" s="81"/>
+      <c r="U83" s="81"/>
+      <c r="V83" s="81"/>
+      <c r="W83" s="79"/>
+      <c r="X83" s="79"/>
+      <c r="Y83" s="79"/>
+      <c r="Z83" s="79"/>
+      <c r="AA83" s="79"/>
+      <c r="AB83" s="79"/>
+      <c r="AC83" s="79"/>
+      <c r="AD83" s="79"/>
+      <c r="AE83" s="79"/>
+      <c r="AF83" s="79"/>
+      <c r="AG83" s="79"/>
+      <c r="AH83" s="79"/>
+      <c r="AI83" s="79"/>
+      <c r="AJ83" s="79"/>
+      <c r="AK83" s="79"/>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
     </row>
     <row r="84" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="95"/>
-      <c r="E84" s="95"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="95"/>
-      <c r="I84" s="95"/>
-      <c r="J84" s="95"/>
-      <c r="K84" s="95"/>
-      <c r="L84" s="95"/>
-      <c r="M84" s="95"/>
-      <c r="N84" s="95"/>
-      <c r="O84" s="95"/>
-      <c r="P84" s="95"/>
-      <c r="Q84" s="95"/>
-      <c r="R84" s="95"/>
-      <c r="S84" s="95"/>
-      <c r="T84" s="95"/>
-      <c r="U84" s="95"/>
-      <c r="V84" s="95"/>
-      <c r="W84" s="80"/>
-      <c r="X84" s="80"/>
-      <c r="Y84" s="80"/>
-      <c r="Z84" s="80"/>
-      <c r="AA84" s="80"/>
-      <c r="AB84" s="80"/>
-      <c r="AC84" s="80"/>
-      <c r="AD84" s="80"/>
-      <c r="AE84" s="80"/>
-      <c r="AF84" s="80"/>
-      <c r="AG84" s="80"/>
-      <c r="AH84" s="80"/>
-      <c r="AI84" s="80"/>
-      <c r="AJ84" s="80"/>
-      <c r="AK84" s="80"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
+      <c r="S84" s="84"/>
+      <c r="T84" s="84"/>
+      <c r="U84" s="84"/>
+      <c r="V84" s="84"/>
+      <c r="W84" s="79"/>
+      <c r="X84" s="79"/>
+      <c r="Y84" s="79"/>
+      <c r="Z84" s="79"/>
+      <c r="AA84" s="79"/>
+      <c r="AB84" s="79"/>
+      <c r="AC84" s="79"/>
+      <c r="AD84" s="79"/>
+      <c r="AE84" s="79"/>
+      <c r="AF84" s="79"/>
+      <c r="AG84" s="79"/>
+      <c r="AH84" s="79"/>
+      <c r="AI84" s="79"/>
+      <c r="AJ84" s="79"/>
+      <c r="AK84" s="79"/>
       <c r="AL84" s="7"/>
       <c r="AM84" s="7"/>
     </row>
     <row r="85" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="95"/>
-      <c r="J85" s="95"/>
-      <c r="K85" s="95"/>
-      <c r="L85" s="95"/>
-      <c r="M85" s="95"/>
-      <c r="N85" s="95"/>
-      <c r="O85" s="95"/>
-      <c r="P85" s="95"/>
-      <c r="Q85" s="95"/>
-      <c r="R85" s="95"/>
-      <c r="S85" s="95"/>
-      <c r="T85" s="95"/>
-      <c r="U85" s="95"/>
-      <c r="V85" s="95"/>
-      <c r="W85" s="80"/>
-      <c r="X85" s="80"/>
-      <c r="Y85" s="80"/>
-      <c r="Z85" s="80"/>
-      <c r="AA85" s="80"/>
-      <c r="AB85" s="80"/>
-      <c r="AC85" s="80"/>
-      <c r="AD85" s="80"/>
-      <c r="AE85" s="80"/>
-      <c r="AF85" s="80"/>
-      <c r="AG85" s="80"/>
-      <c r="AH85" s="80"/>
-      <c r="AI85" s="80"/>
-      <c r="AJ85" s="80"/>
-      <c r="AK85" s="80"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84"/>
+      <c r="R85" s="84"/>
+      <c r="S85" s="84"/>
+      <c r="T85" s="84"/>
+      <c r="U85" s="84"/>
+      <c r="V85" s="84"/>
+      <c r="W85" s="79"/>
+      <c r="X85" s="79"/>
+      <c r="Y85" s="79"/>
+      <c r="Z85" s="79"/>
+      <c r="AA85" s="79"/>
+      <c r="AB85" s="79"/>
+      <c r="AC85" s="79"/>
+      <c r="AD85" s="79"/>
+      <c r="AE85" s="79"/>
+      <c r="AF85" s="79"/>
+      <c r="AG85" s="79"/>
+      <c r="AH85" s="79"/>
+      <c r="AI85" s="79"/>
+      <c r="AJ85" s="79"/>
+      <c r="AK85" s="79"/>
       <c r="AL85" s="7"/>
       <c r="AM85" s="7"/>
     </row>
     <row r="86" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="84" t="s">
         <v>1608</v>
       </c>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="95"/>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="95"/>
-      <c r="P86" s="95"/>
-      <c r="Q86" s="95"/>
-      <c r="R86" s="95"/>
-      <c r="S86" s="95"/>
-      <c r="T86" s="95"/>
-      <c r="U86" s="95"/>
-      <c r="V86" s="95"/>
-      <c r="W86" s="80"/>
-      <c r="X86" s="80"/>
-      <c r="Y86" s="80"/>
-      <c r="Z86" s="80"/>
-      <c r="AA86" s="80"/>
-      <c r="AB86" s="80"/>
-      <c r="AC86" s="80"/>
-      <c r="AD86" s="80"/>
-      <c r="AE86" s="80"/>
-      <c r="AF86" s="80"/>
-      <c r="AG86" s="80"/>
-      <c r="AH86" s="80"/>
-      <c r="AI86" s="80"/>
-      <c r="AJ86" s="80"/>
-      <c r="AK86" s="80"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="84"/>
+      <c r="K86" s="84"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="84"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="84"/>
+      <c r="P86" s="84"/>
+      <c r="Q86" s="84"/>
+      <c r="R86" s="84"/>
+      <c r="S86" s="84"/>
+      <c r="T86" s="84"/>
+      <c r="U86" s="84"/>
+      <c r="V86" s="84"/>
+      <c r="W86" s="79"/>
+      <c r="X86" s="79"/>
+      <c r="Y86" s="79"/>
+      <c r="Z86" s="79"/>
+      <c r="AA86" s="79"/>
+      <c r="AB86" s="79"/>
+      <c r="AC86" s="79"/>
+      <c r="AD86" s="79"/>
+      <c r="AE86" s="79"/>
+      <c r="AF86" s="79"/>
+      <c r="AG86" s="79"/>
+      <c r="AH86" s="79"/>
+      <c r="AI86" s="79"/>
+      <c r="AJ86" s="79"/>
+      <c r="AK86" s="79"/>
       <c r="AL86" s="7"/>
       <c r="AM86" s="7"/>
     </row>
     <row r="87" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="96" t="s">
+      <c r="A87" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="96"/>
-      <c r="H87" s="96"/>
-      <c r="I87" s="96"/>
-      <c r="J87" s="96"/>
-      <c r="K87" s="96"/>
-      <c r="L87" s="96"/>
-      <c r="M87" s="96"/>
-      <c r="N87" s="96"/>
-      <c r="O87" s="96"/>
-      <c r="P87" s="96"/>
-      <c r="Q87" s="96"/>
-      <c r="R87" s="96"/>
-      <c r="S87" s="96"/>
-      <c r="T87" s="96"/>
-      <c r="U87" s="96"/>
-      <c r="V87" s="96"/>
-      <c r="W87" s="80"/>
-      <c r="X87" s="80"/>
-      <c r="Y87" s="80"/>
-      <c r="Z87" s="80"/>
-      <c r="AA87" s="80"/>
-      <c r="AB87" s="80"/>
-      <c r="AC87" s="80"/>
-      <c r="AD87" s="80"/>
-      <c r="AE87" s="80"/>
-      <c r="AF87" s="80"/>
-      <c r="AG87" s="80"/>
-      <c r="AH87" s="80"/>
-      <c r="AI87" s="80"/>
-      <c r="AJ87" s="80"/>
-      <c r="AK87" s="80"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="79"/>
+      <c r="X87" s="79"/>
+      <c r="Y87" s="79"/>
+      <c r="Z87" s="79"/>
+      <c r="AA87" s="79"/>
+      <c r="AB87" s="79"/>
+      <c r="AC87" s="79"/>
+      <c r="AD87" s="79"/>
+      <c r="AE87" s="79"/>
+      <c r="AF87" s="79"/>
+      <c r="AG87" s="79"/>
+      <c r="AH87" s="79"/>
+      <c r="AI87" s="79"/>
+      <c r="AJ87" s="79"/>
+      <c r="AK87" s="79"/>
       <c r="AL87" s="7"/>
       <c r="AM87" s="7"/>
     </row>
     <row r="88" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="93"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="93"/>
-      <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="93"/>
-      <c r="L88" s="93"/>
-      <c r="M88" s="93"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="93"/>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="93"/>
-      <c r="S88" s="93"/>
-      <c r="T88" s="93"/>
-      <c r="U88" s="93"/>
-      <c r="V88" s="93"/>
-      <c r="W88" s="80"/>
-      <c r="X88" s="80"/>
-      <c r="Y88" s="80"/>
-      <c r="Z88" s="80"/>
-      <c r="AA88" s="80"/>
-      <c r="AB88" s="80"/>
-      <c r="AC88" s="80"/>
-      <c r="AD88" s="80"/>
-      <c r="AE88" s="80"/>
-      <c r="AF88" s="80"/>
-      <c r="AG88" s="80"/>
-      <c r="AH88" s="80"/>
-      <c r="AI88" s="80"/>
-      <c r="AJ88" s="80"/>
-      <c r="AK88" s="80"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="82"/>
+      <c r="L88" s="82"/>
+      <c r="M88" s="82"/>
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
+      <c r="P88" s="82"/>
+      <c r="Q88" s="82"/>
+      <c r="R88" s="82"/>
+      <c r="S88" s="82"/>
+      <c r="T88" s="82"/>
+      <c r="U88" s="82"/>
+      <c r="V88" s="82"/>
+      <c r="W88" s="79"/>
+      <c r="X88" s="79"/>
+      <c r="Y88" s="79"/>
+      <c r="Z88" s="79"/>
+      <c r="AA88" s="79"/>
+      <c r="AB88" s="79"/>
+      <c r="AC88" s="79"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="79"/>
+      <c r="AF88" s="79"/>
+      <c r="AG88" s="79"/>
+      <c r="AH88" s="79"/>
+      <c r="AI88" s="79"/>
+      <c r="AJ88" s="79"/>
+      <c r="AK88" s="79"/>
       <c r="AL88" s="7"/>
       <c r="AM88" s="7"/>
     </row>
     <row r="89" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="85" t="s">
         <v>997</v>
       </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
-      <c r="T89" s="83"/>
-      <c r="U89" s="83"/>
-      <c r="V89" s="83"/>
-      <c r="W89" s="80"/>
-      <c r="X89" s="80"/>
-      <c r="Y89" s="80"/>
-      <c r="Z89" s="80"/>
-      <c r="AA89" s="80"/>
-      <c r="AB89" s="80"/>
-      <c r="AC89" s="80"/>
-      <c r="AD89" s="80"/>
-      <c r="AE89" s="80"/>
-      <c r="AF89" s="80"/>
-      <c r="AG89" s="80"/>
-      <c r="AH89" s="80"/>
-      <c r="AI89" s="80"/>
-      <c r="AJ89" s="80"/>
-      <c r="AK89" s="80"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="85"/>
+      <c r="P89" s="85"/>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="85"/>
+      <c r="S89" s="85"/>
+      <c r="T89" s="85"/>
+      <c r="U89" s="85"/>
+      <c r="V89" s="85"/>
+      <c r="W89" s="79"/>
+      <c r="X89" s="79"/>
+      <c r="Y89" s="79"/>
+      <c r="Z89" s="79"/>
+      <c r="AA89" s="79"/>
+      <c r="AB89" s="79"/>
+      <c r="AC89" s="79"/>
+      <c r="AD89" s="79"/>
+      <c r="AE89" s="79"/>
+      <c r="AF89" s="79"/>
+      <c r="AG89" s="79"/>
+      <c r="AH89" s="79"/>
+      <c r="AI89" s="79"/>
+      <c r="AJ89" s="79"/>
+      <c r="AK89" s="79"/>
       <c r="AL89" s="7"/>
       <c r="AM89" s="7"/>
     </row>
     <row r="90" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="85" t="s">
         <v>1609</v>
       </c>
-      <c r="B90" s="83"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="83"/>
-      <c r="J90" s="83"/>
-      <c r="K90" s="83"/>
-      <c r="L90" s="83"/>
-      <c r="M90" s="83"/>
-      <c r="N90" s="83"/>
-      <c r="O90" s="83"/>
-      <c r="P90" s="83"/>
-      <c r="Q90" s="83"/>
-      <c r="R90" s="83"/>
-      <c r="S90" s="83"/>
-      <c r="T90" s="83"/>
-      <c r="U90" s="83"/>
-      <c r="V90" s="83"/>
-      <c r="W90" s="80"/>
-      <c r="X90" s="80"/>
-      <c r="Y90" s="80"/>
-      <c r="Z90" s="80"/>
-      <c r="AA90" s="80"/>
-      <c r="AB90" s="80"/>
-      <c r="AC90" s="80"/>
-      <c r="AD90" s="80"/>
-      <c r="AE90" s="80"/>
-      <c r="AF90" s="80"/>
-      <c r="AG90" s="80"/>
-      <c r="AH90" s="80"/>
-      <c r="AI90" s="80"/>
-      <c r="AJ90" s="80"/>
-      <c r="AK90" s="80"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="85"/>
+      <c r="O90" s="85"/>
+      <c r="P90" s="85"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="85"/>
+      <c r="S90" s="85"/>
+      <c r="T90" s="85"/>
+      <c r="U90" s="85"/>
+      <c r="V90" s="85"/>
+      <c r="W90" s="79"/>
+      <c r="X90" s="79"/>
+      <c r="Y90" s="79"/>
+      <c r="Z90" s="79"/>
+      <c r="AA90" s="79"/>
+      <c r="AB90" s="79"/>
+      <c r="AC90" s="79"/>
+      <c r="AD90" s="79"/>
+      <c r="AE90" s="79"/>
+      <c r="AF90" s="79"/>
+      <c r="AG90" s="79"/>
+      <c r="AH90" s="79"/>
+      <c r="AI90" s="79"/>
+      <c r="AJ90" s="79"/>
+      <c r="AK90" s="79"/>
       <c r="AL90" s="7"/>
       <c r="AM90" s="7"/>
     </row>
     <row r="91" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="93"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="93"/>
-      <c r="I91" s="93"/>
-      <c r="J91" s="93"/>
-      <c r="K91" s="93"/>
-      <c r="L91" s="93"/>
-      <c r="M91" s="93"/>
-      <c r="N91" s="93"/>
-      <c r="O91" s="93"/>
-      <c r="P91" s="93"/>
-      <c r="Q91" s="93"/>
-      <c r="R91" s="93"/>
-      <c r="S91" s="93"/>
-      <c r="T91" s="93"/>
-      <c r="U91" s="93"/>
-      <c r="V91" s="93"/>
-      <c r="W91" s="80"/>
-      <c r="X91" s="80"/>
-      <c r="Y91" s="80"/>
-      <c r="Z91" s="80"/>
-      <c r="AA91" s="80"/>
-      <c r="AB91" s="80"/>
-      <c r="AC91" s="80"/>
-      <c r="AD91" s="80"/>
-      <c r="AE91" s="80"/>
-      <c r="AF91" s="80"/>
-      <c r="AG91" s="80"/>
-      <c r="AH91" s="80"/>
-      <c r="AI91" s="80"/>
-      <c r="AJ91" s="80"/>
-      <c r="AK91" s="80"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="82"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="82"/>
+      <c r="Q91" s="82"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="82"/>
+      <c r="T91" s="82"/>
+      <c r="U91" s="82"/>
+      <c r="V91" s="82"/>
+      <c r="W91" s="79"/>
+      <c r="X91" s="79"/>
+      <c r="Y91" s="79"/>
+      <c r="Z91" s="79"/>
+      <c r="AA91" s="79"/>
+      <c r="AB91" s="79"/>
+      <c r="AC91" s="79"/>
+      <c r="AD91" s="79"/>
+      <c r="AE91" s="79"/>
+      <c r="AF91" s="79"/>
+      <c r="AG91" s="79"/>
+      <c r="AH91" s="79"/>
+      <c r="AI91" s="79"/>
+      <c r="AJ91" s="79"/>
+      <c r="AK91" s="79"/>
       <c r="AL91" s="7"/>
       <c r="AM91" s="7"/>
     </row>
     <row r="92" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="94" t="s">
+      <c r="A92" s="86" t="s">
         <v>998</v>
       </c>
-      <c r="B92" s="94"/>
-      <c r="C92" s="94"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="94"/>
-      <c r="I92" s="94"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="94"/>
-      <c r="L92" s="94"/>
-      <c r="M92" s="94"/>
-      <c r="N92" s="94"/>
-      <c r="O92" s="94"/>
-      <c r="P92" s="94"/>
-      <c r="Q92" s="94"/>
-      <c r="R92" s="94"/>
-      <c r="S92" s="94"/>
-      <c r="T92" s="94"/>
-      <c r="U92" s="94"/>
-      <c r="V92" s="94"/>
-      <c r="W92" s="80"/>
-      <c r="X92" s="80"/>
-      <c r="Y92" s="80"/>
-      <c r="Z92" s="80"/>
-      <c r="AA92" s="80"/>
-      <c r="AB92" s="80"/>
-      <c r="AC92" s="80"/>
-      <c r="AD92" s="80"/>
-      <c r="AE92" s="80"/>
-      <c r="AF92" s="80"/>
-      <c r="AG92" s="80"/>
-      <c r="AH92" s="80"/>
-      <c r="AI92" s="80"/>
-      <c r="AJ92" s="80"/>
-      <c r="AK92" s="80"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="86"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="86"/>
+      <c r="M92" s="86"/>
+      <c r="N92" s="86"/>
+      <c r="O92" s="86"/>
+      <c r="P92" s="86"/>
+      <c r="Q92" s="86"/>
+      <c r="R92" s="86"/>
+      <c r="S92" s="86"/>
+      <c r="T92" s="86"/>
+      <c r="U92" s="86"/>
+      <c r="V92" s="86"/>
+      <c r="W92" s="79"/>
+      <c r="X92" s="79"/>
+      <c r="Y92" s="79"/>
+      <c r="Z92" s="79"/>
+      <c r="AA92" s="79"/>
+      <c r="AB92" s="79"/>
+      <c r="AC92" s="79"/>
+      <c r="AD92" s="79"/>
+      <c r="AE92" s="79"/>
+      <c r="AF92" s="79"/>
+      <c r="AG92" s="79"/>
+      <c r="AH92" s="79"/>
+      <c r="AI92" s="79"/>
+      <c r="AJ92" s="79"/>
+      <c r="AK92" s="79"/>
       <c r="AL92" s="7"/>
       <c r="AM92" s="7"/>
     </row>
     <row r="93" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="85" t="s">
         <v>1610</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
-      <c r="Q93" s="83"/>
-      <c r="R93" s="83"/>
-      <c r="S93" s="83"/>
-      <c r="T93" s="83"/>
-      <c r="U93" s="83"/>
-      <c r="V93" s="83"/>
-      <c r="W93" s="80"/>
-      <c r="X93" s="80"/>
-      <c r="Y93" s="80"/>
-      <c r="Z93" s="80"/>
-      <c r="AA93" s="80"/>
-      <c r="AB93" s="80"/>
-      <c r="AC93" s="80"/>
-      <c r="AD93" s="80"/>
-      <c r="AE93" s="80"/>
-      <c r="AF93" s="80"/>
-      <c r="AG93" s="80"/>
-      <c r="AH93" s="80"/>
-      <c r="AI93" s="80"/>
-      <c r="AJ93" s="80"/>
-      <c r="AK93" s="80"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="85"/>
+      <c r="P93" s="85"/>
+      <c r="Q93" s="85"/>
+      <c r="R93" s="85"/>
+      <c r="S93" s="85"/>
+      <c r="T93" s="85"/>
+      <c r="U93" s="85"/>
+      <c r="V93" s="85"/>
+      <c r="W93" s="79"/>
+      <c r="X93" s="79"/>
+      <c r="Y93" s="79"/>
+      <c r="Z93" s="79"/>
+      <c r="AA93" s="79"/>
+      <c r="AB93" s="79"/>
+      <c r="AC93" s="79"/>
+      <c r="AD93" s="79"/>
+      <c r="AE93" s="79"/>
+      <c r="AF93" s="79"/>
+      <c r="AG93" s="79"/>
+      <c r="AH93" s="79"/>
+      <c r="AI93" s="79"/>
+      <c r="AJ93" s="79"/>
+      <c r="AK93" s="79"/>
       <c r="AL93" s="7"/>
       <c r="AM93" s="7"/>
     </row>
     <row r="94" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="90" t="s">
+      <c r="A94" s="83" t="s">
         <v>1611</v>
       </c>
-      <c r="B94" s="90"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="90"/>
-      <c r="H94" s="90"/>
-      <c r="I94" s="90"/>
-      <c r="J94" s="90"/>
-      <c r="K94" s="90"/>
-      <c r="L94" s="90"/>
-      <c r="M94" s="90"/>
-      <c r="N94" s="90"/>
-      <c r="O94" s="90"/>
-      <c r="P94" s="90"/>
-      <c r="Q94" s="90"/>
-      <c r="R94" s="90"/>
-      <c r="S94" s="90"/>
-      <c r="T94" s="90"/>
-      <c r="U94" s="90"/>
-      <c r="V94" s="90"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="83"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="83"/>
+      <c r="N94" s="83"/>
+      <c r="O94" s="83"/>
+      <c r="P94" s="83"/>
+      <c r="Q94" s="83"/>
+      <c r="R94" s="83"/>
+      <c r="S94" s="83"/>
+      <c r="T94" s="83"/>
+      <c r="U94" s="83"/>
+      <c r="V94" s="83"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
-      <c r="AA94" s="80"/>
-      <c r="AB94" s="80"/>
-      <c r="AC94" s="80"/>
-      <c r="AD94" s="80"/>
-      <c r="AE94" s="80"/>
-      <c r="AF94" s="80"/>
-      <c r="AG94" s="80"/>
-      <c r="AH94" s="80"/>
-      <c r="AI94" s="80"/>
-      <c r="AJ94" s="80"/>
-      <c r="AK94" s="80"/>
+      <c r="AA94" s="79"/>
+      <c r="AB94" s="79"/>
+      <c r="AC94" s="79"/>
+      <c r="AD94" s="79"/>
+      <c r="AE94" s="79"/>
+      <c r="AF94" s="79"/>
+      <c r="AG94" s="79"/>
+      <c r="AH94" s="79"/>
+      <c r="AI94" s="79"/>
+      <c r="AJ94" s="79"/>
+      <c r="AK94" s="79"/>
       <c r="AL94" s="7"/>
       <c r="AM94" s="7"/>
     </row>
     <row r="95" spans="1:39" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="93"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="93"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="93"/>
-      <c r="H95" s="93"/>
-      <c r="I95" s="93"/>
-      <c r="J95" s="93"/>
-      <c r="K95" s="93"/>
-      <c r="L95" s="93"/>
-      <c r="M95" s="93"/>
-      <c r="N95" s="93"/>
-      <c r="O95" s="93"/>
-      <c r="P95" s="93"/>
-      <c r="Q95" s="93"/>
-      <c r="R95" s="93"/>
-      <c r="S95" s="93"/>
-      <c r="T95" s="93"/>
-      <c r="U95" s="93"/>
-      <c r="V95" s="93"/>
-      <c r="W95" s="80"/>
-      <c r="X95" s="80"/>
-      <c r="Y95" s="80"/>
-      <c r="Z95" s="80"/>
-      <c r="AA95" s="80"/>
-      <c r="AB95" s="80"/>
-      <c r="AC95" s="80"/>
-      <c r="AD95" s="80"/>
-      <c r="AE95" s="80"/>
-      <c r="AF95" s="80"/>
-      <c r="AG95" s="80"/>
-      <c r="AH95" s="80"/>
-      <c r="AI95" s="80"/>
-      <c r="AJ95" s="80"/>
-      <c r="AK95" s="80"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="82"/>
+      <c r="H95" s="82"/>
+      <c r="I95" s="82"/>
+      <c r="J95" s="82"/>
+      <c r="K95" s="82"/>
+      <c r="L95" s="82"/>
+      <c r="M95" s="82"/>
+      <c r="N95" s="82"/>
+      <c r="O95" s="82"/>
+      <c r="P95" s="82"/>
+      <c r="Q95" s="82"/>
+      <c r="R95" s="82"/>
+      <c r="S95" s="82"/>
+      <c r="T95" s="82"/>
+      <c r="U95" s="82"/>
+      <c r="V95" s="82"/>
+      <c r="W95" s="79"/>
+      <c r="X95" s="79"/>
+      <c r="Y95" s="79"/>
+      <c r="Z95" s="79"/>
+      <c r="AA95" s="79"/>
+      <c r="AB95" s="79"/>
+      <c r="AC95" s="79"/>
+      <c r="AD95" s="79"/>
+      <c r="AE95" s="79"/>
+      <c r="AF95" s="79"/>
+      <c r="AG95" s="79"/>
+      <c r="AH95" s="79"/>
+      <c r="AI95" s="79"/>
+      <c r="AJ95" s="79"/>
+      <c r="AK95" s="79"/>
       <c r="AL95" s="7"/>
       <c r="AM95" s="7"/>
     </row>
     <row r="96" spans="1:39" s="16" customFormat="1">
-      <c r="A96" s="95" t="s">
+      <c r="A96" s="84" t="s">
         <v>1612</v>
       </c>
-      <c r="B96" s="95"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="95"/>
-      <c r="E96" s="95"/>
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="95"/>
-      <c r="I96" s="95"/>
-      <c r="J96" s="95"/>
-      <c r="K96" s="95"/>
-      <c r="L96" s="95"/>
-      <c r="M96" s="95"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="95"/>
-      <c r="P96" s="95"/>
-      <c r="Q96" s="95"/>
-      <c r="R96" s="95"/>
-      <c r="S96" s="95"/>
-      <c r="T96" s="95"/>
-      <c r="U96" s="95"/>
-      <c r="V96" s="95"/>
-      <c r="W96" s="80"/>
-      <c r="X96" s="80"/>
-      <c r="Y96" s="80"/>
-      <c r="Z96" s="80"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="84"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="84"/>
+      <c r="T96" s="84"/>
+      <c r="U96" s="84"/>
+      <c r="V96" s="84"/>
+      <c r="W96" s="79"/>
+      <c r="X96" s="79"/>
+      <c r="Y96" s="79"/>
+      <c r="Z96" s="79"/>
       <c r="AA96" s="15"/>
       <c r="AB96" s="15"/>
       <c r="AC96" s="15"/>
@@ -85363,60 +85468,10 @@
       <c r="AM96" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A87:V87"/>
-    <mergeCell ref="A88:V88"/>
-    <mergeCell ref="A94:V94"/>
-    <mergeCell ref="A95:V95"/>
-    <mergeCell ref="A96:V96"/>
-    <mergeCell ref="A89:V89"/>
-    <mergeCell ref="A90:V90"/>
-    <mergeCell ref="A91:V91"/>
-    <mergeCell ref="A92:V92"/>
-    <mergeCell ref="A93:V93"/>
-    <mergeCell ref="A50:V50"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A84:V84"/>
-    <mergeCell ref="A85:V85"/>
-    <mergeCell ref="A86:V86"/>
-    <mergeCell ref="A45:V45"/>
-    <mergeCell ref="A46:V46"/>
-    <mergeCell ref="A47:V47"/>
-    <mergeCell ref="A48:V48"/>
-    <mergeCell ref="A49:V49"/>
-    <mergeCell ref="A80:V80"/>
-    <mergeCell ref="A81:V81"/>
-    <mergeCell ref="A82:V82"/>
-    <mergeCell ref="A83:V83"/>
-    <mergeCell ref="A75:V75"/>
-    <mergeCell ref="A76:V76"/>
-    <mergeCell ref="A77:V77"/>
-    <mergeCell ref="A78:V78"/>
-    <mergeCell ref="A79:V79"/>
-    <mergeCell ref="A70:V70"/>
-    <mergeCell ref="A71:V71"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="A73:V73"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="A67:V67"/>
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A69:V69"/>
-    <mergeCell ref="A60:V60"/>
-    <mergeCell ref="A61:V61"/>
-    <mergeCell ref="A62:V62"/>
-    <mergeCell ref="A63:V63"/>
-    <mergeCell ref="A64:V64"/>
-    <mergeCell ref="A55:V55"/>
-    <mergeCell ref="A56:V56"/>
-    <mergeCell ref="A57:V57"/>
-    <mergeCell ref="A58:V58"/>
-    <mergeCell ref="A59:V59"/>
+  <mergeCells count="64">
     <mergeCell ref="A52:V52"/>
     <mergeCell ref="A53:V53"/>
     <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A33:V33"/>
     <mergeCell ref="A34:V34"/>
     <mergeCell ref="A35:V35"/>
@@ -85429,25 +85484,59 @@
     <mergeCell ref="A42:V42"/>
     <mergeCell ref="A43:V43"/>
     <mergeCell ref="A44:V44"/>
+    <mergeCell ref="A55:V55"/>
+    <mergeCell ref="A56:V56"/>
+    <mergeCell ref="A57:V57"/>
+    <mergeCell ref="A58:V58"/>
+    <mergeCell ref="A59:V59"/>
+    <mergeCell ref="A60:V60"/>
+    <mergeCell ref="A61:V61"/>
+    <mergeCell ref="A62:V62"/>
+    <mergeCell ref="A63:V63"/>
+    <mergeCell ref="A64:V64"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="A73:V73"/>
+    <mergeCell ref="A74:V74"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A69:V69"/>
+    <mergeCell ref="A45:V45"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="A48:V48"/>
+    <mergeCell ref="A49:V49"/>
+    <mergeCell ref="A50:V50"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A84:V84"/>
+    <mergeCell ref="A85:V85"/>
+    <mergeCell ref="A86:V86"/>
+    <mergeCell ref="A80:V80"/>
+    <mergeCell ref="A81:V81"/>
+    <mergeCell ref="A82:V82"/>
+    <mergeCell ref="A83:V83"/>
+    <mergeCell ref="A75:V75"/>
+    <mergeCell ref="A76:V76"/>
+    <mergeCell ref="A77:V77"/>
+    <mergeCell ref="A78:V78"/>
+    <mergeCell ref="A79:V79"/>
+    <mergeCell ref="A70:V70"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A87:V87"/>
+    <mergeCell ref="A88:V88"/>
+    <mergeCell ref="A94:V94"/>
+    <mergeCell ref="A95:V95"/>
+    <mergeCell ref="A96:V96"/>
+    <mergeCell ref="A89:V89"/>
+    <mergeCell ref="A90:V90"/>
+    <mergeCell ref="A91:V91"/>
+    <mergeCell ref="A92:V92"/>
+    <mergeCell ref="A93:V93"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:AA32">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="false">
+  <conditionalFormatting sqref="B2:AN32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AK23 AL22:AL23 AM22:AM27 AB24:AL27">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AB5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AM4 AB28:AM32">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AB2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AM21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AL5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D544DCF-5C7D-42FD-B02A-C74F14151A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6398DF69-7AD1-4712-84EF-0D99F45EA4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7350,37 +7350,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7395,17 +7377,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="146">
@@ -7556,42 +7556,7 @@
     <cellStyle name="Wrap Bold" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Wrap Title" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -7990,8 +7955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8830,7 +8795,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8952,8 +8917,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f>INDEX('AEO 2021 48'!$70:$70,MATCH(About!$B$88,'AEO 2021 48'!$1:$1,0))</f>
-        <v>2120.6909179999998</v>
+        <f>INDEX('AEO 2021 48'!$70:$70,MATCH(2021,'AEO 2021 48'!$1:$1,0))</f>
+        <v>5561.7944340000004</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -9119,7 +9084,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15520,41 +15485,41 @@
     </row>
     <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1"/>
     <row r="87" spans="1:34" ht="15" customHeight="1">
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="82" t="s">
         <v>1018</v>
       </c>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="80"/>
-      <c r="L87" s="80"/>
-      <c r="M87" s="80"/>
-      <c r="N87" s="80"/>
-      <c r="O87" s="80"/>
-      <c r="P87" s="80"/>
-      <c r="Q87" s="80"/>
-      <c r="R87" s="80"/>
-      <c r="S87" s="80"/>
-      <c r="T87" s="80"/>
-      <c r="U87" s="80"/>
-      <c r="V87" s="80"/>
-      <c r="W87" s="80"/>
-      <c r="X87" s="80"/>
-      <c r="Y87" s="80"/>
-      <c r="Z87" s="80"/>
-      <c r="AA87" s="80"/>
-      <c r="AB87" s="80"/>
-      <c r="AC87" s="80"/>
-      <c r="AD87" s="80"/>
-      <c r="AE87" s="80"/>
-      <c r="AF87" s="80"/>
-      <c r="AG87" s="80"/>
-      <c r="AH87" s="80"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="82"/>
+      <c r="O87" s="82"/>
+      <c r="P87" s="82"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="82"/>
+      <c r="T87" s="82"/>
+      <c r="U87" s="82"/>
+      <c r="V87" s="82"/>
+      <c r="W87" s="82"/>
+      <c r="X87" s="82"/>
+      <c r="Y87" s="82"/>
+      <c r="Z87" s="82"/>
+      <c r="AA87" s="82"/>
+      <c r="AB87" s="82"/>
+      <c r="AC87" s="82"/>
+      <c r="AD87" s="82"/>
+      <c r="AE87" s="82"/>
+      <c r="AF87" s="82"/>
+      <c r="AG87" s="82"/>
+      <c r="AH87" s="82"/>
     </row>
     <row r="88" spans="1:34" ht="15" customHeight="1">
       <c r="B88" s="18" t="s">
@@ -35997,8 +35962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK191"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="AE76" sqref="AE76"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -79250,47 +79215,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
     </row>
     <row r="2" spans="1:43" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -82355,7 +82320,7 @@
       <c r="AB29" s="43">
         <v>31906</v>
       </c>
-      <c r="AC29" s="98">
+      <c r="AC29" s="81">
         <v>32454</v>
       </c>
       <c r="AD29" s="47">
@@ -82370,7 +82335,7 @@
       <c r="AG29" s="43">
         <v>32819</v>
       </c>
-      <c r="AH29" s="98">
+      <c r="AH29" s="81">
         <v>33472</v>
       </c>
       <c r="AI29" s="43">
@@ -82382,7 +82347,7 @@
       <c r="AK29" s="43">
         <v>33600</v>
       </c>
-      <c r="AL29" s="98">
+      <c r="AL29" s="81">
         <v>34209</v>
       </c>
       <c r="AM29" s="43">
@@ -82477,7 +82442,7 @@
       <c r="AB30" s="43">
         <v>10775</v>
       </c>
-      <c r="AC30" s="98">
+      <c r="AC30" s="81">
         <v>10702</v>
       </c>
       <c r="AD30" s="43">
@@ -82492,7 +82457,7 @@
       <c r="AG30" s="43">
         <v>10108</v>
       </c>
-      <c r="AH30" s="98">
+      <c r="AH30" s="81">
         <v>10068</v>
       </c>
       <c r="AI30" s="43">
@@ -82504,7 +82469,7 @@
       <c r="AK30" s="43">
         <v>10152</v>
       </c>
-      <c r="AL30" s="98">
+      <c r="AL30" s="81">
         <v>10339</v>
       </c>
       <c r="AM30" s="43">
@@ -82759,30 +82724,30 @@
       </c>
     </row>
     <row r="33" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="86" t="s">
         <v>1599</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
       <c r="W33" s="53"/>
       <c r="X33" s="53"/>
       <c r="Y33" s="53"/>
@@ -82795,56 +82760,56 @@
       <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="1:39" s="12" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
       <c r="W35" s="79"/>
       <c r="X35" s="79"/>
       <c r="Y35" s="79"/>
@@ -82864,30 +82829,30 @@
       <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="87"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
       <c r="W36" s="79"/>
       <c r="X36" s="79"/>
       <c r="Y36" s="79"/>
@@ -82907,30 +82872,30 @@
       <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="1:39" s="14" customFormat="1" ht="38.85" customHeight="1">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="90" t="s">
         <v>974</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
       <c r="W37" s="79"/>
       <c r="X37" s="79"/>
       <c r="Y37" s="79"/>
@@ -82950,30 +82915,30 @@
       <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="89" t="s">
         <v>1600</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
       <c r="W38" s="79"/>
       <c r="X38" s="79"/>
       <c r="Y38" s="79"/>
@@ -82993,30 +82958,30 @@
       <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="89" t="s">
         <v>975</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="89"/>
       <c r="W39" s="79"/>
       <c r="X39" s="79"/>
       <c r="Y39" s="79"/>
@@ -83036,30 +83001,30 @@
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="89" t="s">
         <v>976</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
       <c r="W40" s="79"/>
       <c r="X40" s="79"/>
       <c r="Y40" s="79"/>
@@ -83079,30 +83044,30 @@
       <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="89" t="s">
         <v>977</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
-      <c r="V41" s="87"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
       <c r="W41" s="79"/>
       <c r="X41" s="79"/>
       <c r="Y41" s="79"/>
@@ -83122,30 +83087,30 @@
       <c r="AM41" s="7"/>
     </row>
     <row r="42" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="91" t="s">
         <v>978</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
       <c r="W42" s="79"/>
       <c r="X42" s="79"/>
       <c r="Y42" s="79"/>
@@ -83165,30 +83130,30 @@
       <c r="AM42" s="7"/>
     </row>
     <row r="43" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="91" t="s">
         <v>979</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="V43" s="96"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="91"/>
       <c r="W43" s="79"/>
       <c r="X43" s="79"/>
       <c r="Y43" s="79"/>
@@ -83208,30 +83173,30 @@
       <c r="AM43" s="7"/>
     </row>
     <row r="44" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="90" t="s">
         <v>980</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="90"/>
       <c r="W44" s="79"/>
       <c r="X44" s="79"/>
       <c r="Y44" s="79"/>
@@ -83251,30 +83216,30 @@
       <c r="AM44" s="7"/>
     </row>
     <row r="45" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="89" t="s">
         <v>981</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="89"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="89"/>
       <c r="W45" s="79"/>
       <c r="X45" s="79"/>
       <c r="Y45" s="79"/>
@@ -83294,30 +83259,30 @@
       <c r="AM45" s="7"/>
     </row>
     <row r="46" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="89" t="s">
         <v>982</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="87"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
       <c r="W46" s="79"/>
       <c r="X46" s="79"/>
       <c r="Y46" s="79"/>
@@ -83337,30 +83302,30 @@
       <c r="AM46" s="7"/>
     </row>
     <row r="47" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="89" t="s">
         <v>983</v>
       </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
       <c r="W47" s="79"/>
       <c r="X47" s="79"/>
       <c r="Y47" s="79"/>
@@ -83380,30 +83345,30 @@
       <c r="AM47" s="7"/>
     </row>
     <row r="48" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="89" t="s">
         <v>984</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="87"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
       <c r="W48" s="79"/>
       <c r="X48" s="79"/>
       <c r="Y48" s="79"/>
@@ -83423,30 +83388,30 @@
       <c r="AM48" s="7"/>
     </row>
     <row r="49" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="89" t="s">
         <v>985</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="87"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="87"/>
-      <c r="U49" s="87"/>
-      <c r="V49" s="87"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
       <c r="W49" s="79"/>
       <c r="X49" s="79"/>
       <c r="Y49" s="79"/>
@@ -83466,30 +83431,30 @@
       <c r="AM49" s="7"/>
     </row>
     <row r="50" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="89" t="s">
         <v>1601</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="87"/>
-      <c r="V50" s="87"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
       <c r="W50" s="79"/>
       <c r="X50" s="79"/>
       <c r="Y50" s="79"/>
@@ -83509,28 +83474,28 @@
       <c r="AM50" s="7"/>
     </row>
     <row r="51" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="87"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="87"/>
-      <c r="V51" s="87"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
       <c r="W51" s="79"/>
       <c r="X51" s="79"/>
       <c r="Y51" s="79"/>
@@ -83550,30 +83515,30 @@
       <c r="AM51" s="7"/>
     </row>
     <row r="52" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="V52" s="90"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
       <c r="W52" s="79"/>
       <c r="X52" s="79"/>
       <c r="Y52" s="79"/>
@@ -83593,30 +83558,30 @@
       <c r="AM52" s="7"/>
     </row>
     <row r="53" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
       <c r="W53" s="79"/>
       <c r="X53" s="79"/>
       <c r="Y53" s="79"/>
@@ -83636,58 +83601,58 @@
       <c r="AM53" s="7"/>
     </row>
     <row r="54" spans="1:39" s="14" customFormat="1" ht="38.85" customHeight="1">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="91"/>
-      <c r="R54" s="91"/>
-      <c r="S54" s="91"/>
-      <c r="T54" s="91"/>
-      <c r="U54" s="91"/>
-      <c r="V54" s="91"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
     </row>
     <row r="55" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-      <c r="Q55" s="85"/>
-      <c r="R55" s="85"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="85"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="84"/>
+      <c r="V55" s="84"/>
       <c r="W55" s="79"/>
       <c r="X55" s="79"/>
       <c r="Y55" s="79"/>
@@ -83707,30 +83672,30 @@
       <c r="AM55" s="7"/>
     </row>
     <row r="56" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="85"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
+      <c r="U56" s="84"/>
+      <c r="V56" s="84"/>
       <c r="W56" s="79"/>
       <c r="X56" s="79"/>
       <c r="Y56" s="79"/>
@@ -83750,30 +83715,30 @@
       <c r="AM56" s="7"/>
     </row>
     <row r="57" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="83"/>
-      <c r="T57" s="83"/>
-      <c r="U57" s="83"/>
-      <c r="V57" s="83"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+      <c r="M57" s="92"/>
+      <c r="N57" s="92"/>
+      <c r="O57" s="92"/>
+      <c r="P57" s="92"/>
+      <c r="Q57" s="92"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="92"/>
+      <c r="T57" s="92"/>
+      <c r="U57" s="92"/>
+      <c r="V57" s="92"/>
       <c r="W57" s="79"/>
       <c r="X57" s="79"/>
       <c r="Y57" s="79"/>
@@ -83793,28 +83758,28 @@
       <c r="AM57" s="7"/>
     </row>
     <row r="58" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="89"/>
-      <c r="P58" s="89"/>
-      <c r="Q58" s="89"/>
-      <c r="R58" s="89"/>
-      <c r="S58" s="89"/>
-      <c r="T58" s="89"/>
-      <c r="U58" s="89"/>
-      <c r="V58" s="89"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="93"/>
+      <c r="Q58" s="93"/>
+      <c r="R58" s="93"/>
+      <c r="S58" s="93"/>
+      <c r="T58" s="93"/>
+      <c r="U58" s="93"/>
+      <c r="V58" s="93"/>
       <c r="W58" s="79"/>
       <c r="X58" s="79"/>
       <c r="Y58" s="79"/>
@@ -83834,30 +83799,30 @@
       <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="94"/>
+      <c r="T59" s="94"/>
+      <c r="U59" s="94"/>
+      <c r="V59" s="94"/>
       <c r="W59" s="79"/>
       <c r="X59" s="79"/>
       <c r="Y59" s="79"/>
@@ -83877,30 +83842,30 @@
       <c r="AM59" s="7"/>
     </row>
     <row r="60" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="94"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="94"/>
       <c r="W60" s="79"/>
       <c r="X60" s="79"/>
       <c r="Y60" s="79"/>
@@ -83920,30 +83885,30 @@
       <c r="AM60" s="7"/>
     </row>
     <row r="61" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="82"/>
-      <c r="S61" s="82"/>
-      <c r="T61" s="82"/>
-      <c r="U61" s="82"/>
-      <c r="V61" s="82"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="95"/>
+      <c r="R61" s="95"/>
+      <c r="S61" s="95"/>
+      <c r="T61" s="95"/>
+      <c r="U61" s="95"/>
+      <c r="V61" s="95"/>
       <c r="W61" s="79"/>
       <c r="X61" s="79"/>
       <c r="Y61" s="79"/>
@@ -83963,30 +83928,30 @@
       <c r="AM61" s="7"/>
     </row>
     <row r="62" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="96" t="s">
         <v>986</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-      <c r="O62" s="86"/>
-      <c r="P62" s="86"/>
-      <c r="Q62" s="86"/>
-      <c r="R62" s="86"/>
-      <c r="S62" s="86"/>
-      <c r="T62" s="86"/>
-      <c r="U62" s="86"/>
-      <c r="V62" s="86"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
       <c r="W62" s="79"/>
       <c r="X62" s="79"/>
       <c r="Y62" s="79"/>
@@ -84006,30 +83971,30 @@
       <c r="AM62" s="7"/>
     </row>
     <row r="63" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="97" t="s">
         <v>987</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="84"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="97"/>
+      <c r="Q63" s="97"/>
+      <c r="R63" s="97"/>
+      <c r="S63" s="97"/>
+      <c r="T63" s="97"/>
+      <c r="U63" s="97"/>
+      <c r="V63" s="97"/>
       <c r="W63" s="79"/>
       <c r="X63" s="79"/>
       <c r="Y63" s="79"/>
@@ -84049,30 +84014,30 @@
       <c r="AM63" s="7"/>
     </row>
     <row r="64" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="97" t="s">
         <v>988</v>
       </c>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="S64" s="84"/>
-      <c r="T64" s="84"/>
-      <c r="U64" s="84"/>
-      <c r="V64" s="84"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="97"/>
+      <c r="N64" s="97"/>
+      <c r="O64" s="97"/>
+      <c r="P64" s="97"/>
+      <c r="Q64" s="97"/>
+      <c r="R64" s="97"/>
+      <c r="S64" s="97"/>
+      <c r="T64" s="97"/>
+      <c r="U64" s="97"/>
+      <c r="V64" s="97"/>
       <c r="W64" s="79"/>
       <c r="X64" s="79"/>
       <c r="Y64" s="79"/>
@@ -84092,30 +84057,30 @@
       <c r="AM64" s="7"/>
     </row>
     <row r="65" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="97" t="s">
         <v>989</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="84"/>
-      <c r="V65" s="84"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="97"/>
+      <c r="N65" s="97"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="97"/>
+      <c r="Q65" s="97"/>
+      <c r="R65" s="97"/>
+      <c r="S65" s="97"/>
+      <c r="T65" s="97"/>
+      <c r="U65" s="97"/>
+      <c r="V65" s="97"/>
       <c r="W65" s="79"/>
       <c r="X65" s="79"/>
       <c r="Y65" s="79"/>
@@ -84135,30 +84100,30 @@
       <c r="AM65" s="7"/>
     </row>
     <row r="66" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="97" t="s">
         <v>1602</v>
       </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
-      <c r="U66" s="84"/>
-      <c r="V66" s="84"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="97"/>
+      <c r="M66" s="97"/>
+      <c r="N66" s="97"/>
+      <c r="O66" s="97"/>
+      <c r="P66" s="97"/>
+      <c r="Q66" s="97"/>
+      <c r="R66" s="97"/>
+      <c r="S66" s="97"/>
+      <c r="T66" s="97"/>
+      <c r="U66" s="97"/>
+      <c r="V66" s="97"/>
       <c r="W66" s="79"/>
       <c r="X66" s="79"/>
       <c r="Y66" s="79"/>
@@ -84178,30 +84143,30 @@
       <c r="AM66" s="7"/>
     </row>
     <row r="67" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
-      <c r="P67" s="82"/>
-      <c r="Q67" s="82"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="82"/>
-      <c r="T67" s="82"/>
-      <c r="U67" s="82"/>
-      <c r="V67" s="82"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="95"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="95"/>
+      <c r="R67" s="95"/>
+      <c r="S67" s="95"/>
+      <c r="T67" s="95"/>
+      <c r="U67" s="95"/>
+      <c r="V67" s="95"/>
       <c r="W67" s="79"/>
       <c r="X67" s="79"/>
       <c r="Y67" s="79"/>
@@ -84221,30 +84186,30 @@
       <c r="AM67" s="7"/>
     </row>
     <row r="68" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="84"/>
-      <c r="V68" s="84"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="97"/>
+      <c r="O68" s="97"/>
+      <c r="P68" s="97"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="97"/>
+      <c r="S68" s="97"/>
+      <c r="T68" s="97"/>
+      <c r="U68" s="97"/>
+      <c r="V68" s="97"/>
       <c r="W68" s="79"/>
       <c r="X68" s="79"/>
       <c r="Y68" s="79"/>
@@ -84264,30 +84229,30 @@
       <c r="AM68" s="7"/>
     </row>
     <row r="69" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="97" t="s">
         <v>990</v>
       </c>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="97"/>
+      <c r="M69" s="97"/>
+      <c r="N69" s="97"/>
+      <c r="O69" s="97"/>
+      <c r="P69" s="97"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="97"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="97"/>
+      <c r="U69" s="97"/>
+      <c r="V69" s="97"/>
       <c r="W69" s="79"/>
       <c r="X69" s="79"/>
       <c r="Y69" s="79"/>
@@ -84307,30 +84272,30 @@
       <c r="AM69" s="7"/>
     </row>
     <row r="70" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="97"/>
+      <c r="N70" s="97"/>
+      <c r="O70" s="97"/>
+      <c r="P70" s="97"/>
+      <c r="Q70" s="97"/>
+      <c r="R70" s="97"/>
+      <c r="S70" s="97"/>
+      <c r="T70" s="97"/>
+      <c r="U70" s="97"/>
+      <c r="V70" s="97"/>
       <c r="W70" s="79"/>
       <c r="X70" s="79"/>
       <c r="Y70" s="79"/>
@@ -84350,30 +84315,30 @@
       <c r="AM70" s="7"/>
     </row>
     <row r="71" spans="1:39" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="97" t="s">
         <v>992</v>
       </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="84"/>
-      <c r="V71" s="84"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="97"/>
+      <c r="O71" s="97"/>
+      <c r="P71" s="97"/>
+      <c r="Q71" s="97"/>
+      <c r="R71" s="97"/>
+      <c r="S71" s="97"/>
+      <c r="T71" s="97"/>
+      <c r="U71" s="97"/>
+      <c r="V71" s="97"/>
       <c r="W71" s="79"/>
       <c r="X71" s="79"/>
       <c r="Y71" s="79"/>
@@ -84393,30 +84358,30 @@
       <c r="AM71" s="7"/>
     </row>
     <row r="72" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="97" t="s">
         <v>1603</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84"/>
-      <c r="T72" s="84"/>
-      <c r="U72" s="84"/>
-      <c r="V72" s="84"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="97"/>
+      <c r="M72" s="97"/>
+      <c r="N72" s="97"/>
+      <c r="O72" s="97"/>
+      <c r="P72" s="97"/>
+      <c r="Q72" s="97"/>
+      <c r="R72" s="97"/>
+      <c r="S72" s="97"/>
+      <c r="T72" s="97"/>
+      <c r="U72" s="97"/>
+      <c r="V72" s="97"/>
       <c r="W72" s="79"/>
       <c r="X72" s="79"/>
       <c r="Y72" s="79"/>
@@ -84436,30 +84401,30 @@
       <c r="AM72" s="7"/>
     </row>
     <row r="73" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="97" t="s">
         <v>1604</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
-      <c r="U73" s="84"/>
-      <c r="V73" s="84"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="97"/>
+      <c r="M73" s="97"/>
+      <c r="N73" s="97"/>
+      <c r="O73" s="97"/>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="97"/>
+      <c r="R73" s="97"/>
+      <c r="S73" s="97"/>
+      <c r="T73" s="97"/>
+      <c r="U73" s="97"/>
+      <c r="V73" s="97"/>
       <c r="W73" s="79"/>
       <c r="X73" s="79"/>
       <c r="Y73" s="79"/>
@@ -84479,30 +84444,30 @@
       <c r="AM73" s="7"/>
     </row>
     <row r="74" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A74" s="81" t="s">
+      <c r="A74" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="81"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="81"/>
-      <c r="N74" s="81"/>
-      <c r="O74" s="81"/>
-      <c r="P74" s="81"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="81"/>
-      <c r="S74" s="81"/>
-      <c r="T74" s="81"/>
-      <c r="U74" s="81"/>
-      <c r="V74" s="81"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="98"/>
+      <c r="O74" s="98"/>
+      <c r="P74" s="98"/>
+      <c r="Q74" s="98"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
+      <c r="T74" s="98"/>
+      <c r="U74" s="98"/>
+      <c r="V74" s="98"/>
       <c r="W74" s="79"/>
       <c r="X74" s="79"/>
       <c r="Y74" s="79"/>
@@ -84522,30 +84487,30 @@
       <c r="AM74" s="7"/>
     </row>
     <row r="75" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="85" t="s">
+      <c r="A75" s="84" t="s">
         <v>993</v>
       </c>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="85"/>
-      <c r="Q75" s="85"/>
-      <c r="R75" s="85"/>
-      <c r="S75" s="85"/>
-      <c r="T75" s="85"/>
-      <c r="U75" s="85"/>
-      <c r="V75" s="85"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="84"/>
+      <c r="T75" s="84"/>
+      <c r="U75" s="84"/>
+      <c r="V75" s="84"/>
       <c r="W75" s="79"/>
       <c r="X75" s="79"/>
       <c r="Y75" s="79"/>
@@ -84565,30 +84530,30 @@
       <c r="AM75" s="7"/>
     </row>
     <row r="76" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="97" t="s">
         <v>1605</v>
       </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
-      <c r="R76" s="84"/>
-      <c r="S76" s="84"/>
-      <c r="T76" s="84"/>
-      <c r="U76" s="84"/>
-      <c r="V76" s="84"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="97"/>
+      <c r="L76" s="97"/>
+      <c r="M76" s="97"/>
+      <c r="N76" s="97"/>
+      <c r="O76" s="97"/>
+      <c r="P76" s="97"/>
+      <c r="Q76" s="97"/>
+      <c r="R76" s="97"/>
+      <c r="S76" s="97"/>
+      <c r="T76" s="97"/>
+      <c r="U76" s="97"/>
+      <c r="V76" s="97"/>
       <c r="W76" s="79"/>
       <c r="X76" s="79"/>
       <c r="Y76" s="79"/>
@@ -84608,30 +84573,30 @@
       <c r="AM76" s="7"/>
     </row>
     <row r="77" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="81" t="s">
+      <c r="A77" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="81"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="81"/>
-      <c r="M77" s="81"/>
-      <c r="N77" s="81"/>
-      <c r="O77" s="81"/>
-      <c r="P77" s="81"/>
-      <c r="Q77" s="81"/>
-      <c r="R77" s="81"/>
-      <c r="S77" s="81"/>
-      <c r="T77" s="81"/>
-      <c r="U77" s="81"/>
-      <c r="V77" s="81"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="98"/>
+      <c r="K77" s="98"/>
+      <c r="L77" s="98"/>
+      <c r="M77" s="98"/>
+      <c r="N77" s="98"/>
+      <c r="O77" s="98"/>
+      <c r="P77" s="98"/>
+      <c r="Q77" s="98"/>
+      <c r="R77" s="98"/>
+      <c r="S77" s="98"/>
+      <c r="T77" s="98"/>
+      <c r="U77" s="98"/>
+      <c r="V77" s="98"/>
       <c r="W77" s="79"/>
       <c r="X77" s="79"/>
       <c r="Y77" s="79"/>
@@ -84651,30 +84616,30 @@
       <c r="AM77" s="7"/>
     </row>
     <row r="78" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="84" t="s">
+      <c r="A78" s="97" t="s">
         <v>994</v>
       </c>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="84"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84"/>
-      <c r="R78" s="84"/>
-      <c r="S78" s="84"/>
-      <c r="T78" s="84"/>
-      <c r="U78" s="84"/>
-      <c r="V78" s="84"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="97"/>
+      <c r="K78" s="97"/>
+      <c r="L78" s="97"/>
+      <c r="M78" s="97"/>
+      <c r="N78" s="97"/>
+      <c r="O78" s="97"/>
+      <c r="P78" s="97"/>
+      <c r="Q78" s="97"/>
+      <c r="R78" s="97"/>
+      <c r="S78" s="97"/>
+      <c r="T78" s="97"/>
+      <c r="U78" s="97"/>
+      <c r="V78" s="97"/>
       <c r="W78" s="79"/>
       <c r="X78" s="79"/>
       <c r="Y78" s="79"/>
@@ -84694,30 +84659,30 @@
       <c r="AM78" s="7"/>
     </row>
     <row r="79" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="97" t="s">
         <v>995</v>
       </c>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
-      <c r="S79" s="84"/>
-      <c r="T79" s="84"/>
-      <c r="U79" s="84"/>
-      <c r="V79" s="84"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="97"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="97"/>
+      <c r="Q79" s="97"/>
+      <c r="R79" s="97"/>
+      <c r="S79" s="97"/>
+      <c r="T79" s="97"/>
+      <c r="U79" s="97"/>
+      <c r="V79" s="97"/>
       <c r="W79" s="79"/>
       <c r="X79" s="79"/>
       <c r="Y79" s="79"/>
@@ -84737,30 +84702,30 @@
       <c r="AM79" s="7"/>
     </row>
     <row r="80" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="97" t="s">
         <v>1606</v>
       </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="R80" s="84"/>
-      <c r="S80" s="84"/>
-      <c r="T80" s="84"/>
-      <c r="U80" s="84"/>
-      <c r="V80" s="84"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="97"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="97"/>
+      <c r="N80" s="97"/>
+      <c r="O80" s="97"/>
+      <c r="P80" s="97"/>
+      <c r="Q80" s="97"/>
+      <c r="R80" s="97"/>
+      <c r="S80" s="97"/>
+      <c r="T80" s="97"/>
+      <c r="U80" s="97"/>
+      <c r="V80" s="97"/>
       <c r="W80" s="79"/>
       <c r="X80" s="79"/>
       <c r="Y80" s="79"/>
@@ -84780,30 +84745,30 @@
       <c r="AM80" s="7"/>
     </row>
     <row r="81" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
-      <c r="M81" s="81"/>
-      <c r="N81" s="81"/>
-      <c r="O81" s="81"/>
-      <c r="P81" s="81"/>
-      <c r="Q81" s="81"/>
-      <c r="R81" s="81"/>
-      <c r="S81" s="81"/>
-      <c r="T81" s="81"/>
-      <c r="U81" s="81"/>
-      <c r="V81" s="81"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="98"/>
+      <c r="K81" s="98"/>
+      <c r="L81" s="98"/>
+      <c r="M81" s="98"/>
+      <c r="N81" s="98"/>
+      <c r="O81" s="98"/>
+      <c r="P81" s="98"/>
+      <c r="Q81" s="98"/>
+      <c r="R81" s="98"/>
+      <c r="S81" s="98"/>
+      <c r="T81" s="98"/>
+      <c r="U81" s="98"/>
+      <c r="V81" s="98"/>
       <c r="W81" s="79"/>
       <c r="X81" s="79"/>
       <c r="Y81" s="79"/>
@@ -84823,30 +84788,30 @@
       <c r="AM81" s="7"/>
     </row>
     <row r="82" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="97" t="s">
         <v>1607</v>
       </c>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
-      <c r="S82" s="84"/>
-      <c r="T82" s="84"/>
-      <c r="U82" s="84"/>
-      <c r="V82" s="84"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="97"/>
+      <c r="K82" s="97"/>
+      <c r="L82" s="97"/>
+      <c r="M82" s="97"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="97"/>
+      <c r="P82" s="97"/>
+      <c r="Q82" s="97"/>
+      <c r="R82" s="97"/>
+      <c r="S82" s="97"/>
+      <c r="T82" s="97"/>
+      <c r="U82" s="97"/>
+      <c r="V82" s="97"/>
       <c r="W82" s="79"/>
       <c r="X82" s="79"/>
       <c r="Y82" s="79"/>
@@ -84866,30 +84831,30 @@
       <c r="AM82" s="7"/>
     </row>
     <row r="83" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="81" t="s">
+      <c r="A83" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
-      <c r="M83" s="81"/>
-      <c r="N83" s="81"/>
-      <c r="O83" s="81"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="81"/>
-      <c r="R83" s="81"/>
-      <c r="S83" s="81"/>
-      <c r="T83" s="81"/>
-      <c r="U83" s="81"/>
-      <c r="V83" s="81"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="98"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="98"/>
+      <c r="L83" s="98"/>
+      <c r="M83" s="98"/>
+      <c r="N83" s="98"/>
+      <c r="O83" s="98"/>
+      <c r="P83" s="98"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="98"/>
+      <c r="S83" s="98"/>
+      <c r="T83" s="98"/>
+      <c r="U83" s="98"/>
+      <c r="V83" s="98"/>
       <c r="W83" s="79"/>
       <c r="X83" s="79"/>
       <c r="Y83" s="79"/>
@@ -84909,30 +84874,30 @@
       <c r="AM83" s="7"/>
     </row>
     <row r="84" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="84"/>
-      <c r="S84" s="84"/>
-      <c r="T84" s="84"/>
-      <c r="U84" s="84"/>
-      <c r="V84" s="84"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="97"/>
+      <c r="L84" s="97"/>
+      <c r="M84" s="97"/>
+      <c r="N84" s="97"/>
+      <c r="O84" s="97"/>
+      <c r="P84" s="97"/>
+      <c r="Q84" s="97"/>
+      <c r="R84" s="97"/>
+      <c r="S84" s="97"/>
+      <c r="T84" s="97"/>
+      <c r="U84" s="97"/>
+      <c r="V84" s="97"/>
       <c r="W84" s="79"/>
       <c r="X84" s="79"/>
       <c r="Y84" s="79"/>
@@ -84952,30 +84917,30 @@
       <c r="AM84" s="7"/>
     </row>
     <row r="85" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="97" t="s">
         <v>996</v>
       </c>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="84"/>
-      <c r="S85" s="84"/>
-      <c r="T85" s="84"/>
-      <c r="U85" s="84"/>
-      <c r="V85" s="84"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="97"/>
+      <c r="N85" s="97"/>
+      <c r="O85" s="97"/>
+      <c r="P85" s="97"/>
+      <c r="Q85" s="97"/>
+      <c r="R85" s="97"/>
+      <c r="S85" s="97"/>
+      <c r="T85" s="97"/>
+      <c r="U85" s="97"/>
+      <c r="V85" s="97"/>
       <c r="W85" s="79"/>
       <c r="X85" s="79"/>
       <c r="Y85" s="79"/>
@@ -84995,30 +84960,30 @@
       <c r="AM85" s="7"/>
     </row>
     <row r="86" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="84" t="s">
+      <c r="A86" s="97" t="s">
         <v>1608</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="84"/>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="84"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="84"/>
-      <c r="R86" s="84"/>
-      <c r="S86" s="84"/>
-      <c r="T86" s="84"/>
-      <c r="U86" s="84"/>
-      <c r="V86" s="84"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="97"/>
+      <c r="O86" s="97"/>
+      <c r="P86" s="97"/>
+      <c r="Q86" s="97"/>
+      <c r="R86" s="97"/>
+      <c r="S86" s="97"/>
+      <c r="T86" s="97"/>
+      <c r="U86" s="97"/>
+      <c r="V86" s="97"/>
       <c r="W86" s="79"/>
       <c r="X86" s="79"/>
       <c r="Y86" s="79"/>
@@ -85038,30 +85003,30 @@
       <c r="AM86" s="7"/>
     </row>
     <row r="87" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="81" t="s">
+      <c r="A87" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
-      <c r="N87" s="81"/>
-      <c r="O87" s="81"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="98"/>
+      <c r="J87" s="98"/>
+      <c r="K87" s="98"/>
+      <c r="L87" s="98"/>
+      <c r="M87" s="98"/>
+      <c r="N87" s="98"/>
+      <c r="O87" s="98"/>
+      <c r="P87" s="98"/>
+      <c r="Q87" s="98"/>
+      <c r="R87" s="98"/>
+      <c r="S87" s="98"/>
+      <c r="T87" s="98"/>
+      <c r="U87" s="98"/>
+      <c r="V87" s="98"/>
       <c r="W87" s="79"/>
       <c r="X87" s="79"/>
       <c r="Y87" s="79"/>
@@ -85081,30 +85046,30 @@
       <c r="AM87" s="7"/>
     </row>
     <row r="88" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="82"/>
-      <c r="L88" s="82"/>
-      <c r="M88" s="82"/>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82"/>
-      <c r="P88" s="82"/>
-      <c r="Q88" s="82"/>
-      <c r="R88" s="82"/>
-      <c r="S88" s="82"/>
-      <c r="T88" s="82"/>
-      <c r="U88" s="82"/>
-      <c r="V88" s="82"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="95"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="95"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="95"/>
+      <c r="J88" s="95"/>
+      <c r="K88" s="95"/>
+      <c r="L88" s="95"/>
+      <c r="M88" s="95"/>
+      <c r="N88" s="95"/>
+      <c r="O88" s="95"/>
+      <c r="P88" s="95"/>
+      <c r="Q88" s="95"/>
+      <c r="R88" s="95"/>
+      <c r="S88" s="95"/>
+      <c r="T88" s="95"/>
+      <c r="U88" s="95"/>
+      <c r="V88" s="95"/>
       <c r="W88" s="79"/>
       <c r="X88" s="79"/>
       <c r="Y88" s="79"/>
@@ -85124,30 +85089,30 @@
       <c r="AM88" s="7"/>
     </row>
     <row r="89" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="84" t="s">
         <v>997</v>
       </c>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="85"/>
-      <c r="O89" s="85"/>
-      <c r="P89" s="85"/>
-      <c r="Q89" s="85"/>
-      <c r="R89" s="85"/>
-      <c r="S89" s="85"/>
-      <c r="T89" s="85"/>
-      <c r="U89" s="85"/>
-      <c r="V89" s="85"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="84"/>
+      <c r="R89" s="84"/>
+      <c r="S89" s="84"/>
+      <c r="T89" s="84"/>
+      <c r="U89" s="84"/>
+      <c r="V89" s="84"/>
       <c r="W89" s="79"/>
       <c r="X89" s="79"/>
       <c r="Y89" s="79"/>
@@ -85167,30 +85132,30 @@
       <c r="AM89" s="7"/>
     </row>
     <row r="90" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="85" t="s">
+      <c r="A90" s="84" t="s">
         <v>1609</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="85"/>
-      <c r="I90" s="85"/>
-      <c r="J90" s="85"/>
-      <c r="K90" s="85"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="85"/>
-      <c r="N90" s="85"/>
-      <c r="O90" s="85"/>
-      <c r="P90" s="85"/>
-      <c r="Q90" s="85"/>
-      <c r="R90" s="85"/>
-      <c r="S90" s="85"/>
-      <c r="T90" s="85"/>
-      <c r="U90" s="85"/>
-      <c r="V90" s="85"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="84"/>
+      <c r="J90" s="84"/>
+      <c r="K90" s="84"/>
+      <c r="L90" s="84"/>
+      <c r="M90" s="84"/>
+      <c r="N90" s="84"/>
+      <c r="O90" s="84"/>
+      <c r="P90" s="84"/>
+      <c r="Q90" s="84"/>
+      <c r="R90" s="84"/>
+      <c r="S90" s="84"/>
+      <c r="T90" s="84"/>
+      <c r="U90" s="84"/>
+      <c r="V90" s="84"/>
       <c r="W90" s="79"/>
       <c r="X90" s="79"/>
       <c r="Y90" s="79"/>
@@ -85210,30 +85175,30 @@
       <c r="AM90" s="7"/>
     </row>
     <row r="91" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="82"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="82"/>
-      <c r="O91" s="82"/>
-      <c r="P91" s="82"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="82"/>
-      <c r="T91" s="82"/>
-      <c r="U91" s="82"/>
-      <c r="V91" s="82"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="95"/>
+      <c r="J91" s="95"/>
+      <c r="K91" s="95"/>
+      <c r="L91" s="95"/>
+      <c r="M91" s="95"/>
+      <c r="N91" s="95"/>
+      <c r="O91" s="95"/>
+      <c r="P91" s="95"/>
+      <c r="Q91" s="95"/>
+      <c r="R91" s="95"/>
+      <c r="S91" s="95"/>
+      <c r="T91" s="95"/>
+      <c r="U91" s="95"/>
+      <c r="V91" s="95"/>
       <c r="W91" s="79"/>
       <c r="X91" s="79"/>
       <c r="Y91" s="79"/>
@@ -85253,30 +85218,30 @@
       <c r="AM91" s="7"/>
     </row>
     <row r="92" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="86" t="s">
+      <c r="A92" s="96" t="s">
         <v>998</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="86"/>
-      <c r="L92" s="86"/>
-      <c r="M92" s="86"/>
-      <c r="N92" s="86"/>
-      <c r="O92" s="86"/>
-      <c r="P92" s="86"/>
-      <c r="Q92" s="86"/>
-      <c r="R92" s="86"/>
-      <c r="S92" s="86"/>
-      <c r="T92" s="86"/>
-      <c r="U92" s="86"/>
-      <c r="V92" s="86"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="96"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="96"/>
+      <c r="I92" s="96"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="96"/>
+      <c r="L92" s="96"/>
+      <c r="M92" s="96"/>
+      <c r="N92" s="96"/>
+      <c r="O92" s="96"/>
+      <c r="P92" s="96"/>
+      <c r="Q92" s="96"/>
+      <c r="R92" s="96"/>
+      <c r="S92" s="96"/>
+      <c r="T92" s="96"/>
+      <c r="U92" s="96"/>
+      <c r="V92" s="96"/>
       <c r="W92" s="79"/>
       <c r="X92" s="79"/>
       <c r="Y92" s="79"/>
@@ -85296,30 +85261,30 @@
       <c r="AM92" s="7"/>
     </row>
     <row r="93" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="84" t="s">
         <v>1610</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-      <c r="P93" s="85"/>
-      <c r="Q93" s="85"/>
-      <c r="R93" s="85"/>
-      <c r="S93" s="85"/>
-      <c r="T93" s="85"/>
-      <c r="U93" s="85"/>
-      <c r="V93" s="85"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="84"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
+      <c r="P93" s="84"/>
+      <c r="Q93" s="84"/>
+      <c r="R93" s="84"/>
+      <c r="S93" s="84"/>
+      <c r="T93" s="84"/>
+      <c r="U93" s="84"/>
+      <c r="V93" s="84"/>
       <c r="W93" s="79"/>
       <c r="X93" s="79"/>
       <c r="Y93" s="79"/>
@@ -85339,30 +85304,30 @@
       <c r="AM93" s="7"/>
     </row>
     <row r="94" spans="1:39" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="92" t="s">
         <v>1611</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
-      <c r="Q94" s="83"/>
-      <c r="R94" s="83"/>
-      <c r="S94" s="83"/>
-      <c r="T94" s="83"/>
-      <c r="U94" s="83"/>
-      <c r="V94" s="83"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="92"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="92"/>
+      <c r="M94" s="92"/>
+      <c r="N94" s="92"/>
+      <c r="O94" s="92"/>
+      <c r="P94" s="92"/>
+      <c r="Q94" s="92"/>
+      <c r="R94" s="92"/>
+      <c r="S94" s="92"/>
+      <c r="T94" s="92"/>
+      <c r="U94" s="92"/>
+      <c r="V94" s="92"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
@@ -85382,30 +85347,30 @@
       <c r="AM94" s="7"/>
     </row>
     <row r="95" spans="1:39" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="82"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-      <c r="J95" s="82"/>
-      <c r="K95" s="82"/>
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82"/>
-      <c r="P95" s="82"/>
-      <c r="Q95" s="82"/>
-      <c r="R95" s="82"/>
-      <c r="S95" s="82"/>
-      <c r="T95" s="82"/>
-      <c r="U95" s="82"/>
-      <c r="V95" s="82"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
+      <c r="H95" s="95"/>
+      <c r="I95" s="95"/>
+      <c r="J95" s="95"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="P95" s="95"/>
+      <c r="Q95" s="95"/>
+      <c r="R95" s="95"/>
+      <c r="S95" s="95"/>
+      <c r="T95" s="95"/>
+      <c r="U95" s="95"/>
+      <c r="V95" s="95"/>
       <c r="W95" s="79"/>
       <c r="X95" s="79"/>
       <c r="Y95" s="79"/>
@@ -85425,30 +85390,30 @@
       <c r="AM95" s="7"/>
     </row>
     <row r="96" spans="1:39" s="16" customFormat="1">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="97" t="s">
         <v>1612</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="84"/>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
-      <c r="R96" s="84"/>
-      <c r="S96" s="84"/>
-      <c r="T96" s="84"/>
-      <c r="U96" s="84"/>
-      <c r="V96" s="84"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="97"/>
+      <c r="G96" s="97"/>
+      <c r="H96" s="97"/>
+      <c r="I96" s="97"/>
+      <c r="J96" s="97"/>
+      <c r="K96" s="97"/>
+      <c r="L96" s="97"/>
+      <c r="M96" s="97"/>
+      <c r="N96" s="97"/>
+      <c r="O96" s="97"/>
+      <c r="P96" s="97"/>
+      <c r="Q96" s="97"/>
+      <c r="R96" s="97"/>
+      <c r="S96" s="97"/>
+      <c r="T96" s="97"/>
+      <c r="U96" s="97"/>
+      <c r="V96" s="97"/>
       <c r="W96" s="79"/>
       <c r="X96" s="79"/>
       <c r="Y96" s="79"/>
@@ -85469,6 +85434,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A87:V87"/>
+    <mergeCell ref="A88:V88"/>
+    <mergeCell ref="A94:V94"/>
+    <mergeCell ref="A95:V95"/>
+    <mergeCell ref="A96:V96"/>
+    <mergeCell ref="A89:V89"/>
+    <mergeCell ref="A90:V90"/>
+    <mergeCell ref="A91:V91"/>
+    <mergeCell ref="A92:V92"/>
+    <mergeCell ref="A93:V93"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A84:V84"/>
+    <mergeCell ref="A85:V85"/>
+    <mergeCell ref="A86:V86"/>
+    <mergeCell ref="A80:V80"/>
+    <mergeCell ref="A81:V81"/>
+    <mergeCell ref="A82:V82"/>
+    <mergeCell ref="A83:V83"/>
+    <mergeCell ref="A75:V75"/>
+    <mergeCell ref="A76:V76"/>
+    <mergeCell ref="A77:V77"/>
+    <mergeCell ref="A78:V78"/>
+    <mergeCell ref="A79:V79"/>
+    <mergeCell ref="A70:V70"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="A48:V48"/>
+    <mergeCell ref="A49:V49"/>
+    <mergeCell ref="A50:V50"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="A73:V73"/>
+    <mergeCell ref="A74:V74"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A69:V69"/>
+    <mergeCell ref="A60:V60"/>
+    <mergeCell ref="A61:V61"/>
+    <mergeCell ref="A62:V62"/>
+    <mergeCell ref="A63:V63"/>
+    <mergeCell ref="A64:V64"/>
+    <mergeCell ref="A55:V55"/>
+    <mergeCell ref="A56:V56"/>
+    <mergeCell ref="A57:V57"/>
+    <mergeCell ref="A58:V58"/>
+    <mergeCell ref="A59:V59"/>
     <mergeCell ref="A52:V52"/>
     <mergeCell ref="A53:V53"/>
     <mergeCell ref="A54:V54"/>
@@ -85484,55 +85497,7 @@
     <mergeCell ref="A42:V42"/>
     <mergeCell ref="A43:V43"/>
     <mergeCell ref="A44:V44"/>
-    <mergeCell ref="A55:V55"/>
-    <mergeCell ref="A56:V56"/>
-    <mergeCell ref="A57:V57"/>
-    <mergeCell ref="A58:V58"/>
-    <mergeCell ref="A59:V59"/>
-    <mergeCell ref="A60:V60"/>
-    <mergeCell ref="A61:V61"/>
-    <mergeCell ref="A62:V62"/>
-    <mergeCell ref="A63:V63"/>
-    <mergeCell ref="A64:V64"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="A73:V73"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="A67:V67"/>
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A69:V69"/>
     <mergeCell ref="A45:V45"/>
-    <mergeCell ref="A46:V46"/>
-    <mergeCell ref="A47:V47"/>
-    <mergeCell ref="A48:V48"/>
-    <mergeCell ref="A49:V49"/>
-    <mergeCell ref="A50:V50"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A84:V84"/>
-    <mergeCell ref="A85:V85"/>
-    <mergeCell ref="A86:V86"/>
-    <mergeCell ref="A80:V80"/>
-    <mergeCell ref="A81:V81"/>
-    <mergeCell ref="A82:V82"/>
-    <mergeCell ref="A83:V83"/>
-    <mergeCell ref="A75:V75"/>
-    <mergeCell ref="A76:V76"/>
-    <mergeCell ref="A77:V77"/>
-    <mergeCell ref="A78:V78"/>
-    <mergeCell ref="A79:V79"/>
-    <mergeCell ref="A70:V70"/>
-    <mergeCell ref="A71:V71"/>
-    <mergeCell ref="A87:V87"/>
-    <mergeCell ref="A88:V88"/>
-    <mergeCell ref="A94:V94"/>
-    <mergeCell ref="A95:V95"/>
-    <mergeCell ref="A96:V96"/>
-    <mergeCell ref="A89:V89"/>
-    <mergeCell ref="A90:V90"/>
-    <mergeCell ref="A91:V91"/>
-    <mergeCell ref="A92:V92"/>
-    <mergeCell ref="A93:V93"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AN32">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
